--- a/data/output/form/all_comparisons.xlsx
+++ b/data/output/form/all_comparisons.xlsx
@@ -453,7 +453,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K212"/>
+  <dimension ref="A1:M212"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -462,16 +462,18 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="50" customWidth="1" min="1" max="1"/>
-    <col width="21" customWidth="1" min="2" max="2"/>
+    <col width="20" customWidth="1" min="2" max="2"/>
     <col width="26" customWidth="1" min="3" max="3"/>
     <col width="27" customWidth="1" min="4" max="4"/>
     <col width="22" customWidth="1" min="5" max="5"/>
     <col width="23" customWidth="1" min="6" max="6"/>
-    <col width="28" customWidth="1" min="7" max="7"/>
-    <col width="46" customWidth="1" min="8" max="8"/>
-    <col width="47" customWidth="1" min="9" max="9"/>
-    <col width="31" customWidth="1" min="10" max="10"/>
-    <col width="31" customWidth="1" min="11" max="11"/>
+    <col width="23" customWidth="1" min="7" max="7"/>
+    <col width="28" customWidth="1" min="8" max="8"/>
+    <col width="46" customWidth="1" min="9" max="9"/>
+    <col width="47" customWidth="1" min="10" max="10"/>
+    <col width="47" customWidth="1" min="11" max="11"/>
+    <col width="31" customWidth="1" min="12" max="12"/>
+    <col width="31" customWidth="1" min="13" max="13"/>
   </cols>
   <sheetData>
     <row r="1" ht="22" customHeight="1">
@@ -482,7 +484,7 @@
       </c>
       <c r="B1" s="4" t="inlineStr">
         <is>
-          <t>Median(59th loop)</t>
+          <t>Median(8th loop)</t>
         </is>
       </c>
       <c r="C1" s="4" t="inlineStr">
@@ -507,25 +509,35 @@
       </c>
       <c r="G1" s="4" t="inlineStr">
         <is>
+          <t>Abnormal(46th loop)</t>
+        </is>
+      </c>
+      <c r="H1" s="4" t="inlineStr">
+        <is>
           <t>Time_Difference(Max-Min)</t>
         </is>
       </c>
-      <c r="H1" s="4" t="inlineStr">
+      <c r="I1" s="4" t="inlineStr">
         <is>
           <t>Time_Difference(Abnormal(5th loop)-Median)</t>
         </is>
       </c>
-      <c r="I1" s="4" t="inlineStr">
+      <c r="J1" s="4" t="inlineStr">
         <is>
           <t>Time_Difference(Abnormal(36th loop)-Median)</t>
         </is>
       </c>
-      <c r="J1" s="4" t="inlineStr">
+      <c r="K1" s="4" t="inlineStr">
+        <is>
+          <t>Time_Difference(Abnormal(46th loop)-Median)</t>
+        </is>
+      </c>
+      <c r="L1" s="4" t="inlineStr">
         <is>
           <t>Time_Difference(Max-Median)</t>
         </is>
       </c>
-      <c r="K1" s="4" t="inlineStr">
+      <c r="M1" s="4" t="inlineStr">
         <is>
           <t>Time_Difference(Min-Median)</t>
         </is>
@@ -538,7 +550,7 @@
         </is>
       </c>
       <c r="B2" s="3" t="n">
-        <v>5.4584</v>
+        <v>3.5507</v>
       </c>
       <c r="C2" s="3" t="n">
         <v>3.4516</v>
@@ -553,19 +565,25 @@
         <v>3.6244</v>
       </c>
       <c r="G2" s="3" t="n">
+        <v>5.5266</v>
+      </c>
+      <c r="H2" s="3" t="n">
         <v>0.09470000000000001</v>
       </c>
-      <c r="H2" s="5" t="n">
-        <v>-1.5711</v>
-      </c>
-      <c r="I2" s="5" t="n">
-        <v>-1.834</v>
-      </c>
-      <c r="J2" s="5" t="n">
-        <v>-2.0068</v>
+      <c r="I2" s="3" t="n">
+        <v>0.3366</v>
+      </c>
+      <c r="J2" s="3" t="n">
+        <v>0.0737</v>
       </c>
       <c r="K2" s="5" t="n">
-        <v>-2.1015</v>
+        <v>1.9759</v>
+      </c>
+      <c r="L2" s="3" t="n">
+        <v>-0.09909999999999999</v>
+      </c>
+      <c r="M2" s="3" t="n">
+        <v>-0.1938</v>
       </c>
     </row>
     <row r="3" ht="22" customHeight="1">
@@ -575,7 +593,7 @@
         </is>
       </c>
       <c r="B3" s="3" t="n">
-        <v>3.0279</v>
+        <v>3.1699</v>
       </c>
       <c r="C3" s="3" t="n">
         <v>3.0064</v>
@@ -590,19 +608,25 @@
         <v>3.0886</v>
       </c>
       <c r="G3" s="3" t="n">
+        <v>3.2539</v>
+      </c>
+      <c r="H3" s="3" t="n">
         <v>-0.0868</v>
       </c>
-      <c r="H3" s="3" t="n">
-        <v>0.1589</v>
-      </c>
       <c r="I3" s="3" t="n">
-        <v>0.0607</v>
+        <v>0.0169</v>
       </c>
       <c r="J3" s="3" t="n">
-        <v>-0.0215</v>
+        <v>-0.0813</v>
       </c>
       <c r="K3" s="3" t="n">
-        <v>0.0653</v>
+        <v>0.08400000000000001</v>
+      </c>
+      <c r="L3" s="3" t="n">
+        <v>-0.1635</v>
+      </c>
+      <c r="M3" s="3" t="n">
+        <v>-0.0767</v>
       </c>
     </row>
     <row r="4" ht="22" customHeight="1">
@@ -612,7 +636,7 @@
         </is>
       </c>
       <c r="B4" s="3" t="n">
-        <v>8.5608</v>
+        <v>9.257899999999999</v>
       </c>
       <c r="C4" s="3" t="n">
         <v>8.5648</v>
@@ -627,19 +651,25 @@
         <v>45.6884</v>
       </c>
       <c r="G4" s="3" t="n">
+        <v>8.609</v>
+      </c>
+      <c r="H4" s="3" t="n">
         <v>-0.0944</v>
       </c>
-      <c r="H4" s="5" t="n">
-        <v>3.7426</v>
-      </c>
       <c r="I4" s="5" t="n">
-        <v>37.1276</v>
-      </c>
-      <c r="J4" s="3" t="n">
-        <v>0.004</v>
+        <v>3.0455</v>
+      </c>
+      <c r="J4" s="5" t="n">
+        <v>36.4305</v>
       </c>
       <c r="K4" s="3" t="n">
-        <v>0.0984</v>
+        <v>-0.6489</v>
+      </c>
+      <c r="L4" s="3" t="n">
+        <v>-0.6931</v>
+      </c>
+      <c r="M4" s="3" t="n">
+        <v>-0.5987</v>
       </c>
     </row>
     <row r="5" ht="22" customHeight="1">
@@ -649,7 +679,7 @@
         </is>
       </c>
       <c r="B5" s="3" t="n">
-        <v>62.4077</v>
+        <v>61.745</v>
       </c>
       <c r="C5" s="3" t="n">
         <v>62.4245</v>
@@ -663,20 +693,26 @@
       <c r="F5" s="3" t="n">
         <v>61.6057</v>
       </c>
-      <c r="G5" s="5" t="n">
+      <c r="G5" s="3" t="n">
+        <v>61.7977</v>
+      </c>
+      <c r="H5" s="5" t="n">
         <v>1.2989</v>
       </c>
-      <c r="H5" s="5" t="n">
-        <v>32.1499</v>
-      </c>
-      <c r="I5" s="3" t="n">
-        <v>-0.802</v>
+      <c r="I5" s="5" t="n">
+        <v>32.8126</v>
       </c>
       <c r="J5" s="3" t="n">
-        <v>0.0168</v>
-      </c>
-      <c r="K5" s="5" t="n">
-        <v>-1.2821</v>
+        <v>-0.1393</v>
+      </c>
+      <c r="K5" s="3" t="n">
+        <v>0.0527</v>
+      </c>
+      <c r="L5" s="3" t="n">
+        <v>0.6795</v>
+      </c>
+      <c r="M5" s="3" t="n">
+        <v>-0.6194</v>
       </c>
     </row>
     <row r="6" ht="22" customHeight="1">
@@ -686,7 +722,7 @@
         </is>
       </c>
       <c r="B6" s="3" t="n">
-        <v>2424.6989</v>
+        <v>2426.5794</v>
       </c>
       <c r="C6" s="3" t="n">
         <v>2666.5478</v>
@@ -700,20 +736,26 @@
       <c r="F6" s="3" t="n">
         <v>2455.3162</v>
       </c>
-      <c r="G6" s="5" t="n">
+      <c r="G6" s="3" t="n">
+        <v>2436.3875</v>
+      </c>
+      <c r="H6" s="5" t="n">
         <v>255.8205</v>
       </c>
-      <c r="H6" s="5" t="n">
-        <v>84.295</v>
-      </c>
       <c r="I6" s="5" t="n">
-        <v>30.6173</v>
+        <v>82.4145</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>241.8489</v>
+        <v>28.7368</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>-13.9716</v>
+        <v>9.8081</v>
+      </c>
+      <c r="L6" s="5" t="n">
+        <v>239.9684</v>
+      </c>
+      <c r="M6" s="5" t="n">
+        <v>-15.8521</v>
       </c>
     </row>
     <row r="7" ht="22" customHeight="1">
@@ -723,7 +765,7 @@
         </is>
       </c>
       <c r="B7" s="3" t="n">
-        <v>141.9421</v>
+        <v>141.0573</v>
       </c>
       <c r="C7" s="3" t="n">
         <v>141.235</v>
@@ -738,19 +780,25 @@
         <v>144.4208</v>
       </c>
       <c r="G7" s="3" t="n">
+        <v>144.9298</v>
+      </c>
+      <c r="H7" s="3" t="n">
         <v>0.3283</v>
       </c>
-      <c r="H7" s="3" t="n">
-        <v>0.6856</v>
-      </c>
       <c r="I7" s="5" t="n">
-        <v>2.4787</v>
-      </c>
-      <c r="J7" s="3" t="n">
-        <v>-0.7071</v>
+        <v>1.5704</v>
+      </c>
+      <c r="J7" s="5" t="n">
+        <v>3.3635</v>
       </c>
       <c r="K7" s="5" t="n">
-        <v>-1.0354</v>
+        <v>3.8725</v>
+      </c>
+      <c r="L7" s="3" t="n">
+        <v>0.1777</v>
+      </c>
+      <c r="M7" s="3" t="n">
+        <v>-0.1506</v>
       </c>
     </row>
     <row r="8" ht="22" customHeight="1">
@@ -760,7 +808,7 @@
         </is>
       </c>
       <c r="B8" s="3" t="n">
-        <v>2646.096</v>
+        <v>2645.36</v>
       </c>
       <c r="C8" s="3" t="n">
         <v>2885.23</v>
@@ -774,20 +822,26 @@
       <c r="F8" s="3" t="n">
         <v>2713.744</v>
       </c>
-      <c r="G8" s="5" t="n">
+      <c r="G8" s="3" t="n">
+        <v>2660.505</v>
+      </c>
+      <c r="H8" s="5" t="n">
         <v>257.361</v>
       </c>
-      <c r="H8" s="5" t="n">
-        <v>119.461</v>
-      </c>
       <c r="I8" s="5" t="n">
-        <v>67.648</v>
+        <v>120.197</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>239.134</v>
+        <v>68.384</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>-18.227</v>
+        <v>15.145</v>
+      </c>
+      <c r="L8" s="5" t="n">
+        <v>239.87</v>
+      </c>
+      <c r="M8" s="5" t="n">
+        <v>-17.491</v>
       </c>
     </row>
     <row r="9" ht="22" customHeight="1">
@@ -815,15 +869,21 @@
         <v>0.0002</v>
       </c>
       <c r="H9" s="3" t="n">
-        <v>0</v>
+        <v>0.0002</v>
       </c>
       <c r="I9" s="3" t="n">
         <v>0</v>
       </c>
       <c r="J9" s="3" t="n">
-        <v>0.0001</v>
+        <v>0</v>
       </c>
       <c r="K9" s="3" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="L9" s="3" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="M9" s="3" t="n">
         <v>-0.0001</v>
       </c>
     </row>
@@ -863,6 +923,12 @@
       <c r="K10" s="3" t="n">
         <v>0</v>
       </c>
+      <c r="L10" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M10" s="3" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="11" ht="22" customHeight="1">
       <c r="A11" s="3" t="inlineStr">
@@ -889,7 +955,7 @@
         <v>0.0001</v>
       </c>
       <c r="H11" s="3" t="n">
-        <v>0</v>
+        <v>0.0001</v>
       </c>
       <c r="I11" s="3" t="n">
         <v>0</v>
@@ -898,6 +964,12 @@
         <v>0</v>
       </c>
       <c r="K11" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L11" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M11" s="3" t="n">
         <v>-0.0001</v>
       </c>
     </row>
@@ -932,9 +1004,15 @@
         <v>0</v>
       </c>
       <c r="J12" s="3" t="n">
-        <v>-0.0001</v>
+        <v>0</v>
       </c>
       <c r="K12" s="3" t="n">
+        <v>-0.0001</v>
+      </c>
+      <c r="L12" s="3" t="n">
+        <v>-0.0001</v>
+      </c>
+      <c r="M12" s="3" t="n">
         <v>-0.0001</v>
       </c>
     </row>
@@ -974,6 +1052,12 @@
       <c r="K13" s="3" t="n">
         <v>0</v>
       </c>
+      <c r="L13" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M13" s="3" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="14" ht="22" customHeight="1">
       <c r="A14" s="3" t="inlineStr">
@@ -1000,7 +1084,7 @@
         <v>0.0001</v>
       </c>
       <c r="H14" s="3" t="n">
-        <v>0</v>
+        <v>0.0001</v>
       </c>
       <c r="I14" s="3" t="n">
         <v>0</v>
@@ -1009,6 +1093,12 @@
         <v>0</v>
       </c>
       <c r="K14" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L14" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M14" s="3" t="n">
         <v>-0.0001</v>
       </c>
     </row>
@@ -1048,6 +1138,12 @@
       <c r="K15" s="3" t="n">
         <v>0</v>
       </c>
+      <c r="L15" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M15" s="3" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="16" ht="22" customHeight="1">
       <c r="A16" s="3" t="inlineStr">
@@ -1056,7 +1152,7 @@
         </is>
       </c>
       <c r="B16" s="3" t="n">
-        <v>0</v>
+        <v>0.0001</v>
       </c>
       <c r="C16" s="3" t="n">
         <v>0.0001</v>
@@ -1080,10 +1176,16 @@
         <v>0</v>
       </c>
       <c r="J16" s="3" t="n">
-        <v>0.0001</v>
+        <v>-0.0001</v>
       </c>
       <c r="K16" s="3" t="n">
         <v>0</v>
+      </c>
+      <c r="L16" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M16" s="3" t="n">
+        <v>-0.0001</v>
       </c>
     </row>
     <row r="17" ht="22" customHeight="1">
@@ -1122,6 +1224,12 @@
       <c r="K17" s="3" t="n">
         <v>0</v>
       </c>
+      <c r="L17" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M17" s="3" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="18" ht="22" customHeight="1">
       <c r="A18" s="3" t="inlineStr">
@@ -1148,7 +1256,7 @@
         <v>0.0001</v>
       </c>
       <c r="H18" s="3" t="n">
-        <v>0</v>
+        <v>0.0001</v>
       </c>
       <c r="I18" s="3" t="n">
         <v>0</v>
@@ -1157,6 +1265,12 @@
         <v>0</v>
       </c>
       <c r="K18" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L18" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M18" s="3" t="n">
         <v>-0.0001</v>
       </c>
     </row>
@@ -1196,6 +1310,12 @@
       <c r="K19" s="3" t="n">
         <v>0</v>
       </c>
+      <c r="L19" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M19" s="3" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="20" ht="22" customHeight="1">
       <c r="A20" s="3" t="inlineStr">
@@ -1222,7 +1342,7 @@
         <v>0.0001</v>
       </c>
       <c r="H20" s="3" t="n">
-        <v>0</v>
+        <v>0.0001</v>
       </c>
       <c r="I20" s="3" t="n">
         <v>0</v>
@@ -1231,6 +1351,12 @@
         <v>0</v>
       </c>
       <c r="K20" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L20" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M20" s="3" t="n">
         <v>-0.0001</v>
       </c>
     </row>
@@ -1241,7 +1367,7 @@
         </is>
       </c>
       <c r="B21" s="3" t="n">
-        <v>0.007900000000000001</v>
+        <v>0.0077</v>
       </c>
       <c r="C21" s="3" t="n">
         <v>0.0078</v>
@@ -1259,16 +1385,22 @@
         <v>0.0078</v>
       </c>
       <c r="H21" s="3" t="n">
+        <v>0.0078</v>
+      </c>
+      <c r="I21" s="3" t="n">
+        <v>0.0005999999999999999</v>
+      </c>
+      <c r="J21" s="3" t="n">
         <v>0.0004</v>
       </c>
-      <c r="I21" s="3" t="n">
-        <v>0.0002</v>
-      </c>
-      <c r="J21" s="3" t="n">
-        <v>-0.0001</v>
-      </c>
       <c r="K21" s="3" t="n">
-        <v>-0.007900000000000001</v>
+        <v>0.0001</v>
+      </c>
+      <c r="L21" s="3" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="M21" s="3" t="n">
+        <v>-0.0077</v>
       </c>
     </row>
     <row r="22" ht="22" customHeight="1">
@@ -1278,7 +1410,7 @@
         </is>
       </c>
       <c r="B22" s="3" t="n">
-        <v>0.2682</v>
+        <v>0.2679</v>
       </c>
       <c r="C22" s="3" t="n">
         <v>0.2679</v>
@@ -1293,19 +1425,25 @@
         <v>0.2691</v>
       </c>
       <c r="G22" s="3" t="n">
+        <v>0.2684</v>
+      </c>
+      <c r="H22" s="3" t="n">
         <v>0.2666</v>
       </c>
-      <c r="H22" s="3" t="n">
-        <v>-0.0005999999999999999</v>
-      </c>
       <c r="I22" s="3" t="n">
-        <v>0.0009</v>
+        <v>-0.0003</v>
       </c>
       <c r="J22" s="3" t="n">
-        <v>-0.0003</v>
+        <v>0.0012</v>
       </c>
       <c r="K22" s="3" t="n">
-        <v>-0.2669</v>
+        <v>0.0005</v>
+      </c>
+      <c r="L22" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M22" s="3" t="n">
+        <v>-0.2666</v>
       </c>
     </row>
     <row r="23" ht="22" customHeight="1">
@@ -1315,7 +1453,7 @@
         </is>
       </c>
       <c r="B23" s="3" t="n">
-        <v>0.0063</v>
+        <v>0.0065</v>
       </c>
       <c r="C23" s="3" t="n">
         <v>0.0065</v>
@@ -1333,16 +1471,22 @@
         <v>0.0065</v>
       </c>
       <c r="H23" s="3" t="n">
-        <v>0.0001</v>
+        <v>0.0065</v>
       </c>
       <c r="I23" s="3" t="n">
         <v>-0.0001</v>
       </c>
       <c r="J23" s="3" t="n">
-        <v>0.0002</v>
+        <v>-0.0003</v>
       </c>
       <c r="K23" s="3" t="n">
-        <v>-0.0063</v>
+        <v>0</v>
+      </c>
+      <c r="L23" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M23" s="3" t="n">
+        <v>-0.0065</v>
       </c>
     </row>
     <row r="24" ht="22" customHeight="1">
@@ -1352,7 +1496,7 @@
         </is>
       </c>
       <c r="B24" s="3" t="n">
-        <v>0.0065</v>
+        <v>0.0067</v>
       </c>
       <c r="C24" s="3" t="n">
         <v>0.0067</v>
@@ -1367,19 +1511,25 @@
         <v>0.0069</v>
       </c>
       <c r="G24" s="3" t="n">
+        <v>0.0066</v>
+      </c>
+      <c r="H24" s="3" t="n">
         <v>0.0067</v>
       </c>
-      <c r="H24" s="3" t="n">
-        <v>0.0003</v>
-      </c>
       <c r="I24" s="3" t="n">
-        <v>0.0004</v>
+        <v>0.0001</v>
       </c>
       <c r="J24" s="3" t="n">
         <v>0.0002</v>
       </c>
       <c r="K24" s="3" t="n">
-        <v>-0.0065</v>
+        <v>-0.0001</v>
+      </c>
+      <c r="L24" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M24" s="3" t="n">
+        <v>-0.0067</v>
       </c>
     </row>
     <row r="25" ht="22" customHeight="1">
@@ -1389,7 +1539,7 @@
         </is>
       </c>
       <c r="B25" s="3" t="n">
-        <v>0.0065</v>
+        <v>0.0066</v>
       </c>
       <c r="C25" s="3" t="n">
         <v>0.0066</v>
@@ -1407,16 +1557,22 @@
         <v>0.0066</v>
       </c>
       <c r="H25" s="3" t="n">
+        <v>0.0066</v>
+      </c>
+      <c r="I25" s="3" t="n">
+        <v>-0.0003</v>
+      </c>
+      <c r="J25" s="3" t="n">
         <v>-0.0002</v>
       </c>
-      <c r="I25" s="3" t="n">
-        <v>-0.0001</v>
-      </c>
-      <c r="J25" s="3" t="n">
-        <v>0.0001</v>
-      </c>
       <c r="K25" s="3" t="n">
-        <v>-0.0065</v>
+        <v>0</v>
+      </c>
+      <c r="L25" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M25" s="3" t="n">
+        <v>-0.0066</v>
       </c>
     </row>
     <row r="26" ht="22" customHeight="1">
@@ -1444,7 +1600,7 @@
         <v>0.0117</v>
       </c>
       <c r="H26" s="3" t="n">
-        <v>0</v>
+        <v>0.0117</v>
       </c>
       <c r="I26" s="3" t="n">
         <v>0</v>
@@ -1453,6 +1609,12 @@
         <v>0</v>
       </c>
       <c r="K26" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L26" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M26" s="3" t="n">
         <v>-0.0117</v>
       </c>
     </row>
@@ -1463,7 +1625,7 @@
         </is>
       </c>
       <c r="B27" s="3" t="n">
-        <v>0.008200000000000001</v>
+        <v>0.0083</v>
       </c>
       <c r="C27" s="3" t="n">
         <v>0.008399999999999901</v>
@@ -1478,19 +1640,25 @@
         <v>0.0083</v>
       </c>
       <c r="G27" s="3" t="n">
+        <v>0.008200000000000001</v>
+      </c>
+      <c r="H27" s="3" t="n">
         <v>0.008399999999999999</v>
       </c>
-      <c r="H27" s="3" t="n">
-        <v>0</v>
-      </c>
       <c r="I27" s="3" t="n">
-        <v>0.0001</v>
+        <v>-0.0001</v>
       </c>
       <c r="J27" s="3" t="n">
-        <v>0.0002</v>
+        <v>0</v>
       </c>
       <c r="K27" s="3" t="n">
-        <v>-0.008200000000000001</v>
+        <v>-0.0001</v>
+      </c>
+      <c r="L27" s="3" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="M27" s="3" t="n">
+        <v>-0.0083</v>
       </c>
     </row>
     <row r="28" ht="22" customHeight="1">
@@ -1500,7 +1668,7 @@
         </is>
       </c>
       <c r="B28" s="3" t="n">
-        <v>0.0091</v>
+        <v>0.0089999999999999</v>
       </c>
       <c r="C28" s="3" t="n">
         <v>0.0089999999999999</v>
@@ -1515,19 +1683,25 @@
         <v>0.0091</v>
       </c>
       <c r="G28" s="3" t="n">
+        <v>0.0089999999999999</v>
+      </c>
+      <c r="H28" s="3" t="n">
         <v>0.008999999999999999</v>
       </c>
-      <c r="H28" s="3" t="n">
-        <v>-0.0001</v>
-      </c>
       <c r="I28" s="3" t="n">
         <v>0</v>
       </c>
       <c r="J28" s="3" t="n">
-        <v>-0.0001</v>
+        <v>0.0001</v>
       </c>
       <c r="K28" s="3" t="n">
-        <v>-0.0091</v>
+        <v>0</v>
+      </c>
+      <c r="L28" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M28" s="3" t="n">
+        <v>-0.008999999999999999</v>
       </c>
     </row>
     <row r="29" ht="22" customHeight="1">
@@ -1555,15 +1729,21 @@
         <v>0.0232</v>
       </c>
       <c r="H29" s="3" t="n">
-        <v>0.0001</v>
+        <v>0.0232</v>
       </c>
       <c r="I29" s="3" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="J29" s="3" t="n">
         <v>-0.0002</v>
       </c>
-      <c r="J29" s="3" t="n">
-        <v>-0.0001</v>
-      </c>
       <c r="K29" s="3" t="n">
+        <v>-0.0002</v>
+      </c>
+      <c r="L29" s="3" t="n">
+        <v>-0.0001</v>
+      </c>
+      <c r="M29" s="3" t="n">
         <v>-0.0233</v>
       </c>
     </row>
@@ -1574,7 +1754,7 @@
         </is>
       </c>
       <c r="B30" s="3" t="n">
-        <v>0.0065</v>
+        <v>0.0066</v>
       </c>
       <c r="C30" s="3" t="n">
         <v>0.0066</v>
@@ -1589,19 +1769,25 @@
         <v>0.0065</v>
       </c>
       <c r="G30" s="3" t="n">
+        <v>0.0065</v>
+      </c>
+      <c r="H30" s="3" t="n">
         <v>0.0066</v>
       </c>
-      <c r="H30" s="3" t="n">
-        <v>0.0001</v>
-      </c>
       <c r="I30" s="3" t="n">
         <v>0</v>
       </c>
       <c r="J30" s="3" t="n">
-        <v>0.0001</v>
+        <v>-0.0001</v>
       </c>
       <c r="K30" s="3" t="n">
-        <v>-0.0065</v>
+        <v>-0.0001</v>
+      </c>
+      <c r="L30" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M30" s="3" t="n">
+        <v>-0.0066</v>
       </c>
     </row>
     <row r="31" ht="22" customHeight="1">
@@ -1611,7 +1797,7 @@
         </is>
       </c>
       <c r="B31" s="3" t="n">
-        <v>0.0066</v>
+        <v>0.0067</v>
       </c>
       <c r="C31" s="3" t="n">
         <v>0.0066</v>
@@ -1626,19 +1812,25 @@
         <v>0.0066</v>
       </c>
       <c r="G31" s="3" t="n">
+        <v>0.0067</v>
+      </c>
+      <c r="H31" s="3" t="n">
         <v>0.0066</v>
       </c>
-      <c r="H31" s="3" t="n">
-        <v>0</v>
-      </c>
       <c r="I31" s="3" t="n">
-        <v>0</v>
+        <v>-0.0001</v>
       </c>
       <c r="J31" s="3" t="n">
-        <v>0</v>
+        <v>-0.0001</v>
       </c>
       <c r="K31" s="3" t="n">
-        <v>-0.0066</v>
+        <v>0</v>
+      </c>
+      <c r="L31" s="3" t="n">
+        <v>-0.0001</v>
+      </c>
+      <c r="M31" s="3" t="n">
+        <v>-0.0067</v>
       </c>
     </row>
     <row r="32" ht="22" customHeight="1">
@@ -1648,7 +1840,7 @@
         </is>
       </c>
       <c r="B32" s="3" t="n">
-        <v>0.0112</v>
+        <v>0.0113</v>
       </c>
       <c r="C32" s="3" t="n">
         <v>0.0112</v>
@@ -1663,19 +1855,25 @@
         <v>0.0112</v>
       </c>
       <c r="G32" s="3" t="n">
+        <v>0.0114</v>
+      </c>
+      <c r="H32" s="3" t="n">
         <v>0.0112</v>
       </c>
-      <c r="H32" s="3" t="n">
-        <v>0</v>
-      </c>
       <c r="I32" s="3" t="n">
-        <v>0</v>
+        <v>-0.0001</v>
       </c>
       <c r="J32" s="3" t="n">
-        <v>0</v>
+        <v>-0.0001</v>
       </c>
       <c r="K32" s="3" t="n">
-        <v>-0.0112</v>
+        <v>0.0001</v>
+      </c>
+      <c r="L32" s="3" t="n">
+        <v>-0.0001</v>
+      </c>
+      <c r="M32" s="3" t="n">
+        <v>-0.0113</v>
       </c>
     </row>
     <row r="33" ht="22" customHeight="1">
@@ -1685,7 +1883,7 @@
         </is>
       </c>
       <c r="B33" s="3" t="n">
-        <v>0.0104</v>
+        <v>0.0106</v>
       </c>
       <c r="C33" s="3" t="n">
         <v>0.0103</v>
@@ -1700,19 +1898,25 @@
         <v>0.0104</v>
       </c>
       <c r="G33" s="3" t="n">
+        <v>0.0104</v>
+      </c>
+      <c r="H33" s="3" t="n">
         <v>0.0103</v>
       </c>
-      <c r="H33" s="3" t="n">
-        <v>-0.0001</v>
-      </c>
       <c r="I33" s="3" t="n">
-        <v>0</v>
+        <v>-0.0003</v>
       </c>
       <c r="J33" s="3" t="n">
-        <v>-0.0001</v>
+        <v>-0.0002</v>
       </c>
       <c r="K33" s="3" t="n">
-        <v>-0.0104</v>
+        <v>-0.0002</v>
+      </c>
+      <c r="L33" s="3" t="n">
+        <v>-0.0003</v>
+      </c>
+      <c r="M33" s="3" t="n">
+        <v>-0.0106</v>
       </c>
     </row>
     <row r="34" ht="22" customHeight="1">
@@ -1722,7 +1926,7 @@
         </is>
       </c>
       <c r="B34" s="3" t="n">
-        <v>0.0222</v>
+        <v>0.0223</v>
       </c>
       <c r="C34" s="3" t="n">
         <v>0.0225</v>
@@ -1737,19 +1941,25 @@
         <v>0.0225</v>
       </c>
       <c r="G34" s="3" t="n">
+        <v>0.0222</v>
+      </c>
+      <c r="H34" s="3" t="n">
         <v>0.0225</v>
       </c>
-      <c r="H34" s="3" t="n">
-        <v>0.0001</v>
-      </c>
       <c r="I34" s="3" t="n">
-        <v>0.0003</v>
+        <v>0</v>
       </c>
       <c r="J34" s="3" t="n">
-        <v>0.0003</v>
+        <v>0.0002</v>
       </c>
       <c r="K34" s="3" t="n">
-        <v>-0.0222</v>
+        <v>-0.0001</v>
+      </c>
+      <c r="L34" s="3" t="n">
+        <v>0.0002</v>
+      </c>
+      <c r="M34" s="3" t="n">
+        <v>-0.0223</v>
       </c>
     </row>
     <row r="35" ht="22" customHeight="1">
@@ -1759,7 +1969,7 @@
         </is>
       </c>
       <c r="B35" s="3" t="n">
-        <v>0.0186</v>
+        <v>0.0184</v>
       </c>
       <c r="C35" s="3" t="n">
         <v>0.0186</v>
@@ -1774,19 +1984,25 @@
         <v>0.0184</v>
       </c>
       <c r="G35" s="3" t="n">
+        <v>0.0185</v>
+      </c>
+      <c r="H35" s="3" t="n">
         <v>0.0186</v>
       </c>
-      <c r="H35" s="3" t="n">
-        <v>0</v>
-      </c>
       <c r="I35" s="3" t="n">
-        <v>-0.0002</v>
+        <v>0.0002</v>
       </c>
       <c r="J35" s="3" t="n">
         <v>0</v>
       </c>
       <c r="K35" s="3" t="n">
-        <v>-0.0186</v>
+        <v>0.0001</v>
+      </c>
+      <c r="L35" s="3" t="n">
+        <v>0.0002</v>
+      </c>
+      <c r="M35" s="3" t="n">
+        <v>-0.0184</v>
       </c>
     </row>
     <row r="36" ht="22" customHeight="1">
@@ -1811,18 +2027,24 @@
         <v>0.0496</v>
       </c>
       <c r="G36" s="3" t="n">
+        <v>0.0498</v>
+      </c>
+      <c r="H36" s="3" t="n">
         <v>0.0185</v>
       </c>
-      <c r="H36" s="3" t="n">
+      <c r="I36" s="3" t="n">
         <v>0.0008</v>
       </c>
-      <c r="I36" s="3" t="n">
+      <c r="J36" s="3" t="n">
         <v>0.001</v>
       </c>
-      <c r="J36" s="3" t="n">
+      <c r="K36" s="3" t="n">
+        <v>0.0012</v>
+      </c>
+      <c r="L36" s="3" t="n">
         <v>-0.0035</v>
       </c>
-      <c r="K36" s="3" t="n">
+      <c r="M36" s="3" t="n">
         <v>-0.022</v>
       </c>
     </row>
@@ -1833,7 +2055,7 @@
         </is>
       </c>
       <c r="B37" s="3" t="n">
-        <v>8.9659</v>
+        <v>8.987500000000001</v>
       </c>
       <c r="C37" s="3" t="n">
         <v>8.9666</v>
@@ -1848,19 +2070,25 @@
         <v>8.953900000000001</v>
       </c>
       <c r="G37" s="3" t="n">
+        <v>8.931699999999999</v>
+      </c>
+      <c r="H37" s="3" t="n">
         <v>0.0104</v>
       </c>
-      <c r="H37" s="3" t="n">
-        <v>-0.0042</v>
-      </c>
       <c r="I37" s="3" t="n">
-        <v>-0.012</v>
+        <v>-0.0258</v>
       </c>
       <c r="J37" s="3" t="n">
-        <v>0.0007</v>
+        <v>-0.0336</v>
       </c>
       <c r="K37" s="3" t="n">
-        <v>-0.0097</v>
+        <v>-0.0558</v>
+      </c>
+      <c r="L37" s="3" t="n">
+        <v>-0.0209</v>
+      </c>
+      <c r="M37" s="3" t="n">
+        <v>-0.0313</v>
       </c>
     </row>
     <row r="38" ht="22" customHeight="1">
@@ -1870,7 +2098,7 @@
         </is>
       </c>
       <c r="B38" s="3" t="n">
-        <v>0.0109</v>
+        <v>0.0063</v>
       </c>
       <c r="C38" s="3" t="n">
         <v>0.0112</v>
@@ -1885,19 +2113,25 @@
         <v>0.0108</v>
       </c>
       <c r="G38" s="3" t="n">
-        <v>-0.0001</v>
+        <v>0.021</v>
       </c>
       <c r="H38" s="3" t="n">
-        <v>0</v>
+        <v>-0.0001</v>
       </c>
       <c r="I38" s="3" t="n">
-        <v>-0.0001</v>
+        <v>0.0046</v>
       </c>
       <c r="J38" s="3" t="n">
-        <v>0.0003</v>
+        <v>0.0045</v>
       </c>
       <c r="K38" s="3" t="n">
-        <v>0.0004</v>
+        <v>0.0147</v>
+      </c>
+      <c r="L38" s="3" t="n">
+        <v>0.0049</v>
+      </c>
+      <c r="M38" s="3" t="n">
+        <v>0.005</v>
       </c>
     </row>
     <row r="39" ht="22" customHeight="1">
@@ -1907,7 +2141,7 @@
         </is>
       </c>
       <c r="B39" s="3" t="n">
-        <v>0.0667</v>
+        <v>0.0049</v>
       </c>
       <c r="C39" s="3" t="n">
         <v>0.0977</v>
@@ -1922,19 +2156,25 @@
         <v>0.0974</v>
       </c>
       <c r="G39" s="3" t="n">
+        <v>0.0659</v>
+      </c>
+      <c r="H39" s="3" t="n">
         <v>0.0898</v>
       </c>
-      <c r="H39" s="3" t="n">
-        <v>0.0311</v>
-      </c>
       <c r="I39" s="3" t="n">
-        <v>0.0307</v>
+        <v>0.0929</v>
       </c>
       <c r="J39" s="3" t="n">
-        <v>0.031</v>
+        <v>0.0925</v>
       </c>
       <c r="K39" s="3" t="n">
-        <v>-0.0588</v>
+        <v>0.061</v>
+      </c>
+      <c r="L39" s="3" t="n">
+        <v>0.09279999999999999</v>
+      </c>
+      <c r="M39" s="3" t="n">
+        <v>0.003</v>
       </c>
     </row>
     <row r="40" ht="22" customHeight="1">
@@ -1944,7 +2184,7 @@
         </is>
       </c>
       <c r="B40" s="3" t="n">
-        <v>0.0074</v>
+        <v>0.0025</v>
       </c>
       <c r="C40" s="3" t="n">
         <v>0.0074</v>
@@ -1959,19 +2199,25 @@
         <v>0.0074</v>
       </c>
       <c r="G40" s="3" t="n">
+        <v>0.0075</v>
+      </c>
+      <c r="H40" s="3" t="n">
         <v>0.0051</v>
       </c>
-      <c r="H40" s="3" t="n">
-        <v>0</v>
-      </c>
       <c r="I40" s="3" t="n">
-        <v>0</v>
+        <v>0.0049</v>
       </c>
       <c r="J40" s="3" t="n">
-        <v>0</v>
+        <v>0.0049</v>
       </c>
       <c r="K40" s="3" t="n">
-        <v>-0.0051</v>
+        <v>0.005</v>
+      </c>
+      <c r="L40" s="3" t="n">
+        <v>0.0049</v>
+      </c>
+      <c r="M40" s="3" t="n">
+        <v>-0.0002</v>
       </c>
     </row>
     <row r="41" ht="22" customHeight="1">
@@ -1981,7 +2227,7 @@
         </is>
       </c>
       <c r="B41" s="3" t="n">
-        <v>0.0602</v>
+        <v>0.0317</v>
       </c>
       <c r="C41" s="3" t="n">
         <v>0.1105</v>
@@ -1996,19 +2242,25 @@
         <v>0.0611</v>
       </c>
       <c r="G41" s="3" t="n">
+        <v>0.0622</v>
+      </c>
+      <c r="H41" s="3" t="n">
         <v>-0.4231</v>
       </c>
-      <c r="H41" s="3" t="n">
-        <v>-0.0032</v>
-      </c>
       <c r="I41" s="3" t="n">
-        <v>0.0009</v>
+        <v>0.0253</v>
       </c>
       <c r="J41" s="3" t="n">
-        <v>0.0503</v>
+        <v>0.0294</v>
       </c>
       <c r="K41" s="3" t="n">
-        <v>0.4734</v>
+        <v>0.0305</v>
+      </c>
+      <c r="L41" s="3" t="n">
+        <v>0.0788</v>
+      </c>
+      <c r="M41" s="3" t="n">
+        <v>0.5019</v>
       </c>
     </row>
     <row r="42" ht="22" customHeight="1">
@@ -2018,7 +2270,7 @@
         </is>
       </c>
       <c r="B42" s="3" t="n">
-        <v>0.007</v>
+        <v>0.0023</v>
       </c>
       <c r="C42" s="3" t="n">
         <v>0.007</v>
@@ -2033,19 +2285,25 @@
         <v>0.0069</v>
       </c>
       <c r="G42" s="3" t="n">
-        <v>-0.0001</v>
+        <v>0.007</v>
       </c>
       <c r="H42" s="3" t="n">
         <v>-0.0001</v>
       </c>
       <c r="I42" s="3" t="n">
-        <v>-0.0001</v>
+        <v>0.0046</v>
       </c>
       <c r="J42" s="3" t="n">
-        <v>0</v>
+        <v>0.0046</v>
       </c>
       <c r="K42" s="3" t="n">
-        <v>0.0001</v>
+        <v>0.0047</v>
+      </c>
+      <c r="L42" s="3" t="n">
+        <v>0.0047</v>
+      </c>
+      <c r="M42" s="3" t="n">
+        <v>0.0048</v>
       </c>
     </row>
     <row r="43" ht="22" customHeight="1">
@@ -2055,7 +2313,7 @@
         </is>
       </c>
       <c r="B43" s="3" t="n">
-        <v>2.9139</v>
+        <v>2.9179</v>
       </c>
       <c r="C43" s="3" t="n">
         <v>2.9264</v>
@@ -2070,19 +2328,25 @@
         <v>3.1016</v>
       </c>
       <c r="G43" s="3" t="n">
+        <v>2.9077</v>
+      </c>
+      <c r="H43" s="3" t="n">
         <v>-0.0009</v>
       </c>
-      <c r="H43" s="3" t="n">
-        <v>-0.009900000000000001</v>
-      </c>
       <c r="I43" s="3" t="n">
-        <v>0.1877</v>
+        <v>-0.0139</v>
       </c>
       <c r="J43" s="3" t="n">
-        <v>0.0125</v>
+        <v>0.1837</v>
       </c>
       <c r="K43" s="3" t="n">
-        <v>0.0134</v>
+        <v>-0.0102</v>
+      </c>
+      <c r="L43" s="3" t="n">
+        <v>0.008500000000000001</v>
+      </c>
+      <c r="M43" s="3" t="n">
+        <v>0.0094</v>
       </c>
     </row>
     <row r="44" ht="22" customHeight="1">
@@ -2092,7 +2356,7 @@
         </is>
       </c>
       <c r="B44" s="3" t="n">
-        <v>0.0095</v>
+        <v>0.0097</v>
       </c>
       <c r="C44" s="3" t="n">
         <v>0.0092</v>
@@ -2107,19 +2371,25 @@
         <v>0.0092999999999999</v>
       </c>
       <c r="G44" s="3" t="n">
+        <v>0.0094</v>
+      </c>
+      <c r="H44" s="3" t="n">
         <v>-0.0003</v>
       </c>
-      <c r="H44" s="3" t="n">
-        <v>-0.0001</v>
-      </c>
       <c r="I44" s="3" t="n">
+        <v>-0.0003</v>
+      </c>
+      <c r="J44" s="3" t="n">
+        <v>-0.0004</v>
+      </c>
+      <c r="K44" s="3" t="n">
+        <v>-0.0003</v>
+      </c>
+      <c r="L44" s="3" t="n">
+        <v>-0.0005</v>
+      </c>
+      <c r="M44" s="3" t="n">
         <v>-0.0002</v>
-      </c>
-      <c r="J44" s="3" t="n">
-        <v>-0.0003</v>
-      </c>
-      <c r="K44" s="3" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="45" ht="22" customHeight="1">
@@ -2144,18 +2414,24 @@
         <v>0.0157</v>
       </c>
       <c r="G45" s="3" t="n">
+        <v>0.0157</v>
+      </c>
+      <c r="H45" s="3" t="n">
         <v>-0.0012</v>
       </c>
-      <c r="H45" s="3" t="n">
-        <v>-0.0001</v>
-      </c>
       <c r="I45" s="3" t="n">
+        <v>-0.0001</v>
+      </c>
+      <c r="J45" s="3" t="n">
         <v>0.0002</v>
       </c>
-      <c r="J45" s="3" t="n">
+      <c r="K45" s="3" t="n">
+        <v>0.0002</v>
+      </c>
+      <c r="L45" s="3" t="n">
         <v>-0.0011</v>
       </c>
-      <c r="K45" s="3" t="n">
+      <c r="M45" s="3" t="n">
         <v>0.0001</v>
       </c>
     </row>
@@ -2166,7 +2442,7 @@
         </is>
       </c>
       <c r="B46" s="3" t="n">
-        <v>1.0921</v>
+        <v>1.0834</v>
       </c>
       <c r="C46" s="3" t="n">
         <v>0.7702</v>
@@ -2181,19 +2457,25 @@
         <v>1.0789</v>
       </c>
       <c r="G46" s="3" t="n">
+        <v>1.0889</v>
+      </c>
+      <c r="H46" s="3" t="n">
         <v>-0.3315</v>
       </c>
-      <c r="H46" s="3" t="n">
-        <v>-0.2241</v>
-      </c>
       <c r="I46" s="3" t="n">
-        <v>-0.0132</v>
+        <v>-0.2154</v>
       </c>
       <c r="J46" s="3" t="n">
-        <v>-0.3219</v>
+        <v>-0.0045</v>
       </c>
       <c r="K46" s="3" t="n">
-        <v>0.009599999999999999</v>
+        <v>0.0055</v>
+      </c>
+      <c r="L46" s="3" t="n">
+        <v>-0.3132</v>
+      </c>
+      <c r="M46" s="3" t="n">
+        <v>0.0183</v>
       </c>
     </row>
     <row r="47" ht="22" customHeight="1">
@@ -2203,7 +2485,7 @@
         </is>
       </c>
       <c r="B47" s="3" t="n">
-        <v>0.0075</v>
+        <v>0.0074</v>
       </c>
       <c r="C47" s="3" t="n">
         <v>0.0075</v>
@@ -2218,19 +2500,25 @@
         <v>0.0075</v>
       </c>
       <c r="G47" s="3" t="n">
+        <v>0.0074</v>
+      </c>
+      <c r="H47" s="3" t="n">
         <v>0.0003</v>
       </c>
-      <c r="H47" s="3" t="n">
-        <v>0.0001</v>
-      </c>
       <c r="I47" s="3" t="n">
-        <v>0</v>
+        <v>0.0002</v>
       </c>
       <c r="J47" s="3" t="n">
-        <v>0</v>
+        <v>0.0001</v>
       </c>
       <c r="K47" s="3" t="n">
-        <v>-0.0003</v>
+        <v>0</v>
+      </c>
+      <c r="L47" s="3" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="M47" s="3" t="n">
+        <v>-0.0002</v>
       </c>
     </row>
     <row r="48" ht="22" customHeight="1">
@@ -2255,11 +2543,11 @@
         <v>0.0066</v>
       </c>
       <c r="G48" s="3" t="n">
+        <v>0.0066</v>
+      </c>
+      <c r="H48" s="3" t="n">
         <v>0.0002</v>
       </c>
-      <c r="H48" s="3" t="n">
-        <v>0</v>
-      </c>
       <c r="I48" s="3" t="n">
         <v>0</v>
       </c>
@@ -2267,6 +2555,12 @@
         <v>0</v>
       </c>
       <c r="K48" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L48" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M48" s="3" t="n">
         <v>-0.0002</v>
       </c>
     </row>
@@ -2277,7 +2571,7 @@
         </is>
       </c>
       <c r="B49" s="3" t="n">
-        <v>0.0073</v>
+        <v>0.0074</v>
       </c>
       <c r="C49" s="3" t="n">
         <v>0.0074</v>
@@ -2292,19 +2586,25 @@
         <v>0.0073</v>
       </c>
       <c r="G49" s="3" t="n">
-        <v>0.0002</v>
+        <v>0.0075</v>
       </c>
       <c r="H49" s="3" t="n">
         <v>0.0002</v>
       </c>
       <c r="I49" s="3" t="n">
-        <v>0</v>
+        <v>0.0001</v>
       </c>
       <c r="J49" s="3" t="n">
-        <v>0.0001</v>
+        <v>-0.0001</v>
       </c>
       <c r="K49" s="3" t="n">
-        <v>-0.0001</v>
+        <v>0.0001</v>
+      </c>
+      <c r="L49" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M49" s="3" t="n">
+        <v>-0.0002</v>
       </c>
     </row>
     <row r="50" ht="22" customHeight="1">
@@ -2314,7 +2614,7 @@
         </is>
       </c>
       <c r="B50" s="3" t="n">
-        <v>0.0077</v>
+        <v>0.007900000000000001</v>
       </c>
       <c r="C50" s="3" t="n">
         <v>0.0078</v>
@@ -2329,19 +2629,25 @@
         <v>0.0078</v>
       </c>
       <c r="G50" s="3" t="n">
-        <v>-0.0001</v>
+        <v>0.0078</v>
       </c>
       <c r="H50" s="3" t="n">
         <v>-0.0001</v>
       </c>
       <c r="I50" s="3" t="n">
-        <v>0.0001</v>
+        <v>-0.0003</v>
       </c>
       <c r="J50" s="3" t="n">
-        <v>0.0001</v>
+        <v>-0.0001</v>
       </c>
       <c r="K50" s="3" t="n">
-        <v>0.0002</v>
+        <v>-0.0001</v>
+      </c>
+      <c r="L50" s="3" t="n">
+        <v>-0.0001</v>
+      </c>
+      <c r="M50" s="3" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="51" ht="22" customHeight="1">
@@ -2351,7 +2657,7 @@
         </is>
       </c>
       <c r="B51" s="3" t="n">
-        <v>0.0069</v>
+        <v>0.007</v>
       </c>
       <c r="C51" s="3" t="n">
         <v>0.0069</v>
@@ -2366,19 +2672,25 @@
         <v>0.0069</v>
       </c>
       <c r="G51" s="3" t="n">
-        <v>-0.0001</v>
+        <v>0.0069</v>
       </c>
       <c r="H51" s="3" t="n">
-        <v>0</v>
+        <v>-0.0001</v>
       </c>
       <c r="I51" s="3" t="n">
-        <v>0</v>
+        <v>-0.0001</v>
       </c>
       <c r="J51" s="3" t="n">
-        <v>0</v>
+        <v>-0.0001</v>
       </c>
       <c r="K51" s="3" t="n">
-        <v>0.0001</v>
+        <v>-0.0001</v>
+      </c>
+      <c r="L51" s="3" t="n">
+        <v>-0.0001</v>
+      </c>
+      <c r="M51" s="3" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="52" ht="22" customHeight="1">
@@ -2388,7 +2700,7 @@
         </is>
       </c>
       <c r="B52" s="3" t="n">
-        <v>0.0063</v>
+        <v>0.0064</v>
       </c>
       <c r="C52" s="3" t="n">
         <v>0.0064</v>
@@ -2403,19 +2715,25 @@
         <v>0.0064</v>
       </c>
       <c r="G52" s="3" t="n">
-        <v>0</v>
+        <v>0.0063</v>
       </c>
       <c r="H52" s="3" t="n">
         <v>0</v>
       </c>
       <c r="I52" s="3" t="n">
-        <v>0.0001</v>
+        <v>-0.0001</v>
       </c>
       <c r="J52" s="3" t="n">
-        <v>0.0001</v>
+        <v>0</v>
       </c>
       <c r="K52" s="3" t="n">
-        <v>0.0001</v>
+        <v>-0.0001</v>
+      </c>
+      <c r="L52" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M52" s="3" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="53" ht="22" customHeight="1">
@@ -2440,18 +2758,24 @@
         <v>0.0066</v>
       </c>
       <c r="G53" s="3" t="n">
-        <v>0</v>
+        <v>0.0066</v>
       </c>
       <c r="H53" s="3" t="n">
         <v>0</v>
       </c>
       <c r="I53" s="3" t="n">
-        <v>-0.0001</v>
+        <v>0</v>
       </c>
       <c r="J53" s="3" t="n">
         <v>-0.0001</v>
       </c>
       <c r="K53" s="3" t="n">
+        <v>-0.0001</v>
+      </c>
+      <c r="L53" s="3" t="n">
+        <v>-0.0001</v>
+      </c>
+      <c r="M53" s="3" t="n">
         <v>-0.0001</v>
       </c>
     </row>
@@ -2462,7 +2786,7 @@
         </is>
       </c>
       <c r="B54" s="3" t="n">
-        <v>0.0071</v>
+        <v>0.007</v>
       </c>
       <c r="C54" s="3" t="n">
         <v>0.007</v>
@@ -2477,19 +2801,25 @@
         <v>0.007</v>
       </c>
       <c r="G54" s="3" t="n">
-        <v>0.0001</v>
+        <v>0.0071</v>
       </c>
       <c r="H54" s="3" t="n">
-        <v>-0.0001</v>
+        <v>0.0001</v>
       </c>
       <c r="I54" s="3" t="n">
-        <v>-0.0001</v>
+        <v>0</v>
       </c>
       <c r="J54" s="3" t="n">
-        <v>-0.0001</v>
+        <v>0</v>
       </c>
       <c r="K54" s="3" t="n">
-        <v>-0.0002</v>
+        <v>0.0001</v>
+      </c>
+      <c r="L54" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M54" s="3" t="n">
+        <v>-0.0001</v>
       </c>
     </row>
     <row r="55" ht="22" customHeight="1">
@@ -2499,7 +2829,7 @@
         </is>
       </c>
       <c r="B55" s="3" t="n">
-        <v>2.341</v>
+        <v>2.0003</v>
       </c>
       <c r="C55" s="3" t="n">
         <v>2.0088</v>
@@ -2514,19 +2844,25 @@
         <v>32.7888</v>
       </c>
       <c r="G55" s="3" t="n">
+        <v>2.9264</v>
+      </c>
+      <c r="H55" s="3" t="n">
         <v>0.0034</v>
       </c>
-      <c r="H55" s="3" t="n">
-        <v>-0.3319</v>
-      </c>
-      <c r="I55" s="5" t="n">
-        <v>30.4478</v>
-      </c>
-      <c r="J55" s="3" t="n">
-        <v>-0.3322</v>
+      <c r="I55" s="3" t="n">
+        <v>0.008800000000000001</v>
+      </c>
+      <c r="J55" s="5" t="n">
+        <v>30.7885</v>
       </c>
       <c r="K55" s="3" t="n">
-        <v>-0.3356</v>
+        <v>0.9261</v>
+      </c>
+      <c r="L55" s="3" t="n">
+        <v>0.008500000000000001</v>
+      </c>
+      <c r="M55" s="3" t="n">
+        <v>0.0051</v>
       </c>
     </row>
     <row r="56" ht="22" customHeight="1">
@@ -2536,7 +2872,7 @@
         </is>
       </c>
       <c r="B56" s="3" t="n">
-        <v>0.0109</v>
+        <v>0.0101</v>
       </c>
       <c r="C56" s="3" t="n">
         <v>0.0092</v>
@@ -2551,19 +2887,25 @@
         <v>0.0109</v>
       </c>
       <c r="G56" s="3" t="n">
+        <v>0.0107</v>
+      </c>
+      <c r="H56" s="3" t="n">
         <v>-0.0009</v>
       </c>
-      <c r="H56" s="3" t="n">
-        <v>-0.0008</v>
-      </c>
       <c r="I56" s="3" t="n">
         <v>0</v>
       </c>
       <c r="J56" s="3" t="n">
-        <v>-0.0017</v>
+        <v>0.0008</v>
       </c>
       <c r="K56" s="3" t="n">
-        <v>-0.0008</v>
+        <v>0.0005999999999999999</v>
+      </c>
+      <c r="L56" s="3" t="n">
+        <v>-0.0009</v>
+      </c>
+      <c r="M56" s="3" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="57" ht="22" customHeight="1">
@@ -2573,7 +2915,7 @@
         </is>
       </c>
       <c r="B57" s="3" t="n">
-        <v>0.0076</v>
+        <v>0.0074</v>
       </c>
       <c r="C57" s="3" t="n">
         <v>0.0073</v>
@@ -2588,19 +2930,25 @@
         <v>0.0092</v>
       </c>
       <c r="G57" s="3" t="n">
-        <v>0</v>
+        <v>0.008699999999999901</v>
       </c>
       <c r="H57" s="3" t="n">
-        <v>-0.0002</v>
+        <v>0</v>
       </c>
       <c r="I57" s="3" t="n">
-        <v>0.0016</v>
+        <v>0</v>
       </c>
       <c r="J57" s="3" t="n">
-        <v>-0.0003</v>
+        <v>0.0018</v>
       </c>
       <c r="K57" s="3" t="n">
-        <v>-0.0003</v>
+        <v>0.0013</v>
+      </c>
+      <c r="L57" s="3" t="n">
+        <v>-0.0001</v>
+      </c>
+      <c r="M57" s="3" t="n">
+        <v>-0.0001</v>
       </c>
     </row>
     <row r="58" ht="22" customHeight="1">
@@ -2610,7 +2958,7 @@
         </is>
       </c>
       <c r="B58" s="3" t="n">
-        <v>0.0073</v>
+        <v>0.0071</v>
       </c>
       <c r="C58" s="3" t="n">
         <v>0.0072</v>
@@ -2625,19 +2973,25 @@
         <v>0.0074</v>
       </c>
       <c r="G58" s="3" t="n">
-        <v>0.0001</v>
+        <v>0.0075</v>
       </c>
       <c r="H58" s="3" t="n">
-        <v>-0.0003</v>
+        <v>0.0001</v>
       </c>
       <c r="I58" s="3" t="n">
-        <v>0.0001</v>
+        <v>-0.0001</v>
       </c>
       <c r="J58" s="3" t="n">
-        <v>-0.0001</v>
+        <v>0.0003</v>
       </c>
       <c r="K58" s="3" t="n">
-        <v>-0.0002</v>
+        <v>0.0004</v>
+      </c>
+      <c r="L58" s="3" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="M58" s="3" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="59" ht="22" customHeight="1">
@@ -2647,7 +3001,7 @@
         </is>
       </c>
       <c r="B59" s="3" t="n">
-        <v>0.008800000000000001</v>
+        <v>0.008200000000000001</v>
       </c>
       <c r="C59" s="3" t="n">
         <v>0.0083</v>
@@ -2662,19 +3016,25 @@
         <v>0.0086</v>
       </c>
       <c r="G59" s="3" t="n">
-        <v>0</v>
+        <v>0.0086</v>
       </c>
       <c r="H59" s="3" t="n">
-        <v>-0.0004</v>
+        <v>0</v>
       </c>
       <c r="I59" s="3" t="n">
-        <v>-0.0002</v>
+        <v>0.0002</v>
       </c>
       <c r="J59" s="3" t="n">
-        <v>-0.0005</v>
+        <v>0.0004</v>
       </c>
       <c r="K59" s="3" t="n">
-        <v>-0.0005</v>
+        <v>0.0004</v>
+      </c>
+      <c r="L59" s="3" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="M59" s="3" t="n">
+        <v>0.0001</v>
       </c>
     </row>
     <row r="60" ht="22" customHeight="1">
@@ -2699,18 +3059,24 @@
         <v>0.0092</v>
       </c>
       <c r="G60" s="3" t="n">
-        <v>0</v>
+        <v>0.0086</v>
       </c>
       <c r="H60" s="3" t="n">
-        <v>0.0001</v>
+        <v>0</v>
       </c>
       <c r="I60" s="3" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="J60" s="3" t="n">
         <v>0.0007</v>
       </c>
-      <c r="J60" s="3" t="n">
-        <v>0</v>
-      </c>
       <c r="K60" s="3" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="L60" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M60" s="3" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2721,7 +3087,7 @@
         </is>
       </c>
       <c r="B61" s="3" t="n">
-        <v>0.008200000000000001</v>
+        <v>0.0078</v>
       </c>
       <c r="C61" s="3" t="n">
         <v>0.0078</v>
@@ -2736,19 +3102,25 @@
         <v>0.0083</v>
       </c>
       <c r="G61" s="3" t="n">
-        <v>0</v>
+        <v>0.008200000000000001</v>
       </c>
       <c r="H61" s="3" t="n">
-        <v>-0.0005</v>
+        <v>0</v>
       </c>
       <c r="I61" s="3" t="n">
-        <v>0.0001</v>
+        <v>-0.0001</v>
       </c>
       <c r="J61" s="3" t="n">
-        <v>-0.0004</v>
+        <v>0.0005</v>
       </c>
       <c r="K61" s="3" t="n">
-        <v>-0.0004</v>
+        <v>0.0004</v>
+      </c>
+      <c r="L61" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M61" s="3" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="62" ht="22" customHeight="1">
@@ -2758,7 +3130,7 @@
         </is>
       </c>
       <c r="B62" s="3" t="n">
-        <v>0.6926</v>
+        <v>0.6961000000000001</v>
       </c>
       <c r="C62" s="3" t="n">
         <v>0.6924</v>
@@ -2773,19 +3145,25 @@
         <v>0.6943</v>
       </c>
       <c r="G62" s="3" t="n">
+        <v>0.6943</v>
+      </c>
+      <c r="H62" s="3" t="n">
         <v>-0.0025</v>
       </c>
-      <c r="H62" s="3" t="n">
-        <v>0.002</v>
-      </c>
       <c r="I62" s="3" t="n">
-        <v>0.0017</v>
+        <v>-0.0015</v>
       </c>
       <c r="J62" s="3" t="n">
-        <v>-0.0002</v>
+        <v>-0.0018</v>
       </c>
       <c r="K62" s="3" t="n">
-        <v>0.0023</v>
+        <v>-0.0018</v>
+      </c>
+      <c r="L62" s="3" t="n">
+        <v>-0.0037</v>
+      </c>
+      <c r="M62" s="3" t="n">
+        <v>-0.0012</v>
       </c>
     </row>
     <row r="63" ht="22" customHeight="1">
@@ -2795,7 +3173,7 @@
         </is>
       </c>
       <c r="B63" s="3" t="n">
-        <v>0.0327</v>
+        <v>0.0317</v>
       </c>
       <c r="C63" s="3" t="n">
         <v>0.0309</v>
@@ -2810,19 +3188,25 @@
         <v>0.0328</v>
       </c>
       <c r="G63" s="3" t="n">
+        <v>0.033</v>
+      </c>
+      <c r="H63" s="3" t="n">
         <v>-0.0013</v>
       </c>
-      <c r="H63" s="3" t="n">
-        <v>-0.0002</v>
-      </c>
       <c r="I63" s="3" t="n">
-        <v>0.0001</v>
+        <v>0.0008</v>
       </c>
       <c r="J63" s="3" t="n">
-        <v>-0.0018</v>
+        <v>0.0011</v>
       </c>
       <c r="K63" s="3" t="n">
-        <v>-0.0005</v>
+        <v>0.0013</v>
+      </c>
+      <c r="L63" s="3" t="n">
+        <v>-0.0008</v>
+      </c>
+      <c r="M63" s="3" t="n">
+        <v>0.0005</v>
       </c>
     </row>
     <row r="64" ht="22" customHeight="1">
@@ -2832,7 +3216,7 @@
         </is>
       </c>
       <c r="B64" s="3" t="n">
-        <v>2.9001</v>
+        <v>2.9294</v>
       </c>
       <c r="C64" s="3" t="n">
         <v>2.9306</v>
@@ -2847,19 +3231,25 @@
         <v>2.8678</v>
       </c>
       <c r="G64" s="3" t="n">
+        <v>2.8365</v>
+      </c>
+      <c r="H64" s="3" t="n">
         <v>0.09329999999999999</v>
       </c>
-      <c r="H64" s="3" t="n">
-        <v>0.09379999999999999</v>
-      </c>
       <c r="I64" s="3" t="n">
-        <v>-0.0323</v>
+        <v>0.0645</v>
       </c>
       <c r="J64" s="3" t="n">
-        <v>0.0305</v>
+        <v>-0.0616</v>
       </c>
       <c r="K64" s="3" t="n">
-        <v>-0.06279999999999999</v>
+        <v>-0.0929</v>
+      </c>
+      <c r="L64" s="3" t="n">
+        <v>0.0012</v>
+      </c>
+      <c r="M64" s="3" t="n">
+        <v>-0.0921</v>
       </c>
     </row>
     <row r="65" ht="22" customHeight="1">
@@ -2869,7 +3259,7 @@
         </is>
       </c>
       <c r="B65" s="3" t="n">
-        <v>0.0083</v>
+        <v>0.008200000000000001</v>
       </c>
       <c r="C65" s="3" t="n">
         <v>0.0058</v>
@@ -2884,19 +3274,25 @@
         <v>0.0056</v>
       </c>
       <c r="G65" s="3" t="n">
+        <v>0.0072</v>
+      </c>
+      <c r="H65" s="3" t="n">
         <v>-0.0029</v>
       </c>
-      <c r="H65" s="3" t="n">
-        <v>-0.0002</v>
-      </c>
       <c r="I65" s="3" t="n">
-        <v>-0.0027</v>
+        <v>-0.0001</v>
       </c>
       <c r="J65" s="3" t="n">
-        <v>-0.0025</v>
+        <v>-0.0026</v>
       </c>
       <c r="K65" s="3" t="n">
-        <v>0.0004</v>
+        <v>-0.001</v>
+      </c>
+      <c r="L65" s="3" t="n">
+        <v>-0.0024</v>
+      </c>
+      <c r="M65" s="3" t="n">
+        <v>0.0005</v>
       </c>
     </row>
     <row r="66" ht="22" customHeight="1">
@@ -2906,7 +3302,7 @@
         </is>
       </c>
       <c r="B66" s="3" t="n">
-        <v>0.0228</v>
+        <v>0.0227</v>
       </c>
       <c r="C66" s="3" t="n">
         <v>0.0229</v>
@@ -2921,19 +3317,25 @@
         <v>0.0226</v>
       </c>
       <c r="G66" s="3" t="n">
-        <v>0.0001</v>
+        <v>0.0226</v>
       </c>
       <c r="H66" s="3" t="n">
-        <v>0</v>
+        <v>0.0001</v>
       </c>
       <c r="I66" s="3" t="n">
-        <v>-0.0002</v>
+        <v>0.0001</v>
       </c>
       <c r="J66" s="3" t="n">
-        <v>0.0001</v>
+        <v>-0.0001</v>
       </c>
       <c r="K66" s="3" t="n">
-        <v>0</v>
+        <v>-0.0001</v>
+      </c>
+      <c r="L66" s="3" t="n">
+        <v>0.0002</v>
+      </c>
+      <c r="M66" s="3" t="n">
+        <v>0.0001</v>
       </c>
     </row>
     <row r="67" ht="22" customHeight="1">
@@ -2943,7 +3345,7 @@
         </is>
       </c>
       <c r="B67" s="3" t="n">
-        <v>0.01</v>
+        <v>0.009900000000000001</v>
       </c>
       <c r="C67" s="3" t="n">
         <v>0.01</v>
@@ -2958,19 +3360,25 @@
         <v>0.01</v>
       </c>
       <c r="G67" s="3" t="n">
-        <v>0.0001</v>
+        <v>0.009900000000000001</v>
       </c>
       <c r="H67" s="3" t="n">
-        <v>-0.0001</v>
+        <v>0.0001</v>
       </c>
       <c r="I67" s="3" t="n">
         <v>0</v>
       </c>
       <c r="J67" s="3" t="n">
-        <v>0</v>
+        <v>0.0001</v>
       </c>
       <c r="K67" s="3" t="n">
-        <v>-0.0001</v>
+        <v>0</v>
+      </c>
+      <c r="L67" s="3" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="M67" s="3" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="68" ht="22" customHeight="1">
@@ -2980,7 +3388,7 @@
         </is>
       </c>
       <c r="B68" s="3" t="n">
-        <v>0.0151</v>
+        <v>0.0147</v>
       </c>
       <c r="C68" s="3" t="n">
         <v>0.015</v>
@@ -2995,19 +3403,25 @@
         <v>0.0149</v>
       </c>
       <c r="G68" s="3" t="n">
-        <v>0.0001</v>
+        <v>0.0146</v>
       </c>
       <c r="H68" s="3" t="n">
-        <v>-0.0001</v>
+        <v>0.0001</v>
       </c>
       <c r="I68" s="3" t="n">
-        <v>-0.0002</v>
+        <v>0.0003</v>
       </c>
       <c r="J68" s="3" t="n">
-        <v>-0.0001</v>
+        <v>0.0002</v>
       </c>
       <c r="K68" s="3" t="n">
-        <v>-0.0002</v>
+        <v>-0.0001</v>
+      </c>
+      <c r="L68" s="3" t="n">
+        <v>0.0003</v>
+      </c>
+      <c r="M68" s="3" t="n">
+        <v>0.0002</v>
       </c>
     </row>
     <row r="69" ht="22" customHeight="1">
@@ -3017,7 +3431,7 @@
         </is>
       </c>
       <c r="B69" s="3" t="n">
-        <v>0.0627999999999999</v>
+        <v>0.0629</v>
       </c>
       <c r="C69" s="3" t="n">
         <v>0.06320000000000001</v>
@@ -3032,19 +3446,25 @@
         <v>0.065</v>
       </c>
       <c r="G69" s="3" t="n">
+        <v>0.064</v>
+      </c>
+      <c r="H69" s="3" t="n">
         <v>-0.0002</v>
       </c>
-      <c r="H69" s="3" t="n">
+      <c r="I69" s="3" t="n">
+        <v>0.0004</v>
+      </c>
+      <c r="J69" s="3" t="n">
+        <v>0.0021</v>
+      </c>
+      <c r="K69" s="3" t="n">
+        <v>0.0011</v>
+      </c>
+      <c r="L69" s="3" t="n">
+        <v>0.0003</v>
+      </c>
+      <c r="M69" s="3" t="n">
         <v>0.0005</v>
-      </c>
-      <c r="I69" s="3" t="n">
-        <v>0.0022</v>
-      </c>
-      <c r="J69" s="3" t="n">
-        <v>0.0004</v>
-      </c>
-      <c r="K69" s="3" t="n">
-        <v>0.0005999999999999999</v>
       </c>
     </row>
     <row r="70" ht="22" customHeight="1">
@@ -3054,7 +3474,7 @@
         </is>
       </c>
       <c r="B70" s="3" t="n">
-        <v>0.0146</v>
+        <v>0.0145</v>
       </c>
       <c r="C70" s="3" t="n">
         <v>0.0145</v>
@@ -3069,19 +3489,25 @@
         <v>0.0146</v>
       </c>
       <c r="G70" s="3" t="n">
-        <v>0</v>
+        <v>0.0145</v>
       </c>
       <c r="H70" s="3" t="n">
-        <v>-0.0001</v>
+        <v>0</v>
       </c>
       <c r="I70" s="3" t="n">
         <v>0</v>
       </c>
       <c r="J70" s="3" t="n">
-        <v>-0.0001</v>
+        <v>0.0001</v>
       </c>
       <c r="K70" s="3" t="n">
-        <v>-0.0001</v>
+        <v>0</v>
+      </c>
+      <c r="L70" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M70" s="3" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="71" ht="22" customHeight="1">
@@ -3091,7 +3517,7 @@
         </is>
       </c>
       <c r="B71" s="3" t="n">
-        <v>0.0313</v>
+        <v>0.0311</v>
       </c>
       <c r="C71" s="3" t="n">
         <v>0.029</v>
@@ -3106,19 +3532,25 @@
         <v>0.0315</v>
       </c>
       <c r="G71" s="3" t="n">
+        <v>0.0321</v>
+      </c>
+      <c r="H71" s="3" t="n">
         <v>-0.0024</v>
       </c>
-      <c r="H71" s="3" t="n">
+      <c r="I71" s="3" t="n">
+        <v>0.0005999999999999999</v>
+      </c>
+      <c r="J71" s="3" t="n">
         <v>0.0004</v>
       </c>
-      <c r="I71" s="3" t="n">
-        <v>0.0002</v>
-      </c>
-      <c r="J71" s="3" t="n">
-        <v>-0.0023</v>
-      </c>
       <c r="K71" s="3" t="n">
-        <v>0.0001</v>
+        <v>0.001</v>
+      </c>
+      <c r="L71" s="3" t="n">
+        <v>-0.0021</v>
+      </c>
+      <c r="M71" s="3" t="n">
+        <v>0.0003</v>
       </c>
     </row>
     <row r="72" ht="22" customHeight="1">
@@ -3128,7 +3560,7 @@
         </is>
       </c>
       <c r="B72" s="3" t="n">
-        <v>8.7461</v>
+        <v>8.7256</v>
       </c>
       <c r="C72" s="3" t="n">
         <v>8.7059</v>
@@ -3143,19 +3575,25 @@
         <v>8.698399999999999</v>
       </c>
       <c r="G72" s="3" t="n">
+        <v>8.8064</v>
+      </c>
+      <c r="H72" s="3" t="n">
         <v>-0.0357</v>
       </c>
-      <c r="H72" s="3" t="n">
-        <v>-0.0189</v>
-      </c>
       <c r="I72" s="3" t="n">
-        <v>-0.0477</v>
+        <v>0.0016</v>
       </c>
       <c r="J72" s="3" t="n">
-        <v>-0.0402</v>
+        <v>-0.0272</v>
       </c>
       <c r="K72" s="3" t="n">
-        <v>-0.0045</v>
+        <v>0.0808</v>
+      </c>
+      <c r="L72" s="3" t="n">
+        <v>-0.0197</v>
+      </c>
+      <c r="M72" s="3" t="n">
+        <v>0.016</v>
       </c>
     </row>
     <row r="73" ht="22" customHeight="1">
@@ -3180,18 +3618,24 @@
         <v>0.0539</v>
       </c>
       <c r="G73" s="3" t="n">
+        <v>0.054</v>
+      </c>
+      <c r="H73" s="3" t="n">
         <v>-0.0016</v>
       </c>
-      <c r="H73" s="3" t="n">
+      <c r="I73" s="3" t="n">
         <v>0.0004</v>
       </c>
-      <c r="I73" s="3" t="n">
+      <c r="J73" s="3" t="n">
         <v>0.0007</v>
       </c>
-      <c r="J73" s="3" t="n">
+      <c r="K73" s="3" t="n">
+        <v>0.0008</v>
+      </c>
+      <c r="L73" s="3" t="n">
         <v>-0.0017</v>
       </c>
-      <c r="K73" s="3" t="n">
+      <c r="M73" s="3" t="n">
         <v>-0.0001</v>
       </c>
     </row>
@@ -3202,7 +3646,7 @@
         </is>
       </c>
       <c r="B74" s="3" t="n">
-        <v>0.0103</v>
+        <v>0.0106</v>
       </c>
       <c r="C74" s="3" t="n">
         <v>0.0105</v>
@@ -3217,19 +3661,25 @@
         <v>0.0105</v>
       </c>
       <c r="G74" s="3" t="n">
-        <v>0.0001</v>
+        <v>0.0103</v>
       </c>
       <c r="H74" s="3" t="n">
         <v>0.0001</v>
       </c>
       <c r="I74" s="3" t="n">
-        <v>0.0002</v>
+        <v>-0.0002</v>
       </c>
       <c r="J74" s="3" t="n">
-        <v>0.0002</v>
+        <v>-0.0001</v>
       </c>
       <c r="K74" s="3" t="n">
-        <v>0.0001</v>
+        <v>-0.0003</v>
+      </c>
+      <c r="L74" s="3" t="n">
+        <v>-0.0001</v>
+      </c>
+      <c r="M74" s="3" t="n">
+        <v>-0.0002</v>
       </c>
     </row>
     <row r="75" ht="22" customHeight="1">
@@ -3239,7 +3689,7 @@
         </is>
       </c>
       <c r="B75" s="3" t="n">
-        <v>2.5141</v>
+        <v>2.5144</v>
       </c>
       <c r="C75" s="3" t="n">
         <v>2.5181</v>
@@ -3254,19 +3704,25 @@
         <v>2.5277</v>
       </c>
       <c r="G75" s="3" t="n">
+        <v>2.5196</v>
+      </c>
+      <c r="H75" s="3" t="n">
         <v>0.0057</v>
       </c>
-      <c r="H75" s="3" t="n">
-        <v>0.0209</v>
-      </c>
       <c r="I75" s="3" t="n">
-        <v>0.0136</v>
+        <v>0.0206</v>
       </c>
       <c r="J75" s="3" t="n">
-        <v>0.004</v>
+        <v>0.0133</v>
       </c>
       <c r="K75" s="3" t="n">
-        <v>-0.0017</v>
+        <v>0.0052</v>
+      </c>
+      <c r="L75" s="3" t="n">
+        <v>0.0037</v>
+      </c>
+      <c r="M75" s="3" t="n">
+        <v>-0.002</v>
       </c>
     </row>
     <row r="76" ht="22" customHeight="1">
@@ -3276,7 +3732,7 @@
         </is>
       </c>
       <c r="B76" s="3" t="n">
-        <v>1.5424</v>
+        <v>1.5356</v>
       </c>
       <c r="C76" s="3" t="n">
         <v>1.5416</v>
@@ -3291,19 +3747,25 @@
         <v>1.5295</v>
       </c>
       <c r="G76" s="3" t="n">
+        <v>1.5503</v>
+      </c>
+      <c r="H76" s="3" t="n">
         <v>-0.0086</v>
       </c>
-      <c r="H76" s="3" t="n">
-        <v>-0.0033</v>
-      </c>
       <c r="I76" s="3" t="n">
-        <v>-0.0129</v>
+        <v>0.0035</v>
       </c>
       <c r="J76" s="3" t="n">
-        <v>-0.0008</v>
+        <v>-0.0061</v>
       </c>
       <c r="K76" s="3" t="n">
-        <v>0.0078</v>
+        <v>0.0147</v>
+      </c>
+      <c r="L76" s="3" t="n">
+        <v>0.006</v>
+      </c>
+      <c r="M76" s="3" t="n">
+        <v>0.0146</v>
       </c>
     </row>
     <row r="77" ht="22" customHeight="1">
@@ -3313,7 +3775,7 @@
         </is>
       </c>
       <c r="B77" s="3" t="n">
-        <v>1.4938</v>
+        <v>1.4933</v>
       </c>
       <c r="C77" s="3" t="n">
         <v>1.4881</v>
@@ -3328,19 +3790,25 @@
         <v>1.4929</v>
       </c>
       <c r="G77" s="3" t="n">
+        <v>1.4953</v>
+      </c>
+      <c r="H77" s="3" t="n">
         <v>-0.0241</v>
       </c>
-      <c r="H77" s="3" t="n">
-        <v>-0.0049</v>
-      </c>
       <c r="I77" s="3" t="n">
-        <v>-0.0009</v>
+        <v>-0.0044</v>
       </c>
       <c r="J77" s="3" t="n">
-        <v>-0.0057</v>
+        <v>-0.0004</v>
       </c>
       <c r="K77" s="3" t="n">
-        <v>0.0184</v>
+        <v>0.002</v>
+      </c>
+      <c r="L77" s="3" t="n">
+        <v>-0.0052</v>
+      </c>
+      <c r="M77" s="3" t="n">
+        <v>0.0189</v>
       </c>
     </row>
     <row r="78" ht="22" customHeight="1">
@@ -3350,7 +3818,7 @@
         </is>
       </c>
       <c r="B78" s="3" t="n">
-        <v>2.002</v>
+        <v>2.0152</v>
       </c>
       <c r="C78" s="3" t="n">
         <v>2.002</v>
@@ -3365,19 +3833,25 @@
         <v>1.9996</v>
       </c>
       <c r="G78" s="3" t="n">
+        <v>2.0206</v>
+      </c>
+      <c r="H78" s="3" t="n">
         <v>-0.0124</v>
       </c>
-      <c r="H78" s="3" t="n">
-        <v>0.0033</v>
-      </c>
       <c r="I78" s="3" t="n">
-        <v>-0.0024</v>
+        <v>-0.009900000000000001</v>
       </c>
       <c r="J78" s="3" t="n">
-        <v>0</v>
+        <v>-0.0156</v>
       </c>
       <c r="K78" s="3" t="n">
-        <v>0.0124</v>
+        <v>0.0054</v>
+      </c>
+      <c r="L78" s="3" t="n">
+        <v>-0.0132</v>
+      </c>
+      <c r="M78" s="3" t="n">
+        <v>-0.0008</v>
       </c>
     </row>
     <row r="79" ht="22" customHeight="1">
@@ -3402,18 +3876,24 @@
         <v>0.0109</v>
       </c>
       <c r="G79" s="3" t="n">
+        <v>0.0108</v>
+      </c>
+      <c r="H79" s="3" t="n">
         <v>-0.0002</v>
       </c>
-      <c r="H79" s="3" t="n">
-        <v>-0.0001</v>
-      </c>
       <c r="I79" s="3" t="n">
         <v>-0.0001</v>
       </c>
       <c r="J79" s="3" t="n">
+        <v>-0.0001</v>
+      </c>
+      <c r="K79" s="3" t="n">
+        <v>-0.0002</v>
+      </c>
+      <c r="L79" s="3" t="n">
         <v>-0.0003</v>
       </c>
-      <c r="K79" s="3" t="n">
+      <c r="M79" s="3" t="n">
         <v>-0.0001</v>
       </c>
     </row>
@@ -3424,7 +3904,7 @@
         </is>
       </c>
       <c r="B80" s="3" t="n">
-        <v>0.0457</v>
+        <v>0.0487</v>
       </c>
       <c r="C80" s="3" t="n">
         <v>0.0463</v>
@@ -3439,19 +3919,25 @@
         <v>0.0462</v>
       </c>
       <c r="G80" s="3" t="n">
+        <v>0.0486</v>
+      </c>
+      <c r="H80" s="3" t="n">
         <v>-0.0025</v>
       </c>
-      <c r="H80" s="3" t="n">
-        <v>0.0011</v>
-      </c>
       <c r="I80" s="3" t="n">
-        <v>0.0005</v>
+        <v>-0.0019</v>
       </c>
       <c r="J80" s="3" t="n">
-        <v>0.0005999999999999999</v>
+        <v>-0.0025</v>
       </c>
       <c r="K80" s="3" t="n">
-        <v>0.0031</v>
+        <v>-0.0001</v>
+      </c>
+      <c r="L80" s="3" t="n">
+        <v>-0.0024</v>
+      </c>
+      <c r="M80" s="3" t="n">
+        <v>0.0001</v>
       </c>
     </row>
     <row r="81" ht="22" customHeight="1">
@@ -3461,7 +3947,7 @@
         </is>
       </c>
       <c r="B81" s="3" t="n">
-        <v>0.008399999999999901</v>
+        <v>0.0066</v>
       </c>
       <c r="C81" s="3" t="n">
         <v>0.008399999999999901</v>
@@ -3476,19 +3962,25 @@
         <v>0.0083</v>
       </c>
       <c r="G81" s="3" t="n">
+        <v>0.0065</v>
+      </c>
+      <c r="H81" s="3" t="n">
         <v>0.0018</v>
       </c>
-      <c r="H81" s="3" t="n">
-        <v>-0.0001</v>
-      </c>
       <c r="I81" s="3" t="n">
-        <v>-0.0001</v>
+        <v>0.0017</v>
       </c>
       <c r="J81" s="3" t="n">
-        <v>0</v>
+        <v>0.0017</v>
       </c>
       <c r="K81" s="3" t="n">
-        <v>-0.0018</v>
+        <v>-0.0001</v>
+      </c>
+      <c r="L81" s="3" t="n">
+        <v>0.0018</v>
+      </c>
+      <c r="M81" s="3" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="82" ht="22" customHeight="1">
@@ -3513,18 +4005,24 @@
         <v>0.0346</v>
       </c>
       <c r="G82" s="3" t="n">
+        <v>0.0341</v>
+      </c>
+      <c r="H82" s="3" t="n">
         <v>0.0198</v>
       </c>
-      <c r="H82" s="3" t="n">
+      <c r="I82" s="3" t="n">
         <v>0.0004</v>
       </c>
-      <c r="I82" s="3" t="n">
+      <c r="J82" s="3" t="n">
         <v>0.0007</v>
       </c>
-      <c r="J82" s="3" t="n">
+      <c r="K82" s="3" t="n">
+        <v>0.0002</v>
+      </c>
+      <c r="L82" s="3" t="n">
         <v>0.0009</v>
       </c>
-      <c r="K82" s="3" t="n">
+      <c r="M82" s="3" t="n">
         <v>-0.0189</v>
       </c>
     </row>
@@ -3535,7 +4033,7 @@
         </is>
       </c>
       <c r="B83" s="3" t="n">
-        <v>0.0129</v>
+        <v>0.0123</v>
       </c>
       <c r="C83" s="3" t="n">
         <v>0.0119</v>
@@ -3550,19 +4048,25 @@
         <v>0.0118</v>
       </c>
       <c r="G83" s="3" t="n">
+        <v>0.0117</v>
+      </c>
+      <c r="H83" s="3" t="n">
         <v>0.008699999999999999</v>
-      </c>
-      <c r="H83" s="3" t="n">
-        <v>-0.0017</v>
       </c>
       <c r="I83" s="3" t="n">
         <v>-0.0011</v>
       </c>
       <c r="J83" s="3" t="n">
-        <v>-0.001</v>
+        <v>-0.0005</v>
       </c>
       <c r="K83" s="3" t="n">
-        <v>-0.0097</v>
+        <v>-0.0005999999999999999</v>
+      </c>
+      <c r="L83" s="3" t="n">
+        <v>-0.0004</v>
+      </c>
+      <c r="M83" s="3" t="n">
+        <v>-0.0091</v>
       </c>
     </row>
     <row r="84" ht="22" customHeight="1">
@@ -3572,7 +4076,7 @@
         </is>
       </c>
       <c r="B84" s="3" t="n">
-        <v>0.144</v>
+        <v>0.1478</v>
       </c>
       <c r="C84" s="3" t="n">
         <v>0.1417</v>
@@ -3587,19 +4091,25 @@
         <v>0.1419</v>
       </c>
       <c r="G84" s="3" t="n">
+        <v>0.1466</v>
+      </c>
+      <c r="H84" s="3" t="n">
         <v>-0.0018</v>
       </c>
-      <c r="H84" s="3" t="n">
-        <v>-0.0004</v>
-      </c>
       <c r="I84" s="3" t="n">
-        <v>-0.0021</v>
+        <v>-0.0042</v>
       </c>
       <c r="J84" s="3" t="n">
-        <v>-0.0023</v>
+        <v>-0.0059</v>
       </c>
       <c r="K84" s="3" t="n">
-        <v>-0.0005</v>
+        <v>-0.0012</v>
+      </c>
+      <c r="L84" s="3" t="n">
+        <v>-0.0061</v>
+      </c>
+      <c r="M84" s="3" t="n">
+        <v>-0.0043</v>
       </c>
     </row>
     <row r="85" ht="22" customHeight="1">
@@ -3609,7 +4119,7 @@
         </is>
       </c>
       <c r="B85" s="3" t="n">
-        <v>0.0173</v>
+        <v>0.0157</v>
       </c>
       <c r="C85" s="3" t="n">
         <v>0.0154</v>
@@ -3624,19 +4134,25 @@
         <v>0.0158</v>
       </c>
       <c r="G85" s="3" t="n">
+        <v>0.0158</v>
+      </c>
+      <c r="H85" s="3" t="n">
         <v>-0.0005999999999999999</v>
       </c>
-      <c r="H85" s="3" t="n">
-        <v>-0.0014</v>
-      </c>
       <c r="I85" s="3" t="n">
-        <v>-0.0015</v>
+        <v>0.0002</v>
       </c>
       <c r="J85" s="3" t="n">
-        <v>-0.0019</v>
+        <v>0.0001</v>
       </c>
       <c r="K85" s="3" t="n">
-        <v>-0.0013</v>
+        <v>0.0001</v>
+      </c>
+      <c r="L85" s="3" t="n">
+        <v>-0.0003</v>
+      </c>
+      <c r="M85" s="3" t="n">
+        <v>0.0003</v>
       </c>
     </row>
     <row r="86" ht="22" customHeight="1">
@@ -3646,7 +4162,7 @@
         </is>
       </c>
       <c r="B86" s="3" t="n">
-        <v>0.0078</v>
+        <v>0.0081</v>
       </c>
       <c r="C86" s="3" t="n">
         <v>0.0077</v>
@@ -3661,19 +4177,25 @@
         <v>0.007900000000000001</v>
       </c>
       <c r="G86" s="3" t="n">
-        <v>0</v>
+        <v>0.0076</v>
       </c>
       <c r="H86" s="3" t="n">
-        <v>0.0001</v>
+        <v>0</v>
       </c>
       <c r="I86" s="3" t="n">
-        <v>0.0001</v>
+        <v>-0.0002</v>
       </c>
       <c r="J86" s="3" t="n">
-        <v>-0.0001</v>
+        <v>-0.0002</v>
       </c>
       <c r="K86" s="3" t="n">
-        <v>-0.0001</v>
+        <v>-0.0005</v>
+      </c>
+      <c r="L86" s="3" t="n">
+        <v>-0.0004</v>
+      </c>
+      <c r="M86" s="3" t="n">
+        <v>-0.0004</v>
       </c>
     </row>
     <row r="87" ht="22" customHeight="1">
@@ -3683,7 +4205,7 @@
         </is>
       </c>
       <c r="B87" s="3" t="n">
-        <v>0.0092999999999999</v>
+        <v>0.0092</v>
       </c>
       <c r="C87" s="3" t="n">
         <v>0.0092999999999999</v>
@@ -3698,19 +4220,25 @@
         <v>0.0092999999999999</v>
       </c>
       <c r="G87" s="3" t="n">
+        <v>0.0092999999999999</v>
+      </c>
+      <c r="H87" s="3" t="n">
         <v>-0.0002</v>
       </c>
-      <c r="H87" s="3" t="n">
-        <v>0.0001</v>
-      </c>
       <c r="I87" s="3" t="n">
-        <v>0</v>
+        <v>0.0002</v>
       </c>
       <c r="J87" s="3" t="n">
-        <v>0</v>
+        <v>0.0001</v>
       </c>
       <c r="K87" s="3" t="n">
-        <v>0.0002</v>
+        <v>0.0001</v>
+      </c>
+      <c r="L87" s="3" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="M87" s="3" t="n">
+        <v>0.0003</v>
       </c>
     </row>
     <row r="88" ht="22" customHeight="1">
@@ -3720,7 +4248,7 @@
         </is>
       </c>
       <c r="B88" s="3" t="n">
-        <v>0.0119</v>
+        <v>0.0122</v>
       </c>
       <c r="C88" s="3" t="n">
         <v>0.0119</v>
@@ -3735,19 +4263,25 @@
         <v>0.012</v>
       </c>
       <c r="G88" s="3" t="n">
-        <v>0</v>
+        <v>0.012</v>
       </c>
       <c r="H88" s="3" t="n">
         <v>0</v>
       </c>
       <c r="I88" s="3" t="n">
-        <v>0.0001</v>
+        <v>-0.0003</v>
       </c>
       <c r="J88" s="3" t="n">
-        <v>0</v>
+        <v>-0.0002</v>
       </c>
       <c r="K88" s="3" t="n">
-        <v>0</v>
+        <v>-0.0002</v>
+      </c>
+      <c r="L88" s="3" t="n">
+        <v>-0.0003</v>
+      </c>
+      <c r="M88" s="3" t="n">
+        <v>-0.0003</v>
       </c>
     </row>
     <row r="89" ht="22" customHeight="1">
@@ -3757,7 +4291,7 @@
         </is>
       </c>
       <c r="B89" s="3" t="n">
-        <v>13.0667</v>
+        <v>13.0859</v>
       </c>
       <c r="C89" s="3" t="n">
         <v>13.0589</v>
@@ -3772,19 +4306,25 @@
         <v>13.094</v>
       </c>
       <c r="G89" s="3" t="n">
+        <v>13.0534</v>
+      </c>
+      <c r="H89" s="3" t="n">
         <v>0.0149</v>
       </c>
-      <c r="H89" s="5" t="n">
-        <v>66.9725</v>
-      </c>
-      <c r="I89" s="3" t="n">
-        <v>0.0273</v>
+      <c r="I89" s="5" t="n">
+        <v>66.9533</v>
       </c>
       <c r="J89" s="3" t="n">
-        <v>-0.0078</v>
+        <v>0.0081</v>
       </c>
       <c r="K89" s="3" t="n">
-        <v>-0.0227</v>
+        <v>-0.0325</v>
+      </c>
+      <c r="L89" s="3" t="n">
+        <v>-0.027</v>
+      </c>
+      <c r="M89" s="3" t="n">
+        <v>-0.0419</v>
       </c>
     </row>
     <row r="90" ht="22" customHeight="1">
@@ -3794,7 +4334,7 @@
         </is>
       </c>
       <c r="B90" s="3" t="n">
-        <v>0.008500000000000001</v>
+        <v>0.0095</v>
       </c>
       <c r="C90" s="3" t="n">
         <v>0.008500000000000001</v>
@@ -3809,19 +4349,25 @@
         <v>0.008800000000000001</v>
       </c>
       <c r="G90" s="3" t="n">
+        <v>0.008500000000000001</v>
+      </c>
+      <c r="H90" s="3" t="n">
         <v>-0.0012</v>
       </c>
-      <c r="H90" s="3" t="n">
-        <v>0.0026</v>
-      </c>
       <c r="I90" s="3" t="n">
-        <v>0.0003</v>
+        <v>0.0016</v>
       </c>
       <c r="J90" s="3" t="n">
-        <v>0</v>
+        <v>-0.0007</v>
       </c>
       <c r="K90" s="3" t="n">
-        <v>0.0012</v>
+        <v>-0.001</v>
+      </c>
+      <c r="L90" s="3" t="n">
+        <v>-0.001</v>
+      </c>
+      <c r="M90" s="3" t="n">
+        <v>0.0002</v>
       </c>
     </row>
     <row r="91" ht="22" customHeight="1">
@@ -3831,7 +4377,7 @@
         </is>
       </c>
       <c r="B91" s="3" t="n">
-        <v>0.0086</v>
+        <v>0.008500000000000001</v>
       </c>
       <c r="C91" s="3" t="n">
         <v>0.0089999999999999</v>
@@ -3846,19 +4392,25 @@
         <v>0.0092999999999999</v>
       </c>
       <c r="G91" s="3" t="n">
+        <v>0.0089999999999999</v>
+      </c>
+      <c r="H91" s="3" t="n">
         <v>0.0008</v>
       </c>
-      <c r="H91" s="3" t="n">
-        <v>0.0007</v>
-      </c>
       <c r="I91" s="3" t="n">
-        <v>0.0007</v>
+        <v>0.0008</v>
       </c>
       <c r="J91" s="3" t="n">
-        <v>0.0004</v>
+        <v>0.0008</v>
       </c>
       <c r="K91" s="3" t="n">
-        <v>-0.0004</v>
+        <v>0.0005</v>
+      </c>
+      <c r="L91" s="3" t="n">
+        <v>0.0005</v>
+      </c>
+      <c r="M91" s="3" t="n">
+        <v>-0.0003</v>
       </c>
     </row>
     <row r="92" ht="22" customHeight="1">
@@ -3868,7 +4420,7 @@
         </is>
       </c>
       <c r="B92" s="3" t="n">
-        <v>0.1768</v>
+        <v>0.1757</v>
       </c>
       <c r="C92" s="3" t="n">
         <v>0.1764</v>
@@ -3883,19 +4435,25 @@
         <v>0.1795</v>
       </c>
       <c r="G92" s="3" t="n">
+        <v>0.1768</v>
+      </c>
+      <c r="H92" s="3" t="n">
         <v>0.0008</v>
       </c>
-      <c r="H92" s="3" t="n">
-        <v>0.0019</v>
-      </c>
       <c r="I92" s="3" t="n">
-        <v>0.0027</v>
+        <v>0.003</v>
       </c>
       <c r="J92" s="3" t="n">
-        <v>-0.0004</v>
+        <v>0.0038</v>
       </c>
       <c r="K92" s="3" t="n">
-        <v>-0.0012</v>
+        <v>0.0011</v>
+      </c>
+      <c r="L92" s="3" t="n">
+        <v>0.0007</v>
+      </c>
+      <c r="M92" s="3" t="n">
+        <v>-0.0001</v>
       </c>
     </row>
     <row r="93" ht="22" customHeight="1">
@@ -3905,7 +4463,7 @@
         </is>
       </c>
       <c r="B93" s="3" t="n">
-        <v>0.0573</v>
+        <v>0.0589</v>
       </c>
       <c r="C93" s="3" t="n">
         <v>0.0573</v>
@@ -3920,19 +4478,25 @@
         <v>0.0571</v>
       </c>
       <c r="G93" s="3" t="n">
+        <v>0.0573</v>
+      </c>
+      <c r="H93" s="3" t="n">
         <v>0.0021</v>
       </c>
-      <c r="H93" s="3" t="n">
-        <v>-0.0014</v>
-      </c>
       <c r="I93" s="3" t="n">
-        <v>-0.0002</v>
+        <v>-0.003</v>
       </c>
       <c r="J93" s="3" t="n">
-        <v>0</v>
+        <v>-0.0018</v>
       </c>
       <c r="K93" s="3" t="n">
-        <v>-0.0021</v>
+        <v>-0.0016</v>
+      </c>
+      <c r="L93" s="3" t="n">
+        <v>-0.0016</v>
+      </c>
+      <c r="M93" s="3" t="n">
+        <v>-0.0037</v>
       </c>
     </row>
     <row r="94" ht="22" customHeight="1">
@@ -3942,7 +4506,7 @@
         </is>
       </c>
       <c r="B94" s="3" t="n">
-        <v>0.6911</v>
+        <v>0.6766</v>
       </c>
       <c r="C94" s="3" t="n">
         <v>0.6718</v>
@@ -3957,19 +4521,25 @@
         <v>0.6765</v>
       </c>
       <c r="G94" s="3" t="n">
+        <v>0.6826</v>
+      </c>
+      <c r="H94" s="3" t="n">
         <v>-0.0083</v>
       </c>
-      <c r="H94" s="3" t="n">
-        <v>-0.0021</v>
-      </c>
       <c r="I94" s="3" t="n">
-        <v>-0.0146</v>
+        <v>0.0124</v>
       </c>
       <c r="J94" s="3" t="n">
-        <v>-0.0193</v>
+        <v>-0.0001</v>
       </c>
       <c r="K94" s="3" t="n">
-        <v>-0.011</v>
+        <v>0.006</v>
+      </c>
+      <c r="L94" s="3" t="n">
+        <v>-0.0048</v>
+      </c>
+      <c r="M94" s="3" t="n">
+        <v>0.0035</v>
       </c>
     </row>
     <row r="95" ht="22" customHeight="1">
@@ -3979,7 +4549,7 @@
         </is>
       </c>
       <c r="B95" s="3" t="n">
-        <v>10.6109</v>
+        <v>10.5184</v>
       </c>
       <c r="C95" s="3" t="n">
         <v>10.4917</v>
@@ -3994,19 +4564,25 @@
         <v>10.5235</v>
       </c>
       <c r="G95" s="3" t="n">
+        <v>10.5113</v>
+      </c>
+      <c r="H95" s="3" t="n">
         <v>0.0081</v>
       </c>
-      <c r="H95" s="3" t="n">
-        <v>-0.1671</v>
-      </c>
       <c r="I95" s="3" t="n">
-        <v>-0.08740000000000001</v>
+        <v>-0.0746</v>
       </c>
       <c r="J95" s="3" t="n">
-        <v>-0.1192</v>
+        <v>0.0051</v>
       </c>
       <c r="K95" s="3" t="n">
-        <v>-0.1273</v>
+        <v>-0.0071</v>
+      </c>
+      <c r="L95" s="3" t="n">
+        <v>-0.0267</v>
+      </c>
+      <c r="M95" s="3" t="n">
+        <v>-0.0348</v>
       </c>
     </row>
     <row r="96" ht="22" customHeight="1">
@@ -4016,7 +4592,7 @@
         </is>
       </c>
       <c r="B96" s="3" t="n">
-        <v>0.4661</v>
+        <v>0.4686</v>
       </c>
       <c r="C96" s="3" t="n">
         <v>0.4577</v>
@@ -4031,19 +4607,25 @@
         <v>0.4754</v>
       </c>
       <c r="G96" s="3" t="n">
+        <v>0.5086000000000001</v>
+      </c>
+      <c r="H96" s="3" t="n">
         <v>0.0049</v>
       </c>
-      <c r="H96" s="3" t="n">
-        <v>0.1531</v>
-      </c>
       <c r="I96" s="3" t="n">
-        <v>0.009299999999999999</v>
+        <v>0.1506</v>
       </c>
       <c r="J96" s="3" t="n">
-        <v>-0.008399999999999999</v>
+        <v>0.0068</v>
       </c>
       <c r="K96" s="3" t="n">
-        <v>-0.0133</v>
+        <v>0.04</v>
+      </c>
+      <c r="L96" s="3" t="n">
+        <v>-0.0109</v>
+      </c>
+      <c r="M96" s="3" t="n">
+        <v>-0.0158</v>
       </c>
     </row>
     <row r="97" ht="22" customHeight="1">
@@ -4053,7 +4635,7 @@
         </is>
       </c>
       <c r="B97" s="3" t="n">
-        <v>0.0298</v>
+        <v>0.0286</v>
       </c>
       <c r="C97" s="3" t="n">
         <v>0.0301</v>
@@ -4068,19 +4650,25 @@
         <v>0.0317</v>
       </c>
       <c r="G97" s="3" t="n">
+        <v>0.0281</v>
+      </c>
+      <c r="H97" s="3" t="n">
         <v>0.0005</v>
       </c>
-      <c r="H97" s="3" t="n">
-        <v>-0.0025</v>
-      </c>
       <c r="I97" s="3" t="n">
-        <v>0.0019</v>
+        <v>-0.0013</v>
       </c>
       <c r="J97" s="3" t="n">
-        <v>0.0003</v>
+        <v>0.0031</v>
       </c>
       <c r="K97" s="3" t="n">
-        <v>-0.0002</v>
+        <v>-0.0005</v>
+      </c>
+      <c r="L97" s="3" t="n">
+        <v>0.0015</v>
+      </c>
+      <c r="M97" s="3" t="n">
+        <v>0.001</v>
       </c>
     </row>
     <row r="98" ht="22" customHeight="1">
@@ -4105,18 +4693,24 @@
         <v>0.0189</v>
       </c>
       <c r="G98" s="3" t="n">
+        <v>0.0181</v>
+      </c>
+      <c r="H98" s="3" t="n">
         <v>-0.0005999999999999999</v>
       </c>
-      <c r="H98" s="3" t="n">
+      <c r="I98" s="3" t="n">
         <v>-0.003</v>
       </c>
-      <c r="I98" s="3" t="n">
+      <c r="J98" s="3" t="n">
         <v>0.0004</v>
       </c>
-      <c r="J98" s="3" t="n">
+      <c r="K98" s="3" t="n">
+        <v>-0.0004</v>
+      </c>
+      <c r="L98" s="3" t="n">
         <v>-0.0016</v>
       </c>
-      <c r="K98" s="3" t="n">
+      <c r="M98" s="3" t="n">
         <v>-0.001</v>
       </c>
     </row>
@@ -4142,18 +4736,24 @@
         <v>0.0206</v>
       </c>
       <c r="G99" s="3" t="n">
-        <v>0.0001</v>
+        <v>0.0227</v>
       </c>
       <c r="H99" s="3" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="I99" s="3" t="n">
         <v>-0.0028</v>
       </c>
-      <c r="I99" s="3" t="n">
+      <c r="J99" s="3" t="n">
         <v>-0.002</v>
       </c>
-      <c r="J99" s="3" t="n">
-        <v>0.0001</v>
-      </c>
       <c r="K99" s="3" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="L99" s="3" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="M99" s="3" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4164,7 +4764,7 @@
         </is>
       </c>
       <c r="B100" s="3" t="n">
-        <v>0.0119</v>
+        <v>0.0129</v>
       </c>
       <c r="C100" s="3" t="n">
         <v>0.0118</v>
@@ -4179,19 +4779,25 @@
         <v>0.0125</v>
       </c>
       <c r="G100" s="3" t="n">
+        <v>0.0154</v>
+      </c>
+      <c r="H100" s="3" t="n">
         <v>-0.0029</v>
       </c>
-      <c r="H100" s="3" t="n">
-        <v>0.0004</v>
-      </c>
       <c r="I100" s="3" t="n">
-        <v>0.0005999999999999999</v>
+        <v>-0.0005999999999999999</v>
       </c>
       <c r="J100" s="3" t="n">
-        <v>-0.0001</v>
+        <v>-0.0004</v>
       </c>
       <c r="K100" s="3" t="n">
-        <v>0.0028</v>
+        <v>0.0025</v>
+      </c>
+      <c r="L100" s="3" t="n">
+        <v>-0.0011</v>
+      </c>
+      <c r="M100" s="3" t="n">
+        <v>0.0018</v>
       </c>
     </row>
     <row r="101" ht="22" customHeight="1">
@@ -4201,7 +4807,7 @@
         </is>
       </c>
       <c r="B101" s="3" t="n">
-        <v>0.0115</v>
+        <v>0.0161</v>
       </c>
       <c r="C101" s="3" t="n">
         <v>0.013</v>
@@ -4216,19 +4822,25 @@
         <v>0.013</v>
       </c>
       <c r="G101" s="3" t="n">
+        <v>0.013</v>
+      </c>
+      <c r="H101" s="3" t="n">
         <v>-0.0038</v>
       </c>
-      <c r="H101" s="3" t="n">
-        <v>0.0013</v>
-      </c>
       <c r="I101" s="3" t="n">
-        <v>0.0015</v>
+        <v>-0.0033</v>
       </c>
       <c r="J101" s="3" t="n">
-        <v>0.0015</v>
+        <v>-0.0031</v>
       </c>
       <c r="K101" s="3" t="n">
-        <v>0.0053</v>
+        <v>-0.0031</v>
+      </c>
+      <c r="L101" s="3" t="n">
+        <v>-0.0031</v>
+      </c>
+      <c r="M101" s="3" t="n">
+        <v>0.0007</v>
       </c>
     </row>
     <row r="102" ht="22" customHeight="1">
@@ -4238,7 +4850,7 @@
         </is>
       </c>
       <c r="B102" s="3" t="n">
-        <v>0.016</v>
+        <v>0.0157</v>
       </c>
       <c r="C102" s="3" t="n">
         <v>0.0115</v>
@@ -4253,19 +4865,25 @@
         <v>0.0169</v>
       </c>
       <c r="G102" s="3" t="n">
+        <v>0.0161</v>
+      </c>
+      <c r="H102" s="3" t="n">
         <v>-0.0043</v>
       </c>
-      <c r="H102" s="3" t="n">
-        <v>0.0008</v>
-      </c>
       <c r="I102" s="3" t="n">
-        <v>0.0009</v>
+        <v>0.0011</v>
       </c>
       <c r="J102" s="3" t="n">
-        <v>-0.0045</v>
+        <v>0.0012</v>
       </c>
       <c r="K102" s="3" t="n">
-        <v>-0.0002</v>
+        <v>0.0004</v>
+      </c>
+      <c r="L102" s="3" t="n">
+        <v>-0.0042</v>
+      </c>
+      <c r="M102" s="3" t="n">
+        <v>0.0001</v>
       </c>
     </row>
     <row r="103" ht="22" customHeight="1">
@@ -4275,7 +4893,7 @@
         </is>
       </c>
       <c r="B103" s="3" t="n">
-        <v>0.0125</v>
+        <v>0.0124</v>
       </c>
       <c r="C103" s="3" t="n">
         <v>0.0128</v>
@@ -4290,19 +4908,25 @@
         <v>0.0111</v>
       </c>
       <c r="G103" s="3" t="n">
+        <v>0.0123</v>
+      </c>
+      <c r="H103" s="3" t="n">
         <v>0.0003</v>
       </c>
-      <c r="H103" s="3" t="n">
-        <v>0.0017</v>
-      </c>
       <c r="I103" s="3" t="n">
-        <v>-0.0014</v>
+        <v>0.0018</v>
       </c>
       <c r="J103" s="3" t="n">
-        <v>0.0003</v>
+        <v>-0.0013</v>
       </c>
       <c r="K103" s="3" t="n">
-        <v>0</v>
+        <v>-0.0001</v>
+      </c>
+      <c r="L103" s="3" t="n">
+        <v>0.0004</v>
+      </c>
+      <c r="M103" s="3" t="n">
+        <v>0.0001</v>
       </c>
     </row>
     <row r="104" ht="22" customHeight="1">
@@ -4312,7 +4936,7 @@
         </is>
       </c>
       <c r="B104" s="3" t="n">
-        <v>0.0112</v>
+        <v>0.0109</v>
       </c>
       <c r="C104" s="3" t="n">
         <v>0.0113</v>
@@ -4327,19 +4951,25 @@
         <v>0.0091</v>
       </c>
       <c r="G104" s="3" t="n">
+        <v>0.011</v>
+      </c>
+      <c r="H104" s="3" t="n">
         <v>0.0002</v>
       </c>
-      <c r="H104" s="3" t="n">
-        <v>-0.0005</v>
-      </c>
       <c r="I104" s="3" t="n">
-        <v>-0.0021</v>
+        <v>-0.0002</v>
       </c>
       <c r="J104" s="3" t="n">
-        <v>0.0001</v>
+        <v>-0.0018</v>
       </c>
       <c r="K104" s="3" t="n">
-        <v>-0.0001</v>
+        <v>0.0001</v>
+      </c>
+      <c r="L104" s="3" t="n">
+        <v>0.0004</v>
+      </c>
+      <c r="M104" s="3" t="n">
+        <v>0.0002</v>
       </c>
     </row>
     <row r="105" ht="22" customHeight="1">
@@ -4349,7 +4979,7 @@
         </is>
       </c>
       <c r="B105" s="3" t="n">
-        <v>0.0128</v>
+        <v>0.0089999999999999</v>
       </c>
       <c r="C105" s="3" t="n">
         <v>0.0132</v>
@@ -4364,19 +4994,25 @@
         <v>0.0123</v>
       </c>
       <c r="G105" s="3" t="n">
+        <v>0.0128</v>
+      </c>
+      <c r="H105" s="3" t="n">
         <v>0.0002</v>
       </c>
-      <c r="H105" s="3" t="n">
-        <v>0.001</v>
-      </c>
       <c r="I105" s="3" t="n">
-        <v>-0.0005</v>
+        <v>0.0048</v>
       </c>
       <c r="J105" s="3" t="n">
-        <v>0.0004</v>
+        <v>0.0033</v>
       </c>
       <c r="K105" s="3" t="n">
-        <v>0.0002</v>
+        <v>0.0038</v>
+      </c>
+      <c r="L105" s="3" t="n">
+        <v>0.0042</v>
+      </c>
+      <c r="M105" s="3" t="n">
+        <v>0.004</v>
       </c>
     </row>
     <row r="106" ht="22" customHeight="1">
@@ -4386,7 +5022,7 @@
         </is>
       </c>
       <c r="B106" s="3" t="n">
-        <v>0.0138</v>
+        <v>0.0112</v>
       </c>
       <c r="C106" s="3" t="n">
         <v>0.0121</v>
@@ -4401,19 +5037,25 @@
         <v>0.0128</v>
       </c>
       <c r="G106" s="3" t="n">
+        <v>0.014</v>
+      </c>
+      <c r="H106" s="3" t="n">
         <v>-0.0005</v>
       </c>
-      <c r="H106" s="3" t="n">
-        <v>-0.0041</v>
-      </c>
       <c r="I106" s="3" t="n">
-        <v>-0.001</v>
+        <v>-0.0015</v>
       </c>
       <c r="J106" s="3" t="n">
-        <v>-0.0017</v>
+        <v>0.0016</v>
       </c>
       <c r="K106" s="3" t="n">
-        <v>-0.0012</v>
+        <v>0.0028</v>
+      </c>
+      <c r="L106" s="3" t="n">
+        <v>0.0009</v>
+      </c>
+      <c r="M106" s="3" t="n">
+        <v>0.0014</v>
       </c>
     </row>
     <row r="107" ht="22" customHeight="1">
@@ -4423,7 +5065,7 @@
         </is>
       </c>
       <c r="B107" s="3" t="n">
-        <v>17.4722</v>
+        <v>19.6438</v>
       </c>
       <c r="C107" s="3" t="n">
         <v>21.029</v>
@@ -4438,19 +5080,25 @@
         <v>19.4685</v>
       </c>
       <c r="G107" s="3" t="n">
+        <v>18.015</v>
+      </c>
+      <c r="H107" s="3" t="n">
         <v>0.6879</v>
       </c>
-      <c r="H107" s="5" t="n">
-        <v>2.0128</v>
-      </c>
-      <c r="I107" s="5" t="n">
-        <v>1.9963</v>
-      </c>
-      <c r="J107" s="5" t="n">
-        <v>3.5568</v>
+      <c r="I107" s="3" t="n">
+        <v>-0.1588</v>
+      </c>
+      <c r="J107" s="3" t="n">
+        <v>-0.1753</v>
       </c>
       <c r="K107" s="5" t="n">
-        <v>2.8689</v>
+        <v>-1.6288</v>
+      </c>
+      <c r="L107" s="5" t="n">
+        <v>1.3852</v>
+      </c>
+      <c r="M107" s="3" t="n">
+        <v>0.6973</v>
       </c>
     </row>
     <row r="108" ht="22" customHeight="1">
@@ -4460,7 +5108,7 @@
         </is>
       </c>
       <c r="B108" s="3" t="n">
-        <v>0.0314</v>
+        <v>0.029</v>
       </c>
       <c r="C108" s="3" t="n">
         <v>0.0302</v>
@@ -4475,19 +5123,25 @@
         <v>0.0311</v>
       </c>
       <c r="G108" s="3" t="n">
+        <v>0.0296</v>
+      </c>
+      <c r="H108" s="3" t="n">
         <v>-0.0009</v>
       </c>
-      <c r="H108" s="3" t="n">
-        <v>-0.0026</v>
-      </c>
       <c r="I108" s="3" t="n">
-        <v>-0.0003</v>
+        <v>-0.0002</v>
       </c>
       <c r="J108" s="3" t="n">
-        <v>-0.0012</v>
+        <v>0.0021</v>
       </c>
       <c r="K108" s="3" t="n">
-        <v>-0.0003</v>
+        <v>0.0005999999999999999</v>
+      </c>
+      <c r="L108" s="3" t="n">
+        <v>0.0012</v>
+      </c>
+      <c r="M108" s="3" t="n">
+        <v>0.0021</v>
       </c>
     </row>
     <row r="109" ht="22" customHeight="1">
@@ -4497,7 +5151,7 @@
         </is>
       </c>
       <c r="B109" s="3" t="n">
-        <v>0.0132</v>
+        <v>0.0134</v>
       </c>
       <c r="C109" s="3" t="n">
         <v>0.0135</v>
@@ -4512,19 +5166,25 @@
         <v>0.0135</v>
       </c>
       <c r="G109" s="3" t="n">
+        <v>0.0118</v>
+      </c>
+      <c r="H109" s="3" t="n">
         <v>0.0004</v>
       </c>
-      <c r="H109" s="3" t="n">
-        <v>-0.0002</v>
-      </c>
       <c r="I109" s="3" t="n">
-        <v>0.0003</v>
+        <v>-0.0004</v>
       </c>
       <c r="J109" s="3" t="n">
-        <v>0.0003</v>
+        <v>0.0001</v>
       </c>
       <c r="K109" s="3" t="n">
-        <v>-0.0001</v>
+        <v>-0.0016</v>
+      </c>
+      <c r="L109" s="3" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="M109" s="3" t="n">
+        <v>-0.0003</v>
       </c>
     </row>
     <row r="110" ht="22" customHeight="1">
@@ -4534,7 +5194,7 @@
         </is>
       </c>
       <c r="B110" s="3" t="n">
-        <v>0.0114</v>
+        <v>0.0125</v>
       </c>
       <c r="C110" s="3" t="n">
         <v>0.0122</v>
@@ -4549,19 +5209,25 @@
         <v>0.0129</v>
       </c>
       <c r="G110" s="3" t="n">
+        <v>0.0125</v>
+      </c>
+      <c r="H110" s="3" t="n">
         <v>-0.0012</v>
       </c>
-      <c r="H110" s="3" t="n">
-        <v>0.002</v>
-      </c>
       <c r="I110" s="3" t="n">
-        <v>0.0015</v>
+        <v>0.0009</v>
       </c>
       <c r="J110" s="3" t="n">
-        <v>0.0008</v>
+        <v>0.0004</v>
       </c>
       <c r="K110" s="3" t="n">
-        <v>0.002</v>
+        <v>0</v>
+      </c>
+      <c r="L110" s="3" t="n">
+        <v>-0.0003</v>
+      </c>
+      <c r="M110" s="3" t="n">
+        <v>0.0009</v>
       </c>
     </row>
     <row r="111" ht="22" customHeight="1">
@@ -4571,7 +5237,7 @@
         </is>
       </c>
       <c r="B111" s="3" t="n">
-        <v>0.0115</v>
+        <v>0.0121</v>
       </c>
       <c r="C111" s="3" t="n">
         <v>0.0116</v>
@@ -4586,19 +5252,25 @@
         <v>0.0126</v>
       </c>
       <c r="G111" s="3" t="n">
+        <v>0.0139</v>
+      </c>
+      <c r="H111" s="3" t="n">
         <v>-0.0004</v>
       </c>
-      <c r="H111" s="3" t="n">
-        <v>0.0029</v>
-      </c>
       <c r="I111" s="3" t="n">
-        <v>0.0011</v>
+        <v>0.0023</v>
       </c>
       <c r="J111" s="3" t="n">
-        <v>0.0001</v>
+        <v>0.0005</v>
       </c>
       <c r="K111" s="3" t="n">
-        <v>0.0005</v>
+        <v>0.0018</v>
+      </c>
+      <c r="L111" s="3" t="n">
+        <v>-0.0005</v>
+      </c>
+      <c r="M111" s="3" t="n">
+        <v>-0.0001</v>
       </c>
     </row>
     <row r="112" ht="22" customHeight="1">
@@ -4608,7 +5280,7 @@
         </is>
       </c>
       <c r="B112" s="3" t="n">
-        <v>0.0119</v>
+        <v>0.0135</v>
       </c>
       <c r="C112" s="3" t="n">
         <v>0.0143</v>
@@ -4623,19 +5295,25 @@
         <v>0.0138</v>
       </c>
       <c r="G112" s="3" t="n">
+        <v>0.0141</v>
+      </c>
+      <c r="H112" s="3" t="n">
         <v>0.0011</v>
       </c>
-      <c r="H112" s="3" t="n">
-        <v>0.0009</v>
-      </c>
       <c r="I112" s="3" t="n">
-        <v>0.0019</v>
+        <v>-0.0007</v>
       </c>
       <c r="J112" s="3" t="n">
-        <v>0.0024</v>
+        <v>0.0003</v>
       </c>
       <c r="K112" s="3" t="n">
-        <v>0.0013</v>
+        <v>0.0005999999999999999</v>
+      </c>
+      <c r="L112" s="3" t="n">
+        <v>0.0008</v>
+      </c>
+      <c r="M112" s="3" t="n">
+        <v>-0.0003</v>
       </c>
     </row>
     <row r="113" ht="22" customHeight="1">
@@ -4645,7 +5323,7 @@
         </is>
       </c>
       <c r="B113" s="3" t="n">
-        <v>0.0122</v>
+        <v>0.0119</v>
       </c>
       <c r="C113" s="3" t="n">
         <v>0.0119</v>
@@ -4660,19 +5338,25 @@
         <v>0.0115</v>
       </c>
       <c r="G113" s="3" t="n">
+        <v>0.0118</v>
+      </c>
+      <c r="H113" s="3" t="n">
         <v>-0.0013</v>
       </c>
-      <c r="H113" s="3" t="n">
-        <v>0.0016</v>
-      </c>
       <c r="I113" s="3" t="n">
-        <v>-0.0007</v>
+        <v>0.0019</v>
       </c>
       <c r="J113" s="3" t="n">
-        <v>-0.0003</v>
+        <v>-0.0004</v>
       </c>
       <c r="K113" s="3" t="n">
-        <v>0.001</v>
+        <v>-0.0001</v>
+      </c>
+      <c r="L113" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M113" s="3" t="n">
+        <v>0.0013</v>
       </c>
     </row>
     <row r="114" ht="22" customHeight="1">
@@ -4682,7 +5366,7 @@
         </is>
       </c>
       <c r="B114" s="3" t="n">
-        <v>11.2283</v>
+        <v>11.1178</v>
       </c>
       <c r="C114" s="3" t="n">
         <v>11.2079</v>
@@ -4697,19 +5381,25 @@
         <v>11.1965</v>
       </c>
       <c r="G114" s="3" t="n">
+        <v>11.2175</v>
+      </c>
+      <c r="H114" s="3" t="n">
         <v>0.1896</v>
       </c>
-      <c r="H114" s="3" t="n">
-        <v>-0.0917</v>
-      </c>
       <c r="I114" s="3" t="n">
-        <v>-0.0318</v>
+        <v>0.0188</v>
       </c>
       <c r="J114" s="3" t="n">
-        <v>-0.0204</v>
+        <v>0.07870000000000001</v>
       </c>
       <c r="K114" s="3" t="n">
-        <v>-0.21</v>
+        <v>0.0997</v>
+      </c>
+      <c r="L114" s="3" t="n">
+        <v>0.0901</v>
+      </c>
+      <c r="M114" s="3" t="n">
+        <v>-0.09950000000000001</v>
       </c>
     </row>
     <row r="115" ht="22" customHeight="1">
@@ -4719,7 +5409,7 @@
         </is>
       </c>
       <c r="B115" s="3" t="n">
-        <v>103.1788</v>
+        <v>103.5452</v>
       </c>
       <c r="C115" s="3" t="n">
         <v>103.1946</v>
@@ -4734,19 +5424,25 @@
         <v>103.1502</v>
       </c>
       <c r="G115" s="3" t="n">
+        <v>103.3076</v>
+      </c>
+      <c r="H115" s="3" t="n">
         <v>-0.0219</v>
       </c>
-      <c r="H115" s="3" t="n">
-        <v>0.1249</v>
-      </c>
       <c r="I115" s="3" t="n">
-        <v>-0.0286</v>
+        <v>-0.2415</v>
       </c>
       <c r="J115" s="3" t="n">
-        <v>0.0158</v>
+        <v>-0.395</v>
       </c>
       <c r="K115" s="3" t="n">
-        <v>0.0377</v>
+        <v>-0.2376</v>
+      </c>
+      <c r="L115" s="3" t="n">
+        <v>-0.3506</v>
+      </c>
+      <c r="M115" s="3" t="n">
+        <v>-0.3287</v>
       </c>
     </row>
     <row r="116" ht="22" customHeight="1">
@@ -4756,7 +5452,7 @@
         </is>
       </c>
       <c r="B116" s="3" t="n">
-        <v>0.07240000000000001</v>
+        <v>0.07140000000000001</v>
       </c>
       <c r="C116" s="3" t="n">
         <v>0.0704</v>
@@ -4771,19 +5467,25 @@
         <v>0.0702</v>
       </c>
       <c r="G116" s="3" t="n">
+        <v>0.0702</v>
+      </c>
+      <c r="H116" s="3" t="n">
         <v>0.0018</v>
       </c>
-      <c r="H116" s="3" t="n">
-        <v>-0.002</v>
-      </c>
       <c r="I116" s="3" t="n">
-        <v>-0.0022</v>
+        <v>-0.001</v>
       </c>
       <c r="J116" s="3" t="n">
-        <v>-0.002</v>
+        <v>-0.0012</v>
       </c>
       <c r="K116" s="3" t="n">
-        <v>-0.0038</v>
+        <v>-0.0012</v>
+      </c>
+      <c r="L116" s="3" t="n">
+        <v>-0.001</v>
+      </c>
+      <c r="M116" s="3" t="n">
+        <v>-0.0028</v>
       </c>
     </row>
     <row r="117" ht="22" customHeight="1">
@@ -4793,7 +5495,7 @@
         </is>
       </c>
       <c r="B117" s="3" t="n">
-        <v>78.2829</v>
+        <v>78.27809999999999</v>
       </c>
       <c r="C117" s="3" t="n">
         <v>78.2533</v>
@@ -4808,19 +5510,25 @@
         <v>78.2975</v>
       </c>
       <c r="G117" s="3" t="n">
+        <v>78.2649</v>
+      </c>
+      <c r="H117" s="3" t="n">
         <v>-0.0526</v>
       </c>
-      <c r="H117" s="3" t="n">
-        <v>0.0163</v>
-      </c>
       <c r="I117" s="3" t="n">
-        <v>0.0146</v>
+        <v>0.0211</v>
       </c>
       <c r="J117" s="3" t="n">
-        <v>-0.0296</v>
+        <v>0.0194</v>
       </c>
       <c r="K117" s="3" t="n">
-        <v>0.023</v>
+        <v>-0.0132</v>
+      </c>
+      <c r="L117" s="3" t="n">
+        <v>-0.0248</v>
+      </c>
+      <c r="M117" s="3" t="n">
+        <v>0.0278</v>
       </c>
     </row>
     <row r="118" ht="22" customHeight="1">
@@ -4830,7 +5538,7 @@
         </is>
       </c>
       <c r="B118" s="3" t="n">
-        <v>0.0136</v>
+        <v>0.0134</v>
       </c>
       <c r="C118" s="3" t="n">
         <v>0.0127</v>
@@ -4845,19 +5553,25 @@
         <v>0.0134</v>
       </c>
       <c r="G118" s="3" t="n">
+        <v>0.0135</v>
+      </c>
+      <c r="H118" s="3" t="n">
         <v>-0.0005999999999999999</v>
       </c>
-      <c r="H118" s="3" t="n">
-        <v>0.0007</v>
-      </c>
       <c r="I118" s="3" t="n">
-        <v>-0.0002</v>
+        <v>0.0009</v>
       </c>
       <c r="J118" s="3" t="n">
-        <v>-0.0009</v>
+        <v>0</v>
       </c>
       <c r="K118" s="3" t="n">
-        <v>-0.0003</v>
+        <v>0.0001</v>
+      </c>
+      <c r="L118" s="3" t="n">
+        <v>-0.0007</v>
+      </c>
+      <c r="M118" s="3" t="n">
+        <v>-0.0001</v>
       </c>
     </row>
     <row r="119" ht="22" customHeight="1">
@@ -4882,18 +5596,24 @@
         <v>0.0132</v>
       </c>
       <c r="G119" s="3" t="n">
+        <v>0.0133</v>
+      </c>
+      <c r="H119" s="3" t="n">
         <v>-0.0005999999999999999</v>
       </c>
-      <c r="H119" s="3" t="n">
+      <c r="I119" s="3" t="n">
         <v>-0.0016</v>
       </c>
-      <c r="I119" s="3" t="n">
-        <v>0</v>
-      </c>
       <c r="J119" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K119" s="3" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="L119" s="3" t="n">
         <v>-0.0005</v>
       </c>
-      <c r="K119" s="3" t="n">
+      <c r="M119" s="3" t="n">
         <v>0.0001</v>
       </c>
     </row>
@@ -4904,7 +5624,7 @@
         </is>
       </c>
       <c r="B120" s="3" t="n">
-        <v>0.0138</v>
+        <v>0.0125</v>
       </c>
       <c r="C120" s="3" t="n">
         <v>0.0123</v>
@@ -4919,19 +5639,25 @@
         <v>0.0113</v>
       </c>
       <c r="G120" s="3" t="n">
+        <v>0.0133</v>
+      </c>
+      <c r="H120" s="3" t="n">
         <v>-0.0002</v>
       </c>
-      <c r="H120" s="3" t="n">
-        <v>0.0001</v>
-      </c>
       <c r="I120" s="3" t="n">
-        <v>-0.0025</v>
+        <v>0.0014</v>
       </c>
       <c r="J120" s="3" t="n">
-        <v>-0.0015</v>
+        <v>-0.0012</v>
       </c>
       <c r="K120" s="3" t="n">
-        <v>-0.0013</v>
+        <v>0.0008</v>
+      </c>
+      <c r="L120" s="3" t="n">
+        <v>-0.0002</v>
+      </c>
+      <c r="M120" s="3" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="121" ht="22" customHeight="1">
@@ -4941,7 +5667,7 @@
         </is>
       </c>
       <c r="B121" s="3" t="n">
-        <v>0.0133</v>
+        <v>0.015</v>
       </c>
       <c r="C121" s="3" t="n">
         <v>0.0153</v>
@@ -4956,19 +5682,25 @@
         <v>0.0114</v>
       </c>
       <c r="G121" s="3" t="n">
+        <v>0.0134</v>
+      </c>
+      <c r="H121" s="3" t="n">
         <v>0.0022</v>
       </c>
-      <c r="H121" s="3" t="n">
-        <v>-0.0005999999999999999</v>
-      </c>
       <c r="I121" s="3" t="n">
+        <v>-0.0023</v>
+      </c>
+      <c r="J121" s="3" t="n">
+        <v>-0.0036</v>
+      </c>
+      <c r="K121" s="3" t="n">
+        <v>-0.0016</v>
+      </c>
+      <c r="L121" s="3" t="n">
+        <v>0.0003</v>
+      </c>
+      <c r="M121" s="3" t="n">
         <v>-0.0019</v>
-      </c>
-      <c r="J121" s="3" t="n">
-        <v>0.002</v>
-      </c>
-      <c r="K121" s="3" t="n">
-        <v>-0.0002</v>
       </c>
     </row>
     <row r="122" ht="22" customHeight="1">
@@ -4978,7 +5710,7 @@
         </is>
       </c>
       <c r="B122" s="3" t="n">
-        <v>0.0372</v>
+        <v>0.0356</v>
       </c>
       <c r="C122" s="3" t="n">
         <v>0.036</v>
@@ -4993,19 +5725,25 @@
         <v>0.0359</v>
       </c>
       <c r="G122" s="3" t="n">
+        <v>0.0357</v>
+      </c>
+      <c r="H122" s="3" t="n">
         <v>-0.0005</v>
       </c>
-      <c r="H122" s="3" t="n">
-        <v>-0.0019</v>
-      </c>
       <c r="I122" s="3" t="n">
-        <v>-0.0013</v>
+        <v>-0.0003</v>
       </c>
       <c r="J122" s="3" t="n">
-        <v>-0.0012</v>
+        <v>0.0003</v>
       </c>
       <c r="K122" s="3" t="n">
-        <v>-0.0007</v>
+        <v>0.0001</v>
+      </c>
+      <c r="L122" s="3" t="n">
+        <v>0.0004</v>
+      </c>
+      <c r="M122" s="3" t="n">
+        <v>0.0009</v>
       </c>
     </row>
     <row r="123" ht="22" customHeight="1">
@@ -5015,7 +5753,7 @@
         </is>
       </c>
       <c r="B123" s="3" t="n">
-        <v>0.008800000000000001</v>
+        <v>0.0107</v>
       </c>
       <c r="C123" s="3" t="n">
         <v>0.0109</v>
@@ -5030,19 +5768,25 @@
         <v>0.0109</v>
       </c>
       <c r="G123" s="3" t="n">
+        <v>0.008800000000000001</v>
+      </c>
+      <c r="H123" s="3" t="n">
         <v>0.002</v>
       </c>
-      <c r="H123" s="3" t="n">
-        <v>0.0023</v>
-      </c>
       <c r="I123" s="3" t="n">
-        <v>0.0021</v>
+        <v>0.0004</v>
       </c>
       <c r="J123" s="3" t="n">
-        <v>0.0021</v>
+        <v>0.0002</v>
       </c>
       <c r="K123" s="3" t="n">
-        <v>0.0001</v>
+        <v>-0.0019</v>
+      </c>
+      <c r="L123" s="3" t="n">
+        <v>0.0002</v>
+      </c>
+      <c r="M123" s="3" t="n">
+        <v>-0.0018</v>
       </c>
     </row>
     <row r="124" ht="22" customHeight="1">
@@ -5052,7 +5796,7 @@
         </is>
       </c>
       <c r="B124" s="3" t="n">
-        <v>0.033</v>
+        <v>0.0332</v>
       </c>
       <c r="C124" s="3" t="n">
         <v>0.0261</v>
@@ -5067,19 +5811,25 @@
         <v>0.0289</v>
       </c>
       <c r="G124" s="3" t="n">
+        <v>0.0299</v>
+      </c>
+      <c r="H124" s="3" t="n">
         <v>-0.0028</v>
       </c>
-      <c r="H124" s="3" t="n">
+      <c r="I124" s="3" t="n">
+        <v>-0.0045</v>
+      </c>
+      <c r="J124" s="3" t="n">
         <v>-0.0043</v>
       </c>
-      <c r="I124" s="3" t="n">
-        <v>-0.0041</v>
-      </c>
-      <c r="J124" s="3" t="n">
-        <v>-0.0069</v>
-      </c>
       <c r="K124" s="3" t="n">
-        <v>-0.0041</v>
+        <v>-0.0033</v>
+      </c>
+      <c r="L124" s="3" t="n">
+        <v>-0.0071</v>
+      </c>
+      <c r="M124" s="3" t="n">
+        <v>-0.0043</v>
       </c>
     </row>
     <row r="125" ht="22" customHeight="1">
@@ -5089,7 +5839,7 @@
         </is>
       </c>
       <c r="B125" s="3" t="n">
-        <v>0.007</v>
+        <v>0.0069</v>
       </c>
       <c r="C125" s="3" t="n">
         <v>0.0072</v>
@@ -5104,19 +5854,25 @@
         <v>0.0066</v>
       </c>
       <c r="G125" s="3" t="n">
-        <v>-0.0001</v>
+        <v>0.0066</v>
       </c>
       <c r="H125" s="3" t="n">
         <v>-0.0001</v>
       </c>
       <c r="I125" s="3" t="n">
-        <v>-0.0004</v>
+        <v>0</v>
       </c>
       <c r="J125" s="3" t="n">
-        <v>0.0002</v>
+        <v>-0.0003</v>
       </c>
       <c r="K125" s="3" t="n">
+        <v>-0.0003</v>
+      </c>
+      <c r="L125" s="3" t="n">
         <v>0.0003</v>
+      </c>
+      <c r="M125" s="3" t="n">
+        <v>0.0004</v>
       </c>
     </row>
     <row r="126" ht="22" customHeight="1">
@@ -5126,7 +5882,7 @@
         </is>
       </c>
       <c r="B126" s="3" t="n">
-        <v>6.7951</v>
+        <v>5.749</v>
       </c>
       <c r="C126" s="3" t="n">
         <v>7.7834</v>
@@ -5141,19 +5897,25 @@
         <v>5.7648</v>
       </c>
       <c r="G126" s="3" t="n">
+        <v>7.7557</v>
+      </c>
+      <c r="H126" s="3" t="n">
         <v>0.0015</v>
       </c>
-      <c r="H126" s="5" t="n">
-        <v>-1.087</v>
-      </c>
-      <c r="I126" s="5" t="n">
-        <v>-1.0303</v>
+      <c r="I126" s="3" t="n">
+        <v>-0.0409</v>
       </c>
       <c r="J126" s="3" t="n">
-        <v>0.9883</v>
-      </c>
-      <c r="K126" s="3" t="n">
-        <v>0.9868</v>
+        <v>0.0158</v>
+      </c>
+      <c r="K126" s="5" t="n">
+        <v>2.0067</v>
+      </c>
+      <c r="L126" s="5" t="n">
+        <v>2.0344</v>
+      </c>
+      <c r="M126" s="5" t="n">
+        <v>2.0329</v>
       </c>
     </row>
     <row r="127" ht="22" customHeight="1">
@@ -5163,7 +5925,7 @@
         </is>
       </c>
       <c r="B127" s="3" t="n">
-        <v>0.0116</v>
+        <v>0.01</v>
       </c>
       <c r="C127" s="3" t="n">
         <v>0.0097</v>
@@ -5178,19 +5940,25 @@
         <v>0.0089999999999999</v>
       </c>
       <c r="G127" s="3" t="n">
+        <v>0.0092</v>
+      </c>
+      <c r="H127" s="3" t="n">
         <v>0.0009</v>
       </c>
-      <c r="H127" s="3" t="n">
-        <v>-0.0022</v>
-      </c>
       <c r="I127" s="3" t="n">
-        <v>-0.0026</v>
+        <v>-0.0005999999999999999</v>
       </c>
       <c r="J127" s="3" t="n">
-        <v>-0.0019</v>
+        <v>-0.001</v>
       </c>
       <c r="K127" s="3" t="n">
-        <v>-0.0028</v>
+        <v>-0.0008</v>
+      </c>
+      <c r="L127" s="3" t="n">
+        <v>-0.0003</v>
+      </c>
+      <c r="M127" s="3" t="n">
+        <v>-0.0012</v>
       </c>
     </row>
     <row r="128" ht="22" customHeight="1">
@@ -5200,7 +5968,7 @@
         </is>
       </c>
       <c r="B128" s="3" t="n">
-        <v>6.911</v>
+        <v>6.9429</v>
       </c>
       <c r="C128" s="3" t="n">
         <v>6.9143</v>
@@ -5215,19 +5983,25 @@
         <v>6.9137</v>
       </c>
       <c r="G128" s="3" t="n">
+        <v>6.8995</v>
+      </c>
+      <c r="H128" s="3" t="n">
         <v>0.0133</v>
       </c>
-      <c r="H128" s="3" t="n">
-        <v>-0.0305</v>
-      </c>
       <c r="I128" s="3" t="n">
-        <v>0.0027</v>
+        <v>-0.0624</v>
       </c>
       <c r="J128" s="3" t="n">
-        <v>0.0033</v>
+        <v>-0.0292</v>
       </c>
       <c r="K128" s="3" t="n">
-        <v>-0.01</v>
+        <v>-0.0434</v>
+      </c>
+      <c r="L128" s="3" t="n">
+        <v>-0.0286</v>
+      </c>
+      <c r="M128" s="3" t="n">
+        <v>-0.0419</v>
       </c>
     </row>
     <row r="129" ht="22" customHeight="1">
@@ -5237,7 +6011,7 @@
         </is>
       </c>
       <c r="B129" s="3" t="n">
-        <v>0.0712</v>
+        <v>0.0746</v>
       </c>
       <c r="C129" s="3" t="n">
         <v>0.0737</v>
@@ -5252,19 +6026,25 @@
         <v>0.0726</v>
       </c>
       <c r="G129" s="3" t="n">
+        <v>0.0737</v>
+      </c>
+      <c r="H129" s="3" t="n">
         <v>-0.0024</v>
       </c>
-      <c r="H129" s="3" t="n">
-        <v>0.0016</v>
-      </c>
       <c r="I129" s="3" t="n">
-        <v>0.0014</v>
+        <v>-0.0018</v>
       </c>
       <c r="J129" s="3" t="n">
-        <v>0.0025</v>
+        <v>-0.002</v>
       </c>
       <c r="K129" s="3" t="n">
-        <v>0.0049</v>
+        <v>-0.0009</v>
+      </c>
+      <c r="L129" s="3" t="n">
+        <v>-0.0009</v>
+      </c>
+      <c r="M129" s="3" t="n">
+        <v>0.0015</v>
       </c>
     </row>
     <row r="130" ht="22" customHeight="1">
@@ -5274,7 +6054,7 @@
         </is>
       </c>
       <c r="B130" s="3" t="n">
-        <v>0.0519</v>
+        <v>0.0509</v>
       </c>
       <c r="C130" s="3" t="n">
         <v>0.049</v>
@@ -5289,19 +6069,25 @@
         <v>0.0515</v>
       </c>
       <c r="G130" s="3" t="n">
+        <v>0.0494</v>
+      </c>
+      <c r="H130" s="3" t="n">
         <v>-0.0002</v>
       </c>
-      <c r="H130" s="3" t="n">
+      <c r="I130" s="3" t="n">
+        <v>-0.0009</v>
+      </c>
+      <c r="J130" s="3" t="n">
+        <v>0.0005999999999999999</v>
+      </c>
+      <c r="K130" s="3" t="n">
+        <v>-0.0015</v>
+      </c>
+      <c r="L130" s="3" t="n">
         <v>-0.0019</v>
       </c>
-      <c r="I130" s="3" t="n">
-        <v>-0.0004</v>
-      </c>
-      <c r="J130" s="3" t="n">
-        <v>-0.0029</v>
-      </c>
-      <c r="K130" s="3" t="n">
-        <v>-0.0027</v>
+      <c r="M130" s="3" t="n">
+        <v>-0.0017</v>
       </c>
     </row>
     <row r="131" ht="22" customHeight="1">
@@ -5311,7 +6097,7 @@
         </is>
       </c>
       <c r="B131" s="3" t="n">
-        <v>0.0421</v>
+        <v>0.0423</v>
       </c>
       <c r="C131" s="3" t="n">
         <v>0.044</v>
@@ -5326,19 +6112,25 @@
         <v>0.0416</v>
       </c>
       <c r="G131" s="3" t="n">
+        <v>0.0422</v>
+      </c>
+      <c r="H131" s="3" t="n">
         <v>0.0013</v>
       </c>
-      <c r="H131" s="3" t="n">
-        <v>0.0001</v>
-      </c>
       <c r="I131" s="3" t="n">
-        <v>-0.0005</v>
+        <v>-0.0001</v>
       </c>
       <c r="J131" s="3" t="n">
-        <v>0.0019</v>
+        <v>-0.0007</v>
       </c>
       <c r="K131" s="3" t="n">
-        <v>0.0005999999999999999</v>
+        <v>-0.0001</v>
+      </c>
+      <c r="L131" s="3" t="n">
+        <v>0.0017</v>
+      </c>
+      <c r="M131" s="3" t="n">
+        <v>0.0004</v>
       </c>
     </row>
     <row r="132" ht="22" customHeight="1">
@@ -5348,7 +6140,7 @@
         </is>
       </c>
       <c r="B132" s="3" t="n">
-        <v>1.0402</v>
+        <v>1.0144</v>
       </c>
       <c r="C132" s="3" t="n">
         <v>1.0404</v>
@@ -5363,19 +6155,25 @@
         <v>1.0281</v>
       </c>
       <c r="G132" s="3" t="n">
+        <v>1.0221</v>
+      </c>
+      <c r="H132" s="3" t="n">
         <v>0.0039</v>
       </c>
-      <c r="H132" s="3" t="n">
-        <v>-0.0318</v>
-      </c>
       <c r="I132" s="3" t="n">
-        <v>-0.0121</v>
+        <v>-0.006</v>
       </c>
       <c r="J132" s="3" t="n">
-        <v>0.0002</v>
+        <v>0.0137</v>
       </c>
       <c r="K132" s="3" t="n">
-        <v>-0.0037</v>
+        <v>0.0077</v>
+      </c>
+      <c r="L132" s="3" t="n">
+        <v>0.026</v>
+      </c>
+      <c r="M132" s="3" t="n">
+        <v>0.0221</v>
       </c>
     </row>
     <row r="133" ht="22" customHeight="1">
@@ -5385,7 +6183,7 @@
         </is>
       </c>
       <c r="B133" s="3" t="n">
-        <v>0.011</v>
+        <v>0.0089</v>
       </c>
       <c r="C133" s="3" t="n">
         <v>0.0111</v>
@@ -5400,19 +6198,25 @@
         <v>0.0111</v>
       </c>
       <c r="G133" s="3" t="n">
+        <v>0.0126</v>
+      </c>
+      <c r="H133" s="3" t="n">
         <v>0.0022</v>
       </c>
-      <c r="H133" s="3" t="n">
-        <v>0.0005999999999999999</v>
-      </c>
       <c r="I133" s="3" t="n">
-        <v>0.0001</v>
+        <v>0.0027</v>
       </c>
       <c r="J133" s="3" t="n">
-        <v>0.0001</v>
+        <v>0.0022</v>
       </c>
       <c r="K133" s="3" t="n">
-        <v>-0.0021</v>
+        <v>0.0037</v>
+      </c>
+      <c r="L133" s="3" t="n">
+        <v>0.0022</v>
+      </c>
+      <c r="M133" s="3" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="134" ht="22" customHeight="1">
@@ -5422,7 +6226,7 @@
         </is>
       </c>
       <c r="B134" s="3" t="n">
-        <v>0.0114</v>
+        <v>0.0116</v>
       </c>
       <c r="C134" s="3" t="n">
         <v>0.0115</v>
@@ -5437,19 +6241,25 @@
         <v>0.0114</v>
       </c>
       <c r="G134" s="3" t="n">
+        <v>0.0106</v>
+      </c>
+      <c r="H134" s="3" t="n">
         <v>-0.0005</v>
       </c>
-      <c r="H134" s="3" t="n">
-        <v>-0.0011</v>
-      </c>
       <c r="I134" s="3" t="n">
-        <v>0</v>
+        <v>-0.0013</v>
       </c>
       <c r="J134" s="3" t="n">
-        <v>0.0001</v>
+        <v>-0.0002</v>
       </c>
       <c r="K134" s="3" t="n">
-        <v>0.0005999999999999999</v>
+        <v>-0.001</v>
+      </c>
+      <c r="L134" s="3" t="n">
+        <v>-0.0001</v>
+      </c>
+      <c r="M134" s="3" t="n">
+        <v>0.0004</v>
       </c>
     </row>
     <row r="135" ht="22" customHeight="1">
@@ -5459,7 +6269,7 @@
         </is>
       </c>
       <c r="B135" s="3" t="n">
-        <v>4.0978</v>
+        <v>4.1324</v>
       </c>
       <c r="C135" s="3" t="n">
         <v>4.1014</v>
@@ -5474,19 +6284,25 @@
         <v>4.0932</v>
       </c>
       <c r="G135" s="3" t="n">
+        <v>4.1116</v>
+      </c>
+      <c r="H135" s="3" t="n">
         <v>0.0064</v>
       </c>
-      <c r="H135" s="3" t="n">
-        <v>-0.008699999999999999</v>
-      </c>
       <c r="I135" s="3" t="n">
-        <v>-0.0046</v>
+        <v>-0.0433</v>
       </c>
       <c r="J135" s="3" t="n">
-        <v>0.0036</v>
+        <v>-0.0392</v>
       </c>
       <c r="K135" s="3" t="n">
-        <v>-0.0028</v>
+        <v>-0.0208</v>
+      </c>
+      <c r="L135" s="3" t="n">
+        <v>-0.031</v>
+      </c>
+      <c r="M135" s="3" t="n">
+        <v>-0.0374</v>
       </c>
     </row>
     <row r="136" ht="22" customHeight="1">
@@ -5496,7 +6312,7 @@
         </is>
       </c>
       <c r="B136" s="3" t="n">
-        <v>22.9785</v>
+        <v>22.8473</v>
       </c>
       <c r="C136" s="3" t="n">
         <v>23.0271</v>
@@ -5511,19 +6327,25 @@
         <v>22.9528</v>
       </c>
       <c r="G136" s="3" t="n">
+        <v>23.0345</v>
+      </c>
+      <c r="H136" s="3" t="n">
         <v>0.177</v>
       </c>
-      <c r="H136" s="3" t="n">
-        <v>-0.1657</v>
-      </c>
       <c r="I136" s="3" t="n">
-        <v>-0.0257</v>
+        <v>-0.0345</v>
       </c>
       <c r="J136" s="3" t="n">
-        <v>0.0486</v>
+        <v>0.1055</v>
       </c>
       <c r="K136" s="3" t="n">
-        <v>-0.1284</v>
+        <v>0.1872</v>
+      </c>
+      <c r="L136" s="3" t="n">
+        <v>0.1798</v>
+      </c>
+      <c r="M136" s="3" t="n">
+        <v>0.0028</v>
       </c>
     </row>
     <row r="137" ht="22" customHeight="1">
@@ -5533,7 +6355,7 @@
         </is>
       </c>
       <c r="B137" s="3" t="n">
-        <v>0.0097</v>
+        <v>0.008699999999999901</v>
       </c>
       <c r="C137" s="3" t="n">
         <v>0.0083</v>
@@ -5548,19 +6370,25 @@
         <v>0.008699999999999901</v>
       </c>
       <c r="G137" s="3" t="n">
+        <v>0.0086</v>
+      </c>
+      <c r="H137" s="3" t="n">
         <v>-0.0008</v>
       </c>
-      <c r="H137" s="3" t="n">
-        <v>0.0015</v>
-      </c>
       <c r="I137" s="3" t="n">
-        <v>-0.001</v>
+        <v>0.0025</v>
       </c>
       <c r="J137" s="3" t="n">
-        <v>-0.0014</v>
+        <v>0</v>
       </c>
       <c r="K137" s="3" t="n">
-        <v>-0.0005999999999999999</v>
+        <v>-0.0001</v>
+      </c>
+      <c r="L137" s="3" t="n">
+        <v>-0.0004</v>
+      </c>
+      <c r="M137" s="3" t="n">
+        <v>0.0004</v>
       </c>
     </row>
     <row r="138" ht="22" customHeight="1">
@@ -5570,7 +6398,7 @@
         </is>
       </c>
       <c r="B138" s="3" t="n">
-        <v>0.008800000000000001</v>
+        <v>0.0078</v>
       </c>
       <c r="C138" s="3" t="n">
         <v>0.0077</v>
@@ -5585,20 +6413,26 @@
         <v>0.0116</v>
       </c>
       <c r="G138" s="3" t="n">
+        <v>0.007</v>
+      </c>
+      <c r="H138" s="3" t="n">
         <v>-0.0003</v>
       </c>
-      <c r="H138" s="3" t="n">
-        <v>-0.0018</v>
-      </c>
       <c r="I138" s="3" t="n">
-        <v>0.0028</v>
+        <v>-0.0008</v>
       </c>
       <c r="J138" s="3" t="n">
-        <v>-0.0011</v>
+        <v>0.0038</v>
       </c>
       <c r="K138" s="3" t="n">
         <v>-0.0008</v>
       </c>
+      <c r="L138" s="3" t="n">
+        <v>-0.0001</v>
+      </c>
+      <c r="M138" s="3" t="n">
+        <v>0.0002</v>
+      </c>
     </row>
     <row r="139" ht="22" customHeight="1">
       <c r="A139" s="3" t="inlineStr">
@@ -5607,7 +6441,7 @@
         </is>
       </c>
       <c r="B139" s="3" t="n">
-        <v>1021.5688</v>
+        <v>1024.5888</v>
       </c>
       <c r="C139" s="3" t="n">
         <v>1017.9934</v>
@@ -5621,20 +6455,26 @@
       <c r="F139" s="3" t="n">
         <v>1022.0216</v>
       </c>
-      <c r="G139" s="5" t="n">
+      <c r="G139" s="3" t="n">
+        <v>1021.012</v>
+      </c>
+      <c r="H139" s="5" t="n">
         <v>4.5137</v>
       </c>
-      <c r="H139" s="5" t="n">
-        <v>-66.96550000000001</v>
-      </c>
-      <c r="I139" s="3" t="n">
-        <v>0.4528</v>
+      <c r="I139" s="5" t="n">
+        <v>-69.9855</v>
       </c>
       <c r="J139" s="5" t="n">
-        <v>-3.5754</v>
+        <v>-2.5672</v>
       </c>
       <c r="K139" s="5" t="n">
-        <v>-8.0891</v>
+        <v>-3.5768</v>
+      </c>
+      <c r="L139" s="5" t="n">
+        <v>-6.5954</v>
+      </c>
+      <c r="M139" s="5" t="n">
+        <v>-11.1091</v>
       </c>
     </row>
     <row r="140" ht="22" customHeight="1">
@@ -5644,7 +6484,7 @@
         </is>
       </c>
       <c r="B140" s="3" t="n">
-        <v>5.6838</v>
+        <v>5.6718</v>
       </c>
       <c r="C140" s="3" t="n">
         <v>5.6573</v>
@@ -5659,19 +6499,25 @@
         <v>5.678</v>
       </c>
       <c r="G140" s="3" t="n">
+        <v>5.6628</v>
+      </c>
+      <c r="H140" s="3" t="n">
         <v>0.06619999999999999</v>
       </c>
-      <c r="H140" s="3" t="n">
-        <v>-0.0144</v>
-      </c>
       <c r="I140" s="3" t="n">
-        <v>-0.0058</v>
+        <v>-0.0024</v>
       </c>
       <c r="J140" s="3" t="n">
-        <v>-0.0265</v>
+        <v>0.0062</v>
       </c>
       <c r="K140" s="3" t="n">
-        <v>-0.0927</v>
+        <v>-0.008999999999999999</v>
+      </c>
+      <c r="L140" s="3" t="n">
+        <v>-0.0145</v>
+      </c>
+      <c r="M140" s="3" t="n">
+        <v>-0.08069999999999999</v>
       </c>
     </row>
     <row r="141" ht="22" customHeight="1">
@@ -5681,7 +6527,7 @@
         </is>
       </c>
       <c r="B141" s="3" t="n">
-        <v>0.0368</v>
+        <v>0.0367</v>
       </c>
       <c r="C141" s="3" t="n">
         <v>0.036</v>
@@ -5696,19 +6542,25 @@
         <v>0.0368</v>
       </c>
       <c r="G141" s="3" t="n">
+        <v>0.0371</v>
+      </c>
+      <c r="H141" s="3" t="n">
         <v>-0.0029</v>
       </c>
-      <c r="H141" s="3" t="n">
-        <v>0.0001</v>
-      </c>
       <c r="I141" s="3" t="n">
-        <v>0</v>
+        <v>0.0002</v>
       </c>
       <c r="J141" s="3" t="n">
-        <v>-0.0008</v>
+        <v>0.0001</v>
       </c>
       <c r="K141" s="3" t="n">
-        <v>0.0021</v>
+        <v>0.0004</v>
+      </c>
+      <c r="L141" s="3" t="n">
+        <v>-0.0007</v>
+      </c>
+      <c r="M141" s="3" t="n">
+        <v>0.0022</v>
       </c>
     </row>
     <row r="142" ht="22" customHeight="1">
@@ -5733,18 +6585,24 @@
         <v>0.0094</v>
       </c>
       <c r="G142" s="3" t="n">
-        <v>0</v>
+        <v>0.0091</v>
       </c>
       <c r="H142" s="3" t="n">
-        <v>0.0001</v>
+        <v>0</v>
       </c>
       <c r="I142" s="3" t="n">
-        <v>0</v>
+        <v>0.0001</v>
       </c>
       <c r="J142" s="3" t="n">
         <v>0</v>
       </c>
       <c r="K142" s="3" t="n">
+        <v>-0.0003</v>
+      </c>
+      <c r="L142" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M142" s="3" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5755,7 +6613,7 @@
         </is>
       </c>
       <c r="B143" s="3" t="n">
-        <v>1.0004</v>
+        <v>1.0005</v>
       </c>
       <c r="C143" s="3" t="n">
         <v>0.998</v>
@@ -5770,19 +6628,25 @@
         <v>1.0018</v>
       </c>
       <c r="G143" s="3" t="n">
+        <v>1.0145</v>
+      </c>
+      <c r="H143" s="3" t="n">
         <v>-0.0056</v>
       </c>
-      <c r="H143" s="3" t="n">
-        <v>0.0021</v>
-      </c>
       <c r="I143" s="3" t="n">
-        <v>0.0014</v>
+        <v>0.002</v>
       </c>
       <c r="J143" s="3" t="n">
-        <v>-0.0024</v>
+        <v>0.0013</v>
       </c>
       <c r="K143" s="3" t="n">
-        <v>0.0032</v>
+        <v>0.014</v>
+      </c>
+      <c r="L143" s="3" t="n">
+        <v>-0.0025</v>
+      </c>
+      <c r="M143" s="3" t="n">
+        <v>0.0031</v>
       </c>
     </row>
     <row r="144" ht="22" customHeight="1">
@@ -5792,7 +6656,7 @@
         </is>
       </c>
       <c r="B144" s="3" t="n">
-        <v>0.0199</v>
+        <v>0.0196</v>
       </c>
       <c r="C144" s="3" t="n">
         <v>0.0193</v>
@@ -5807,19 +6671,25 @@
         <v>0.0197</v>
       </c>
       <c r="G144" s="3" t="n">
+        <v>0.0197</v>
+      </c>
+      <c r="H144" s="3" t="n">
         <v>-0.0002</v>
       </c>
-      <c r="H144" s="3" t="n">
-        <v>0.0001</v>
-      </c>
       <c r="I144" s="3" t="n">
-        <v>-0.0002</v>
+        <v>0.0004</v>
       </c>
       <c r="J144" s="3" t="n">
-        <v>-0.0005999999999999999</v>
+        <v>0.0001</v>
       </c>
       <c r="K144" s="3" t="n">
-        <v>-0.0004</v>
+        <v>0.0001</v>
+      </c>
+      <c r="L144" s="3" t="n">
+        <v>-0.0003</v>
+      </c>
+      <c r="M144" s="3" t="n">
+        <v>-0.0001</v>
       </c>
     </row>
     <row r="145" ht="22" customHeight="1">
@@ -5829,7 +6699,7 @@
         </is>
       </c>
       <c r="B145" s="3" t="n">
-        <v>0.0239</v>
+        <v>0.0228</v>
       </c>
       <c r="C145" s="3" t="n">
         <v>0.0228</v>
@@ -5844,19 +6714,25 @@
         <v>0.0223</v>
       </c>
       <c r="G145" s="3" t="n">
+        <v>0.0244</v>
+      </c>
+      <c r="H145" s="3" t="n">
         <v>-0.0019</v>
       </c>
-      <c r="H145" s="3" t="n">
-        <v>-0.0013</v>
-      </c>
       <c r="I145" s="3" t="n">
-        <v>-0.0016</v>
+        <v>-0.0002</v>
       </c>
       <c r="J145" s="3" t="n">
-        <v>-0.0011</v>
+        <v>-0.0005</v>
       </c>
       <c r="K145" s="3" t="n">
-        <v>0.0008</v>
+        <v>0.0016</v>
+      </c>
+      <c r="L145" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M145" s="3" t="n">
+        <v>0.0019</v>
       </c>
     </row>
     <row r="146" ht="22" customHeight="1">
@@ -5866,7 +6742,7 @@
         </is>
       </c>
       <c r="B146" s="3" t="n">
-        <v>0.0072</v>
+        <v>0.0075</v>
       </c>
       <c r="C146" s="3" t="n">
         <v>0.0073</v>
@@ -5881,19 +6757,25 @@
         <v>0.0073</v>
       </c>
       <c r="G146" s="3" t="n">
-        <v>0</v>
+        <v>0.0073</v>
       </c>
       <c r="H146" s="3" t="n">
-        <v>0.0001</v>
+        <v>0</v>
       </c>
       <c r="I146" s="3" t="n">
-        <v>0.0001</v>
+        <v>-0.0002</v>
       </c>
       <c r="J146" s="3" t="n">
-        <v>0.0001</v>
+        <v>-0.0002</v>
       </c>
       <c r="K146" s="3" t="n">
-        <v>0.0001</v>
+        <v>-0.0002</v>
+      </c>
+      <c r="L146" s="3" t="n">
+        <v>-0.0002</v>
+      </c>
+      <c r="M146" s="3" t="n">
+        <v>-0.0002</v>
       </c>
     </row>
     <row r="147" ht="22" customHeight="1">
@@ -5903,7 +6785,7 @@
         </is>
       </c>
       <c r="B147" s="3" t="n">
-        <v>0.1123</v>
+        <v>0.1096</v>
       </c>
       <c r="C147" s="3" t="n">
         <v>0.1104</v>
@@ -5918,19 +6800,25 @@
         <v>0.1111</v>
       </c>
       <c r="G147" s="3" t="n">
+        <v>0.1124</v>
+      </c>
+      <c r="H147" s="3" t="n">
         <v>0.0003</v>
       </c>
-      <c r="H147" s="3" t="n">
-        <v>-0.0018</v>
-      </c>
       <c r="I147" s="3" t="n">
-        <v>-0.0012</v>
+        <v>0.0009</v>
       </c>
       <c r="J147" s="3" t="n">
-        <v>-0.0019</v>
+        <v>0.0015</v>
       </c>
       <c r="K147" s="3" t="n">
-        <v>-0.0022</v>
+        <v>0.0028</v>
+      </c>
+      <c r="L147" s="3" t="n">
+        <v>0.0008</v>
+      </c>
+      <c r="M147" s="3" t="n">
+        <v>0.0005</v>
       </c>
     </row>
     <row r="148" ht="22" customHeight="1">
@@ -5940,7 +6828,7 @@
         </is>
       </c>
       <c r="B148" s="3" t="n">
-        <v>0.0147</v>
+        <v>0.0145</v>
       </c>
       <c r="C148" s="3" t="n">
         <v>0.0143</v>
@@ -5955,19 +6843,25 @@
         <v>0.0147</v>
       </c>
       <c r="G148" s="3" t="n">
+        <v>0.0148</v>
+      </c>
+      <c r="H148" s="3" t="n">
         <v>-0.0003</v>
       </c>
-      <c r="H148" s="3" t="n">
-        <v>0.0001</v>
-      </c>
       <c r="I148" s="3" t="n">
-        <v>0</v>
+        <v>0.0003</v>
       </c>
       <c r="J148" s="3" t="n">
-        <v>-0.0004</v>
+        <v>0.0002</v>
       </c>
       <c r="K148" s="3" t="n">
-        <v>-0.0001</v>
+        <v>0.0003</v>
+      </c>
+      <c r="L148" s="3" t="n">
+        <v>-0.0002</v>
+      </c>
+      <c r="M148" s="3" t="n">
+        <v>0.0001</v>
       </c>
     </row>
     <row r="149" ht="22" customHeight="1">
@@ -5977,7 +6871,7 @@
         </is>
       </c>
       <c r="B149" s="3" t="n">
-        <v>0.0145</v>
+        <v>0.0144</v>
       </c>
       <c r="C149" s="3" t="n">
         <v>0.0144</v>
@@ -5992,19 +6886,25 @@
         <v>0.0143</v>
       </c>
       <c r="G149" s="3" t="n">
+        <v>0.0145</v>
+      </c>
+      <c r="H149" s="3" t="n">
         <v>0.0002</v>
       </c>
-      <c r="H149" s="3" t="n">
+      <c r="I149" s="3" t="n">
+        <v>-0.0001</v>
+      </c>
+      <c r="J149" s="3" t="n">
+        <v>-0.0001</v>
+      </c>
+      <c r="K149" s="3" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="L149" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M149" s="3" t="n">
         <v>-0.0002</v>
-      </c>
-      <c r="I149" s="3" t="n">
-        <v>-0.0002</v>
-      </c>
-      <c r="J149" s="3" t="n">
-        <v>-0.0001</v>
-      </c>
-      <c r="K149" s="3" t="n">
-        <v>-0.0003</v>
       </c>
     </row>
     <row r="150" ht="22" customHeight="1">
@@ -6029,18 +6929,24 @@
         <v>0.0115</v>
       </c>
       <c r="G150" s="3" t="n">
-        <v>-0.0001</v>
+        <v>0.0112</v>
       </c>
       <c r="H150" s="3" t="n">
         <v>-0.0001</v>
       </c>
       <c r="I150" s="3" t="n">
-        <v>0.0001</v>
+        <v>-0.0001</v>
       </c>
       <c r="J150" s="3" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="K150" s="3" t="n">
         <v>-0.0002</v>
       </c>
-      <c r="K150" s="3" t="n">
+      <c r="L150" s="3" t="n">
+        <v>-0.0002</v>
+      </c>
+      <c r="M150" s="3" t="n">
         <v>-0.0001</v>
       </c>
     </row>
@@ -6051,7 +6957,7 @@
         </is>
       </c>
       <c r="B151" s="3" t="n">
-        <v>585.3546</v>
+        <v>583.1314</v>
       </c>
       <c r="C151" s="3" t="n">
         <v>581.6846</v>
@@ -6065,20 +6971,26 @@
       <c r="F151" s="3" t="n">
         <v>583.2809999999999</v>
       </c>
-      <c r="G151" s="5" t="n">
+      <c r="G151" s="3" t="n">
+        <v>592.9519</v>
+      </c>
+      <c r="H151" s="5" t="n">
         <v>5.6632</v>
       </c>
-      <c r="H151" s="5" t="n">
-        <v>-4.9806</v>
-      </c>
       <c r="I151" s="5" t="n">
-        <v>-2.0736</v>
-      </c>
-      <c r="J151" s="5" t="n">
-        <v>-3.67</v>
+        <v>-2.7574</v>
+      </c>
+      <c r="J151" s="3" t="n">
+        <v>0.1496</v>
       </c>
       <c r="K151" s="5" t="n">
-        <v>-9.3332</v>
+        <v>9.820499999999999</v>
+      </c>
+      <c r="L151" s="5" t="n">
+        <v>-1.4468</v>
+      </c>
+      <c r="M151" s="5" t="n">
+        <v>-7.11</v>
       </c>
     </row>
     <row r="152" ht="22" customHeight="1">
@@ -6103,18 +7015,24 @@
         <v>0.0366</v>
       </c>
       <c r="G152" s="3" t="n">
+        <v>0.0367</v>
+      </c>
+      <c r="H152" s="3" t="n">
         <v>-0.0008</v>
       </c>
-      <c r="H152" s="3" t="n">
+      <c r="I152" s="3" t="n">
         <v>0.0002</v>
       </c>
-      <c r="I152" s="3" t="n">
+      <c r="J152" s="3" t="n">
         <v>0.0003</v>
       </c>
-      <c r="J152" s="3" t="n">
+      <c r="K152" s="3" t="n">
+        <v>0.0004</v>
+      </c>
+      <c r="L152" s="3" t="n">
         <v>-0.0008</v>
       </c>
-      <c r="K152" s="3" t="n">
+      <c r="M152" s="3" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6125,7 +7043,7 @@
         </is>
       </c>
       <c r="B153" s="3" t="n">
-        <v>0.8282</v>
+        <v>0.8233</v>
       </c>
       <c r="C153" s="3" t="n">
         <v>0.8236</v>
@@ -6140,19 +7058,25 @@
         <v>0.83</v>
       </c>
       <c r="G153" s="3" t="n">
+        <v>0.8296</v>
+      </c>
+      <c r="H153" s="3" t="n">
         <v>-0.0097</v>
       </c>
-      <c r="H153" s="3" t="n">
-        <v>0.0037</v>
-      </c>
       <c r="I153" s="3" t="n">
-        <v>0.0018</v>
+        <v>0.0086</v>
       </c>
       <c r="J153" s="3" t="n">
-        <v>-0.0046</v>
+        <v>0.0067</v>
       </c>
       <c r="K153" s="3" t="n">
-        <v>0.0051</v>
+        <v>0.0063</v>
+      </c>
+      <c r="L153" s="3" t="n">
+        <v>0.0003</v>
+      </c>
+      <c r="M153" s="3" t="n">
+        <v>0.01</v>
       </c>
     </row>
     <row r="154" ht="22" customHeight="1">
@@ -6162,7 +7086,7 @@
         </is>
       </c>
       <c r="B154" s="3" t="n">
-        <v>0.0241</v>
+        <v>0.0242</v>
       </c>
       <c r="C154" s="3" t="n">
         <v>0.0239</v>
@@ -6177,7 +7101,7 @@
         <v>0.0241</v>
       </c>
       <c r="G154" s="3" t="n">
-        <v>0.0001</v>
+        <v>0.024</v>
       </c>
       <c r="H154" s="3" t="n">
         <v>0.0001</v>
@@ -6186,10 +7110,16 @@
         <v>0</v>
       </c>
       <c r="J154" s="3" t="n">
+        <v>-0.0001</v>
+      </c>
+      <c r="K154" s="3" t="n">
         <v>-0.0002</v>
       </c>
-      <c r="K154" s="3" t="n">
+      <c r="L154" s="3" t="n">
         <v>-0.0003</v>
+      </c>
+      <c r="M154" s="3" t="n">
+        <v>-0.0004</v>
       </c>
     </row>
     <row r="155" ht="22" customHeight="1">
@@ -6199,7 +7129,7 @@
         </is>
       </c>
       <c r="B155" s="3" t="n">
-        <v>0.0115</v>
+        <v>0.0116</v>
       </c>
       <c r="C155" s="3" t="n">
         <v>0.0116</v>
@@ -6214,19 +7144,25 @@
         <v>0.0115</v>
       </c>
       <c r="G155" s="3" t="n">
-        <v>0</v>
+        <v>0.0116</v>
       </c>
       <c r="H155" s="3" t="n">
-        <v>0.0002</v>
+        <v>0</v>
       </c>
       <c r="I155" s="3" t="n">
-        <v>0</v>
+        <v>0.0001</v>
       </c>
       <c r="J155" s="3" t="n">
-        <v>0.0001</v>
+        <v>-0.0001</v>
       </c>
       <c r="K155" s="3" t="n">
-        <v>0.0001</v>
+        <v>0</v>
+      </c>
+      <c r="L155" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M155" s="3" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="156" ht="22" customHeight="1">
@@ -6236,7 +7172,7 @@
         </is>
       </c>
       <c r="B156" s="3" t="n">
-        <v>6.2092</v>
+        <v>6.1626</v>
       </c>
       <c r="C156" s="3" t="n">
         <v>227.4179</v>
@@ -6250,20 +7186,26 @@
       <c r="F156" s="3" t="n">
         <v>7.1944</v>
       </c>
-      <c r="G156" s="5" t="n">
+      <c r="G156" s="3" t="n">
+        <v>6.1684</v>
+      </c>
+      <c r="H156" s="5" t="n">
         <v>221.2733</v>
       </c>
-      <c r="H156" s="5" t="n">
-        <v>79.4684</v>
-      </c>
-      <c r="I156" s="3" t="n">
-        <v>0.9852</v>
+      <c r="I156" s="5" t="n">
+        <v>79.515</v>
       </c>
       <c r="J156" s="5" t="n">
-        <v>221.2087</v>
+        <v>1.0318</v>
       </c>
       <c r="K156" s="3" t="n">
-        <v>-0.0646</v>
+        <v>0.0058</v>
+      </c>
+      <c r="L156" s="5" t="n">
+        <v>221.2553</v>
+      </c>
+      <c r="M156" s="3" t="n">
+        <v>-0.018</v>
       </c>
     </row>
     <row r="157" ht="22" customHeight="1">
@@ -6273,7 +7215,7 @@
         </is>
       </c>
       <c r="B157" s="3" t="n">
-        <v>0.0122</v>
+        <v>0.0124</v>
       </c>
       <c r="C157" s="3" t="n">
         <v>0.0122</v>
@@ -6288,19 +7230,25 @@
         <v>0.0122</v>
       </c>
       <c r="G157" s="3" t="n">
-        <v>0.0001</v>
+        <v>0.0123</v>
       </c>
       <c r="H157" s="3" t="n">
         <v>0.0001</v>
       </c>
       <c r="I157" s="3" t="n">
-        <v>0</v>
+        <v>-0.0001</v>
       </c>
       <c r="J157" s="3" t="n">
-        <v>0</v>
+        <v>-0.0002</v>
       </c>
       <c r="K157" s="3" t="n">
         <v>-0.0001</v>
+      </c>
+      <c r="L157" s="3" t="n">
+        <v>-0.0002</v>
+      </c>
+      <c r="M157" s="3" t="n">
+        <v>-0.0003</v>
       </c>
     </row>
     <row r="158" ht="22" customHeight="1">
@@ -6310,7 +7258,7 @@
         </is>
       </c>
       <c r="B158" s="3" t="n">
-        <v>0.0213</v>
+        <v>0.0212</v>
       </c>
       <c r="C158" s="3" t="n">
         <v>0.0211</v>
@@ -6325,19 +7273,25 @@
         <v>0.0213</v>
       </c>
       <c r="G158" s="3" t="n">
+        <v>0.0216</v>
+      </c>
+      <c r="H158" s="3" t="n">
         <v>-0.0002</v>
       </c>
-      <c r="H158" s="3" t="n">
-        <v>0.0001</v>
-      </c>
       <c r="I158" s="3" t="n">
-        <v>0</v>
+        <v>0.0002</v>
       </c>
       <c r="J158" s="3" t="n">
-        <v>-0.0002</v>
+        <v>0.0001</v>
       </c>
       <c r="K158" s="3" t="n">
-        <v>0</v>
+        <v>0.0004</v>
+      </c>
+      <c r="L158" s="3" t="n">
+        <v>-0.0001</v>
+      </c>
+      <c r="M158" s="3" t="n">
+        <v>0.0001</v>
       </c>
     </row>
     <row r="159" ht="22" customHeight="1">
@@ -6347,7 +7301,7 @@
         </is>
       </c>
       <c r="B159" s="3" t="n">
-        <v>0.0111</v>
+        <v>0.0113</v>
       </c>
       <c r="C159" s="3" t="n">
         <v>0.0117</v>
@@ -6362,19 +7316,25 @@
         <v>0.0111</v>
       </c>
       <c r="G159" s="3" t="n">
-        <v>0.0003</v>
+        <v>0.0113</v>
       </c>
       <c r="H159" s="3" t="n">
         <v>0.0003</v>
       </c>
       <c r="I159" s="3" t="n">
-        <v>0</v>
+        <v>0.0001</v>
       </c>
       <c r="J159" s="3" t="n">
-        <v>0.0005999999999999999</v>
+        <v>-0.0002</v>
       </c>
       <c r="K159" s="3" t="n">
-        <v>0.0003</v>
+        <v>0</v>
+      </c>
+      <c r="L159" s="3" t="n">
+        <v>0.0004</v>
+      </c>
+      <c r="M159" s="3" t="n">
+        <v>0.0001</v>
       </c>
     </row>
     <row r="160" ht="22" customHeight="1">
@@ -6384,7 +7344,7 @@
         </is>
       </c>
       <c r="B160" s="3" t="n">
-        <v>0.0116</v>
+        <v>0.0117</v>
       </c>
       <c r="C160" s="3" t="n">
         <v>0.0118</v>
@@ -6399,19 +7359,25 @@
         <v>0.0117</v>
       </c>
       <c r="G160" s="3" t="n">
-        <v>0.0001</v>
+        <v>0.0119</v>
       </c>
       <c r="H160" s="3" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="I160" s="3" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="J160" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K160" s="3" t="n">
         <v>0.0002</v>
       </c>
-      <c r="I160" s="3" t="n">
-        <v>0.0001</v>
-      </c>
-      <c r="J160" s="3" t="n">
-        <v>0.0002</v>
-      </c>
-      <c r="K160" s="3" t="n">
-        <v>0.0001</v>
+      <c r="L160" s="3" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="M160" s="3" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="161" ht="22" customHeight="1">
@@ -6436,18 +7402,24 @@
         <v>0.0105</v>
       </c>
       <c r="G161" s="3" t="n">
+        <v>0.0105</v>
+      </c>
+      <c r="H161" s="3" t="n">
         <v>0.0002</v>
       </c>
-      <c r="H161" s="3" t="n">
-        <v>0</v>
-      </c>
       <c r="I161" s="3" t="n">
-        <v>0.0001</v>
+        <v>0</v>
       </c>
       <c r="J161" s="3" t="n">
-        <v>0</v>
+        <v>0.0001</v>
       </c>
       <c r="K161" s="3" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="L161" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M161" s="3" t="n">
         <v>-0.0002</v>
       </c>
     </row>
@@ -6458,7 +7430,7 @@
         </is>
       </c>
       <c r="B162" s="3" t="n">
-        <v>0.0198</v>
+        <v>0.0197</v>
       </c>
       <c r="C162" s="3" t="n">
         <v>0.0192</v>
@@ -6473,19 +7445,25 @@
         <v>0.0196</v>
       </c>
       <c r="G162" s="3" t="n">
+        <v>0.0199</v>
+      </c>
+      <c r="H162" s="3" t="n">
         <v>-0.0002</v>
       </c>
-      <c r="H162" s="3" t="n">
-        <v>0</v>
-      </c>
       <c r="I162" s="3" t="n">
-        <v>-0.0002</v>
+        <v>0.0001</v>
       </c>
       <c r="J162" s="3" t="n">
-        <v>-0.0005999999999999999</v>
+        <v>-0.0001</v>
       </c>
       <c r="K162" s="3" t="n">
-        <v>-0.0004</v>
+        <v>0.0002</v>
+      </c>
+      <c r="L162" s="3" t="n">
+        <v>-0.0005</v>
+      </c>
+      <c r="M162" s="3" t="n">
+        <v>-0.0003</v>
       </c>
     </row>
     <row r="163" ht="22" customHeight="1">
@@ -6495,7 +7473,7 @@
         </is>
       </c>
       <c r="B163" s="3" t="n">
-        <v>37.4094</v>
+        <v>37.412</v>
       </c>
       <c r="C163" s="3" t="n">
         <v>37.4009</v>
@@ -6510,19 +7488,25 @@
         <v>37.4054</v>
       </c>
       <c r="G163" s="3" t="n">
+        <v>37.4086</v>
+      </c>
+      <c r="H163" s="3" t="n">
         <v>0.0118</v>
       </c>
-      <c r="H163" s="3" t="n">
-        <v>-0.0005</v>
-      </c>
       <c r="I163" s="3" t="n">
-        <v>-0.004</v>
+        <v>-0.0031</v>
       </c>
       <c r="J163" s="3" t="n">
-        <v>-0.008500000000000001</v>
+        <v>-0.0066</v>
       </c>
       <c r="K163" s="3" t="n">
-        <v>-0.0203</v>
+        <v>-0.0034</v>
+      </c>
+      <c r="L163" s="3" t="n">
+        <v>-0.0111</v>
+      </c>
+      <c r="M163" s="3" t="n">
+        <v>-0.0229</v>
       </c>
     </row>
     <row r="164" ht="22" customHeight="1">
@@ -6532,7 +7516,7 @@
         </is>
       </c>
       <c r="B164" s="3" t="n">
-        <v>0.0126</v>
+        <v>0.0127</v>
       </c>
       <c r="C164" s="3" t="n">
         <v>0.0125</v>
@@ -6547,19 +7531,25 @@
         <v>0.0129</v>
       </c>
       <c r="G164" s="3" t="n">
-        <v>-0.0001</v>
+        <v>0.0125</v>
       </c>
       <c r="H164" s="3" t="n">
-        <v>0</v>
+        <v>-0.0001</v>
       </c>
       <c r="I164" s="3" t="n">
-        <v>0.0003</v>
+        <v>-0.0001</v>
       </c>
       <c r="J164" s="3" t="n">
-        <v>-0.0001</v>
+        <v>0.0002</v>
       </c>
       <c r="K164" s="3" t="n">
-        <v>0</v>
+        <v>-0.0002</v>
+      </c>
+      <c r="L164" s="3" t="n">
+        <v>-0.0002</v>
+      </c>
+      <c r="M164" s="3" t="n">
+        <v>-0.0001</v>
       </c>
     </row>
     <row r="165" ht="22" customHeight="1">
@@ -6569,7 +7559,7 @@
         </is>
       </c>
       <c r="B165" s="3" t="n">
-        <v>0.0278</v>
+        <v>0.0276</v>
       </c>
       <c r="C165" s="3" t="n">
         <v>0.0276</v>
@@ -6584,19 +7574,25 @@
         <v>0.0278</v>
       </c>
       <c r="G165" s="3" t="n">
+        <v>0.0278</v>
+      </c>
+      <c r="H165" s="3" t="n">
         <v>-0.0002</v>
       </c>
-      <c r="H165" s="3" t="n">
-        <v>-0.0009</v>
-      </c>
       <c r="I165" s="3" t="n">
-        <v>0</v>
+        <v>-0.0007</v>
       </c>
       <c r="J165" s="3" t="n">
-        <v>-0.0002</v>
+        <v>0.0002</v>
       </c>
       <c r="K165" s="3" t="n">
-        <v>0</v>
+        <v>0.0002</v>
+      </c>
+      <c r="L165" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M165" s="3" t="n">
+        <v>0.0002</v>
       </c>
     </row>
     <row r="166" ht="22" customHeight="1">
@@ -6606,7 +7602,7 @@
         </is>
       </c>
       <c r="B166" s="3" t="n">
-        <v>0.018</v>
+        <v>0.0181</v>
       </c>
       <c r="C166" s="3" t="n">
         <v>0.0182</v>
@@ -6621,19 +7617,25 @@
         <v>0.0182</v>
       </c>
       <c r="G166" s="3" t="n">
-        <v>0.0001</v>
+        <v>0.0182</v>
       </c>
       <c r="H166" s="3" t="n">
-        <v>0</v>
+        <v>0.0001</v>
       </c>
       <c r="I166" s="3" t="n">
-        <v>0.0002</v>
+        <v>-0.0001</v>
       </c>
       <c r="J166" s="3" t="n">
-        <v>0.0002</v>
+        <v>0.0001</v>
       </c>
       <c r="K166" s="3" t="n">
         <v>0.0001</v>
+      </c>
+      <c r="L166" s="3" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="M166" s="3" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="167" ht="22" customHeight="1">
@@ -6643,7 +7645,7 @@
         </is>
       </c>
       <c r="B167" s="3" t="n">
-        <v>0.007900000000000001</v>
+        <v>0.0077</v>
       </c>
       <c r="C167" s="3" t="n">
         <v>0.007900000000000001</v>
@@ -6658,19 +7660,25 @@
         <v>0.0077</v>
       </c>
       <c r="G167" s="3" t="n">
-        <v>0</v>
+        <v>0.0077</v>
       </c>
       <c r="H167" s="3" t="n">
         <v>0</v>
       </c>
       <c r="I167" s="3" t="n">
-        <v>-0.0002</v>
+        <v>0.0002</v>
       </c>
       <c r="J167" s="3" t="n">
         <v>0</v>
       </c>
       <c r="K167" s="3" t="n">
         <v>0</v>
+      </c>
+      <c r="L167" s="3" t="n">
+        <v>0.0002</v>
+      </c>
+      <c r="M167" s="3" t="n">
+        <v>0.0002</v>
       </c>
     </row>
     <row r="168" ht="22" customHeight="1">
@@ -6680,7 +7688,7 @@
         </is>
       </c>
       <c r="B168" s="3" t="n">
-        <v>0.0365</v>
+        <v>0.0366</v>
       </c>
       <c r="C168" s="3" t="n">
         <v>0.0367</v>
@@ -6695,19 +7703,25 @@
         <v>0.0365</v>
       </c>
       <c r="G168" s="3" t="n">
-        <v>0</v>
+        <v>0.0367</v>
       </c>
       <c r="H168" s="3" t="n">
-        <v>-0.0002</v>
+        <v>0</v>
       </c>
       <c r="I168" s="3" t="n">
-        <v>0</v>
+        <v>-0.0003</v>
       </c>
       <c r="J168" s="3" t="n">
-        <v>0.0002</v>
+        <v>-0.0001</v>
       </c>
       <c r="K168" s="3" t="n">
-        <v>0.0002</v>
+        <v>0.0001</v>
+      </c>
+      <c r="L168" s="3" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="M168" s="3" t="n">
+        <v>0.0001</v>
       </c>
     </row>
     <row r="169" ht="22" customHeight="1">
@@ -6717,7 +7731,7 @@
         </is>
       </c>
       <c r="B169" s="3" t="n">
-        <v>1.3039</v>
+        <v>1.3003</v>
       </c>
       <c r="C169" s="3" t="n">
         <v>1.295</v>
@@ -6732,19 +7746,25 @@
         <v>1.2989</v>
       </c>
       <c r="G169" s="3" t="n">
+        <v>1.3121</v>
+      </c>
+      <c r="H169" s="3" t="n">
         <v>-0.0013</v>
       </c>
-      <c r="H169" s="3" t="n">
-        <v>-0.0017</v>
-      </c>
       <c r="I169" s="3" t="n">
-        <v>-0.005</v>
+        <v>0.0019</v>
       </c>
       <c r="J169" s="3" t="n">
-        <v>-0.0089</v>
+        <v>-0.0014</v>
       </c>
       <c r="K169" s="3" t="n">
-        <v>-0.0076</v>
+        <v>0.0118</v>
+      </c>
+      <c r="L169" s="3" t="n">
+        <v>-0.0053</v>
+      </c>
+      <c r="M169" s="3" t="n">
+        <v>-0.004</v>
       </c>
     </row>
     <row r="170" ht="22" customHeight="1">
@@ -6754,7 +7774,7 @@
         </is>
       </c>
       <c r="B170" s="3" t="n">
-        <v>0.6636</v>
+        <v>0.6625</v>
       </c>
       <c r="C170" s="3" t="n">
         <v>0.664</v>
@@ -6769,19 +7789,25 @@
         <v>0.6636</v>
       </c>
       <c r="G170" s="3" t="n">
+        <v>0.6674</v>
+      </c>
+      <c r="H170" s="3" t="n">
         <v>0.0013</v>
       </c>
-      <c r="H170" s="3" t="n">
-        <v>-0.0008</v>
-      </c>
       <c r="I170" s="3" t="n">
-        <v>0</v>
+        <v>0.0003</v>
       </c>
       <c r="J170" s="3" t="n">
-        <v>0.0004</v>
+        <v>0.0011</v>
       </c>
       <c r="K170" s="3" t="n">
-        <v>-0.0009</v>
+        <v>0.0049</v>
+      </c>
+      <c r="L170" s="3" t="n">
+        <v>0.0015</v>
+      </c>
+      <c r="M170" s="3" t="n">
+        <v>0.0002</v>
       </c>
     </row>
     <row r="171" ht="22" customHeight="1">
@@ -6791,7 +7817,7 @@
         </is>
       </c>
       <c r="B171" s="3" t="n">
-        <v>175.6666</v>
+        <v>175.976</v>
       </c>
       <c r="C171" s="3" t="n">
         <v>176.4808</v>
@@ -6806,19 +7832,25 @@
         <v>176.122</v>
       </c>
       <c r="G171" s="3" t="n">
+        <v>176.7129</v>
+      </c>
+      <c r="H171" s="3" t="n">
         <v>0.8138</v>
       </c>
-      <c r="H171" s="3" t="n">
-        <v>0.0508</v>
-      </c>
       <c r="I171" s="3" t="n">
-        <v>0.4554</v>
+        <v>-0.2586</v>
       </c>
       <c r="J171" s="3" t="n">
-        <v>0.8142</v>
+        <v>0.146</v>
       </c>
       <c r="K171" s="3" t="n">
-        <v>0.0004</v>
+        <v>0.7369</v>
+      </c>
+      <c r="L171" s="3" t="n">
+        <v>0.5048</v>
+      </c>
+      <c r="M171" s="3" t="n">
+        <v>-0.309</v>
       </c>
     </row>
     <row r="172" ht="22" customHeight="1">
@@ -6843,18 +7875,24 @@
         <v>0.0102</v>
       </c>
       <c r="G172" s="3" t="n">
+        <v>0.0104</v>
+      </c>
+      <c r="H172" s="3" t="n">
         <v>-0.0002</v>
       </c>
-      <c r="H172" s="3" t="n">
-        <v>-0.0001</v>
-      </c>
       <c r="I172" s="3" t="n">
-        <v>0</v>
+        <v>-0.0001</v>
       </c>
       <c r="J172" s="3" t="n">
-        <v>-0.0001</v>
+        <v>0</v>
       </c>
       <c r="K172" s="3" t="n">
+        <v>0.0002</v>
+      </c>
+      <c r="L172" s="3" t="n">
+        <v>-0.0001</v>
+      </c>
+      <c r="M172" s="3" t="n">
         <v>0.0001</v>
       </c>
     </row>
@@ -6865,7 +7903,7 @@
         </is>
       </c>
       <c r="B173" s="3" t="n">
-        <v>33.4812</v>
+        <v>33.3099</v>
       </c>
       <c r="C173" s="3" t="n">
         <v>33.9282</v>
@@ -6880,19 +7918,25 @@
         <v>33.3241</v>
       </c>
       <c r="G173" s="3" t="n">
+        <v>33.5618</v>
+      </c>
+      <c r="H173" s="3" t="n">
         <v>0.4725</v>
       </c>
-      <c r="H173" s="3" t="n">
-        <v>-0.1414</v>
-      </c>
       <c r="I173" s="3" t="n">
-        <v>-0.1571</v>
+        <v>0.0299</v>
       </c>
       <c r="J173" s="3" t="n">
-        <v>0.447</v>
+        <v>0.0142</v>
       </c>
       <c r="K173" s="3" t="n">
-        <v>-0.0255</v>
+        <v>0.2519</v>
+      </c>
+      <c r="L173" s="3" t="n">
+        <v>0.6183</v>
+      </c>
+      <c r="M173" s="3" t="n">
+        <v>0.1458</v>
       </c>
     </row>
     <row r="174" ht="22" customHeight="1">
@@ -6902,7 +7946,7 @@
         </is>
       </c>
       <c r="B174" s="3" t="n">
-        <v>0.9944</v>
+        <v>1.0077</v>
       </c>
       <c r="C174" s="3" t="n">
         <v>20.7753</v>
@@ -6916,20 +7960,26 @@
       <c r="F174" s="3" t="n">
         <v>1.0064</v>
       </c>
-      <c r="G174" s="5" t="n">
+      <c r="G174" s="3" t="n">
+        <v>1.0129</v>
+      </c>
+      <c r="H174" s="5" t="n">
         <v>19.7805</v>
       </c>
-      <c r="H174" s="5" t="n">
-        <v>9.0352</v>
-      </c>
-      <c r="I174" s="3" t="n">
-        <v>0.012</v>
-      </c>
-      <c r="J174" s="5" t="n">
-        <v>19.7809</v>
+      <c r="I174" s="5" t="n">
+        <v>9.0219</v>
+      </c>
+      <c r="J174" s="3" t="n">
+        <v>-0.0013</v>
       </c>
       <c r="K174" s="3" t="n">
-        <v>0.0004</v>
+        <v>0.0052</v>
+      </c>
+      <c r="L174" s="5" t="n">
+        <v>19.7676</v>
+      </c>
+      <c r="M174" s="3" t="n">
+        <v>-0.0129</v>
       </c>
     </row>
     <row r="175" ht="22" customHeight="1">
@@ -6939,7 +7989,7 @@
         </is>
       </c>
       <c r="B175" s="3" t="n">
-        <v>1.8027</v>
+        <v>1.7938</v>
       </c>
       <c r="C175" s="3" t="n">
         <v>1.8008</v>
@@ -6954,19 +8004,25 @@
         <v>1.8041</v>
       </c>
       <c r="G175" s="3" t="n">
+        <v>1.8061</v>
+      </c>
+      <c r="H175" s="3" t="n">
         <v>0.0069</v>
       </c>
-      <c r="H175" s="3" t="n">
-        <v>0.0008</v>
-      </c>
       <c r="I175" s="3" t="n">
-        <v>0.0014</v>
+        <v>0.0097</v>
       </c>
       <c r="J175" s="3" t="n">
-        <v>-0.0019</v>
+        <v>0.0103</v>
       </c>
       <c r="K175" s="3" t="n">
-        <v>-0.008800000000000001</v>
+        <v>0.0123</v>
+      </c>
+      <c r="L175" s="3" t="n">
+        <v>0.007</v>
+      </c>
+      <c r="M175" s="3" t="n">
+        <v>0.0001</v>
       </c>
     </row>
     <row r="176" ht="22" customHeight="1">
@@ -6976,7 +8032,7 @@
         </is>
       </c>
       <c r="B176" s="3" t="n">
-        <v>4.6462</v>
+        <v>4.6433</v>
       </c>
       <c r="C176" s="3" t="n">
         <v>4.6414</v>
@@ -6991,19 +8047,25 @@
         <v>4.6403</v>
       </c>
       <c r="G176" s="3" t="n">
+        <v>4.6504</v>
+      </c>
+      <c r="H176" s="3" t="n">
         <v>-0.0136</v>
       </c>
-      <c r="H176" s="3" t="n">
-        <v>-0.02</v>
-      </c>
       <c r="I176" s="3" t="n">
-        <v>-0.0059</v>
+        <v>-0.0171</v>
       </c>
       <c r="J176" s="3" t="n">
-        <v>-0.0048</v>
+        <v>-0.003</v>
       </c>
       <c r="K176" s="3" t="n">
-        <v>0.008800000000000001</v>
+        <v>0.0071</v>
+      </c>
+      <c r="L176" s="3" t="n">
+        <v>-0.0019</v>
+      </c>
+      <c r="M176" s="3" t="n">
+        <v>0.0117</v>
       </c>
     </row>
     <row r="177" ht="22" customHeight="1">
@@ -7013,7 +8075,7 @@
         </is>
       </c>
       <c r="B177" s="3" t="n">
-        <v>0.7633</v>
+        <v>0.762</v>
       </c>
       <c r="C177" s="3" t="n">
         <v>0.7481</v>
@@ -7028,19 +8090,25 @@
         <v>0.753</v>
       </c>
       <c r="G177" s="3" t="n">
+        <v>0.7663</v>
+      </c>
+      <c r="H177" s="3" t="n">
         <v>-0.0069</v>
       </c>
-      <c r="H177" s="3" t="n">
-        <v>-0.008800000000000001</v>
-      </c>
       <c r="I177" s="3" t="n">
-        <v>-0.0103</v>
+        <v>-0.0075</v>
       </c>
       <c r="J177" s="3" t="n">
-        <v>-0.0152</v>
+        <v>-0.008999999999999999</v>
       </c>
       <c r="K177" s="3" t="n">
-        <v>-0.0083</v>
+        <v>0.0043</v>
+      </c>
+      <c r="L177" s="3" t="n">
+        <v>-0.0139</v>
+      </c>
+      <c r="M177" s="3" t="n">
+        <v>-0.007</v>
       </c>
     </row>
     <row r="178" ht="22" customHeight="1">
@@ -7050,7 +8118,7 @@
         </is>
       </c>
       <c r="B178" s="3" t="n">
-        <v>124.3488</v>
+        <v>124.6994</v>
       </c>
       <c r="C178" s="3" t="n">
         <v>127.6254</v>
@@ -7064,20 +8132,26 @@
       <c r="F178" s="3" t="n">
         <v>124.0522</v>
       </c>
-      <c r="G178" s="5" t="n">
+      <c r="G178" s="3" t="n">
+        <v>124.5097</v>
+      </c>
+      <c r="H178" s="5" t="n">
         <v>3.5273</v>
       </c>
-      <c r="H178" s="3" t="n">
-        <v>0.4802</v>
-      </c>
       <c r="I178" s="3" t="n">
-        <v>-0.2966</v>
-      </c>
-      <c r="J178" s="5" t="n">
-        <v>3.2766</v>
+        <v>0.1296</v>
+      </c>
+      <c r="J178" s="3" t="n">
+        <v>-0.6472</v>
       </c>
       <c r="K178" s="3" t="n">
-        <v>-0.2507</v>
+        <v>-0.1897</v>
+      </c>
+      <c r="L178" s="5" t="n">
+        <v>2.926</v>
+      </c>
+      <c r="M178" s="3" t="n">
+        <v>-0.6012999999999999</v>
       </c>
     </row>
     <row r="179" ht="22" customHeight="1">
@@ -7087,7 +8161,7 @@
         </is>
       </c>
       <c r="B179" s="3" t="n">
-        <v>0.01</v>
+        <v>0.0103</v>
       </c>
       <c r="C179" s="3" t="n">
         <v>0.009900000000000001</v>
@@ -7102,19 +8176,25 @@
         <v>0.0098</v>
       </c>
       <c r="G179" s="3" t="n">
+        <v>0.0103</v>
+      </c>
+      <c r="H179" s="3" t="n">
         <v>-0.0002</v>
       </c>
-      <c r="H179" s="3" t="n">
-        <v>-0.0001</v>
-      </c>
       <c r="I179" s="3" t="n">
+        <v>-0.0004</v>
+      </c>
+      <c r="J179" s="3" t="n">
+        <v>-0.0005</v>
+      </c>
+      <c r="K179" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L179" s="3" t="n">
+        <v>-0.0004</v>
+      </c>
+      <c r="M179" s="3" t="n">
         <v>-0.0002</v>
-      </c>
-      <c r="J179" s="3" t="n">
-        <v>-0.0001</v>
-      </c>
-      <c r="K179" s="3" t="n">
-        <v>0.0001</v>
       </c>
     </row>
     <row r="180" ht="22" customHeight="1">
@@ -7124,7 +8204,7 @@
         </is>
       </c>
       <c r="B180" s="3" t="n">
-        <v>18.1723</v>
+        <v>18.1659</v>
       </c>
       <c r="C180" s="3" t="n">
         <v>18.1013</v>
@@ -7139,19 +8219,25 @@
         <v>18.1746</v>
       </c>
       <c r="G180" s="3" t="n">
+        <v>18.2621</v>
+      </c>
+      <c r="H180" s="3" t="n">
         <v>-0.0414</v>
       </c>
-      <c r="H180" s="3" t="n">
-        <v>0.0108</v>
-      </c>
       <c r="I180" s="3" t="n">
-        <v>0.0023</v>
+        <v>0.0172</v>
       </c>
       <c r="J180" s="3" t="n">
-        <v>-0.07099999999999999</v>
+        <v>0.008699999999999999</v>
       </c>
       <c r="K180" s="3" t="n">
-        <v>-0.0296</v>
+        <v>0.09619999999999999</v>
+      </c>
+      <c r="L180" s="3" t="n">
+        <v>-0.0646</v>
+      </c>
+      <c r="M180" s="3" t="n">
+        <v>-0.0232</v>
       </c>
     </row>
     <row r="181" ht="22" customHeight="1">
@@ -7161,7 +8247,7 @@
         </is>
       </c>
       <c r="B181" s="3" t="n">
-        <v>0.0115</v>
+        <v>0.0114</v>
       </c>
       <c r="C181" s="3" t="n">
         <v>0.0114</v>
@@ -7176,19 +8262,25 @@
         <v>0.0115</v>
       </c>
       <c r="G181" s="3" t="n">
-        <v>0</v>
+        <v>0.0114</v>
       </c>
       <c r="H181" s="3" t="n">
         <v>0</v>
       </c>
       <c r="I181" s="3" t="n">
-        <v>0</v>
+        <v>0.0001</v>
       </c>
       <c r="J181" s="3" t="n">
-        <v>-0.0001</v>
+        <v>0.0001</v>
       </c>
       <c r="K181" s="3" t="n">
-        <v>-0.0001</v>
+        <v>0</v>
+      </c>
+      <c r="L181" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M181" s="3" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="182" ht="22" customHeight="1">
@@ -7198,7 +8290,7 @@
         </is>
       </c>
       <c r="B182" s="3" t="n">
-        <v>0.008</v>
+        <v>0.0081</v>
       </c>
       <c r="C182" s="3" t="n">
         <v>0.008</v>
@@ -7213,19 +8305,25 @@
         <v>0.0081</v>
       </c>
       <c r="G182" s="3" t="n">
-        <v>-0.0001</v>
+        <v>0.0081</v>
       </c>
       <c r="H182" s="3" t="n">
-        <v>0.0001</v>
+        <v>-0.0001</v>
       </c>
       <c r="I182" s="3" t="n">
-        <v>0.0001</v>
+        <v>0</v>
       </c>
       <c r="J182" s="3" t="n">
         <v>0</v>
       </c>
       <c r="K182" s="3" t="n">
-        <v>0.0001</v>
+        <v>0</v>
+      </c>
+      <c r="L182" s="3" t="n">
+        <v>-0.0001</v>
+      </c>
+      <c r="M182" s="3" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="183" ht="22" customHeight="1">
@@ -7235,7 +8333,7 @@
         </is>
       </c>
       <c r="B183" s="3" t="n">
-        <v>0.0148</v>
+        <v>0.0155</v>
       </c>
       <c r="C183" s="3" t="n">
         <v>0.0152</v>
@@ -7250,19 +8348,25 @@
         <v>0.0163</v>
       </c>
       <c r="G183" s="3" t="n">
+        <v>0.0155</v>
+      </c>
+      <c r="H183" s="3" t="n">
         <v>0.0009</v>
       </c>
-      <c r="H183" s="3" t="n">
-        <v>0.0005</v>
-      </c>
       <c r="I183" s="3" t="n">
-        <v>0.0015</v>
+        <v>-0.0002</v>
       </c>
       <c r="J183" s="3" t="n">
-        <v>0.0004</v>
+        <v>0.0008</v>
       </c>
       <c r="K183" s="3" t="n">
-        <v>-0.0005</v>
+        <v>0</v>
+      </c>
+      <c r="L183" s="3" t="n">
+        <v>-0.0003</v>
+      </c>
+      <c r="M183" s="3" t="n">
+        <v>-0.0012</v>
       </c>
     </row>
     <row r="184" ht="22" customHeight="1">
@@ -7272,7 +8376,7 @@
         </is>
       </c>
       <c r="B184" s="3" t="n">
-        <v>79.4679</v>
+        <v>79.3926</v>
       </c>
       <c r="C184" s="3" t="n">
         <v>79.42919999999999</v>
@@ -7287,19 +8391,25 @@
         <v>79.4152</v>
       </c>
       <c r="G184" s="3" t="n">
+        <v>80.63639999999999</v>
+      </c>
+      <c r="H184" s="3" t="n">
         <v>-0.6409</v>
       </c>
-      <c r="H184" s="3" t="n">
-        <v>0.1125</v>
-      </c>
       <c r="I184" s="3" t="n">
-        <v>-0.0527</v>
+        <v>0.1878</v>
       </c>
       <c r="J184" s="3" t="n">
-        <v>-0.0387</v>
-      </c>
-      <c r="K184" s="3" t="n">
-        <v>0.6022</v>
+        <v>0.0226</v>
+      </c>
+      <c r="K184" s="5" t="n">
+        <v>1.2438</v>
+      </c>
+      <c r="L184" s="3" t="n">
+        <v>0.0366</v>
+      </c>
+      <c r="M184" s="3" t="n">
+        <v>0.6775</v>
       </c>
     </row>
     <row r="185" ht="22" customHeight="1">
@@ -7309,7 +8419,7 @@
         </is>
       </c>
       <c r="B185" s="3" t="n">
-        <v>3.801</v>
+        <v>3.7571</v>
       </c>
       <c r="C185" s="3" t="n">
         <v>3.7599</v>
@@ -7324,19 +8434,25 @@
         <v>3.7478</v>
       </c>
       <c r="G185" s="3" t="n">
+        <v>3.7636</v>
+      </c>
+      <c r="H185" s="3" t="n">
         <v>0.0053</v>
       </c>
-      <c r="H185" s="3" t="n">
-        <v>0.0121</v>
-      </c>
       <c r="I185" s="3" t="n">
-        <v>-0.0532</v>
+        <v>0.056</v>
       </c>
       <c r="J185" s="3" t="n">
-        <v>-0.0411</v>
+        <v>-0.009299999999999999</v>
       </c>
       <c r="K185" s="3" t="n">
-        <v>-0.0464</v>
+        <v>0.0065</v>
+      </c>
+      <c r="L185" s="3" t="n">
+        <v>0.0028</v>
+      </c>
+      <c r="M185" s="3" t="n">
+        <v>-0.0025</v>
       </c>
     </row>
     <row r="186" ht="22" customHeight="1">
@@ -7346,7 +8462,7 @@
         </is>
       </c>
       <c r="B186" s="3" t="n">
-        <v>0.0149</v>
+        <v>0.015</v>
       </c>
       <c r="C186" s="3" t="n">
         <v>0.0146</v>
@@ -7361,19 +8477,25 @@
         <v>0.0151</v>
       </c>
       <c r="G186" s="3" t="n">
+        <v>0.0153</v>
+      </c>
+      <c r="H186" s="3" t="n">
         <v>-0.0004</v>
-      </c>
-      <c r="H186" s="3" t="n">
-        <v>0.0003</v>
       </c>
       <c r="I186" s="3" t="n">
         <v>0.0002</v>
       </c>
       <c r="J186" s="3" t="n">
-        <v>-0.0003</v>
+        <v>0.0001</v>
       </c>
       <c r="K186" s="3" t="n">
-        <v>0.0001</v>
+        <v>0.0003</v>
+      </c>
+      <c r="L186" s="3" t="n">
+        <v>-0.0004</v>
+      </c>
+      <c r="M186" s="3" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="187" ht="22" customHeight="1">
@@ -7383,7 +8505,7 @@
         </is>
       </c>
       <c r="B187" s="3" t="n">
-        <v>0.0118</v>
+        <v>0.012</v>
       </c>
       <c r="C187" s="3" t="n">
         <v>0.0122</v>
@@ -7398,19 +8520,25 @@
         <v>0.0121</v>
       </c>
       <c r="G187" s="3" t="n">
-        <v>0.0002</v>
+        <v>0.0119</v>
       </c>
       <c r="H187" s="3" t="n">
         <v>0.0002</v>
       </c>
       <c r="I187" s="3" t="n">
-        <v>0.0003</v>
+        <v>0</v>
       </c>
       <c r="J187" s="3" t="n">
-        <v>0.0004</v>
+        <v>0.0001</v>
       </c>
       <c r="K187" s="3" t="n">
+        <v>-0.0001</v>
+      </c>
+      <c r="L187" s="3" t="n">
         <v>0.0002</v>
+      </c>
+      <c r="M187" s="3" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="188" ht="22" customHeight="1">
@@ -7420,7 +8548,7 @@
         </is>
       </c>
       <c r="B188" s="3" t="n">
-        <v>0.0328</v>
+        <v>0.0327</v>
       </c>
       <c r="C188" s="3" t="n">
         <v>0.0332</v>
@@ -7435,19 +8563,25 @@
         <v>0.0334</v>
       </c>
       <c r="G188" s="3" t="n">
-        <v>0</v>
+        <v>0.0326</v>
       </c>
       <c r="H188" s="3" t="n">
-        <v>0.0002</v>
+        <v>0</v>
       </c>
       <c r="I188" s="3" t="n">
-        <v>0.0005999999999999999</v>
+        <v>0.0003</v>
       </c>
       <c r="J188" s="3" t="n">
-        <v>0.0004</v>
+        <v>0.0007</v>
       </c>
       <c r="K188" s="3" t="n">
-        <v>0.0004</v>
+        <v>-0.0001</v>
+      </c>
+      <c r="L188" s="3" t="n">
+        <v>0.0005</v>
+      </c>
+      <c r="M188" s="3" t="n">
+        <v>0.0005</v>
       </c>
     </row>
     <row r="189" ht="22" customHeight="1">
@@ -7457,7 +8591,7 @@
         </is>
       </c>
       <c r="B189" s="3" t="n">
-        <v>0.0071</v>
+        <v>0.007</v>
       </c>
       <c r="C189" s="3" t="n">
         <v>0.007</v>
@@ -7472,19 +8606,25 @@
         <v>0.0069</v>
       </c>
       <c r="G189" s="3" t="n">
-        <v>0</v>
+        <v>0.0069</v>
       </c>
       <c r="H189" s="3" t="n">
-        <v>-0.0002</v>
+        <v>0</v>
       </c>
       <c r="I189" s="3" t="n">
-        <v>-0.0002</v>
+        <v>-0.0001</v>
       </c>
       <c r="J189" s="3" t="n">
         <v>-0.0001</v>
       </c>
       <c r="K189" s="3" t="n">
         <v>-0.0001</v>
+      </c>
+      <c r="L189" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M189" s="3" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="190" ht="22" customHeight="1">
@@ -7494,7 +8634,7 @@
         </is>
       </c>
       <c r="B190" s="3" t="n">
-        <v>0.0707</v>
+        <v>0.0704999999999999</v>
       </c>
       <c r="C190" s="3" t="n">
         <v>0.0668</v>
@@ -7509,19 +8649,25 @@
         <v>0.0711</v>
       </c>
       <c r="G190" s="3" t="n">
+        <v>0.0719999999999999</v>
+      </c>
+      <c r="H190" s="3" t="n">
         <v>-0.0042</v>
       </c>
-      <c r="H190" s="3" t="n">
-        <v>0.0012</v>
-      </c>
       <c r="I190" s="3" t="n">
-        <v>0.0004</v>
+        <v>0.0014</v>
       </c>
       <c r="J190" s="3" t="n">
-        <v>-0.0039</v>
+        <v>0.0005999999999999999</v>
       </c>
       <c r="K190" s="3" t="n">
-        <v>0.0003</v>
+        <v>0.0015</v>
+      </c>
+      <c r="L190" s="3" t="n">
+        <v>-0.0037</v>
+      </c>
+      <c r="M190" s="3" t="n">
+        <v>0.0005</v>
       </c>
     </row>
     <row r="191" ht="22" customHeight="1">
@@ -7546,18 +8692,24 @@
         <v>0.0153</v>
       </c>
       <c r="G191" s="3" t="n">
-        <v>0.0001</v>
+        <v>0.0152</v>
       </c>
       <c r="H191" s="3" t="n">
-        <v>0</v>
+        <v>0.0001</v>
       </c>
       <c r="I191" s="3" t="n">
-        <v>-0.0001</v>
+        <v>0</v>
       </c>
       <c r="J191" s="3" t="n">
-        <v>0</v>
+        <v>-0.0001</v>
       </c>
       <c r="K191" s="3" t="n">
+        <v>-0.0002</v>
+      </c>
+      <c r="L191" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M191" s="3" t="n">
         <v>-0.0001</v>
       </c>
     </row>
@@ -7568,7 +8720,7 @@
         </is>
       </c>
       <c r="B192" s="3" t="n">
-        <v>0.007</v>
+        <v>0.0067</v>
       </c>
       <c r="C192" s="3" t="n">
         <v>0.0069</v>
@@ -7583,19 +8735,25 @@
         <v>0.0071</v>
       </c>
       <c r="G192" s="3" t="n">
-        <v>0</v>
+        <v>0.007</v>
       </c>
       <c r="H192" s="3" t="n">
-        <v>-0.0001</v>
+        <v>0</v>
       </c>
       <c r="I192" s="3" t="n">
-        <v>0.0001</v>
+        <v>0.0002</v>
       </c>
       <c r="J192" s="3" t="n">
-        <v>-0.0001</v>
+        <v>0.0004</v>
       </c>
       <c r="K192" s="3" t="n">
-        <v>-0.0001</v>
+        <v>0.0003</v>
+      </c>
+      <c r="L192" s="3" t="n">
+        <v>0.0002</v>
+      </c>
+      <c r="M192" s="3" t="n">
+        <v>0.0002</v>
       </c>
     </row>
     <row r="193" ht="22" customHeight="1">
@@ -7620,10 +8778,10 @@
         <v>0.0067</v>
       </c>
       <c r="G193" s="3" t="n">
-        <v>0.0001</v>
+        <v>0.0068</v>
       </c>
       <c r="H193" s="3" t="n">
-        <v>-0.0001</v>
+        <v>0.0001</v>
       </c>
       <c r="I193" s="3" t="n">
         <v>-0.0001</v>
@@ -7632,6 +8790,12 @@
         <v>-0.0001</v>
       </c>
       <c r="K193" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L193" s="3" t="n">
+        <v>-0.0001</v>
+      </c>
+      <c r="M193" s="3" t="n">
         <v>-0.0002</v>
       </c>
     </row>
@@ -7657,18 +8821,24 @@
         <v>0.0098</v>
       </c>
       <c r="G194" s="3" t="n">
-        <v>0.0001</v>
+        <v>0.01</v>
       </c>
       <c r="H194" s="3" t="n">
         <v>0.0001</v>
       </c>
       <c r="I194" s="3" t="n">
-        <v>0</v>
+        <v>0.0001</v>
       </c>
       <c r="J194" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K194" s="3" t="n">
         <v>0.0002</v>
       </c>
-      <c r="K194" s="3" t="n">
+      <c r="L194" s="3" t="n">
+        <v>0.0002</v>
+      </c>
+      <c r="M194" s="3" t="n">
         <v>0.0001</v>
       </c>
     </row>
@@ -7679,7 +8849,7 @@
         </is>
       </c>
       <c r="B195" s="3" t="n">
-        <v>0.0586</v>
+        <v>0.0588</v>
       </c>
       <c r="C195" s="3" t="n">
         <v>0.0587</v>
@@ -7694,19 +8864,25 @@
         <v>0.0589</v>
       </c>
       <c r="G195" s="3" t="n">
+        <v>0.0587</v>
+      </c>
+      <c r="H195" s="3" t="n">
         <v>-0.0002</v>
       </c>
-      <c r="H195" s="3" t="n">
-        <v>0</v>
-      </c>
       <c r="I195" s="3" t="n">
-        <v>0.0003</v>
+        <v>-0.0002</v>
       </c>
       <c r="J195" s="3" t="n">
         <v>0.0001</v>
       </c>
       <c r="K195" s="3" t="n">
-        <v>0.0003</v>
+        <v>-0.0001</v>
+      </c>
+      <c r="L195" s="3" t="n">
+        <v>-0.0001</v>
+      </c>
+      <c r="M195" s="3" t="n">
+        <v>0.0001</v>
       </c>
     </row>
     <row r="196" ht="22" customHeight="1">
@@ -7731,18 +8907,24 @@
         <v>0.0108</v>
       </c>
       <c r="G196" s="3" t="n">
-        <v>0</v>
+        <v>0.0107</v>
       </c>
       <c r="H196" s="3" t="n">
         <v>0</v>
       </c>
       <c r="I196" s="3" t="n">
-        <v>0.0001</v>
+        <v>0</v>
       </c>
       <c r="J196" s="3" t="n">
-        <v>0</v>
+        <v>0.0001</v>
       </c>
       <c r="K196" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L196" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M196" s="3" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7768,7 +8950,7 @@
         <v>0.0068</v>
       </c>
       <c r="G197" s="3" t="n">
-        <v>0</v>
+        <v>0.0068</v>
       </c>
       <c r="H197" s="3" t="n">
         <v>0</v>
@@ -7780,6 +8962,12 @@
         <v>0</v>
       </c>
       <c r="K197" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L197" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M197" s="3" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7790,7 +8978,7 @@
         </is>
       </c>
       <c r="B198" s="3" t="n">
-        <v>0.0065</v>
+        <v>0.0066</v>
       </c>
       <c r="C198" s="3" t="n">
         <v>0.0068</v>
@@ -7805,19 +8993,25 @@
         <v>0.0067</v>
       </c>
       <c r="G198" s="3" t="n">
-        <v>0.0001</v>
+        <v>0.0067</v>
       </c>
       <c r="H198" s="3" t="n">
         <v>0.0001</v>
       </c>
       <c r="I198" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J198" s="3" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="K198" s="3" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="L198" s="3" t="n">
         <v>0.0002</v>
       </c>
-      <c r="J198" s="3" t="n">
-        <v>0.0003</v>
-      </c>
-      <c r="K198" s="3" t="n">
-        <v>0.0002</v>
+      <c r="M198" s="3" t="n">
+        <v>0.0001</v>
       </c>
     </row>
     <row r="199" ht="22" customHeight="1">
@@ -7827,7 +9021,7 @@
         </is>
       </c>
       <c r="B199" s="3" t="n">
-        <v>0.0077</v>
+        <v>0.0076</v>
       </c>
       <c r="C199" s="3" t="n">
         <v>0.0077</v>
@@ -7842,19 +9036,25 @@
         <v>0.0077</v>
       </c>
       <c r="G199" s="3" t="n">
-        <v>0.0001</v>
+        <v>0.0077</v>
       </c>
       <c r="H199" s="3" t="n">
-        <v>-0.0001</v>
+        <v>0.0001</v>
       </c>
       <c r="I199" s="3" t="n">
         <v>0</v>
       </c>
       <c r="J199" s="3" t="n">
-        <v>0</v>
+        <v>0.0001</v>
       </c>
       <c r="K199" s="3" t="n">
-        <v>-0.0001</v>
+        <v>0.0001</v>
+      </c>
+      <c r="L199" s="3" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="M199" s="3" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="200" ht="22" customHeight="1">
@@ -7879,18 +9079,24 @@
         <v>0.0065</v>
       </c>
       <c r="G200" s="3" t="n">
-        <v>0</v>
+        <v>0.0066</v>
       </c>
       <c r="H200" s="3" t="n">
-        <v>-0.0001</v>
+        <v>0</v>
       </c>
       <c r="I200" s="3" t="n">
         <v>-0.0001</v>
       </c>
       <c r="J200" s="3" t="n">
-        <v>0</v>
+        <v>-0.0001</v>
       </c>
       <c r="K200" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L200" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M200" s="3" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7901,7 +9107,7 @@
         </is>
       </c>
       <c r="B201" s="3" t="n">
-        <v>0.0139</v>
+        <v>0.014</v>
       </c>
       <c r="C201" s="3" t="n">
         <v>0.0138</v>
@@ -7916,19 +9122,25 @@
         <v>0.0138</v>
       </c>
       <c r="G201" s="3" t="n">
-        <v>0</v>
+        <v>0.0138</v>
       </c>
       <c r="H201" s="3" t="n">
-        <v>-0.0001</v>
+        <v>0</v>
       </c>
       <c r="I201" s="3" t="n">
-        <v>-0.0001</v>
+        <v>-0.0002</v>
       </c>
       <c r="J201" s="3" t="n">
-        <v>-0.0001</v>
+        <v>-0.0002</v>
       </c>
       <c r="K201" s="3" t="n">
-        <v>-0.0001</v>
+        <v>-0.0002</v>
+      </c>
+      <c r="L201" s="3" t="n">
+        <v>-0.0002</v>
+      </c>
+      <c r="M201" s="3" t="n">
+        <v>-0.0002</v>
       </c>
     </row>
     <row r="202" ht="22" customHeight="1">
@@ -7938,7 +9150,7 @@
         </is>
       </c>
       <c r="B202" s="3" t="n">
-        <v>1271.5128</v>
+        <v>1275.7699</v>
       </c>
       <c r="C202" s="3" t="n">
         <v>1272.6788</v>
@@ -7952,20 +9164,26 @@
       <c r="F202" s="3" t="n">
         <v>1272.7325</v>
       </c>
-      <c r="G202" s="5" t="n">
+      <c r="G202" s="3" t="n">
+        <v>1272.4114</v>
+      </c>
+      <c r="H202" s="5" t="n">
         <v>5.7403</v>
       </c>
-      <c r="H202" s="5" t="n">
-        <v>1.0299</v>
-      </c>
       <c r="I202" s="5" t="n">
-        <v>1.2197</v>
+        <v>-3.2272</v>
       </c>
       <c r="J202" s="5" t="n">
-        <v>1.166</v>
+        <v>-3.0374</v>
       </c>
       <c r="K202" s="5" t="n">
-        <v>-4.5743</v>
+        <v>-3.3585</v>
+      </c>
+      <c r="L202" s="5" t="n">
+        <v>-3.0911</v>
+      </c>
+      <c r="M202" s="5" t="n">
+        <v>-8.8314</v>
       </c>
     </row>
     <row r="203" ht="22" customHeight="1">
@@ -7975,7 +9193,7 @@
         </is>
       </c>
       <c r="B203" s="3" t="n">
-        <v>0.019</v>
+        <v>0.0168</v>
       </c>
       <c r="C203" s="3" t="n">
         <v>0.0163</v>
@@ -7990,19 +9208,25 @@
         <v>0.019</v>
       </c>
       <c r="G203" s="3" t="n">
+        <v>0.0185</v>
+      </c>
+      <c r="H203" s="3" t="n">
         <v>-0.005</v>
       </c>
-      <c r="H203" s="3" t="n">
-        <v>-0.001</v>
-      </c>
       <c r="I203" s="3" t="n">
-        <v>0</v>
+        <v>0.0012</v>
       </c>
       <c r="J203" s="3" t="n">
-        <v>-0.0027</v>
+        <v>0.0022</v>
       </c>
       <c r="K203" s="3" t="n">
-        <v>0.0023</v>
+        <v>0.0017</v>
+      </c>
+      <c r="L203" s="3" t="n">
+        <v>-0.0005</v>
+      </c>
+      <c r="M203" s="3" t="n">
+        <v>0.0045</v>
       </c>
     </row>
     <row r="204" ht="22" customHeight="1">
@@ -8012,7 +9236,7 @@
         </is>
       </c>
       <c r="B204" s="3" t="n">
-        <v>0.5221</v>
+        <v>0.5207000000000001</v>
       </c>
       <c r="C204" s="3" t="n">
         <v>0.5128</v>
@@ -8027,19 +9251,25 @@
         <v>0.5193</v>
       </c>
       <c r="G204" s="3" t="n">
+        <v>0.521</v>
+      </c>
+      <c r="H204" s="3" t="n">
         <v>-0.001</v>
       </c>
-      <c r="H204" s="3" t="n">
-        <v>-0.0034</v>
-      </c>
       <c r="I204" s="3" t="n">
-        <v>-0.0028</v>
+        <v>-0.002</v>
       </c>
       <c r="J204" s="3" t="n">
-        <v>-0.009299999999999999</v>
+        <v>-0.0014</v>
       </c>
       <c r="K204" s="3" t="n">
-        <v>-0.0083</v>
+        <v>0.0003</v>
+      </c>
+      <c r="L204" s="3" t="n">
+        <v>-0.007900000000000001</v>
+      </c>
+      <c r="M204" s="3" t="n">
+        <v>-0.0069</v>
       </c>
     </row>
     <row r="205" ht="22" customHeight="1">
@@ -8049,7 +9279,7 @@
         </is>
       </c>
       <c r="B205" s="3" t="n">
-        <v>0.0306</v>
+        <v>0.0308</v>
       </c>
       <c r="C205" s="3" t="n">
         <v>0.0308</v>
@@ -8064,19 +9294,25 @@
         <v>0.0304</v>
       </c>
       <c r="G205" s="3" t="n">
+        <v>0.0309</v>
+      </c>
+      <c r="H205" s="3" t="n">
         <v>0.0002</v>
       </c>
-      <c r="H205" s="3" t="n">
-        <v>-0.0013</v>
-      </c>
       <c r="I205" s="3" t="n">
+        <v>-0.0015</v>
+      </c>
+      <c r="J205" s="3" t="n">
+        <v>-0.0004</v>
+      </c>
+      <c r="K205" s="3" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="L205" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M205" s="3" t="n">
         <v>-0.0002</v>
-      </c>
-      <c r="J205" s="3" t="n">
-        <v>0.0002</v>
-      </c>
-      <c r="K205" s="3" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="206" ht="22" customHeight="1">
@@ -8086,7 +9322,7 @@
         </is>
       </c>
       <c r="B206" s="3" t="n">
-        <v>0.0183</v>
+        <v>0.0171</v>
       </c>
       <c r="C206" s="3" t="n">
         <v>0.0185</v>
@@ -8101,19 +9337,25 @@
         <v>0.0188</v>
       </c>
       <c r="G206" s="3" t="n">
+        <v>0.0159</v>
+      </c>
+      <c r="H206" s="3" t="n">
         <v>0.0019</v>
       </c>
-      <c r="H206" s="3" t="n">
-        <v>0.0002</v>
-      </c>
       <c r="I206" s="3" t="n">
-        <v>0.0005</v>
+        <v>0.0014</v>
       </c>
       <c r="J206" s="3" t="n">
-        <v>0.0002</v>
+        <v>0.0017</v>
       </c>
       <c r="K206" s="3" t="n">
-        <v>-0.0017</v>
+        <v>-0.0012</v>
+      </c>
+      <c r="L206" s="3" t="n">
+        <v>0.0014</v>
+      </c>
+      <c r="M206" s="3" t="n">
+        <v>-0.0005</v>
       </c>
     </row>
     <row r="207" ht="22" customHeight="1">
@@ -8123,7 +9365,7 @@
         </is>
       </c>
       <c r="B207" s="3" t="n">
-        <v>0.0213</v>
+        <v>0.0231</v>
       </c>
       <c r="C207" s="3" t="n">
         <v>0.0214</v>
@@ -8138,19 +9380,25 @@
         <v>0.0268</v>
       </c>
       <c r="G207" s="3" t="n">
+        <v>0.0206</v>
+      </c>
+      <c r="H207" s="3" t="n">
         <v>0.0013</v>
       </c>
-      <c r="H207" s="3" t="n">
-        <v>0.0053</v>
-      </c>
       <c r="I207" s="3" t="n">
-        <v>0.0055</v>
+        <v>0.0035</v>
       </c>
       <c r="J207" s="3" t="n">
-        <v>0.0001</v>
+        <v>0.0037</v>
       </c>
       <c r="K207" s="3" t="n">
-        <v>-0.0012</v>
+        <v>-0.0025</v>
+      </c>
+      <c r="L207" s="3" t="n">
+        <v>-0.0017</v>
+      </c>
+      <c r="M207" s="3" t="n">
+        <v>-0.003</v>
       </c>
     </row>
     <row r="208" ht="22" customHeight="1">
@@ -8160,7 +9408,7 @@
         </is>
       </c>
       <c r="B208" s="3" t="n">
-        <v>0.0181</v>
+        <v>0.0168</v>
       </c>
       <c r="C208" s="3" t="n">
         <v>0.014</v>
@@ -8175,19 +9423,25 @@
         <v>0.018</v>
       </c>
       <c r="G208" s="3" t="n">
+        <v>0.0166</v>
+      </c>
+      <c r="H208" s="3" t="n">
         <v>-0.0019</v>
       </c>
-      <c r="H208" s="3" t="n">
-        <v>0.0008</v>
-      </c>
       <c r="I208" s="3" t="n">
-        <v>-0.0001</v>
+        <v>0.0021</v>
       </c>
       <c r="J208" s="3" t="n">
-        <v>-0.0041</v>
+        <v>0.0012</v>
       </c>
       <c r="K208" s="3" t="n">
-        <v>-0.0022</v>
+        <v>-0.0002</v>
+      </c>
+      <c r="L208" s="3" t="n">
+        <v>-0.0028</v>
+      </c>
+      <c r="M208" s="3" t="n">
+        <v>-0.0009</v>
       </c>
     </row>
     <row r="209" ht="22" customHeight="1">
@@ -8197,7 +9451,7 @@
         </is>
       </c>
       <c r="B209" s="3" t="n">
-        <v>0.0168</v>
+        <v>0.0127</v>
       </c>
       <c r="C209" s="3" t="n">
         <v>0.0143</v>
@@ -8212,19 +9466,25 @@
         <v>0.0175</v>
       </c>
       <c r="G209" s="3" t="n">
+        <v>0.0167</v>
+      </c>
+      <c r="H209" s="3" t="n">
         <v>-0.0026</v>
       </c>
-      <c r="H209" s="3" t="n">
-        <v>-0.0051</v>
-      </c>
       <c r="I209" s="3" t="n">
-        <v>0.0007</v>
+        <v>-0.001</v>
       </c>
       <c r="J209" s="3" t="n">
-        <v>-0.0025</v>
+        <v>0.0048</v>
       </c>
       <c r="K209" s="3" t="n">
-        <v>0.0001</v>
+        <v>0.004</v>
+      </c>
+      <c r="L209" s="3" t="n">
+        <v>0.0016</v>
+      </c>
+      <c r="M209" s="3" t="n">
+        <v>0.0042</v>
       </c>
     </row>
     <row r="210" ht="22" customHeight="1">
@@ -8234,7 +9494,7 @@
         </is>
       </c>
       <c r="B210" s="3" t="n">
-        <v>0.017</v>
+        <v>0.0119</v>
       </c>
       <c r="C210" s="3" t="n">
         <v>0.0164</v>
@@ -8249,19 +9509,25 @@
         <v>0.0161</v>
       </c>
       <c r="G210" s="3" t="n">
+        <v>0.0203</v>
+      </c>
+      <c r="H210" s="3" t="n">
         <v>-0.0002</v>
       </c>
-      <c r="H210" s="3" t="n">
-        <v>-0.0023</v>
-      </c>
       <c r="I210" s="3" t="n">
-        <v>-0.0009</v>
+        <v>0.0028</v>
       </c>
       <c r="J210" s="3" t="n">
-        <v>-0.0005999999999999999</v>
+        <v>0.0042</v>
       </c>
       <c r="K210" s="3" t="n">
-        <v>-0.0004</v>
+        <v>0.008399999999999999</v>
+      </c>
+      <c r="L210" s="3" t="n">
+        <v>0.0045</v>
+      </c>
+      <c r="M210" s="3" t="n">
+        <v>0.0047</v>
       </c>
     </row>
     <row r="211" ht="22" customHeight="1">
@@ -8271,7 +9537,7 @@
         </is>
       </c>
       <c r="B211" s="3" t="n">
-        <v>0.0145</v>
+        <v>0.0144</v>
       </c>
       <c r="C211" s="3" t="n">
         <v>0.0166</v>
@@ -8286,19 +9552,25 @@
         <v>0.0146</v>
       </c>
       <c r="G211" s="3" t="n">
+        <v>0.0169</v>
+      </c>
+      <c r="H211" s="3" t="n">
         <v>0.001</v>
       </c>
-      <c r="H211" s="3" t="n">
-        <v>-0.0007</v>
-      </c>
       <c r="I211" s="3" t="n">
-        <v>0.0001</v>
+        <v>-0.0005999999999999999</v>
       </c>
       <c r="J211" s="3" t="n">
-        <v>0.0021</v>
+        <v>0.0002</v>
       </c>
       <c r="K211" s="3" t="n">
-        <v>0.0011</v>
+        <v>0.0025</v>
+      </c>
+      <c r="L211" s="3" t="n">
+        <v>0.0022</v>
+      </c>
+      <c r="M211" s="3" t="n">
+        <v>0.0012</v>
       </c>
     </row>
     <row r="212" ht="22" customHeight="1">
@@ -8308,7 +9580,7 @@
         </is>
       </c>
       <c r="B212" s="3" t="n">
-        <v>3.4458</v>
+        <v>5.4412</v>
       </c>
       <c r="C212" s="3" t="n">
         <v>5.4846</v>
@@ -8322,20 +9594,26 @@
       <c r="F212" s="3" t="n">
         <v>3.2104</v>
       </c>
-      <c r="G212" s="5" t="n">
+      <c r="G212" s="3" t="n">
+        <v>3.3673</v>
+      </c>
+      <c r="H212" s="5" t="n">
         <v>2.3272</v>
       </c>
-      <c r="H212" s="5" t="n">
-        <v>2.1475</v>
-      </c>
       <c r="I212" s="3" t="n">
-        <v>-0.2354</v>
+        <v>0.1521</v>
       </c>
       <c r="J212" s="5" t="n">
-        <v>2.0388</v>
-      </c>
-      <c r="K212" s="3" t="n">
-        <v>-0.2884</v>
+        <v>-2.2308</v>
+      </c>
+      <c r="K212" s="5" t="n">
+        <v>-2.0739</v>
+      </c>
+      <c r="L212" s="3" t="n">
+        <v>0.0434</v>
+      </c>
+      <c r="M212" s="5" t="n">
+        <v>-2.2838</v>
       </c>
     </row>
   </sheetData>
@@ -8435,7 +9713,7 @@
       </c>
       <c r="B3" s="3" t="inlineStr">
         <is>
-          <t>2025-09-08</t>
+          <t>2025-09-13</t>
         </is>
       </c>
       <c r="C3" s="3" t="n"/>
@@ -8539,7 +9817,7 @@
       </c>
       <c r="B7" s="3" t="inlineStr">
         <is>
-          <t>61</t>
+          <t>152</t>
         </is>
       </c>
       <c r="C7" s="3" t="n"/>
@@ -8778,22 +10056,22 @@
       </c>
       <c r="G14" s="3" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>152</t>
         </is>
       </c>
       <c r="H14" s="3" t="inlineStr">
         <is>
-          <t>0/19T</t>
+          <t>0/152T</t>
         </is>
       </c>
       <c r="I14" s="3" t="inlineStr">
         <is>
-          <t>2646.10</t>
+          <t>2645.42</t>
         </is>
       </c>
       <c r="J14" s="3" t="inlineStr">
         <is>
-          <t>2652.87</t>
+          <t>2648.05</t>
         </is>
       </c>
       <c r="K14" s="3" t="inlineStr">
@@ -8813,12 +10091,12 @@
       </c>
       <c r="N14" s="3" t="inlineStr">
         <is>
-          <t>35.05</t>
+          <t>22.83</t>
         </is>
       </c>
       <c r="O14" s="3" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>5</t>
         </is>
       </c>
       <c r="P14" s="3" t="inlineStr">

--- a/data/output/form/all_comparisons.xlsx
+++ b/data/output/form/all_comparisons.xlsx
@@ -453,7 +453,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E212"/>
+  <dimension ref="A1:F212"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -463,9 +463,10 @@
   <cols>
     <col width="50" customWidth="1" min="1" max="1"/>
     <col width="26" customWidth="1" min="2" max="2"/>
-    <col width="20" customWidth="1" min="3" max="3"/>
-    <col width="23" customWidth="1" min="4" max="4"/>
-    <col width="28" customWidth="1" min="5" max="5"/>
+    <col width="27" customWidth="1" min="3" max="3"/>
+    <col width="22" customWidth="1" min="4" max="4"/>
+    <col width="23" customWidth="1" min="5" max="5"/>
+    <col width="28" customWidth="1" min="6" max="6"/>
   </cols>
   <sheetData>
     <row r="1" ht="22" customHeight="1">
@@ -476,20 +477,25 @@
       </c>
       <c r="B1" s="4" t="inlineStr">
         <is>
-          <t>Max_abnormal(1st loop)</t>
+          <t>Max_abnormal(2nd loop)</t>
         </is>
       </c>
       <c r="C1" s="4" t="inlineStr">
         <is>
-          <t>Min(26th loop)</t>
+          <t>Min_abnormal(52nd loop)</t>
         </is>
       </c>
       <c r="D1" s="4" t="inlineStr">
         <is>
-          <t>Abnormal(32nd loop)</t>
+          <t>Abnormal(5th loop)</t>
         </is>
       </c>
       <c r="E1" s="4" t="inlineStr">
+        <is>
+          <t>Abnormal(36th loop)</t>
+        </is>
+      </c>
+      <c r="F1" s="4" t="inlineStr">
         <is>
           <t>Time_Difference(Max-Min)</t>
         </is>
@@ -502,16 +508,19 @@
         </is>
       </c>
       <c r="B2" s="3" t="n">
+        <v>3.4516</v>
+      </c>
+      <c r="C2" s="3" t="n">
+        <v>3.3569</v>
+      </c>
+      <c r="D2" s="3" t="n">
         <v>3.8873</v>
       </c>
-      <c r="C2" s="3" t="n">
-        <v>3.6805</v>
-      </c>
-      <c r="D2" s="3" t="n">
+      <c r="E2" s="3" t="n">
         <v>3.6244</v>
       </c>
-      <c r="E2" s="3" t="n">
-        <v>0.2068</v>
+      <c r="F2" s="3" t="n">
+        <v>0.09470000000000001</v>
       </c>
     </row>
     <row r="3" ht="22" customHeight="1">
@@ -521,16 +530,19 @@
         </is>
       </c>
       <c r="B3" s="3" t="n">
+        <v>3.0064</v>
+      </c>
+      <c r="C3" s="3" t="n">
+        <v>3.0932</v>
+      </c>
+      <c r="D3" s="3" t="n">
         <v>3.1868</v>
       </c>
-      <c r="C3" s="3" t="n">
-        <v>3.0236</v>
-      </c>
-      <c r="D3" s="3" t="n">
+      <c r="E3" s="3" t="n">
         <v>3.0886</v>
       </c>
-      <c r="E3" s="3" t="n">
-        <v>0.1632</v>
+      <c r="F3" s="3" t="n">
+        <v>-0.0868</v>
       </c>
     </row>
     <row r="4" ht="22" customHeight="1">
@@ -540,16 +552,19 @@
         </is>
       </c>
       <c r="B4" s="3" t="n">
+        <v>8.5648</v>
+      </c>
+      <c r="C4" s="3" t="n">
+        <v>8.6592</v>
+      </c>
+      <c r="D4" s="3" t="n">
         <v>12.3034</v>
       </c>
-      <c r="C4" s="3" t="n">
-        <v>8.6021</v>
-      </c>
-      <c r="D4" s="3" t="n">
+      <c r="E4" s="3" t="n">
         <v>45.6884</v>
       </c>
-      <c r="E4" s="5" t="n">
-        <v>3.7013</v>
+      <c r="F4" s="3" t="n">
+        <v>-0.0944</v>
       </c>
     </row>
     <row r="5" ht="22" customHeight="1">
@@ -559,16 +574,19 @@
         </is>
       </c>
       <c r="B5" s="3" t="n">
+        <v>62.4245</v>
+      </c>
+      <c r="C5" s="3" t="n">
+        <v>61.1256</v>
+      </c>
+      <c r="D5" s="3" t="n">
         <v>94.55759999999999</v>
       </c>
-      <c r="C5" s="3" t="n">
-        <v>61.745</v>
-      </c>
-      <c r="D5" s="3" t="n">
+      <c r="E5" s="3" t="n">
         <v>61.6057</v>
       </c>
-      <c r="E5" s="5" t="n">
-        <v>32.8126</v>
+      <c r="F5" s="5" t="n">
+        <v>1.2989</v>
       </c>
     </row>
     <row r="6" ht="22" customHeight="1">
@@ -578,16 +596,19 @@
         </is>
       </c>
       <c r="B6" s="3" t="n">
+        <v>2666.5478</v>
+      </c>
+      <c r="C6" s="3" t="n">
+        <v>2410.7273</v>
+      </c>
+      <c r="D6" s="3" t="n">
         <v>2508.9939</v>
       </c>
-      <c r="C6" s="3" t="n">
-        <v>2420.6901</v>
-      </c>
-      <c r="D6" s="3" t="n">
+      <c r="E6" s="3" t="n">
         <v>2455.3162</v>
       </c>
-      <c r="E6" s="5" t="n">
-        <v>88.3038</v>
+      <c r="F6" s="5" t="n">
+        <v>255.8205</v>
       </c>
     </row>
     <row r="7" ht="22" customHeight="1">
@@ -597,16 +618,19 @@
         </is>
       </c>
       <c r="B7" s="3" t="n">
+        <v>141.235</v>
+      </c>
+      <c r="C7" s="3" t="n">
+        <v>140.9067</v>
+      </c>
+      <c r="D7" s="3" t="n">
         <v>142.6277</v>
       </c>
-      <c r="C7" s="3" t="n">
-        <v>141.7588</v>
-      </c>
-      <c r="D7" s="3" t="n">
+      <c r="E7" s="3" t="n">
         <v>144.4208</v>
       </c>
-      <c r="E7" s="3" t="n">
-        <v>0.8689</v>
+      <c r="F7" s="3" t="n">
+        <v>0.3283</v>
       </c>
     </row>
     <row r="8" ht="22" customHeight="1">
@@ -616,16 +640,19 @@
         </is>
       </c>
       <c r="B8" s="3" t="n">
+        <v>2885.23</v>
+      </c>
+      <c r="C8" s="3" t="n">
+        <v>2627.869</v>
+      </c>
+      <c r="D8" s="3" t="n">
         <v>2765.557</v>
       </c>
-      <c r="C8" s="3" t="n">
-        <v>2639.5</v>
-      </c>
-      <c r="D8" s="3" t="n">
+      <c r="E8" s="3" t="n">
         <v>2713.744</v>
       </c>
-      <c r="E8" s="5" t="n">
-        <v>126.057</v>
+      <c r="F8" s="5" t="n">
+        <v>257.361</v>
       </c>
     </row>
     <row r="9" ht="22" customHeight="1">
@@ -635,16 +662,19 @@
         </is>
       </c>
       <c r="B9" s="3" t="n">
-        <v>0.0001</v>
+        <v>0.0002</v>
       </c>
       <c r="C9" s="3" t="n">
-        <v>0.0002</v>
+        <v>0</v>
       </c>
       <c r="D9" s="3" t="n">
         <v>0.0001</v>
       </c>
       <c r="E9" s="3" t="n">
-        <v>-0.0001</v>
+        <v>0.0001</v>
+      </c>
+      <c r="F9" s="3" t="n">
+        <v>0.0002</v>
       </c>
     </row>
     <row r="10" ht="22" customHeight="1">
@@ -665,6 +695,9 @@
       <c r="E10" s="3" t="n">
         <v>0</v>
       </c>
+      <c r="F10" s="3" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="11" ht="22" customHeight="1">
       <c r="A11" s="3" t="inlineStr">
@@ -676,13 +709,16 @@
         <v>0.0001</v>
       </c>
       <c r="C11" s="3" t="n">
-        <v>0.0001</v>
+        <v>0</v>
       </c>
       <c r="D11" s="3" t="n">
         <v>0.0001</v>
       </c>
       <c r="E11" s="3" t="n">
-        <v>0</v>
+        <v>0.0001</v>
+      </c>
+      <c r="F11" s="3" t="n">
+        <v>0.0001</v>
       </c>
     </row>
     <row r="12" ht="22" customHeight="1">
@@ -692,7 +728,7 @@
         </is>
       </c>
       <c r="B12" s="3" t="n">
-        <v>0.0001</v>
+        <v>0</v>
       </c>
       <c r="C12" s="3" t="n">
         <v>0</v>
@@ -703,6 +739,9 @@
       <c r="E12" s="3" t="n">
         <v>0.0001</v>
       </c>
+      <c r="F12" s="3" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="13" ht="22" customHeight="1">
       <c r="A13" s="3" t="inlineStr">
@@ -722,6 +761,9 @@
       <c r="E13" s="3" t="n">
         <v>0</v>
       </c>
+      <c r="F13" s="3" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="14" ht="22" customHeight="1">
       <c r="A14" s="3" t="inlineStr">
@@ -733,13 +775,16 @@
         <v>0.0001</v>
       </c>
       <c r="C14" s="3" t="n">
-        <v>0.0001</v>
+        <v>0</v>
       </c>
       <c r="D14" s="3" t="n">
         <v>0.0001</v>
       </c>
       <c r="E14" s="3" t="n">
-        <v>0</v>
+        <v>0.0001</v>
+      </c>
+      <c r="F14" s="3" t="n">
+        <v>0.0001</v>
       </c>
     </row>
     <row r="15" ht="22" customHeight="1">
@@ -760,6 +805,9 @@
       <c r="E15" s="3" t="n">
         <v>0</v>
       </c>
+      <c r="F15" s="3" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="16" ht="22" customHeight="1">
       <c r="A16" s="3" t="inlineStr">
@@ -774,9 +822,12 @@
         <v>0</v>
       </c>
       <c r="D16" s="3" t="n">
-        <v>0</v>
+        <v>0.0001</v>
       </c>
       <c r="E16" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F16" s="3" t="n">
         <v>0.0001</v>
       </c>
     </row>
@@ -798,6 +849,9 @@
       <c r="E17" s="3" t="n">
         <v>0</v>
       </c>
+      <c r="F17" s="3" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="18" ht="22" customHeight="1">
       <c r="A18" s="3" t="inlineStr">
@@ -809,13 +863,16 @@
         <v>0.0001</v>
       </c>
       <c r="C18" s="3" t="n">
-        <v>0.0001</v>
+        <v>0</v>
       </c>
       <c r="D18" s="3" t="n">
         <v>0.0001</v>
       </c>
       <c r="E18" s="3" t="n">
-        <v>0</v>
+        <v>0.0001</v>
+      </c>
+      <c r="F18" s="3" t="n">
+        <v>0.0001</v>
       </c>
     </row>
     <row r="19" ht="22" customHeight="1">
@@ -836,6 +893,9 @@
       <c r="E19" s="3" t="n">
         <v>0</v>
       </c>
+      <c r="F19" s="3" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="20" ht="22" customHeight="1">
       <c r="A20" s="3" t="inlineStr">
@@ -847,13 +907,16 @@
         <v>0.0001</v>
       </c>
       <c r="C20" s="3" t="n">
-        <v>0.0001</v>
+        <v>0</v>
       </c>
       <c r="D20" s="3" t="n">
         <v>0.0001</v>
       </c>
       <c r="E20" s="3" t="n">
-        <v>0</v>
+        <v>0.0001</v>
+      </c>
+      <c r="F20" s="3" t="n">
+        <v>0.0001</v>
       </c>
     </row>
     <row r="21" ht="22" customHeight="1">
@@ -863,16 +926,19 @@
         </is>
       </c>
       <c r="B21" s="3" t="n">
+        <v>0.0078</v>
+      </c>
+      <c r="C21" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="D21" s="3" t="n">
         <v>0.0083</v>
       </c>
-      <c r="C21" s="3" t="n">
-        <v>0.007900000000000001</v>
-      </c>
-      <c r="D21" s="3" t="n">
+      <c r="E21" s="3" t="n">
         <v>0.0081</v>
       </c>
-      <c r="E21" s="3" t="n">
-        <v>0.0004</v>
+      <c r="F21" s="3" t="n">
+        <v>0.0078</v>
       </c>
     </row>
     <row r="22" ht="22" customHeight="1">
@@ -882,16 +948,19 @@
         </is>
       </c>
       <c r="B22" s="3" t="n">
+        <v>0.2679</v>
+      </c>
+      <c r="C22" s="3" t="n">
+        <v>0.0013</v>
+      </c>
+      <c r="D22" s="3" t="n">
         <v>0.2676</v>
       </c>
-      <c r="C22" s="3" t="n">
-        <v>0.2671</v>
-      </c>
-      <c r="D22" s="3" t="n">
+      <c r="E22" s="3" t="n">
         <v>0.2691</v>
       </c>
-      <c r="E22" s="3" t="n">
-        <v>0.0005</v>
+      <c r="F22" s="3" t="n">
+        <v>0.2666</v>
       </c>
     </row>
     <row r="23" ht="22" customHeight="1">
@@ -901,16 +970,19 @@
         </is>
       </c>
       <c r="B23" s="3" t="n">
+        <v>0.0065</v>
+      </c>
+      <c r="C23" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="D23" s="3" t="n">
         <v>0.0064</v>
       </c>
-      <c r="C23" s="3" t="n">
+      <c r="E23" s="3" t="n">
+        <v>0.0062</v>
+      </c>
+      <c r="F23" s="3" t="n">
         <v>0.0065</v>
-      </c>
-      <c r="D23" s="3" t="n">
-        <v>0.0062</v>
-      </c>
-      <c r="E23" s="3" t="n">
-        <v>-0.0001</v>
       </c>
     </row>
     <row r="24" ht="22" customHeight="1">
@@ -920,16 +992,19 @@
         </is>
       </c>
       <c r="B24" s="3" t="n">
+        <v>0.0067</v>
+      </c>
+      <c r="C24" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="D24" s="3" t="n">
         <v>0.0068</v>
       </c>
-      <c r="C24" s="3" t="n">
-        <v>0.0068</v>
-      </c>
-      <c r="D24" s="3" t="n">
+      <c r="E24" s="3" t="n">
         <v>0.0069</v>
       </c>
-      <c r="E24" s="3" t="n">
-        <v>0</v>
+      <c r="F24" s="3" t="n">
+        <v>0.0067</v>
       </c>
     </row>
     <row r="25" ht="22" customHeight="1">
@@ -939,16 +1014,19 @@
         </is>
       </c>
       <c r="B25" s="3" t="n">
+        <v>0.0066</v>
+      </c>
+      <c r="C25" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="D25" s="3" t="n">
         <v>0.0063</v>
       </c>
-      <c r="C25" s="3" t="n">
-        <v>0.0065</v>
-      </c>
-      <c r="D25" s="3" t="n">
+      <c r="E25" s="3" t="n">
         <v>0.0064</v>
       </c>
-      <c r="E25" s="3" t="n">
-        <v>-0.0002</v>
+      <c r="F25" s="3" t="n">
+        <v>0.0066</v>
       </c>
     </row>
     <row r="26" ht="22" customHeight="1">
@@ -961,13 +1039,16 @@
         <v>0.0117</v>
       </c>
       <c r="C26" s="3" t="n">
-        <v>0.0117</v>
+        <v>0</v>
       </c>
       <c r="D26" s="3" t="n">
         <v>0.0117</v>
       </c>
       <c r="E26" s="3" t="n">
-        <v>0</v>
+        <v>0.0117</v>
+      </c>
+      <c r="F26" s="3" t="n">
+        <v>0.0117</v>
       </c>
     </row>
     <row r="27" ht="22" customHeight="1">
@@ -977,16 +1058,19 @@
         </is>
       </c>
       <c r="B27" s="3" t="n">
+        <v>0.008399999999999901</v>
+      </c>
+      <c r="C27" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="D27" s="3" t="n">
         <v>0.008200000000000001</v>
       </c>
-      <c r="C27" s="3" t="n">
+      <c r="E27" s="3" t="n">
         <v>0.0083</v>
       </c>
-      <c r="D27" s="3" t="n">
-        <v>0.0083</v>
-      </c>
-      <c r="E27" s="3" t="n">
-        <v>-0.0001</v>
+      <c r="F27" s="3" t="n">
+        <v>0.008399999999999999</v>
       </c>
     </row>
     <row r="28" ht="22" customHeight="1">
@@ -999,13 +1083,16 @@
         <v>0.0089999999999999</v>
       </c>
       <c r="C28" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="D28" s="3" t="n">
         <v>0.0089999999999999</v>
       </c>
-      <c r="D28" s="3" t="n">
+      <c r="E28" s="3" t="n">
         <v>0.0091</v>
       </c>
-      <c r="E28" s="3" t="n">
-        <v>0</v>
+      <c r="F28" s="3" t="n">
+        <v>0.008999999999999999</v>
       </c>
     </row>
     <row r="29" ht="22" customHeight="1">
@@ -1015,16 +1102,19 @@
         </is>
       </c>
       <c r="B29" s="3" t="n">
+        <v>0.0233</v>
+      </c>
+      <c r="C29" s="3" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="D29" s="3" t="n">
         <v>0.0235</v>
       </c>
-      <c r="C29" s="3" t="n">
-        <v>0.0233</v>
-      </c>
-      <c r="D29" s="3" t="n">
+      <c r="E29" s="3" t="n">
         <v>0.0232</v>
       </c>
-      <c r="E29" s="3" t="n">
-        <v>0.0002</v>
+      <c r="F29" s="3" t="n">
+        <v>0.0232</v>
       </c>
     </row>
     <row r="30" ht="22" customHeight="1">
@@ -1037,13 +1127,16 @@
         <v>0.0066</v>
       </c>
       <c r="C30" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="D30" s="3" t="n">
         <v>0.0066</v>
       </c>
-      <c r="D30" s="3" t="n">
+      <c r="E30" s="3" t="n">
         <v>0.0065</v>
       </c>
-      <c r="E30" s="3" t="n">
-        <v>0</v>
+      <c r="F30" s="3" t="n">
+        <v>0.0066</v>
       </c>
     </row>
     <row r="31" ht="22" customHeight="1">
@@ -1056,13 +1149,16 @@
         <v>0.0066</v>
       </c>
       <c r="C31" s="3" t="n">
-        <v>0.0065</v>
+        <v>0</v>
       </c>
       <c r="D31" s="3" t="n">
         <v>0.0066</v>
       </c>
       <c r="E31" s="3" t="n">
-        <v>0.0001</v>
+        <v>0.0066</v>
+      </c>
+      <c r="F31" s="3" t="n">
+        <v>0.0066</v>
       </c>
     </row>
     <row r="32" ht="22" customHeight="1">
@@ -1075,13 +1171,16 @@
         <v>0.0112</v>
       </c>
       <c r="C32" s="3" t="n">
-        <v>0.0112</v>
+        <v>0</v>
       </c>
       <c r="D32" s="3" t="n">
         <v>0.0112</v>
       </c>
       <c r="E32" s="3" t="n">
-        <v>0</v>
+        <v>0.0112</v>
+      </c>
+      <c r="F32" s="3" t="n">
+        <v>0.0112</v>
       </c>
     </row>
     <row r="33" ht="22" customHeight="1">
@@ -1094,13 +1193,16 @@
         <v>0.0103</v>
       </c>
       <c r="C33" s="3" t="n">
-        <v>0.0105</v>
+        <v>0</v>
       </c>
       <c r="D33" s="3" t="n">
+        <v>0.0103</v>
+      </c>
+      <c r="E33" s="3" t="n">
         <v>0.0104</v>
       </c>
-      <c r="E33" s="3" t="n">
-        <v>-0.0002</v>
+      <c r="F33" s="3" t="n">
+        <v>0.0103</v>
       </c>
     </row>
     <row r="34" ht="22" customHeight="1">
@@ -1110,16 +1212,19 @@
         </is>
       </c>
       <c r="B34" s="3" t="n">
+        <v>0.0225</v>
+      </c>
+      <c r="C34" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="D34" s="3" t="n">
         <v>0.0223</v>
       </c>
-      <c r="C34" s="3" t="n">
-        <v>0.0223</v>
-      </c>
-      <c r="D34" s="3" t="n">
+      <c r="E34" s="3" t="n">
         <v>0.0225</v>
       </c>
-      <c r="E34" s="3" t="n">
-        <v>0</v>
+      <c r="F34" s="3" t="n">
+        <v>0.0225</v>
       </c>
     </row>
     <row r="35" ht="22" customHeight="1">
@@ -1132,13 +1237,16 @@
         <v>0.0186</v>
       </c>
       <c r="C35" s="3" t="n">
-        <v>0.0185</v>
+        <v>0</v>
       </c>
       <c r="D35" s="3" t="n">
+        <v>0.0186</v>
+      </c>
+      <c r="E35" s="3" t="n">
         <v>0.0184</v>
       </c>
-      <c r="E35" s="3" t="n">
-        <v>0.0001</v>
+      <c r="F35" s="3" t="n">
+        <v>0.0186</v>
       </c>
     </row>
     <row r="36" ht="22" customHeight="1">
@@ -1148,16 +1256,19 @@
         </is>
       </c>
       <c r="B36" s="3" t="n">
+        <v>0.0451</v>
+      </c>
+      <c r="C36" s="3" t="n">
+        <v>0.0266</v>
+      </c>
+      <c r="D36" s="3" t="n">
         <v>0.0494</v>
       </c>
-      <c r="C36" s="3" t="n">
-        <v>0.0495</v>
-      </c>
-      <c r="D36" s="3" t="n">
+      <c r="E36" s="3" t="n">
         <v>0.0496</v>
       </c>
-      <c r="E36" s="3" t="n">
-        <v>-0.0001</v>
+      <c r="F36" s="3" t="n">
+        <v>0.0185</v>
       </c>
     </row>
     <row r="37" ht="22" customHeight="1">
@@ -1167,16 +1278,19 @@
         </is>
       </c>
       <c r="B37" s="3" t="n">
+        <v>8.9666</v>
+      </c>
+      <c r="C37" s="3" t="n">
+        <v>8.956200000000001</v>
+      </c>
+      <c r="D37" s="3" t="n">
         <v>8.9617</v>
       </c>
-      <c r="C37" s="3" t="n">
-        <v>8.947900000000001</v>
-      </c>
-      <c r="D37" s="3" t="n">
+      <c r="E37" s="3" t="n">
         <v>8.953900000000001</v>
       </c>
-      <c r="E37" s="3" t="n">
-        <v>0.0138</v>
+      <c r="F37" s="3" t="n">
+        <v>0.0104</v>
       </c>
     </row>
     <row r="38" ht="22" customHeight="1">
@@ -1186,16 +1300,19 @@
         </is>
       </c>
       <c r="B38" s="3" t="n">
+        <v>0.0112</v>
+      </c>
+      <c r="C38" s="3" t="n">
+        <v>0.0113</v>
+      </c>
+      <c r="D38" s="3" t="n">
         <v>0.0109</v>
       </c>
-      <c r="C38" s="3" t="n">
-        <v>0.0116</v>
-      </c>
-      <c r="D38" s="3" t="n">
+      <c r="E38" s="3" t="n">
         <v>0.0108</v>
       </c>
-      <c r="E38" s="3" t="n">
-        <v>-0.0007</v>
+      <c r="F38" s="3" t="n">
+        <v>-0.0001</v>
       </c>
     </row>
     <row r="39" ht="22" customHeight="1">
@@ -1205,16 +1322,19 @@
         </is>
       </c>
       <c r="B39" s="3" t="n">
+        <v>0.0977</v>
+      </c>
+      <c r="C39" s="3" t="n">
+        <v>0.007900000000000001</v>
+      </c>
+      <c r="D39" s="3" t="n">
         <v>0.0978</v>
       </c>
-      <c r="C39" s="3" t="n">
-        <v>0.0977</v>
-      </c>
-      <c r="D39" s="3" t="n">
+      <c r="E39" s="3" t="n">
         <v>0.0974</v>
       </c>
-      <c r="E39" s="3" t="n">
-        <v>0.0001</v>
+      <c r="F39" s="3" t="n">
+        <v>0.0898</v>
       </c>
     </row>
     <row r="40" ht="22" customHeight="1">
@@ -1227,13 +1347,16 @@
         <v>0.0074</v>
       </c>
       <c r="C40" s="3" t="n">
-        <v>0.0074</v>
+        <v>0.0023</v>
       </c>
       <c r="D40" s="3" t="n">
         <v>0.0074</v>
       </c>
       <c r="E40" s="3" t="n">
-        <v>0</v>
+        <v>0.0074</v>
+      </c>
+      <c r="F40" s="3" t="n">
+        <v>0.0051</v>
       </c>
     </row>
     <row r="41" ht="22" customHeight="1">
@@ -1243,16 +1366,19 @@
         </is>
       </c>
       <c r="B41" s="3" t="n">
+        <v>0.1105</v>
+      </c>
+      <c r="C41" s="3" t="n">
+        <v>0.5336</v>
+      </c>
+      <c r="D41" s="3" t="n">
         <v>0.057</v>
       </c>
-      <c r="C41" s="3" t="n">
-        <v>0.0616</v>
-      </c>
-      <c r="D41" s="3" t="n">
+      <c r="E41" s="3" t="n">
         <v>0.0611</v>
       </c>
-      <c r="E41" s="3" t="n">
-        <v>-0.0046</v>
+      <c r="F41" s="3" t="n">
+        <v>-0.4231</v>
       </c>
     </row>
     <row r="42" ht="22" customHeight="1">
@@ -1262,16 +1388,19 @@
         </is>
       </c>
       <c r="B42" s="3" t="n">
-        <v>0.0069</v>
+        <v>0.007</v>
       </c>
       <c r="C42" s="3" t="n">
-        <v>0.0069</v>
+        <v>0.0071</v>
       </c>
       <c r="D42" s="3" t="n">
         <v>0.0069</v>
       </c>
       <c r="E42" s="3" t="n">
-        <v>0</v>
+        <v>0.0069</v>
+      </c>
+      <c r="F42" s="3" t="n">
+        <v>-0.0001</v>
       </c>
     </row>
     <row r="43" ht="22" customHeight="1">
@@ -1281,16 +1410,19 @@
         </is>
       </c>
       <c r="B43" s="3" t="n">
+        <v>2.9264</v>
+      </c>
+      <c r="C43" s="3" t="n">
+        <v>2.9273</v>
+      </c>
+      <c r="D43" s="3" t="n">
         <v>2.904</v>
       </c>
-      <c r="C43" s="3" t="n">
-        <v>2.9149</v>
-      </c>
-      <c r="D43" s="3" t="n">
+      <c r="E43" s="3" t="n">
         <v>3.1016</v>
       </c>
-      <c r="E43" s="3" t="n">
-        <v>-0.0109</v>
+      <c r="F43" s="3" t="n">
+        <v>-0.0009</v>
       </c>
     </row>
     <row r="44" ht="22" customHeight="1">
@@ -1300,16 +1432,19 @@
         </is>
       </c>
       <c r="B44" s="3" t="n">
+        <v>0.0092</v>
+      </c>
+      <c r="C44" s="3" t="n">
+        <v>0.0095</v>
+      </c>
+      <c r="D44" s="3" t="n">
         <v>0.0094</v>
       </c>
-      <c r="C44" s="3" t="n">
+      <c r="E44" s="3" t="n">
         <v>0.0092999999999999</v>
       </c>
-      <c r="D44" s="3" t="n">
-        <v>0.0092999999999999</v>
-      </c>
-      <c r="E44" s="3" t="n">
-        <v>0.0001</v>
+      <c r="F44" s="3" t="n">
+        <v>-0.0003</v>
       </c>
     </row>
     <row r="45" ht="22" customHeight="1">
@@ -1319,16 +1454,19 @@
         </is>
       </c>
       <c r="B45" s="3" t="n">
+        <v>0.0144</v>
+      </c>
+      <c r="C45" s="3" t="n">
+        <v>0.0156</v>
+      </c>
+      <c r="D45" s="3" t="n">
         <v>0.0154</v>
       </c>
-      <c r="C45" s="3" t="n">
+      <c r="E45" s="3" t="n">
         <v>0.0157</v>
       </c>
-      <c r="D45" s="3" t="n">
-        <v>0.0157</v>
-      </c>
-      <c r="E45" s="3" t="n">
-        <v>-0.0003</v>
+      <c r="F45" s="3" t="n">
+        <v>-0.0012</v>
       </c>
     </row>
     <row r="46" ht="22" customHeight="1">
@@ -1338,16 +1476,19 @@
         </is>
       </c>
       <c r="B46" s="3" t="n">
+        <v>0.7702</v>
+      </c>
+      <c r="C46" s="3" t="n">
+        <v>1.1017</v>
+      </c>
+      <c r="D46" s="3" t="n">
         <v>0.868</v>
       </c>
-      <c r="C46" s="3" t="n">
-        <v>1.0886</v>
-      </c>
-      <c r="D46" s="3" t="n">
+      <c r="E46" s="3" t="n">
         <v>1.0789</v>
       </c>
-      <c r="E46" s="3" t="n">
-        <v>-0.2206</v>
+      <c r="F46" s="3" t="n">
+        <v>-0.3315</v>
       </c>
     </row>
     <row r="47" ht="22" customHeight="1">
@@ -1357,16 +1498,19 @@
         </is>
       </c>
       <c r="B47" s="3" t="n">
+        <v>0.0075</v>
+      </c>
+      <c r="C47" s="3" t="n">
+        <v>0.0072</v>
+      </c>
+      <c r="D47" s="3" t="n">
         <v>0.0076</v>
       </c>
-      <c r="C47" s="3" t="n">
-        <v>0.0067</v>
-      </c>
-      <c r="D47" s="3" t="n">
+      <c r="E47" s="3" t="n">
         <v>0.0075</v>
       </c>
-      <c r="E47" s="3" t="n">
-        <v>0.0009</v>
+      <c r="F47" s="3" t="n">
+        <v>0.0003</v>
       </c>
     </row>
     <row r="48" ht="22" customHeight="1">
@@ -1379,13 +1523,16 @@
         <v>0.0066</v>
       </c>
       <c r="C48" s="3" t="n">
-        <v>0.0066</v>
+        <v>0.0064</v>
       </c>
       <c r="D48" s="3" t="n">
         <v>0.0066</v>
       </c>
       <c r="E48" s="3" t="n">
-        <v>0</v>
+        <v>0.0066</v>
+      </c>
+      <c r="F48" s="3" t="n">
+        <v>0.0002</v>
       </c>
     </row>
     <row r="49" ht="22" customHeight="1">
@@ -1395,16 +1542,19 @@
         </is>
       </c>
       <c r="B49" s="3" t="n">
+        <v>0.0074</v>
+      </c>
+      <c r="C49" s="3" t="n">
+        <v>0.0072</v>
+      </c>
+      <c r="D49" s="3" t="n">
         <v>0.0075</v>
       </c>
-      <c r="C49" s="3" t="n">
-        <v>0.0075</v>
-      </c>
-      <c r="D49" s="3" t="n">
+      <c r="E49" s="3" t="n">
         <v>0.0073</v>
       </c>
-      <c r="E49" s="3" t="n">
-        <v>0</v>
+      <c r="F49" s="3" t="n">
+        <v>0.0002</v>
       </c>
     </row>
     <row r="50" ht="22" customHeight="1">
@@ -1414,16 +1564,19 @@
         </is>
       </c>
       <c r="B50" s="3" t="n">
+        <v>0.0078</v>
+      </c>
+      <c r="C50" s="3" t="n">
+        <v>0.007900000000000001</v>
+      </c>
+      <c r="D50" s="3" t="n">
         <v>0.0076</v>
       </c>
-      <c r="C50" s="3" t="n">
+      <c r="E50" s="3" t="n">
         <v>0.0078</v>
       </c>
-      <c r="D50" s="3" t="n">
-        <v>0.0078</v>
-      </c>
-      <c r="E50" s="3" t="n">
-        <v>-0.0002</v>
+      <c r="F50" s="3" t="n">
+        <v>-0.0001</v>
       </c>
     </row>
     <row r="51" ht="22" customHeight="1">
@@ -1442,6 +1595,9 @@
         <v>0.0069</v>
       </c>
       <c r="E51" s="3" t="n">
+        <v>0.0069</v>
+      </c>
+      <c r="F51" s="3" t="n">
         <v>-0.0001</v>
       </c>
     </row>
@@ -1452,16 +1608,19 @@
         </is>
       </c>
       <c r="B52" s="3" t="n">
-        <v>0.0063</v>
+        <v>0.0064</v>
       </c>
       <c r="C52" s="3" t="n">
         <v>0.0064</v>
       </c>
       <c r="D52" s="3" t="n">
+        <v>0.0063</v>
+      </c>
+      <c r="E52" s="3" t="n">
         <v>0.0064</v>
       </c>
-      <c r="E52" s="3" t="n">
-        <v>-0.0001</v>
+      <c r="F52" s="3" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="53" ht="22" customHeight="1">
@@ -1471,16 +1630,19 @@
         </is>
       </c>
       <c r="B53" s="3" t="n">
+        <v>0.0066</v>
+      </c>
+      <c r="C53" s="3" t="n">
+        <v>0.0066</v>
+      </c>
+      <c r="D53" s="3" t="n">
         <v>0.0067</v>
       </c>
-      <c r="C53" s="3" t="n">
-        <v>0.0065</v>
-      </c>
-      <c r="D53" s="3" t="n">
+      <c r="E53" s="3" t="n">
         <v>0.0066</v>
       </c>
-      <c r="E53" s="3" t="n">
-        <v>0.0002</v>
+      <c r="F53" s="3" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="54" ht="22" customHeight="1">
@@ -1493,13 +1655,16 @@
         <v>0.007</v>
       </c>
       <c r="C54" s="3" t="n">
-        <v>0.007</v>
+        <v>0.0069</v>
       </c>
       <c r="D54" s="3" t="n">
         <v>0.007</v>
       </c>
       <c r="E54" s="3" t="n">
-        <v>0</v>
+        <v>0.007</v>
+      </c>
+      <c r="F54" s="3" t="n">
+        <v>0.0001</v>
       </c>
     </row>
     <row r="55" ht="22" customHeight="1">
@@ -1509,16 +1674,19 @@
         </is>
       </c>
       <c r="B55" s="3" t="n">
+        <v>2.0088</v>
+      </c>
+      <c r="C55" s="3" t="n">
+        <v>2.0054</v>
+      </c>
+      <c r="D55" s="3" t="n">
         <v>2.0091</v>
       </c>
-      <c r="C55" s="3" t="n">
-        <v>2.0077</v>
-      </c>
-      <c r="D55" s="3" t="n">
+      <c r="E55" s="3" t="n">
         <v>32.7888</v>
       </c>
-      <c r="E55" s="3" t="n">
-        <v>0.0014</v>
+      <c r="F55" s="3" t="n">
+        <v>0.0034</v>
       </c>
     </row>
     <row r="56" ht="22" customHeight="1">
@@ -1528,16 +1696,19 @@
         </is>
       </c>
       <c r="B56" s="3" t="n">
+        <v>0.0092</v>
+      </c>
+      <c r="C56" s="3" t="n">
         <v>0.0101</v>
       </c>
-      <c r="C56" s="3" t="n">
-        <v>0.0097</v>
-      </c>
       <c r="D56" s="3" t="n">
+        <v>0.0101</v>
+      </c>
+      <c r="E56" s="3" t="n">
         <v>0.0109</v>
       </c>
-      <c r="E56" s="3" t="n">
-        <v>0.0004</v>
+      <c r="F56" s="3" t="n">
+        <v>-0.0009</v>
       </c>
     </row>
     <row r="57" ht="22" customHeight="1">
@@ -1547,16 +1718,19 @@
         </is>
       </c>
       <c r="B57" s="3" t="n">
-        <v>0.0074</v>
+        <v>0.0073</v>
       </c>
       <c r="C57" s="3" t="n">
         <v>0.0073</v>
       </c>
       <c r="D57" s="3" t="n">
+        <v>0.0074</v>
+      </c>
+      <c r="E57" s="3" t="n">
         <v>0.0092</v>
       </c>
-      <c r="E57" s="3" t="n">
-        <v>0.0001</v>
+      <c r="F57" s="3" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="58" ht="22" customHeight="1">
@@ -1566,16 +1740,19 @@
         </is>
       </c>
       <c r="B58" s="3" t="n">
+        <v>0.0072</v>
+      </c>
+      <c r="C58" s="3" t="n">
+        <v>0.0071</v>
+      </c>
+      <c r="D58" s="3" t="n">
         <v>0.007</v>
       </c>
-      <c r="C58" s="3" t="n">
-        <v>0.0072</v>
-      </c>
-      <c r="D58" s="3" t="n">
+      <c r="E58" s="3" t="n">
         <v>0.0074</v>
       </c>
-      <c r="E58" s="3" t="n">
-        <v>-0.0002</v>
+      <c r="F58" s="3" t="n">
+        <v>0.0001</v>
       </c>
     </row>
     <row r="59" ht="22" customHeight="1">
@@ -1585,16 +1762,19 @@
         </is>
       </c>
       <c r="B59" s="3" t="n">
+        <v>0.0083</v>
+      </c>
+      <c r="C59" s="3" t="n">
+        <v>0.0083</v>
+      </c>
+      <c r="D59" s="3" t="n">
         <v>0.008399999999999901</v>
       </c>
-      <c r="C59" s="3" t="n">
-        <v>0.0081</v>
-      </c>
-      <c r="D59" s="3" t="n">
+      <c r="E59" s="3" t="n">
         <v>0.0086</v>
       </c>
-      <c r="E59" s="3" t="n">
-        <v>0.0003</v>
+      <c r="F59" s="3" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="60" ht="22" customHeight="1">
@@ -1604,16 +1784,19 @@
         </is>
       </c>
       <c r="B60" s="3" t="n">
+        <v>0.008500000000000001</v>
+      </c>
+      <c r="C60" s="3" t="n">
+        <v>0.008500000000000001</v>
+      </c>
+      <c r="D60" s="3" t="n">
         <v>0.0086</v>
       </c>
-      <c r="C60" s="3" t="n">
-        <v>0.008399999999999901</v>
-      </c>
-      <c r="D60" s="3" t="n">
+      <c r="E60" s="3" t="n">
         <v>0.0092</v>
       </c>
-      <c r="E60" s="3" t="n">
-        <v>0.0002</v>
+      <c r="F60" s="3" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="61" ht="22" customHeight="1">
@@ -1623,16 +1806,19 @@
         </is>
       </c>
       <c r="B61" s="3" t="n">
-        <v>0.0077</v>
+        <v>0.0078</v>
       </c>
       <c r="C61" s="3" t="n">
         <v>0.0078</v>
       </c>
       <c r="D61" s="3" t="n">
+        <v>0.0077</v>
+      </c>
+      <c r="E61" s="3" t="n">
         <v>0.0083</v>
       </c>
-      <c r="E61" s="3" t="n">
-        <v>-0.0001</v>
+      <c r="F61" s="3" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="62" ht="22" customHeight="1">
@@ -1642,16 +1828,19 @@
         </is>
       </c>
       <c r="B62" s="3" t="n">
+        <v>0.6924</v>
+      </c>
+      <c r="C62" s="3" t="n">
+        <v>0.6949</v>
+      </c>
+      <c r="D62" s="3" t="n">
         <v>0.6946</v>
       </c>
-      <c r="C62" s="3" t="n">
-        <v>0.7035</v>
-      </c>
-      <c r="D62" s="3" t="n">
+      <c r="E62" s="3" t="n">
         <v>0.6943</v>
       </c>
-      <c r="E62" s="3" t="n">
-        <v>-0.0089</v>
+      <c r="F62" s="3" t="n">
+        <v>-0.0025</v>
       </c>
     </row>
     <row r="63" ht="22" customHeight="1">
@@ -1661,16 +1850,19 @@
         </is>
       </c>
       <c r="B63" s="3" t="n">
+        <v>0.0309</v>
+      </c>
+      <c r="C63" s="3" t="n">
+        <v>0.0322</v>
+      </c>
+      <c r="D63" s="3" t="n">
         <v>0.0325</v>
       </c>
-      <c r="C63" s="3" t="n">
-        <v>0.0323</v>
-      </c>
-      <c r="D63" s="3" t="n">
+      <c r="E63" s="3" t="n">
         <v>0.0328</v>
       </c>
-      <c r="E63" s="3" t="n">
-        <v>0.0002</v>
+      <c r="F63" s="3" t="n">
+        <v>-0.0013</v>
       </c>
     </row>
     <row r="64" ht="22" customHeight="1">
@@ -1680,16 +1872,19 @@
         </is>
       </c>
       <c r="B64" s="3" t="n">
+        <v>2.9306</v>
+      </c>
+      <c r="C64" s="3" t="n">
+        <v>2.8373</v>
+      </c>
+      <c r="D64" s="3" t="n">
         <v>2.9939</v>
       </c>
-      <c r="C64" s="3" t="n">
-        <v>2.846</v>
-      </c>
-      <c r="D64" s="3" t="n">
+      <c r="E64" s="3" t="n">
         <v>2.8678</v>
       </c>
-      <c r="E64" s="3" t="n">
-        <v>0.1479</v>
+      <c r="F64" s="3" t="n">
+        <v>0.09329999999999999</v>
       </c>
     </row>
     <row r="65" ht="22" customHeight="1">
@@ -1699,16 +1894,19 @@
         </is>
       </c>
       <c r="B65" s="3" t="n">
+        <v>0.0058</v>
+      </c>
+      <c r="C65" s="3" t="n">
+        <v>0.008699999999999901</v>
+      </c>
+      <c r="D65" s="3" t="n">
         <v>0.0081</v>
       </c>
-      <c r="C65" s="3" t="n">
-        <v>0.008200000000000001</v>
-      </c>
-      <c r="D65" s="3" t="n">
+      <c r="E65" s="3" t="n">
         <v>0.0056</v>
       </c>
-      <c r="E65" s="3" t="n">
-        <v>-0.0001</v>
+      <c r="F65" s="3" t="n">
+        <v>-0.0029</v>
       </c>
     </row>
     <row r="66" ht="22" customHeight="1">
@@ -1718,16 +1916,19 @@
         </is>
       </c>
       <c r="B66" s="3" t="n">
-        <v>0.0228</v>
+        <v>0.0229</v>
       </c>
       <c r="C66" s="3" t="n">
         <v>0.0228</v>
       </c>
       <c r="D66" s="3" t="n">
+        <v>0.0228</v>
+      </c>
+      <c r="E66" s="3" t="n">
         <v>0.0226</v>
       </c>
-      <c r="E66" s="3" t="n">
-        <v>0</v>
+      <c r="F66" s="3" t="n">
+        <v>0.0001</v>
       </c>
     </row>
     <row r="67" ht="22" customHeight="1">
@@ -1737,16 +1938,19 @@
         </is>
       </c>
       <c r="B67" s="3" t="n">
-        <v>0.009900000000000001</v>
+        <v>0.01</v>
       </c>
       <c r="C67" s="3" t="n">
         <v>0.009900000000000001</v>
       </c>
       <c r="D67" s="3" t="n">
+        <v>0.009900000000000001</v>
+      </c>
+      <c r="E67" s="3" t="n">
         <v>0.01</v>
       </c>
-      <c r="E67" s="3" t="n">
-        <v>0</v>
+      <c r="F67" s="3" t="n">
+        <v>0.0001</v>
       </c>
     </row>
     <row r="68" ht="22" customHeight="1">
@@ -1759,13 +1963,16 @@
         <v>0.015</v>
       </c>
       <c r="C68" s="3" t="n">
-        <v>0.0145</v>
+        <v>0.0149</v>
       </c>
       <c r="D68" s="3" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="E68" s="3" t="n">
         <v>0.0149</v>
       </c>
-      <c r="E68" s="3" t="n">
-        <v>0.0005</v>
+      <c r="F68" s="3" t="n">
+        <v>0.0001</v>
       </c>
     </row>
     <row r="69" ht="22" customHeight="1">
@@ -1775,16 +1982,19 @@
         </is>
       </c>
       <c r="B69" s="3" t="n">
+        <v>0.06320000000000001</v>
+      </c>
+      <c r="C69" s="3" t="n">
+        <v>0.0634</v>
+      </c>
+      <c r="D69" s="3" t="n">
         <v>0.0633</v>
       </c>
-      <c r="C69" s="3" t="n">
-        <v>0.0636</v>
-      </c>
-      <c r="D69" s="3" t="n">
+      <c r="E69" s="3" t="n">
         <v>0.065</v>
       </c>
-      <c r="E69" s="3" t="n">
-        <v>-0.0003</v>
+      <c r="F69" s="3" t="n">
+        <v>-0.0002</v>
       </c>
     </row>
     <row r="70" ht="22" customHeight="1">
@@ -1797,13 +2007,16 @@
         <v>0.0145</v>
       </c>
       <c r="C70" s="3" t="n">
-        <v>0.0144</v>
+        <v>0.0145</v>
       </c>
       <c r="D70" s="3" t="n">
+        <v>0.0145</v>
+      </c>
+      <c r="E70" s="3" t="n">
         <v>0.0146</v>
       </c>
-      <c r="E70" s="3" t="n">
-        <v>0.0001</v>
+      <c r="F70" s="3" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="71" ht="22" customHeight="1">
@@ -1813,16 +2026,19 @@
         </is>
       </c>
       <c r="B71" s="3" t="n">
+        <v>0.029</v>
+      </c>
+      <c r="C71" s="3" t="n">
+        <v>0.0314</v>
+      </c>
+      <c r="D71" s="3" t="n">
         <v>0.0317</v>
       </c>
-      <c r="C71" s="3" t="n">
-        <v>0.0319</v>
-      </c>
-      <c r="D71" s="3" t="n">
+      <c r="E71" s="3" t="n">
         <v>0.0315</v>
       </c>
-      <c r="E71" s="3" t="n">
-        <v>-0.0002</v>
+      <c r="F71" s="3" t="n">
+        <v>-0.0024</v>
       </c>
     </row>
     <row r="72" ht="22" customHeight="1">
@@ -1832,16 +2048,19 @@
         </is>
       </c>
       <c r="B72" s="3" t="n">
+        <v>8.7059</v>
+      </c>
+      <c r="C72" s="3" t="n">
+        <v>8.7416</v>
+      </c>
+      <c r="D72" s="3" t="n">
         <v>8.7272</v>
       </c>
-      <c r="C72" s="3" t="n">
-        <v>8.7677</v>
-      </c>
-      <c r="D72" s="3" t="n">
+      <c r="E72" s="3" t="n">
         <v>8.698399999999999</v>
       </c>
-      <c r="E72" s="3" t="n">
-        <v>-0.0405</v>
+      <c r="F72" s="3" t="n">
+        <v>-0.0357</v>
       </c>
     </row>
     <row r="73" ht="22" customHeight="1">
@@ -1851,16 +2070,19 @@
         </is>
       </c>
       <c r="B73" s="3" t="n">
+        <v>0.0515</v>
+      </c>
+      <c r="C73" s="3" t="n">
+        <v>0.0531</v>
+      </c>
+      <c r="D73" s="3" t="n">
         <v>0.0536</v>
       </c>
-      <c r="C73" s="3" t="n">
-        <v>0.0537</v>
-      </c>
-      <c r="D73" s="3" t="n">
+      <c r="E73" s="3" t="n">
         <v>0.0539</v>
       </c>
-      <c r="E73" s="3" t="n">
-        <v>-0.0001</v>
+      <c r="F73" s="3" t="n">
+        <v>-0.0016</v>
       </c>
     </row>
     <row r="74" ht="22" customHeight="1">
@@ -1870,16 +2092,19 @@
         </is>
       </c>
       <c r="B74" s="3" t="n">
-        <v>0.0104</v>
+        <v>0.0105</v>
       </c>
       <c r="C74" s="3" t="n">
         <v>0.0104</v>
       </c>
       <c r="D74" s="3" t="n">
+        <v>0.0104</v>
+      </c>
+      <c r="E74" s="3" t="n">
         <v>0.0105</v>
       </c>
-      <c r="E74" s="3" t="n">
-        <v>0</v>
+      <c r="F74" s="3" t="n">
+        <v>0.0001</v>
       </c>
     </row>
     <row r="75" ht="22" customHeight="1">
@@ -1889,16 +2114,19 @@
         </is>
       </c>
       <c r="B75" s="3" t="n">
+        <v>2.5181</v>
+      </c>
+      <c r="C75" s="3" t="n">
+        <v>2.5124</v>
+      </c>
+      <c r="D75" s="3" t="n">
         <v>2.535</v>
       </c>
-      <c r="C75" s="3" t="n">
-        <v>2.5003</v>
-      </c>
-      <c r="D75" s="3" t="n">
+      <c r="E75" s="3" t="n">
         <v>2.5277</v>
       </c>
-      <c r="E75" s="3" t="n">
-        <v>0.0347</v>
+      <c r="F75" s="3" t="n">
+        <v>0.0057</v>
       </c>
     </row>
     <row r="76" ht="22" customHeight="1">
@@ -1908,16 +2136,19 @@
         </is>
       </c>
       <c r="B76" s="3" t="n">
+        <v>1.5416</v>
+      </c>
+      <c r="C76" s="3" t="n">
+        <v>1.5502</v>
+      </c>
+      <c r="D76" s="3" t="n">
         <v>1.5391</v>
       </c>
-      <c r="C76" s="3" t="n">
-        <v>1.535</v>
-      </c>
-      <c r="D76" s="3" t="n">
+      <c r="E76" s="3" t="n">
         <v>1.5295</v>
       </c>
-      <c r="E76" s="3" t="n">
-        <v>0.0041</v>
+      <c r="F76" s="3" t="n">
+        <v>-0.0086</v>
       </c>
     </row>
     <row r="77" ht="22" customHeight="1">
@@ -1927,16 +2158,19 @@
         </is>
       </c>
       <c r="B77" s="3" t="n">
+        <v>1.4881</v>
+      </c>
+      <c r="C77" s="3" t="n">
+        <v>1.5122</v>
+      </c>
+      <c r="D77" s="3" t="n">
         <v>1.4889</v>
       </c>
-      <c r="C77" s="3" t="n">
-        <v>1.492</v>
-      </c>
-      <c r="D77" s="3" t="n">
+      <c r="E77" s="3" t="n">
         <v>1.4929</v>
       </c>
-      <c r="E77" s="3" t="n">
-        <v>-0.0031</v>
+      <c r="F77" s="3" t="n">
+        <v>-0.0241</v>
       </c>
     </row>
     <row r="78" ht="22" customHeight="1">
@@ -1946,16 +2180,19 @@
         </is>
       </c>
       <c r="B78" s="3" t="n">
+        <v>2.002</v>
+      </c>
+      <c r="C78" s="3" t="n">
+        <v>2.0144</v>
+      </c>
+      <c r="D78" s="3" t="n">
         <v>2.0053</v>
       </c>
-      <c r="C78" s="3" t="n">
-        <v>2.0047</v>
-      </c>
-      <c r="D78" s="3" t="n">
+      <c r="E78" s="3" t="n">
         <v>1.9996</v>
       </c>
-      <c r="E78" s="3" t="n">
-        <v>0.0005999999999999999</v>
+      <c r="F78" s="3" t="n">
+        <v>-0.0124</v>
       </c>
     </row>
     <row r="79" ht="22" customHeight="1">
@@ -1965,16 +2202,19 @@
         </is>
       </c>
       <c r="B79" s="3" t="n">
+        <v>0.0107</v>
+      </c>
+      <c r="C79" s="3" t="n">
         <v>0.0109</v>
-      </c>
-      <c r="C79" s="3" t="n">
-        <v>0.0107</v>
       </c>
       <c r="D79" s="3" t="n">
         <v>0.0109</v>
       </c>
       <c r="E79" s="3" t="n">
-        <v>0.0002</v>
+        <v>0.0109</v>
+      </c>
+      <c r="F79" s="3" t="n">
+        <v>-0.0002</v>
       </c>
     </row>
     <row r="80" ht="22" customHeight="1">
@@ -1984,16 +2224,19 @@
         </is>
       </c>
       <c r="B80" s="3" t="n">
+        <v>0.0463</v>
+      </c>
+      <c r="C80" s="3" t="n">
+        <v>0.0488</v>
+      </c>
+      <c r="D80" s="3" t="n">
         <v>0.0468</v>
       </c>
-      <c r="C80" s="3" t="n">
-        <v>0.0457</v>
-      </c>
-      <c r="D80" s="3" t="n">
+      <c r="E80" s="3" t="n">
         <v>0.0462</v>
       </c>
-      <c r="E80" s="3" t="n">
-        <v>0.0011</v>
+      <c r="F80" s="3" t="n">
+        <v>-0.0025</v>
       </c>
     </row>
     <row r="81" ht="22" customHeight="1">
@@ -2003,16 +2246,19 @@
         </is>
       </c>
       <c r="B81" s="3" t="n">
-        <v>0.0083</v>
+        <v>0.008399999999999901</v>
       </c>
       <c r="C81" s="3" t="n">
-        <v>0.0083</v>
+        <v>0.0066</v>
       </c>
       <c r="D81" s="3" t="n">
         <v>0.0083</v>
       </c>
       <c r="E81" s="3" t="n">
-        <v>0</v>
+        <v>0.0083</v>
+      </c>
+      <c r="F81" s="3" t="n">
+        <v>0.0018</v>
       </c>
     </row>
     <row r="82" ht="22" customHeight="1">
@@ -2022,16 +2268,19 @@
         </is>
       </c>
       <c r="B82" s="3" t="n">
+        <v>0.0348</v>
+      </c>
+      <c r="C82" s="3" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="D82" s="3" t="n">
         <v>0.0343</v>
       </c>
-      <c r="C82" s="3" t="n">
-        <v>0.0343</v>
-      </c>
-      <c r="D82" s="3" t="n">
+      <c r="E82" s="3" t="n">
         <v>0.0346</v>
       </c>
-      <c r="E82" s="3" t="n">
-        <v>0</v>
+      <c r="F82" s="3" t="n">
+        <v>0.0198</v>
       </c>
     </row>
     <row r="83" ht="22" customHeight="1">
@@ -2041,16 +2290,19 @@
         </is>
       </c>
       <c r="B83" s="3" t="n">
+        <v>0.0119</v>
+      </c>
+      <c r="C83" s="3" t="n">
+        <v>0.0032</v>
+      </c>
+      <c r="D83" s="3" t="n">
         <v>0.0112</v>
       </c>
-      <c r="C83" s="3" t="n">
-        <v>0.0113</v>
-      </c>
-      <c r="D83" s="3" t="n">
+      <c r="E83" s="3" t="n">
         <v>0.0118</v>
       </c>
-      <c r="E83" s="3" t="n">
-        <v>-0.0001</v>
+      <c r="F83" s="3" t="n">
+        <v>0.008699999999999999</v>
       </c>
     </row>
     <row r="84" ht="22" customHeight="1">
@@ -2060,16 +2312,19 @@
         </is>
       </c>
       <c r="B84" s="3" t="n">
+        <v>0.1417</v>
+      </c>
+      <c r="C84" s="3" t="n">
+        <v>0.1435</v>
+      </c>
+      <c r="D84" s="3" t="n">
         <v>0.1436</v>
       </c>
-      <c r="C84" s="3" t="n">
-        <v>0.1519</v>
-      </c>
-      <c r="D84" s="3" t="n">
+      <c r="E84" s="3" t="n">
         <v>0.1419</v>
       </c>
-      <c r="E84" s="3" t="n">
-        <v>-0.0083</v>
+      <c r="F84" s="3" t="n">
+        <v>-0.0018</v>
       </c>
     </row>
     <row r="85" ht="22" customHeight="1">
@@ -2079,16 +2334,19 @@
         </is>
       </c>
       <c r="B85" s="3" t="n">
+        <v>0.0154</v>
+      </c>
+      <c r="C85" s="3" t="n">
+        <v>0.016</v>
+      </c>
+      <c r="D85" s="3" t="n">
         <v>0.0159</v>
       </c>
-      <c r="C85" s="3" t="n">
-        <v>0.0156</v>
-      </c>
-      <c r="D85" s="3" t="n">
+      <c r="E85" s="3" t="n">
         <v>0.0158</v>
       </c>
-      <c r="E85" s="3" t="n">
-        <v>0.0003</v>
+      <c r="F85" s="3" t="n">
+        <v>-0.0005999999999999999</v>
       </c>
     </row>
     <row r="86" ht="22" customHeight="1">
@@ -2098,7 +2356,7 @@
         </is>
       </c>
       <c r="B86" s="3" t="n">
-        <v>0.007900000000000001</v>
+        <v>0.0077</v>
       </c>
       <c r="C86" s="3" t="n">
         <v>0.0077</v>
@@ -2107,7 +2365,10 @@
         <v>0.007900000000000001</v>
       </c>
       <c r="E86" s="3" t="n">
-        <v>0.0002</v>
+        <v>0.007900000000000001</v>
+      </c>
+      <c r="F86" s="3" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="87" ht="22" customHeight="1">
@@ -2117,16 +2378,19 @@
         </is>
       </c>
       <c r="B87" s="3" t="n">
+        <v>0.0092999999999999</v>
+      </c>
+      <c r="C87" s="3" t="n">
+        <v>0.0095</v>
+      </c>
+      <c r="D87" s="3" t="n">
         <v>0.0094</v>
       </c>
-      <c r="C87" s="3" t="n">
-        <v>0.0094</v>
-      </c>
-      <c r="D87" s="3" t="n">
+      <c r="E87" s="3" t="n">
         <v>0.0092999999999999</v>
       </c>
-      <c r="E87" s="3" t="n">
-        <v>0</v>
+      <c r="F87" s="3" t="n">
+        <v>-0.0002</v>
       </c>
     </row>
     <row r="88" ht="22" customHeight="1">
@@ -2139,13 +2403,16 @@
         <v>0.0119</v>
       </c>
       <c r="C88" s="3" t="n">
-        <v>0.0123</v>
+        <v>0.0119</v>
       </c>
       <c r="D88" s="3" t="n">
+        <v>0.0119</v>
+      </c>
+      <c r="E88" s="3" t="n">
         <v>0.012</v>
       </c>
-      <c r="E88" s="3" t="n">
-        <v>-0.0004</v>
+      <c r="F88" s="3" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="89" ht="22" customHeight="1">
@@ -2155,16 +2422,19 @@
         </is>
       </c>
       <c r="B89" s="3" t="n">
+        <v>13.0589</v>
+      </c>
+      <c r="C89" s="3" t="n">
+        <v>13.044</v>
+      </c>
+      <c r="D89" s="3" t="n">
         <v>80.03919999999999</v>
       </c>
-      <c r="C89" s="3" t="n">
-        <v>13.109</v>
-      </c>
-      <c r="D89" s="3" t="n">
+      <c r="E89" s="3" t="n">
         <v>13.094</v>
       </c>
-      <c r="E89" s="5" t="n">
-        <v>66.9302</v>
+      <c r="F89" s="3" t="n">
+        <v>0.0149</v>
       </c>
     </row>
     <row r="90" ht="22" customHeight="1">
@@ -2174,16 +2444,19 @@
         </is>
       </c>
       <c r="B90" s="3" t="n">
+        <v>0.008500000000000001</v>
+      </c>
+      <c r="C90" s="3" t="n">
+        <v>0.0097</v>
+      </c>
+      <c r="D90" s="3" t="n">
         <v>0.0111</v>
       </c>
-      <c r="C90" s="3" t="n">
-        <v>0.0091</v>
-      </c>
-      <c r="D90" s="3" t="n">
+      <c r="E90" s="3" t="n">
         <v>0.008800000000000001</v>
       </c>
-      <c r="E90" s="3" t="n">
-        <v>0.002</v>
+      <c r="F90" s="3" t="n">
+        <v>-0.0012</v>
       </c>
     </row>
     <row r="91" ht="22" customHeight="1">
@@ -2193,16 +2466,19 @@
         </is>
       </c>
       <c r="B91" s="3" t="n">
-        <v>0.0092999999999999</v>
+        <v>0.0089999999999999</v>
       </c>
       <c r="C91" s="3" t="n">
-        <v>0.0089999999999999</v>
+        <v>0.008200000000000001</v>
       </c>
       <c r="D91" s="3" t="n">
         <v>0.0092999999999999</v>
       </c>
       <c r="E91" s="3" t="n">
-        <v>0.0003</v>
+        <v>0.0092999999999999</v>
+      </c>
+      <c r="F91" s="3" t="n">
+        <v>0.0008</v>
       </c>
     </row>
     <row r="92" ht="22" customHeight="1">
@@ -2212,16 +2488,19 @@
         </is>
       </c>
       <c r="B92" s="3" t="n">
+        <v>0.1764</v>
+      </c>
+      <c r="C92" s="3" t="n">
+        <v>0.1756</v>
+      </c>
+      <c r="D92" s="3" t="n">
         <v>0.1787</v>
       </c>
-      <c r="C92" s="3" t="n">
-        <v>0.1762</v>
-      </c>
-      <c r="D92" s="3" t="n">
+      <c r="E92" s="3" t="n">
         <v>0.1795</v>
       </c>
-      <c r="E92" s="3" t="n">
-        <v>0.0025</v>
+      <c r="F92" s="3" t="n">
+        <v>0.0008</v>
       </c>
     </row>
     <row r="93" ht="22" customHeight="1">
@@ -2231,16 +2510,19 @@
         </is>
       </c>
       <c r="B93" s="3" t="n">
+        <v>0.0573</v>
+      </c>
+      <c r="C93" s="3" t="n">
+        <v>0.0552</v>
+      </c>
+      <c r="D93" s="3" t="n">
         <v>0.0559</v>
       </c>
-      <c r="C93" s="3" t="n">
-        <v>0.0562</v>
-      </c>
-      <c r="D93" s="3" t="n">
+      <c r="E93" s="3" t="n">
         <v>0.0571</v>
       </c>
-      <c r="E93" s="3" t="n">
-        <v>-0.0003</v>
+      <c r="F93" s="3" t="n">
+        <v>0.0021</v>
       </c>
     </row>
     <row r="94" ht="22" customHeight="1">
@@ -2250,16 +2532,19 @@
         </is>
       </c>
       <c r="B94" s="3" t="n">
+        <v>0.6718</v>
+      </c>
+      <c r="C94" s="3" t="n">
+        <v>0.6801</v>
+      </c>
+      <c r="D94" s="3" t="n">
         <v>0.6889999999999999</v>
       </c>
-      <c r="C94" s="3" t="n">
-        <v>0.671</v>
-      </c>
-      <c r="D94" s="3" t="n">
+      <c r="E94" s="3" t="n">
         <v>0.6765</v>
       </c>
-      <c r="E94" s="3" t="n">
-        <v>0.018</v>
+      <c r="F94" s="3" t="n">
+        <v>-0.0083</v>
       </c>
     </row>
     <row r="95" ht="22" customHeight="1">
@@ -2269,16 +2554,19 @@
         </is>
       </c>
       <c r="B95" s="3" t="n">
+        <v>10.4917</v>
+      </c>
+      <c r="C95" s="3" t="n">
+        <v>10.4836</v>
+      </c>
+      <c r="D95" s="3" t="n">
         <v>10.4438</v>
       </c>
-      <c r="C95" s="3" t="n">
-        <v>10.5748</v>
-      </c>
-      <c r="D95" s="3" t="n">
+      <c r="E95" s="3" t="n">
         <v>10.5235</v>
       </c>
-      <c r="E95" s="3" t="n">
-        <v>-0.131</v>
+      <c r="F95" s="3" t="n">
+        <v>0.0081</v>
       </c>
     </row>
     <row r="96" ht="22" customHeight="1">
@@ -2288,16 +2576,19 @@
         </is>
       </c>
       <c r="B96" s="3" t="n">
+        <v>0.4577</v>
+      </c>
+      <c r="C96" s="3" t="n">
+        <v>0.4528</v>
+      </c>
+      <c r="D96" s="3" t="n">
         <v>0.6192</v>
       </c>
-      <c r="C96" s="3" t="n">
-        <v>0.5185999999999999</v>
-      </c>
-      <c r="D96" s="3" t="n">
+      <c r="E96" s="3" t="n">
         <v>0.4754</v>
       </c>
-      <c r="E96" s="3" t="n">
-        <v>0.1006</v>
+      <c r="F96" s="3" t="n">
+        <v>0.0049</v>
       </c>
     </row>
     <row r="97" ht="22" customHeight="1">
@@ -2307,16 +2598,19 @@
         </is>
       </c>
       <c r="B97" s="3" t="n">
+        <v>0.0301</v>
+      </c>
+      <c r="C97" s="3" t="n">
+        <v>0.0296</v>
+      </c>
+      <c r="D97" s="3" t="n">
         <v>0.0273</v>
       </c>
-      <c r="C97" s="3" t="n">
-        <v>0.0277</v>
-      </c>
-      <c r="D97" s="3" t="n">
+      <c r="E97" s="3" t="n">
         <v>0.0317</v>
       </c>
-      <c r="E97" s="3" t="n">
-        <v>-0.0004</v>
+      <c r="F97" s="3" t="n">
+        <v>0.0005</v>
       </c>
     </row>
     <row r="98" ht="22" customHeight="1">
@@ -2326,16 +2620,19 @@
         </is>
       </c>
       <c r="B98" s="3" t="n">
+        <v>0.0169</v>
+      </c>
+      <c r="C98" s="3" t="n">
+        <v>0.0175</v>
+      </c>
+      <c r="D98" s="3" t="n">
         <v>0.0155</v>
       </c>
-      <c r="C98" s="3" t="n">
-        <v>0.0181</v>
-      </c>
-      <c r="D98" s="3" t="n">
+      <c r="E98" s="3" t="n">
         <v>0.0189</v>
       </c>
-      <c r="E98" s="3" t="n">
-        <v>-0.0026</v>
+      <c r="F98" s="3" t="n">
+        <v>-0.0005999999999999999</v>
       </c>
     </row>
     <row r="99" ht="22" customHeight="1">
@@ -2345,16 +2642,19 @@
         </is>
       </c>
       <c r="B99" s="3" t="n">
+        <v>0.0227</v>
+      </c>
+      <c r="C99" s="3" t="n">
+        <v>0.0226</v>
+      </c>
+      <c r="D99" s="3" t="n">
         <v>0.0198</v>
       </c>
-      <c r="C99" s="3" t="n">
-        <v>0.0228</v>
-      </c>
-      <c r="D99" s="3" t="n">
+      <c r="E99" s="3" t="n">
         <v>0.0206</v>
       </c>
-      <c r="E99" s="3" t="n">
-        <v>-0.003</v>
+      <c r="F99" s="3" t="n">
+        <v>0.0001</v>
       </c>
     </row>
     <row r="100" ht="22" customHeight="1">
@@ -2364,16 +2664,19 @@
         </is>
       </c>
       <c r="B100" s="3" t="n">
+        <v>0.0118</v>
+      </c>
+      <c r="C100" s="3" t="n">
+        <v>0.0147</v>
+      </c>
+      <c r="D100" s="3" t="n">
         <v>0.0123</v>
       </c>
-      <c r="C100" s="3" t="n">
-        <v>0.0131</v>
-      </c>
-      <c r="D100" s="3" t="n">
+      <c r="E100" s="3" t="n">
         <v>0.0125</v>
       </c>
-      <c r="E100" s="3" t="n">
-        <v>-0.0008</v>
+      <c r="F100" s="3" t="n">
+        <v>-0.0029</v>
       </c>
     </row>
     <row r="101" ht="22" customHeight="1">
@@ -2383,16 +2686,19 @@
         </is>
       </c>
       <c r="B101" s="3" t="n">
+        <v>0.013</v>
+      </c>
+      <c r="C101" s="3" t="n">
+        <v>0.0168</v>
+      </c>
+      <c r="D101" s="3" t="n">
         <v>0.0128</v>
       </c>
-      <c r="C101" s="3" t="n">
-        <v>0.0186</v>
-      </c>
-      <c r="D101" s="3" t="n">
+      <c r="E101" s="3" t="n">
         <v>0.013</v>
       </c>
-      <c r="E101" s="3" t="n">
-        <v>-0.0058</v>
+      <c r="F101" s="3" t="n">
+        <v>-0.0038</v>
       </c>
     </row>
     <row r="102" ht="22" customHeight="1">
@@ -2402,16 +2708,19 @@
         </is>
       </c>
       <c r="B102" s="3" t="n">
+        <v>0.0115</v>
+      </c>
+      <c r="C102" s="3" t="n">
+        <v>0.0158</v>
+      </c>
+      <c r="D102" s="3" t="n">
         <v>0.0168</v>
       </c>
-      <c r="C102" s="3" t="n">
-        <v>0.0128</v>
-      </c>
-      <c r="D102" s="3" t="n">
+      <c r="E102" s="3" t="n">
         <v>0.0169</v>
       </c>
-      <c r="E102" s="3" t="n">
-        <v>0.004</v>
+      <c r="F102" s="3" t="n">
+        <v>-0.0043</v>
       </c>
     </row>
     <row r="103" ht="22" customHeight="1">
@@ -2421,16 +2730,19 @@
         </is>
       </c>
       <c r="B103" s="3" t="n">
+        <v>0.0128</v>
+      </c>
+      <c r="C103" s="3" t="n">
+        <v>0.0125</v>
+      </c>
+      <c r="D103" s="3" t="n">
         <v>0.0142</v>
       </c>
-      <c r="C103" s="3" t="n">
-        <v>0.0119</v>
-      </c>
-      <c r="D103" s="3" t="n">
+      <c r="E103" s="3" t="n">
         <v>0.0111</v>
       </c>
-      <c r="E103" s="3" t="n">
-        <v>0.0023</v>
+      <c r="F103" s="3" t="n">
+        <v>0.0003</v>
       </c>
     </row>
     <row r="104" ht="22" customHeight="1">
@@ -2440,16 +2752,19 @@
         </is>
       </c>
       <c r="B104" s="3" t="n">
+        <v>0.0113</v>
+      </c>
+      <c r="C104" s="3" t="n">
+        <v>0.0111</v>
+      </c>
+      <c r="D104" s="3" t="n">
         <v>0.0107</v>
       </c>
-      <c r="C104" s="3" t="n">
-        <v>0.011</v>
-      </c>
-      <c r="D104" s="3" t="n">
+      <c r="E104" s="3" t="n">
         <v>0.0091</v>
       </c>
-      <c r="E104" s="3" t="n">
-        <v>-0.0003</v>
+      <c r="F104" s="3" t="n">
+        <v>0.0002</v>
       </c>
     </row>
     <row r="105" ht="22" customHeight="1">
@@ -2459,16 +2774,19 @@
         </is>
       </c>
       <c r="B105" s="3" t="n">
+        <v>0.0132</v>
+      </c>
+      <c r="C105" s="3" t="n">
+        <v>0.013</v>
+      </c>
+      <c r="D105" s="3" t="n">
         <v>0.0138</v>
       </c>
-      <c r="C105" s="3" t="n">
-        <v>0.0116</v>
-      </c>
-      <c r="D105" s="3" t="n">
+      <c r="E105" s="3" t="n">
         <v>0.0123</v>
       </c>
-      <c r="E105" s="3" t="n">
-        <v>0.0022</v>
+      <c r="F105" s="3" t="n">
+        <v>0.0002</v>
       </c>
     </row>
     <row r="106" ht="22" customHeight="1">
@@ -2478,16 +2796,19 @@
         </is>
       </c>
       <c r="B106" s="3" t="n">
+        <v>0.0121</v>
+      </c>
+      <c r="C106" s="3" t="n">
+        <v>0.0126</v>
+      </c>
+      <c r="D106" s="3" t="n">
         <v>0.0097</v>
       </c>
-      <c r="C106" s="3" t="n">
-        <v>0.0113</v>
-      </c>
-      <c r="D106" s="3" t="n">
+      <c r="E106" s="3" t="n">
         <v>0.0128</v>
       </c>
-      <c r="E106" s="3" t="n">
-        <v>-0.0016</v>
+      <c r="F106" s="3" t="n">
+        <v>-0.0005</v>
       </c>
     </row>
     <row r="107" ht="22" customHeight="1">
@@ -2497,16 +2818,19 @@
         </is>
       </c>
       <c r="B107" s="3" t="n">
+        <v>21.029</v>
+      </c>
+      <c r="C107" s="3" t="n">
+        <v>20.3411</v>
+      </c>
+      <c r="D107" s="3" t="n">
         <v>19.485</v>
       </c>
-      <c r="C107" s="3" t="n">
-        <v>19.9795</v>
-      </c>
-      <c r="D107" s="3" t="n">
+      <c r="E107" s="3" t="n">
         <v>19.4685</v>
       </c>
-      <c r="E107" s="3" t="n">
-        <v>-0.4945</v>
+      <c r="F107" s="3" t="n">
+        <v>0.6879</v>
       </c>
     </row>
     <row r="108" ht="22" customHeight="1">
@@ -2516,16 +2840,19 @@
         </is>
       </c>
       <c r="B108" s="3" t="n">
+        <v>0.0302</v>
+      </c>
+      <c r="C108" s="3" t="n">
+        <v>0.0311</v>
+      </c>
+      <c r="D108" s="3" t="n">
         <v>0.0288</v>
       </c>
-      <c r="C108" s="3" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="D108" s="3" t="n">
+      <c r="E108" s="3" t="n">
         <v>0.0311</v>
       </c>
-      <c r="E108" s="3" t="n">
-        <v>-0.0012</v>
+      <c r="F108" s="3" t="n">
+        <v>-0.0009</v>
       </c>
     </row>
     <row r="109" ht="22" customHeight="1">
@@ -2535,16 +2862,19 @@
         </is>
       </c>
       <c r="B109" s="3" t="n">
+        <v>0.0135</v>
+      </c>
+      <c r="C109" s="3" t="n">
+        <v>0.0131</v>
+      </c>
+      <c r="D109" s="3" t="n">
         <v>0.013</v>
       </c>
-      <c r="C109" s="3" t="n">
+      <c r="E109" s="3" t="n">
         <v>0.0135</v>
       </c>
-      <c r="D109" s="3" t="n">
-        <v>0.0135</v>
-      </c>
-      <c r="E109" s="3" t="n">
-        <v>-0.0005</v>
+      <c r="F109" s="3" t="n">
+        <v>0.0004</v>
       </c>
     </row>
     <row r="110" ht="22" customHeight="1">
@@ -2554,16 +2884,19 @@
         </is>
       </c>
       <c r="B110" s="3" t="n">
+        <v>0.0122</v>
+      </c>
+      <c r="C110" s="3" t="n">
         <v>0.0134</v>
       </c>
-      <c r="C110" s="3" t="n">
+      <c r="D110" s="3" t="n">
+        <v>0.0134</v>
+      </c>
+      <c r="E110" s="3" t="n">
         <v>0.0129</v>
       </c>
-      <c r="D110" s="3" t="n">
-        <v>0.0129</v>
-      </c>
-      <c r="E110" s="3" t="n">
-        <v>0.0005</v>
+      <c r="F110" s="3" t="n">
+        <v>-0.0012</v>
       </c>
     </row>
     <row r="111" ht="22" customHeight="1">
@@ -2573,16 +2906,19 @@
         </is>
       </c>
       <c r="B111" s="3" t="n">
+        <v>0.0116</v>
+      </c>
+      <c r="C111" s="3" t="n">
+        <v>0.012</v>
+      </c>
+      <c r="D111" s="3" t="n">
         <v>0.0144</v>
       </c>
-      <c r="C111" s="3" t="n">
-        <v>0.013</v>
-      </c>
-      <c r="D111" s="3" t="n">
+      <c r="E111" s="3" t="n">
         <v>0.0126</v>
       </c>
-      <c r="E111" s="3" t="n">
-        <v>0.0014</v>
+      <c r="F111" s="3" t="n">
+        <v>-0.0004</v>
       </c>
     </row>
     <row r="112" ht="22" customHeight="1">
@@ -2592,16 +2928,19 @@
         </is>
       </c>
       <c r="B112" s="3" t="n">
+        <v>0.0143</v>
+      </c>
+      <c r="C112" s="3" t="n">
+        <v>0.0132</v>
+      </c>
+      <c r="D112" s="3" t="n">
         <v>0.0128</v>
       </c>
-      <c r="C112" s="3" t="n">
-        <v>0.0139</v>
-      </c>
-      <c r="D112" s="3" t="n">
+      <c r="E112" s="3" t="n">
         <v>0.0138</v>
       </c>
-      <c r="E112" s="3" t="n">
-        <v>-0.0011</v>
+      <c r="F112" s="3" t="n">
+        <v>0.0011</v>
       </c>
     </row>
     <row r="113" ht="22" customHeight="1">
@@ -2611,16 +2950,19 @@
         </is>
       </c>
       <c r="B113" s="3" t="n">
+        <v>0.0119</v>
+      </c>
+      <c r="C113" s="3" t="n">
+        <v>0.0132</v>
+      </c>
+      <c r="D113" s="3" t="n">
         <v>0.0138</v>
       </c>
-      <c r="C113" s="3" t="n">
-        <v>0.0111</v>
-      </c>
-      <c r="D113" s="3" t="n">
+      <c r="E113" s="3" t="n">
         <v>0.0115</v>
       </c>
-      <c r="E113" s="3" t="n">
-        <v>0.0027</v>
+      <c r="F113" s="3" t="n">
+        <v>-0.0013</v>
       </c>
     </row>
     <row r="114" ht="22" customHeight="1">
@@ -2630,16 +2972,19 @@
         </is>
       </c>
       <c r="B114" s="3" t="n">
+        <v>11.2079</v>
+      </c>
+      <c r="C114" s="3" t="n">
+        <v>11.0183</v>
+      </c>
+      <c r="D114" s="3" t="n">
         <v>11.1366</v>
       </c>
-      <c r="C114" s="3" t="n">
-        <v>11.2219</v>
-      </c>
-      <c r="D114" s="3" t="n">
+      <c r="E114" s="3" t="n">
         <v>11.1965</v>
       </c>
-      <c r="E114" s="3" t="n">
-        <v>-0.0853</v>
+      <c r="F114" s="3" t="n">
+        <v>0.1896</v>
       </c>
     </row>
     <row r="115" ht="22" customHeight="1">
@@ -2649,16 +2994,19 @@
         </is>
       </c>
       <c r="B115" s="3" t="n">
+        <v>103.1946</v>
+      </c>
+      <c r="C115" s="3" t="n">
+        <v>103.2165</v>
+      </c>
+      <c r="D115" s="3" t="n">
         <v>103.3037</v>
       </c>
-      <c r="C115" s="3" t="n">
-        <v>103.2267</v>
-      </c>
-      <c r="D115" s="3" t="n">
+      <c r="E115" s="3" t="n">
         <v>103.1502</v>
       </c>
-      <c r="E115" s="3" t="n">
-        <v>0.077</v>
+      <c r="F115" s="3" t="n">
+        <v>-0.0219</v>
       </c>
     </row>
     <row r="116" ht="22" customHeight="1">
@@ -2671,13 +3019,16 @@
         <v>0.0704</v>
       </c>
       <c r="C116" s="3" t="n">
-        <v>0.0693</v>
+        <v>0.0685999999999999</v>
       </c>
       <c r="D116" s="3" t="n">
+        <v>0.0704</v>
+      </c>
+      <c r="E116" s="3" t="n">
         <v>0.0702</v>
       </c>
-      <c r="E116" s="3" t="n">
-        <v>0.0011</v>
+      <c r="F116" s="3" t="n">
+        <v>0.0018</v>
       </c>
     </row>
     <row r="117" ht="22" customHeight="1">
@@ -2687,16 +3038,19 @@
         </is>
       </c>
       <c r="B117" s="3" t="n">
+        <v>78.2533</v>
+      </c>
+      <c r="C117" s="3" t="n">
+        <v>78.30589999999999</v>
+      </c>
+      <c r="D117" s="3" t="n">
         <v>78.2992</v>
       </c>
-      <c r="C117" s="3" t="n">
-        <v>78.1848</v>
-      </c>
-      <c r="D117" s="3" t="n">
+      <c r="E117" s="3" t="n">
         <v>78.2975</v>
       </c>
-      <c r="E117" s="3" t="n">
-        <v>0.1144</v>
+      <c r="F117" s="3" t="n">
+        <v>-0.0526</v>
       </c>
     </row>
     <row r="118" ht="22" customHeight="1">
@@ -2706,16 +3060,19 @@
         </is>
       </c>
       <c r="B118" s="3" t="n">
+        <v>0.0127</v>
+      </c>
+      <c r="C118" s="3" t="n">
+        <v>0.0133</v>
+      </c>
+      <c r="D118" s="3" t="n">
         <v>0.0143</v>
       </c>
-      <c r="C118" s="3" t="n">
-        <v>0.013</v>
-      </c>
-      <c r="D118" s="3" t="n">
+      <c r="E118" s="3" t="n">
         <v>0.0134</v>
       </c>
-      <c r="E118" s="3" t="n">
-        <v>0.0013</v>
+      <c r="F118" s="3" t="n">
+        <v>-0.0005999999999999999</v>
       </c>
     </row>
     <row r="119" ht="22" customHeight="1">
@@ -2725,16 +3082,19 @@
         </is>
       </c>
       <c r="B119" s="3" t="n">
+        <v>0.0127</v>
+      </c>
+      <c r="C119" s="3" t="n">
+        <v>0.0133</v>
+      </c>
+      <c r="D119" s="3" t="n">
         <v>0.0116</v>
       </c>
-      <c r="C119" s="3" t="n">
-        <v>0.0141</v>
-      </c>
-      <c r="D119" s="3" t="n">
+      <c r="E119" s="3" t="n">
         <v>0.0132</v>
       </c>
-      <c r="E119" s="3" t="n">
-        <v>-0.0025</v>
+      <c r="F119" s="3" t="n">
+        <v>-0.0005999999999999999</v>
       </c>
     </row>
     <row r="120" ht="22" customHeight="1">
@@ -2744,16 +3104,19 @@
         </is>
       </c>
       <c r="B120" s="3" t="n">
+        <v>0.0123</v>
+      </c>
+      <c r="C120" s="3" t="n">
+        <v>0.0125</v>
+      </c>
+      <c r="D120" s="3" t="n">
         <v>0.0139</v>
       </c>
-      <c r="C120" s="3" t="n">
-        <v>0.0138</v>
-      </c>
-      <c r="D120" s="3" t="n">
+      <c r="E120" s="3" t="n">
         <v>0.0113</v>
       </c>
-      <c r="E120" s="3" t="n">
-        <v>0.0001</v>
+      <c r="F120" s="3" t="n">
+        <v>-0.0002</v>
       </c>
     </row>
     <row r="121" ht="22" customHeight="1">
@@ -2763,16 +3126,19 @@
         </is>
       </c>
       <c r="B121" s="3" t="n">
+        <v>0.0153</v>
+      </c>
+      <c r="C121" s="3" t="n">
+        <v>0.0131</v>
+      </c>
+      <c r="D121" s="3" t="n">
         <v>0.0127</v>
       </c>
-      <c r="C121" s="3" t="n">
-        <v>0.0129</v>
-      </c>
-      <c r="D121" s="3" t="n">
+      <c r="E121" s="3" t="n">
         <v>0.0114</v>
       </c>
-      <c r="E121" s="3" t="n">
-        <v>-0.0002</v>
+      <c r="F121" s="3" t="n">
+        <v>0.0022</v>
       </c>
     </row>
     <row r="122" ht="22" customHeight="1">
@@ -2782,16 +3148,19 @@
         </is>
       </c>
       <c r="B122" s="3" t="n">
+        <v>0.036</v>
+      </c>
+      <c r="C122" s="3" t="n">
+        <v>0.0365</v>
+      </c>
+      <c r="D122" s="3" t="n">
         <v>0.0353</v>
       </c>
-      <c r="C122" s="3" t="n">
-        <v>0.0354</v>
-      </c>
-      <c r="D122" s="3" t="n">
+      <c r="E122" s="3" t="n">
         <v>0.0359</v>
       </c>
-      <c r="E122" s="3" t="n">
-        <v>-0.0001</v>
+      <c r="F122" s="3" t="n">
+        <v>-0.0005</v>
       </c>
     </row>
     <row r="123" ht="22" customHeight="1">
@@ -2801,16 +3170,19 @@
         </is>
       </c>
       <c r="B123" s="3" t="n">
+        <v>0.0109</v>
+      </c>
+      <c r="C123" s="3" t="n">
+        <v>0.0089</v>
+      </c>
+      <c r="D123" s="3" t="n">
         <v>0.0111</v>
       </c>
-      <c r="C123" s="3" t="n">
-        <v>0.0097</v>
-      </c>
-      <c r="D123" s="3" t="n">
+      <c r="E123" s="3" t="n">
         <v>0.0109</v>
       </c>
-      <c r="E123" s="3" t="n">
-        <v>0.0014</v>
+      <c r="F123" s="3" t="n">
+        <v>0.002</v>
       </c>
     </row>
     <row r="124" ht="22" customHeight="1">
@@ -2820,16 +3192,19 @@
         </is>
       </c>
       <c r="B124" s="3" t="n">
+        <v>0.0261</v>
+      </c>
+      <c r="C124" s="3" t="n">
+        <v>0.0289</v>
+      </c>
+      <c r="D124" s="3" t="n">
         <v>0.0287</v>
       </c>
-      <c r="C124" s="3" t="n">
-        <v>0.0333</v>
-      </c>
-      <c r="D124" s="3" t="n">
+      <c r="E124" s="3" t="n">
         <v>0.0289</v>
       </c>
-      <c r="E124" s="3" t="n">
-        <v>-0.0046</v>
+      <c r="F124" s="3" t="n">
+        <v>-0.0028</v>
       </c>
     </row>
     <row r="125" ht="22" customHeight="1">
@@ -2839,16 +3214,19 @@
         </is>
       </c>
       <c r="B125" s="3" t="n">
+        <v>0.0072</v>
+      </c>
+      <c r="C125" s="3" t="n">
+        <v>0.0073</v>
+      </c>
+      <c r="D125" s="3" t="n">
         <v>0.0069</v>
       </c>
-      <c r="C125" s="3" t="n">
-        <v>0.0068</v>
-      </c>
-      <c r="D125" s="3" t="n">
+      <c r="E125" s="3" t="n">
         <v>0.0066</v>
       </c>
-      <c r="E125" s="3" t="n">
-        <v>0.0001</v>
+      <c r="F125" s="3" t="n">
+        <v>-0.0001</v>
       </c>
     </row>
     <row r="126" ht="22" customHeight="1">
@@ -2858,16 +3236,19 @@
         </is>
       </c>
       <c r="B126" s="3" t="n">
+        <v>7.7834</v>
+      </c>
+      <c r="C126" s="3" t="n">
+        <v>7.7819</v>
+      </c>
+      <c r="D126" s="3" t="n">
         <v>5.7081</v>
       </c>
-      <c r="C126" s="3" t="n">
-        <v>6.7858</v>
-      </c>
-      <c r="D126" s="3" t="n">
+      <c r="E126" s="3" t="n">
         <v>5.7648</v>
       </c>
-      <c r="E126" s="3" t="n">
-        <v>-1.0777</v>
+      <c r="F126" s="3" t="n">
+        <v>0.0015</v>
       </c>
     </row>
     <row r="127" ht="22" customHeight="1">
@@ -2877,16 +3258,19 @@
         </is>
       </c>
       <c r="B127" s="3" t="n">
-        <v>0.0094</v>
+        <v>0.0097</v>
       </c>
       <c r="C127" s="3" t="n">
         <v>0.008800000000000001</v>
       </c>
       <c r="D127" s="3" t="n">
+        <v>0.0094</v>
+      </c>
+      <c r="E127" s="3" t="n">
         <v>0.0089999999999999</v>
       </c>
-      <c r="E127" s="3" t="n">
-        <v>0.0005999999999999999</v>
+      <c r="F127" s="3" t="n">
+        <v>0.0009</v>
       </c>
     </row>
     <row r="128" ht="22" customHeight="1">
@@ -2896,16 +3280,19 @@
         </is>
       </c>
       <c r="B128" s="3" t="n">
+        <v>6.9143</v>
+      </c>
+      <c r="C128" s="3" t="n">
+        <v>6.901</v>
+      </c>
+      <c r="D128" s="3" t="n">
         <v>6.8805</v>
       </c>
-      <c r="C128" s="3" t="n">
-        <v>6.8544</v>
-      </c>
-      <c r="D128" s="3" t="n">
+      <c r="E128" s="3" t="n">
         <v>6.9137</v>
       </c>
-      <c r="E128" s="3" t="n">
-        <v>0.0261</v>
+      <c r="F128" s="3" t="n">
+        <v>0.0133</v>
       </c>
     </row>
     <row r="129" ht="22" customHeight="1">
@@ -2915,16 +3302,19 @@
         </is>
       </c>
       <c r="B129" s="3" t="n">
+        <v>0.0737</v>
+      </c>
+      <c r="C129" s="3" t="n">
+        <v>0.0761</v>
+      </c>
+      <c r="D129" s="3" t="n">
         <v>0.0728</v>
       </c>
-      <c r="C129" s="3" t="n">
-        <v>0.0738999999999999</v>
-      </c>
-      <c r="D129" s="3" t="n">
+      <c r="E129" s="3" t="n">
         <v>0.0726</v>
       </c>
-      <c r="E129" s="3" t="n">
-        <v>-0.0011</v>
+      <c r="F129" s="3" t="n">
+        <v>-0.0024</v>
       </c>
     </row>
     <row r="130" ht="22" customHeight="1">
@@ -2934,16 +3324,19 @@
         </is>
       </c>
       <c r="B130" s="3" t="n">
+        <v>0.049</v>
+      </c>
+      <c r="C130" s="3" t="n">
+        <v>0.0492</v>
+      </c>
+      <c r="D130" s="3" t="n">
         <v>0.05</v>
       </c>
-      <c r="C130" s="3" t="n">
-        <v>0.0485</v>
-      </c>
-      <c r="D130" s="3" t="n">
+      <c r="E130" s="3" t="n">
         <v>0.0515</v>
       </c>
-      <c r="E130" s="3" t="n">
-        <v>0.0015</v>
+      <c r="F130" s="3" t="n">
+        <v>-0.0002</v>
       </c>
     </row>
     <row r="131" ht="22" customHeight="1">
@@ -2953,16 +3346,19 @@
         </is>
       </c>
       <c r="B131" s="3" t="n">
+        <v>0.044</v>
+      </c>
+      <c r="C131" s="3" t="n">
+        <v>0.0427</v>
+      </c>
+      <c r="D131" s="3" t="n">
         <v>0.0422</v>
       </c>
-      <c r="C131" s="3" t="n">
-        <v>0.0417</v>
-      </c>
-      <c r="D131" s="3" t="n">
+      <c r="E131" s="3" t="n">
         <v>0.0416</v>
       </c>
-      <c r="E131" s="3" t="n">
-        <v>0.0005</v>
+      <c r="F131" s="3" t="n">
+        <v>0.0013</v>
       </c>
     </row>
     <row r="132" ht="22" customHeight="1">
@@ -2972,16 +3368,19 @@
         </is>
       </c>
       <c r="B132" s="3" t="n">
+        <v>1.0404</v>
+      </c>
+      <c r="C132" s="3" t="n">
+        <v>1.0365</v>
+      </c>
+      <c r="D132" s="3" t="n">
         <v>1.0084</v>
       </c>
-      <c r="C132" s="3" t="n">
-        <v>1.0209</v>
-      </c>
-      <c r="D132" s="3" t="n">
+      <c r="E132" s="3" t="n">
         <v>1.0281</v>
       </c>
-      <c r="E132" s="3" t="n">
-        <v>-0.0125</v>
+      <c r="F132" s="3" t="n">
+        <v>0.0039</v>
       </c>
     </row>
     <row r="133" ht="22" customHeight="1">
@@ -2991,16 +3390,19 @@
         </is>
       </c>
       <c r="B133" s="3" t="n">
+        <v>0.0111</v>
+      </c>
+      <c r="C133" s="3" t="n">
+        <v>0.0089</v>
+      </c>
+      <c r="D133" s="3" t="n">
         <v>0.0116</v>
       </c>
-      <c r="C133" s="3" t="n">
+      <c r="E133" s="3" t="n">
         <v>0.0111</v>
       </c>
-      <c r="D133" s="3" t="n">
-        <v>0.0111</v>
-      </c>
-      <c r="E133" s="3" t="n">
-        <v>0.0005</v>
+      <c r="F133" s="3" t="n">
+        <v>0.0022</v>
       </c>
     </row>
     <row r="134" ht="22" customHeight="1">
@@ -3010,16 +3412,19 @@
         </is>
       </c>
       <c r="B134" s="3" t="n">
+        <v>0.0115</v>
+      </c>
+      <c r="C134" s="3" t="n">
+        <v>0.012</v>
+      </c>
+      <c r="D134" s="3" t="n">
         <v>0.0103</v>
       </c>
-      <c r="C134" s="3" t="n">
-        <v>0.0121</v>
-      </c>
-      <c r="D134" s="3" t="n">
+      <c r="E134" s="3" t="n">
         <v>0.0114</v>
       </c>
-      <c r="E134" s="3" t="n">
-        <v>-0.0018</v>
+      <c r="F134" s="3" t="n">
+        <v>-0.0005</v>
       </c>
     </row>
     <row r="135" ht="22" customHeight="1">
@@ -3029,16 +3434,19 @@
         </is>
       </c>
       <c r="B135" s="3" t="n">
+        <v>4.1014</v>
+      </c>
+      <c r="C135" s="3" t="n">
+        <v>4.095</v>
+      </c>
+      <c r="D135" s="3" t="n">
         <v>4.0891</v>
       </c>
-      <c r="C135" s="3" t="n">
-        <v>4.0968</v>
-      </c>
-      <c r="D135" s="3" t="n">
+      <c r="E135" s="3" t="n">
         <v>4.0932</v>
       </c>
-      <c r="E135" s="3" t="n">
-        <v>-0.0077</v>
+      <c r="F135" s="3" t="n">
+        <v>0.0064</v>
       </c>
     </row>
     <row r="136" ht="22" customHeight="1">
@@ -3048,16 +3456,19 @@
         </is>
       </c>
       <c r="B136" s="3" t="n">
+        <v>23.0271</v>
+      </c>
+      <c r="C136" s="3" t="n">
+        <v>22.8501</v>
+      </c>
+      <c r="D136" s="3" t="n">
         <v>22.8128</v>
       </c>
-      <c r="C136" s="3" t="n">
-        <v>22.8391</v>
-      </c>
-      <c r="D136" s="3" t="n">
+      <c r="E136" s="3" t="n">
         <v>22.9528</v>
       </c>
-      <c r="E136" s="3" t="n">
-        <v>-0.0263</v>
+      <c r="F136" s="3" t="n">
+        <v>0.177</v>
       </c>
     </row>
     <row r="137" ht="22" customHeight="1">
@@ -3067,16 +3478,19 @@
         </is>
       </c>
       <c r="B137" s="3" t="n">
+        <v>0.0083</v>
+      </c>
+      <c r="C137" s="3" t="n">
+        <v>0.0091</v>
+      </c>
+      <c r="D137" s="3" t="n">
         <v>0.0112</v>
       </c>
-      <c r="C137" s="3" t="n">
-        <v>0.0089</v>
-      </c>
-      <c r="D137" s="3" t="n">
+      <c r="E137" s="3" t="n">
         <v>0.008699999999999901</v>
       </c>
-      <c r="E137" s="3" t="n">
-        <v>0.0023</v>
+      <c r="F137" s="3" t="n">
+        <v>-0.0008</v>
       </c>
     </row>
     <row r="138" ht="22" customHeight="1">
@@ -3086,16 +3500,19 @@
         </is>
       </c>
       <c r="B138" s="3" t="n">
+        <v>0.0077</v>
+      </c>
+      <c r="C138" s="3" t="n">
+        <v>0.008</v>
+      </c>
+      <c r="D138" s="3" t="n">
         <v>0.007</v>
       </c>
-      <c r="C138" s="3" t="n">
-        <v>0.008200000000000001</v>
-      </c>
-      <c r="D138" s="3" t="n">
+      <c r="E138" s="3" t="n">
         <v>0.0116</v>
       </c>
-      <c r="E138" s="3" t="n">
-        <v>-0.0012</v>
+      <c r="F138" s="3" t="n">
+        <v>-0.0003</v>
       </c>
     </row>
     <row r="139" ht="22" customHeight="1">
@@ -3105,16 +3522,19 @@
         </is>
       </c>
       <c r="B139" s="3" t="n">
+        <v>1017.9934</v>
+      </c>
+      <c r="C139" s="3" t="n">
+        <v>1013.4797</v>
+      </c>
+      <c r="D139" s="3" t="n">
         <v>954.6033</v>
       </c>
-      <c r="C139" s="3" t="n">
-        <v>1019.8782</v>
-      </c>
-      <c r="D139" s="3" t="n">
+      <c r="E139" s="3" t="n">
         <v>1022.0216</v>
       </c>
-      <c r="E139" s="3" t="n">
-        <v>-65.2749</v>
+      <c r="F139" s="5" t="n">
+        <v>4.5137</v>
       </c>
     </row>
     <row r="140" ht="22" customHeight="1">
@@ -3124,16 +3544,19 @@
         </is>
       </c>
       <c r="B140" s="3" t="n">
+        <v>5.6573</v>
+      </c>
+      <c r="C140" s="3" t="n">
+        <v>5.5911</v>
+      </c>
+      <c r="D140" s="3" t="n">
         <v>5.6694</v>
       </c>
-      <c r="C140" s="3" t="n">
-        <v>5.5797</v>
-      </c>
-      <c r="D140" s="3" t="n">
+      <c r="E140" s="3" t="n">
         <v>5.678</v>
       </c>
-      <c r="E140" s="3" t="n">
-        <v>0.0897</v>
+      <c r="F140" s="3" t="n">
+        <v>0.06619999999999999</v>
       </c>
     </row>
     <row r="141" ht="22" customHeight="1">
@@ -3143,16 +3566,19 @@
         </is>
       </c>
       <c r="B141" s="3" t="n">
+        <v>0.036</v>
+      </c>
+      <c r="C141" s="3" t="n">
+        <v>0.0389</v>
+      </c>
+      <c r="D141" s="3" t="n">
         <v>0.0369</v>
       </c>
-      <c r="C141" s="3" t="n">
-        <v>0.037</v>
-      </c>
-      <c r="D141" s="3" t="n">
+      <c r="E141" s="3" t="n">
         <v>0.0368</v>
       </c>
-      <c r="E141" s="3" t="n">
-        <v>-0.0001</v>
+      <c r="F141" s="3" t="n">
+        <v>-0.0029</v>
       </c>
     </row>
     <row r="142" ht="22" customHeight="1">
@@ -3162,15 +3588,18 @@
         </is>
       </c>
       <c r="B142" s="3" t="n">
+        <v>0.0094</v>
+      </c>
+      <c r="C142" s="3" t="n">
+        <v>0.0094</v>
+      </c>
+      <c r="D142" s="3" t="n">
         <v>0.0095</v>
       </c>
-      <c r="C142" s="3" t="n">
-        <v>0.0095</v>
-      </c>
-      <c r="D142" s="3" t="n">
+      <c r="E142" s="3" t="n">
         <v>0.0094</v>
       </c>
-      <c r="E142" s="3" t="n">
+      <c r="F142" s="3" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3181,16 +3610,19 @@
         </is>
       </c>
       <c r="B143" s="3" t="n">
+        <v>0.998</v>
+      </c>
+      <c r="C143" s="3" t="n">
+        <v>1.0036</v>
+      </c>
+      <c r="D143" s="3" t="n">
         <v>1.0025</v>
       </c>
-      <c r="C143" s="3" t="n">
-        <v>0.9999</v>
-      </c>
-      <c r="D143" s="3" t="n">
+      <c r="E143" s="3" t="n">
         <v>1.0018</v>
       </c>
-      <c r="E143" s="3" t="n">
-        <v>0.0026</v>
+      <c r="F143" s="3" t="n">
+        <v>-0.0056</v>
       </c>
     </row>
     <row r="144" ht="22" customHeight="1">
@@ -3200,16 +3632,19 @@
         </is>
       </c>
       <c r="B144" s="3" t="n">
+        <v>0.0193</v>
+      </c>
+      <c r="C144" s="3" t="n">
+        <v>0.0195</v>
+      </c>
+      <c r="D144" s="3" t="n">
         <v>0.02</v>
       </c>
-      <c r="C144" s="3" t="n">
+      <c r="E144" s="3" t="n">
         <v>0.0197</v>
       </c>
-      <c r="D144" s="3" t="n">
-        <v>0.0197</v>
-      </c>
-      <c r="E144" s="3" t="n">
-        <v>0.0003</v>
+      <c r="F144" s="3" t="n">
+        <v>-0.0002</v>
       </c>
     </row>
     <row r="145" ht="22" customHeight="1">
@@ -3219,16 +3654,19 @@
         </is>
       </c>
       <c r="B145" s="3" t="n">
+        <v>0.0228</v>
+      </c>
+      <c r="C145" s="3" t="n">
+        <v>0.0247</v>
+      </c>
+      <c r="D145" s="3" t="n">
         <v>0.0226</v>
       </c>
-      <c r="C145" s="3" t="n">
-        <v>0.0234</v>
-      </c>
-      <c r="D145" s="3" t="n">
+      <c r="E145" s="3" t="n">
         <v>0.0223</v>
       </c>
-      <c r="E145" s="3" t="n">
-        <v>-0.0008</v>
+      <c r="F145" s="3" t="n">
+        <v>-0.0019</v>
       </c>
     </row>
     <row r="146" ht="22" customHeight="1">
@@ -3241,13 +3679,16 @@
         <v>0.0073</v>
       </c>
       <c r="C146" s="3" t="n">
-        <v>0.0072</v>
+        <v>0.0073</v>
       </c>
       <c r="D146" s="3" t="n">
         <v>0.0073</v>
       </c>
       <c r="E146" s="3" t="n">
-        <v>0.0001</v>
+        <v>0.0073</v>
+      </c>
+      <c r="F146" s="3" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="147" ht="22" customHeight="1">
@@ -3257,16 +3698,19 @@
         </is>
       </c>
       <c r="B147" s="3" t="n">
-        <v>0.1105</v>
+        <v>0.1104</v>
       </c>
       <c r="C147" s="3" t="n">
         <v>0.1101</v>
       </c>
       <c r="D147" s="3" t="n">
+        <v>0.1105</v>
+      </c>
+      <c r="E147" s="3" t="n">
         <v>0.1111</v>
       </c>
-      <c r="E147" s="3" t="n">
-        <v>0.0004</v>
+      <c r="F147" s="3" t="n">
+        <v>0.0003</v>
       </c>
     </row>
     <row r="148" ht="22" customHeight="1">
@@ -3276,16 +3720,19 @@
         </is>
       </c>
       <c r="B148" s="3" t="n">
-        <v>0.0148</v>
+        <v>0.0143</v>
       </c>
       <c r="C148" s="3" t="n">
         <v>0.0146</v>
       </c>
       <c r="D148" s="3" t="n">
+        <v>0.0148</v>
+      </c>
+      <c r="E148" s="3" t="n">
         <v>0.0147</v>
       </c>
-      <c r="E148" s="3" t="n">
-        <v>0.0002</v>
+      <c r="F148" s="3" t="n">
+        <v>-0.0003</v>
       </c>
     </row>
     <row r="149" ht="22" customHeight="1">
@@ -3295,16 +3742,19 @@
         </is>
       </c>
       <c r="B149" s="3" t="n">
-        <v>0.0143</v>
+        <v>0.0144</v>
       </c>
       <c r="C149" s="3" t="n">
-        <v>0.0144</v>
+        <v>0.0142</v>
       </c>
       <c r="D149" s="3" t="n">
         <v>0.0143</v>
       </c>
       <c r="E149" s="3" t="n">
-        <v>-0.0001</v>
+        <v>0.0143</v>
+      </c>
+      <c r="F149" s="3" t="n">
+        <v>0.0002</v>
       </c>
     </row>
     <row r="150" ht="22" customHeight="1">
@@ -3314,15 +3764,18 @@
         </is>
       </c>
       <c r="B150" s="3" t="n">
+        <v>0.0112</v>
+      </c>
+      <c r="C150" s="3" t="n">
         <v>0.0113</v>
       </c>
-      <c r="C150" s="3" t="n">
-        <v>0.0114</v>
-      </c>
       <c r="D150" s="3" t="n">
+        <v>0.0113</v>
+      </c>
+      <c r="E150" s="3" t="n">
         <v>0.0115</v>
       </c>
-      <c r="E150" s="3" t="n">
+      <c r="F150" s="3" t="n">
         <v>-0.0001</v>
       </c>
     </row>
@@ -3333,16 +3786,19 @@
         </is>
       </c>
       <c r="B151" s="3" t="n">
+        <v>581.6846</v>
+      </c>
+      <c r="C151" s="3" t="n">
+        <v>576.0214</v>
+      </c>
+      <c r="D151" s="3" t="n">
         <v>580.374</v>
       </c>
-      <c r="C151" s="3" t="n">
-        <v>581.2895</v>
-      </c>
-      <c r="D151" s="3" t="n">
+      <c r="E151" s="3" t="n">
         <v>583.2809999999999</v>
       </c>
-      <c r="E151" s="3" t="n">
-        <v>-0.9155</v>
+      <c r="F151" s="5" t="n">
+        <v>5.6632</v>
       </c>
     </row>
     <row r="152" ht="22" customHeight="1">
@@ -3352,16 +3808,19 @@
         </is>
       </c>
       <c r="B152" s="3" t="n">
+        <v>0.0355</v>
+      </c>
+      <c r="C152" s="3" t="n">
+        <v>0.0363</v>
+      </c>
+      <c r="D152" s="3" t="n">
         <v>0.0365</v>
       </c>
-      <c r="C152" s="3" t="n">
+      <c r="E152" s="3" t="n">
         <v>0.0366</v>
       </c>
-      <c r="D152" s="3" t="n">
-        <v>0.0366</v>
-      </c>
-      <c r="E152" s="3" t="n">
-        <v>-0.0001</v>
+      <c r="F152" s="3" t="n">
+        <v>-0.0008</v>
       </c>
     </row>
     <row r="153" ht="22" customHeight="1">
@@ -3371,16 +3830,19 @@
         </is>
       </c>
       <c r="B153" s="3" t="n">
+        <v>0.8236</v>
+      </c>
+      <c r="C153" s="3" t="n">
+        <v>0.8333</v>
+      </c>
+      <c r="D153" s="3" t="n">
         <v>0.8319</v>
       </c>
-      <c r="C153" s="3" t="n">
-        <v>0.8351</v>
-      </c>
-      <c r="D153" s="3" t="n">
+      <c r="E153" s="3" t="n">
         <v>0.83</v>
       </c>
-      <c r="E153" s="3" t="n">
-        <v>-0.0032</v>
+      <c r="F153" s="3" t="n">
+        <v>-0.0097</v>
       </c>
     </row>
     <row r="154" ht="22" customHeight="1">
@@ -3390,16 +3852,19 @@
         </is>
       </c>
       <c r="B154" s="3" t="n">
+        <v>0.0239</v>
+      </c>
+      <c r="C154" s="3" t="n">
+        <v>0.0238</v>
+      </c>
+      <c r="D154" s="3" t="n">
         <v>0.0242</v>
       </c>
-      <c r="C154" s="3" t="n">
-        <v>0.0239</v>
-      </c>
-      <c r="D154" s="3" t="n">
+      <c r="E154" s="3" t="n">
         <v>0.0241</v>
       </c>
-      <c r="E154" s="3" t="n">
-        <v>0.0003</v>
+      <c r="F154" s="3" t="n">
+        <v>0.0001</v>
       </c>
     </row>
     <row r="155" ht="22" customHeight="1">
@@ -3409,16 +3874,19 @@
         </is>
       </c>
       <c r="B155" s="3" t="n">
+        <v>0.0116</v>
+      </c>
+      <c r="C155" s="3" t="n">
+        <v>0.0116</v>
+      </c>
+      <c r="D155" s="3" t="n">
         <v>0.0117</v>
       </c>
-      <c r="C155" s="3" t="n">
-        <v>0.0112</v>
-      </c>
-      <c r="D155" s="3" t="n">
+      <c r="E155" s="3" t="n">
         <v>0.0115</v>
       </c>
-      <c r="E155" s="3" t="n">
-        <v>0.0005</v>
+      <c r="F155" s="3" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="156" ht="22" customHeight="1">
@@ -3428,16 +3896,19 @@
         </is>
       </c>
       <c r="B156" s="3" t="n">
+        <v>227.4179</v>
+      </c>
+      <c r="C156" s="3" t="n">
+        <v>6.1446</v>
+      </c>
+      <c r="D156" s="3" t="n">
         <v>85.6776</v>
       </c>
-      <c r="C156" s="3" t="n">
-        <v>6.1185</v>
-      </c>
-      <c r="D156" s="3" t="n">
+      <c r="E156" s="3" t="n">
         <v>7.1944</v>
       </c>
-      <c r="E156" s="5" t="n">
-        <v>79.5591</v>
+      <c r="F156" s="5" t="n">
+        <v>221.2733</v>
       </c>
     </row>
     <row r="157" ht="22" customHeight="1">
@@ -3447,16 +3918,19 @@
         </is>
       </c>
       <c r="B157" s="3" t="n">
+        <v>0.0122</v>
+      </c>
+      <c r="C157" s="3" t="n">
+        <v>0.0121</v>
+      </c>
+      <c r="D157" s="3" t="n">
         <v>0.0123</v>
       </c>
-      <c r="C157" s="3" t="n">
-        <v>0.012</v>
-      </c>
-      <c r="D157" s="3" t="n">
+      <c r="E157" s="3" t="n">
         <v>0.0122</v>
       </c>
-      <c r="E157" s="3" t="n">
-        <v>0.0003</v>
+      <c r="F157" s="3" t="n">
+        <v>0.0001</v>
       </c>
     </row>
     <row r="158" ht="22" customHeight="1">
@@ -3466,16 +3940,19 @@
         </is>
       </c>
       <c r="B158" s="3" t="n">
+        <v>0.0211</v>
+      </c>
+      <c r="C158" s="3" t="n">
+        <v>0.0213</v>
+      </c>
+      <c r="D158" s="3" t="n">
         <v>0.0214</v>
       </c>
-      <c r="C158" s="3" t="n">
-        <v>0.0211</v>
-      </c>
-      <c r="D158" s="3" t="n">
+      <c r="E158" s="3" t="n">
         <v>0.0213</v>
       </c>
-      <c r="E158" s="3" t="n">
-        <v>0.0003</v>
+      <c r="F158" s="3" t="n">
+        <v>-0.0002</v>
       </c>
     </row>
     <row r="159" ht="22" customHeight="1">
@@ -3485,16 +3962,19 @@
         </is>
       </c>
       <c r="B159" s="3" t="n">
+        <v>0.0117</v>
+      </c>
+      <c r="C159" s="3" t="n">
         <v>0.0114</v>
       </c>
-      <c r="C159" s="3" t="n">
-        <v>0.0113</v>
-      </c>
       <c r="D159" s="3" t="n">
+        <v>0.0114</v>
+      </c>
+      <c r="E159" s="3" t="n">
         <v>0.0111</v>
       </c>
-      <c r="E159" s="3" t="n">
-        <v>0.0001</v>
+      <c r="F159" s="3" t="n">
+        <v>0.0003</v>
       </c>
     </row>
     <row r="160" ht="22" customHeight="1">
@@ -3507,13 +3987,16 @@
         <v>0.0118</v>
       </c>
       <c r="C160" s="3" t="n">
+        <v>0.0117</v>
+      </c>
+      <c r="D160" s="3" t="n">
         <v>0.0118</v>
       </c>
-      <c r="D160" s="3" t="n">
+      <c r="E160" s="3" t="n">
         <v>0.0117</v>
       </c>
-      <c r="E160" s="3" t="n">
-        <v>0</v>
+      <c r="F160" s="3" t="n">
+        <v>0.0001</v>
       </c>
     </row>
     <row r="161" ht="22" customHeight="1">
@@ -3526,13 +4009,16 @@
         <v>0.0104</v>
       </c>
       <c r="C161" s="3" t="n">
+        <v>0.0102</v>
+      </c>
+      <c r="D161" s="3" t="n">
+        <v>0.0104</v>
+      </c>
+      <c r="E161" s="3" t="n">
         <v>0.0105</v>
       </c>
-      <c r="D161" s="3" t="n">
-        <v>0.0105</v>
-      </c>
-      <c r="E161" s="3" t="n">
-        <v>-0.0001</v>
+      <c r="F161" s="3" t="n">
+        <v>0.0002</v>
       </c>
     </row>
     <row r="162" ht="22" customHeight="1">
@@ -3542,16 +4028,19 @@
         </is>
       </c>
       <c r="B162" s="3" t="n">
+        <v>0.0192</v>
+      </c>
+      <c r="C162" s="3" t="n">
+        <v>0.0194</v>
+      </c>
+      <c r="D162" s="3" t="n">
         <v>0.0198</v>
       </c>
-      <c r="C162" s="3" t="n">
-        <v>0.0198</v>
-      </c>
-      <c r="D162" s="3" t="n">
+      <c r="E162" s="3" t="n">
         <v>0.0196</v>
       </c>
-      <c r="E162" s="3" t="n">
-        <v>0</v>
+      <c r="F162" s="3" t="n">
+        <v>-0.0002</v>
       </c>
     </row>
     <row r="163" ht="22" customHeight="1">
@@ -3561,16 +4050,19 @@
         </is>
       </c>
       <c r="B163" s="3" t="n">
+        <v>37.4009</v>
+      </c>
+      <c r="C163" s="3" t="n">
+        <v>37.3891</v>
+      </c>
+      <c r="D163" s="3" t="n">
         <v>37.4089</v>
       </c>
-      <c r="C163" s="3" t="n">
-        <v>37.3972</v>
-      </c>
-      <c r="D163" s="3" t="n">
+      <c r="E163" s="3" t="n">
         <v>37.4054</v>
       </c>
-      <c r="E163" s="3" t="n">
-        <v>0.0117</v>
+      <c r="F163" s="3" t="n">
+        <v>0.0118</v>
       </c>
     </row>
     <row r="164" ht="22" customHeight="1">
@@ -3580,16 +4072,19 @@
         </is>
       </c>
       <c r="B164" s="3" t="n">
+        <v>0.0125</v>
+      </c>
+      <c r="C164" s="3" t="n">
         <v>0.0126</v>
       </c>
-      <c r="C164" s="3" t="n">
-        <v>0.0128</v>
-      </c>
       <c r="D164" s="3" t="n">
+        <v>0.0126</v>
+      </c>
+      <c r="E164" s="3" t="n">
         <v>0.0129</v>
       </c>
-      <c r="E164" s="3" t="n">
-        <v>-0.0002</v>
+      <c r="F164" s="3" t="n">
+        <v>-0.0001</v>
       </c>
     </row>
     <row r="165" ht="22" customHeight="1">
@@ -3599,16 +4094,19 @@
         </is>
       </c>
       <c r="B165" s="3" t="n">
+        <v>0.0276</v>
+      </c>
+      <c r="C165" s="3" t="n">
+        <v>0.0278</v>
+      </c>
+      <c r="D165" s="3" t="n">
         <v>0.0269</v>
       </c>
-      <c r="C165" s="3" t="n">
-        <v>0.0276</v>
-      </c>
-      <c r="D165" s="3" t="n">
+      <c r="E165" s="3" t="n">
         <v>0.0278</v>
       </c>
-      <c r="E165" s="3" t="n">
-        <v>-0.0007</v>
+      <c r="F165" s="3" t="n">
+        <v>-0.0002</v>
       </c>
     </row>
     <row r="166" ht="22" customHeight="1">
@@ -3618,16 +4116,19 @@
         </is>
       </c>
       <c r="B166" s="3" t="n">
-        <v>0.018</v>
+        <v>0.0182</v>
       </c>
       <c r="C166" s="3" t="n">
         <v>0.0181</v>
       </c>
       <c r="D166" s="3" t="n">
+        <v>0.018</v>
+      </c>
+      <c r="E166" s="3" t="n">
         <v>0.0182</v>
       </c>
-      <c r="E166" s="3" t="n">
-        <v>-0.0001</v>
+      <c r="F166" s="3" t="n">
+        <v>0.0001</v>
       </c>
     </row>
     <row r="167" ht="22" customHeight="1">
@@ -3640,13 +4141,16 @@
         <v>0.007900000000000001</v>
       </c>
       <c r="C167" s="3" t="n">
+        <v>0.007900000000000001</v>
+      </c>
+      <c r="D167" s="3" t="n">
+        <v>0.007900000000000001</v>
+      </c>
+      <c r="E167" s="3" t="n">
         <v>0.0077</v>
       </c>
-      <c r="D167" s="3" t="n">
-        <v>0.0077</v>
-      </c>
-      <c r="E167" s="3" t="n">
-        <v>0.0002</v>
+      <c r="F167" s="3" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="168" ht="22" customHeight="1">
@@ -3656,16 +4160,19 @@
         </is>
       </c>
       <c r="B168" s="3" t="n">
-        <v>0.0363</v>
+        <v>0.0367</v>
       </c>
       <c r="C168" s="3" t="n">
         <v>0.0367</v>
       </c>
       <c r="D168" s="3" t="n">
+        <v>0.0363</v>
+      </c>
+      <c r="E168" s="3" t="n">
         <v>0.0365</v>
       </c>
-      <c r="E168" s="3" t="n">
-        <v>-0.0004</v>
+      <c r="F168" s="3" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="169" ht="22" customHeight="1">
@@ -3675,16 +4182,19 @@
         </is>
       </c>
       <c r="B169" s="3" t="n">
+        <v>1.295</v>
+      </c>
+      <c r="C169" s="3" t="n">
+        <v>1.2963</v>
+      </c>
+      <c r="D169" s="3" t="n">
         <v>1.3022</v>
       </c>
-      <c r="C169" s="3" t="n">
-        <v>1.3012</v>
-      </c>
-      <c r="D169" s="3" t="n">
+      <c r="E169" s="3" t="n">
         <v>1.2989</v>
       </c>
-      <c r="E169" s="3" t="n">
-        <v>0.001</v>
+      <c r="F169" s="3" t="n">
+        <v>-0.0013</v>
       </c>
     </row>
     <row r="170" ht="22" customHeight="1">
@@ -3694,16 +4204,19 @@
         </is>
       </c>
       <c r="B170" s="3" t="n">
+        <v>0.664</v>
+      </c>
+      <c r="C170" s="3" t="n">
+        <v>0.6627</v>
+      </c>
+      <c r="D170" s="3" t="n">
         <v>0.6627999999999999</v>
       </c>
-      <c r="C170" s="3" t="n">
-        <v>0.6645</v>
-      </c>
-      <c r="D170" s="3" t="n">
+      <c r="E170" s="3" t="n">
         <v>0.6636</v>
       </c>
-      <c r="E170" s="3" t="n">
-        <v>-0.0017</v>
+      <c r="F170" s="3" t="n">
+        <v>0.0013</v>
       </c>
     </row>
     <row r="171" ht="22" customHeight="1">
@@ -3713,16 +4226,19 @@
         </is>
       </c>
       <c r="B171" s="3" t="n">
+        <v>176.4808</v>
+      </c>
+      <c r="C171" s="3" t="n">
+        <v>175.667</v>
+      </c>
+      <c r="D171" s="3" t="n">
         <v>175.7174</v>
       </c>
-      <c r="C171" s="3" t="n">
-        <v>175.7337</v>
-      </c>
-      <c r="D171" s="3" t="n">
+      <c r="E171" s="3" t="n">
         <v>176.122</v>
       </c>
-      <c r="E171" s="3" t="n">
-        <v>-0.0163</v>
+      <c r="F171" s="3" t="n">
+        <v>0.8138</v>
       </c>
     </row>
     <row r="172" ht="22" customHeight="1">
@@ -3735,13 +4251,16 @@
         <v>0.0101</v>
       </c>
       <c r="C172" s="3" t="n">
+        <v>0.0103</v>
+      </c>
+      <c r="D172" s="3" t="n">
         <v>0.0101</v>
       </c>
-      <c r="D172" s="3" t="n">
+      <c r="E172" s="3" t="n">
         <v>0.0102</v>
       </c>
-      <c r="E172" s="3" t="n">
-        <v>0</v>
+      <c r="F172" s="3" t="n">
+        <v>-0.0002</v>
       </c>
     </row>
     <row r="173" ht="22" customHeight="1">
@@ -3751,16 +4270,19 @@
         </is>
       </c>
       <c r="B173" s="3" t="n">
+        <v>33.9282</v>
+      </c>
+      <c r="C173" s="3" t="n">
+        <v>33.4557</v>
+      </c>
+      <c r="D173" s="3" t="n">
         <v>33.3398</v>
       </c>
-      <c r="C173" s="3" t="n">
-        <v>33.7263</v>
-      </c>
-      <c r="D173" s="3" t="n">
+      <c r="E173" s="3" t="n">
         <v>33.3241</v>
       </c>
-      <c r="E173" s="3" t="n">
-        <v>-0.3865</v>
+      <c r="F173" s="3" t="n">
+        <v>0.4725</v>
       </c>
     </row>
     <row r="174" ht="22" customHeight="1">
@@ -3770,16 +4292,19 @@
         </is>
       </c>
       <c r="B174" s="3" t="n">
+        <v>20.7753</v>
+      </c>
+      <c r="C174" s="3" t="n">
+        <v>0.9948</v>
+      </c>
+      <c r="D174" s="3" t="n">
         <v>10.0296</v>
       </c>
-      <c r="C174" s="3" t="n">
-        <v>0.998</v>
-      </c>
-      <c r="D174" s="3" t="n">
+      <c r="E174" s="3" t="n">
         <v>1.0064</v>
       </c>
-      <c r="E174" s="5" t="n">
-        <v>9.031599999999999</v>
+      <c r="F174" s="5" t="n">
+        <v>19.7805</v>
       </c>
     </row>
     <row r="175" ht="22" customHeight="1">
@@ -3789,16 +4314,19 @@
         </is>
       </c>
       <c r="B175" s="3" t="n">
+        <v>1.8008</v>
+      </c>
+      <c r="C175" s="3" t="n">
+        <v>1.7939</v>
+      </c>
+      <c r="D175" s="3" t="n">
         <v>1.8035</v>
       </c>
-      <c r="C175" s="3" t="n">
-        <v>1.8065</v>
-      </c>
-      <c r="D175" s="3" t="n">
+      <c r="E175" s="3" t="n">
         <v>1.8041</v>
       </c>
-      <c r="E175" s="3" t="n">
-        <v>-0.003</v>
+      <c r="F175" s="3" t="n">
+        <v>0.0069</v>
       </c>
     </row>
     <row r="176" ht="22" customHeight="1">
@@ -3808,16 +4336,19 @@
         </is>
       </c>
       <c r="B176" s="3" t="n">
+        <v>4.6414</v>
+      </c>
+      <c r="C176" s="3" t="n">
+        <v>4.655</v>
+      </c>
+      <c r="D176" s="3" t="n">
         <v>4.6262</v>
       </c>
-      <c r="C176" s="3" t="n">
-        <v>4.6277</v>
-      </c>
-      <c r="D176" s="3" t="n">
+      <c r="E176" s="3" t="n">
         <v>4.6403</v>
       </c>
-      <c r="E176" s="3" t="n">
-        <v>-0.0015</v>
+      <c r="F176" s="3" t="n">
+        <v>-0.0136</v>
       </c>
     </row>
     <row r="177" ht="22" customHeight="1">
@@ -3827,16 +4358,19 @@
         </is>
       </c>
       <c r="B177" s="3" t="n">
+        <v>0.7481</v>
+      </c>
+      <c r="C177" s="3" t="n">
+        <v>0.755</v>
+      </c>
+      <c r="D177" s="3" t="n">
         <v>0.7544999999999999</v>
       </c>
-      <c r="C177" s="3" t="n">
-        <v>0.7522</v>
-      </c>
-      <c r="D177" s="3" t="n">
+      <c r="E177" s="3" t="n">
         <v>0.753</v>
       </c>
-      <c r="E177" s="3" t="n">
-        <v>0.0023</v>
+      <c r="F177" s="3" t="n">
+        <v>-0.0069</v>
       </c>
     </row>
     <row r="178" ht="22" customHeight="1">
@@ -3846,16 +4380,19 @@
         </is>
       </c>
       <c r="B178" s="3" t="n">
+        <v>127.6254</v>
+      </c>
+      <c r="C178" s="3" t="n">
+        <v>124.0981</v>
+      </c>
+      <c r="D178" s="3" t="n">
         <v>124.829</v>
       </c>
-      <c r="C178" s="3" t="n">
-        <v>124.3352</v>
-      </c>
-      <c r="D178" s="3" t="n">
+      <c r="E178" s="3" t="n">
         <v>124.0522</v>
       </c>
-      <c r="E178" s="3" t="n">
-        <v>0.4938</v>
+      <c r="F178" s="5" t="n">
+        <v>3.5273</v>
       </c>
     </row>
     <row r="179" ht="22" customHeight="1">
@@ -3868,13 +4405,16 @@
         <v>0.009900000000000001</v>
       </c>
       <c r="C179" s="3" t="n">
-        <v>0.01</v>
+        <v>0.0101</v>
       </c>
       <c r="D179" s="3" t="n">
+        <v>0.009900000000000001</v>
+      </c>
+      <c r="E179" s="3" t="n">
         <v>0.0098</v>
       </c>
-      <c r="E179" s="3" t="n">
-        <v>-0.0001</v>
+      <c r="F179" s="3" t="n">
+        <v>-0.0002</v>
       </c>
     </row>
     <row r="180" ht="22" customHeight="1">
@@ -3884,16 +4424,19 @@
         </is>
       </c>
       <c r="B180" s="3" t="n">
+        <v>18.1013</v>
+      </c>
+      <c r="C180" s="3" t="n">
+        <v>18.1427</v>
+      </c>
+      <c r="D180" s="3" t="n">
         <v>18.1831</v>
       </c>
-      <c r="C180" s="3" t="n">
-        <v>18.0659</v>
-      </c>
-      <c r="D180" s="3" t="n">
+      <c r="E180" s="3" t="n">
         <v>18.1746</v>
       </c>
-      <c r="E180" s="3" t="n">
-        <v>0.1172</v>
+      <c r="F180" s="3" t="n">
+        <v>-0.0414</v>
       </c>
     </row>
     <row r="181" ht="22" customHeight="1">
@@ -3903,16 +4446,19 @@
         </is>
       </c>
       <c r="B181" s="3" t="n">
-        <v>0.0115</v>
+        <v>0.0114</v>
       </c>
       <c r="C181" s="3" t="n">
-        <v>0.0116</v>
+        <v>0.0114</v>
       </c>
       <c r="D181" s="3" t="n">
         <v>0.0115</v>
       </c>
       <c r="E181" s="3" t="n">
-        <v>-0.0001</v>
+        <v>0.0115</v>
+      </c>
+      <c r="F181" s="3" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="182" ht="22" customHeight="1">
@@ -3922,16 +4468,19 @@
         </is>
       </c>
       <c r="B182" s="3" t="n">
+        <v>0.008</v>
+      </c>
+      <c r="C182" s="3" t="n">
         <v>0.0081</v>
-      </c>
-      <c r="C182" s="3" t="n">
-        <v>0.0083</v>
       </c>
       <c r="D182" s="3" t="n">
         <v>0.0081</v>
       </c>
       <c r="E182" s="3" t="n">
-        <v>-0.0002</v>
+        <v>0.0081</v>
+      </c>
+      <c r="F182" s="3" t="n">
+        <v>-0.0001</v>
       </c>
     </row>
     <row r="183" ht="22" customHeight="1">
@@ -3941,16 +4490,19 @@
         </is>
       </c>
       <c r="B183" s="3" t="n">
+        <v>0.0152</v>
+      </c>
+      <c r="C183" s="3" t="n">
+        <v>0.0143</v>
+      </c>
+      <c r="D183" s="3" t="n">
         <v>0.0153</v>
       </c>
-      <c r="C183" s="3" t="n">
-        <v>0.0149</v>
-      </c>
-      <c r="D183" s="3" t="n">
+      <c r="E183" s="3" t="n">
         <v>0.0163</v>
       </c>
-      <c r="E183" s="3" t="n">
-        <v>0.0004</v>
+      <c r="F183" s="3" t="n">
+        <v>0.0009</v>
       </c>
     </row>
     <row r="184" ht="22" customHeight="1">
@@ -3960,16 +4512,19 @@
         </is>
       </c>
       <c r="B184" s="3" t="n">
+        <v>79.42919999999999</v>
+      </c>
+      <c r="C184" s="3" t="n">
+        <v>80.0701</v>
+      </c>
+      <c r="D184" s="3" t="n">
         <v>79.5804</v>
       </c>
-      <c r="C184" s="3" t="n">
-        <v>79.40519999999999</v>
-      </c>
-      <c r="D184" s="3" t="n">
+      <c r="E184" s="3" t="n">
         <v>79.4152</v>
       </c>
-      <c r="E184" s="3" t="n">
-        <v>0.1752</v>
+      <c r="F184" s="3" t="n">
+        <v>-0.6409</v>
       </c>
     </row>
     <row r="185" ht="22" customHeight="1">
@@ -3979,16 +4534,19 @@
         </is>
       </c>
       <c r="B185" s="3" t="n">
+        <v>3.7599</v>
+      </c>
+      <c r="C185" s="3" t="n">
+        <v>3.7546</v>
+      </c>
+      <c r="D185" s="3" t="n">
         <v>3.8131</v>
       </c>
-      <c r="C185" s="3" t="n">
-        <v>3.7471</v>
-      </c>
-      <c r="D185" s="3" t="n">
+      <c r="E185" s="3" t="n">
         <v>3.7478</v>
       </c>
-      <c r="E185" s="3" t="n">
-        <v>0.066</v>
+      <c r="F185" s="3" t="n">
+        <v>0.0053</v>
       </c>
     </row>
     <row r="186" ht="22" customHeight="1">
@@ -3998,16 +4556,19 @@
         </is>
       </c>
       <c r="B186" s="3" t="n">
+        <v>0.0146</v>
+      </c>
+      <c r="C186" s="3" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="D186" s="3" t="n">
         <v>0.0152</v>
       </c>
-      <c r="C186" s="3" t="n">
-        <v>0.0153</v>
-      </c>
-      <c r="D186" s="3" t="n">
+      <c r="E186" s="3" t="n">
         <v>0.0151</v>
       </c>
-      <c r="E186" s="3" t="n">
-        <v>-0.0001</v>
+      <c r="F186" s="3" t="n">
+        <v>-0.0004</v>
       </c>
     </row>
     <row r="187" ht="22" customHeight="1">
@@ -4017,16 +4578,19 @@
         </is>
       </c>
       <c r="B187" s="3" t="n">
+        <v>0.0122</v>
+      </c>
+      <c r="C187" s="3" t="n">
         <v>0.012</v>
       </c>
-      <c r="C187" s="3" t="n">
-        <v>0.0119</v>
-      </c>
       <c r="D187" s="3" t="n">
+        <v>0.012</v>
+      </c>
+      <c r="E187" s="3" t="n">
         <v>0.0121</v>
       </c>
-      <c r="E187" s="3" t="n">
-        <v>0.0001</v>
+      <c r="F187" s="3" t="n">
+        <v>0.0002</v>
       </c>
     </row>
     <row r="188" ht="22" customHeight="1">
@@ -4036,16 +4600,19 @@
         </is>
       </c>
       <c r="B188" s="3" t="n">
+        <v>0.0332</v>
+      </c>
+      <c r="C188" s="3" t="n">
+        <v>0.0332</v>
+      </c>
+      <c r="D188" s="3" t="n">
         <v>0.033</v>
       </c>
-      <c r="C188" s="3" t="n">
-        <v>0.0345</v>
-      </c>
-      <c r="D188" s="3" t="n">
+      <c r="E188" s="3" t="n">
         <v>0.0334</v>
       </c>
-      <c r="E188" s="3" t="n">
-        <v>-0.0015</v>
+      <c r="F188" s="3" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="189" ht="22" customHeight="1">
@@ -4055,15 +4622,18 @@
         </is>
       </c>
       <c r="B189" s="3" t="n">
-        <v>0.0069</v>
+        <v>0.007</v>
       </c>
       <c r="C189" s="3" t="n">
-        <v>0.0069</v>
+        <v>0.007</v>
       </c>
       <c r="D189" s="3" t="n">
         <v>0.0069</v>
       </c>
       <c r="E189" s="3" t="n">
+        <v>0.0069</v>
+      </c>
+      <c r="F189" s="3" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4074,16 +4644,19 @@
         </is>
       </c>
       <c r="B190" s="3" t="n">
+        <v>0.0668</v>
+      </c>
+      <c r="C190" s="3" t="n">
+        <v>0.0709999999999999</v>
+      </c>
+      <c r="D190" s="3" t="n">
         <v>0.07190000000000001</v>
       </c>
-      <c r="C190" s="3" t="n">
-        <v>0.0718</v>
-      </c>
-      <c r="D190" s="3" t="n">
+      <c r="E190" s="3" t="n">
         <v>0.0711</v>
       </c>
-      <c r="E190" s="3" t="n">
-        <v>0.0001</v>
+      <c r="F190" s="3" t="n">
+        <v>-0.0042</v>
       </c>
     </row>
     <row r="191" ht="22" customHeight="1">
@@ -4099,9 +4672,12 @@
         <v>0.0153</v>
       </c>
       <c r="D191" s="3" t="n">
+        <v>0.0154</v>
+      </c>
+      <c r="E191" s="3" t="n">
         <v>0.0153</v>
       </c>
-      <c r="E191" s="3" t="n">
+      <c r="F191" s="3" t="n">
         <v>0.0001</v>
       </c>
     </row>
@@ -4118,9 +4694,12 @@
         <v>0.0069</v>
       </c>
       <c r="D192" s="3" t="n">
+        <v>0.0069</v>
+      </c>
+      <c r="E192" s="3" t="n">
         <v>0.0071</v>
       </c>
-      <c r="E192" s="3" t="n">
+      <c r="F192" s="3" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4140,6 +4719,9 @@
         <v>0.0067</v>
       </c>
       <c r="E193" s="3" t="n">
+        <v>0.0067</v>
+      </c>
+      <c r="F193" s="3" t="n">
         <v>0.0001</v>
       </c>
     </row>
@@ -4150,15 +4732,18 @@
         </is>
       </c>
       <c r="B194" s="3" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="C194" s="3" t="n">
         <v>0.009900000000000001</v>
       </c>
-      <c r="C194" s="3" t="n">
+      <c r="D194" s="3" t="n">
+        <v>0.009900000000000001</v>
+      </c>
+      <c r="E194" s="3" t="n">
         <v>0.0098</v>
       </c>
-      <c r="D194" s="3" t="n">
-        <v>0.0098</v>
-      </c>
-      <c r="E194" s="3" t="n">
+      <c r="F194" s="3" t="n">
         <v>0.0001</v>
       </c>
     </row>
@@ -4169,15 +4754,18 @@
         </is>
       </c>
       <c r="B195" s="3" t="n">
+        <v>0.0587</v>
+      </c>
+      <c r="C195" s="3" t="n">
+        <v>0.0589</v>
+      </c>
+      <c r="D195" s="3" t="n">
         <v>0.0586</v>
       </c>
-      <c r="C195" s="3" t="n">
-        <v>0.0588</v>
-      </c>
-      <c r="D195" s="3" t="n">
+      <c r="E195" s="3" t="n">
         <v>0.0589</v>
       </c>
-      <c r="E195" s="3" t="n">
+      <c r="F195" s="3" t="n">
         <v>-0.0002</v>
       </c>
     </row>
@@ -4194,9 +4782,12 @@
         <v>0.0107</v>
       </c>
       <c r="D196" s="3" t="n">
+        <v>0.0107</v>
+      </c>
+      <c r="E196" s="3" t="n">
         <v>0.0108</v>
       </c>
-      <c r="E196" s="3" t="n">
+      <c r="F196" s="3" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4216,6 +4807,9 @@
         <v>0.0068</v>
       </c>
       <c r="E197" s="3" t="n">
+        <v>0.0068</v>
+      </c>
+      <c r="F197" s="3" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4226,16 +4820,19 @@
         </is>
       </c>
       <c r="B198" s="3" t="n">
-        <v>0.0066</v>
+        <v>0.0068</v>
       </c>
       <c r="C198" s="3" t="n">
         <v>0.0067</v>
       </c>
       <c r="D198" s="3" t="n">
+        <v>0.0066</v>
+      </c>
+      <c r="E198" s="3" t="n">
         <v>0.0067</v>
       </c>
-      <c r="E198" s="3" t="n">
-        <v>-0.0001</v>
+      <c r="F198" s="3" t="n">
+        <v>0.0001</v>
       </c>
     </row>
     <row r="199" ht="22" customHeight="1">
@@ -4245,16 +4842,19 @@
         </is>
       </c>
       <c r="B199" s="3" t="n">
+        <v>0.0077</v>
+      </c>
+      <c r="C199" s="3" t="n">
         <v>0.0076</v>
       </c>
-      <c r="C199" s="3" t="n">
+      <c r="D199" s="3" t="n">
+        <v>0.0076</v>
+      </c>
+      <c r="E199" s="3" t="n">
         <v>0.0077</v>
       </c>
-      <c r="D199" s="3" t="n">
-        <v>0.0077</v>
-      </c>
-      <c r="E199" s="3" t="n">
-        <v>-0.0001</v>
+      <c r="F199" s="3" t="n">
+        <v>0.0001</v>
       </c>
     </row>
     <row r="200" ht="22" customHeight="1">
@@ -4264,15 +4864,18 @@
         </is>
       </c>
       <c r="B200" s="3" t="n">
-        <v>0.0065</v>
+        <v>0.0066</v>
       </c>
       <c r="C200" s="3" t="n">
-        <v>0.0065</v>
+        <v>0.0066</v>
       </c>
       <c r="D200" s="3" t="n">
         <v>0.0065</v>
       </c>
       <c r="E200" s="3" t="n">
+        <v>0.0065</v>
+      </c>
+      <c r="F200" s="3" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4292,6 +4895,9 @@
         <v>0.0138</v>
       </c>
       <c r="E201" s="3" t="n">
+        <v>0.0138</v>
+      </c>
+      <c r="F201" s="3" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4302,16 +4908,19 @@
         </is>
       </c>
       <c r="B202" s="3" t="n">
+        <v>1272.6788</v>
+      </c>
+      <c r="C202" s="3" t="n">
+        <v>1266.9385</v>
+      </c>
+      <c r="D202" s="3" t="n">
         <v>1272.5427</v>
       </c>
-      <c r="C202" s="3" t="n">
-        <v>1272.1479</v>
-      </c>
-      <c r="D202" s="3" t="n">
+      <c r="E202" s="3" t="n">
         <v>1272.7325</v>
       </c>
-      <c r="E202" s="3" t="n">
-        <v>0.3948</v>
+      <c r="F202" s="5" t="n">
+        <v>5.7403</v>
       </c>
     </row>
     <row r="203" ht="22" customHeight="1">
@@ -4321,16 +4930,19 @@
         </is>
       </c>
       <c r="B203" s="3" t="n">
+        <v>0.0163</v>
+      </c>
+      <c r="C203" s="3" t="n">
+        <v>0.0213</v>
+      </c>
+      <c r="D203" s="3" t="n">
         <v>0.018</v>
       </c>
-      <c r="C203" s="3" t="n">
+      <c r="E203" s="3" t="n">
         <v>0.019</v>
       </c>
-      <c r="D203" s="3" t="n">
-        <v>0.019</v>
-      </c>
-      <c r="E203" s="3" t="n">
-        <v>-0.001</v>
+      <c r="F203" s="3" t="n">
+        <v>-0.005</v>
       </c>
     </row>
     <row r="204" ht="22" customHeight="1">
@@ -4340,16 +4952,19 @@
         </is>
       </c>
       <c r="B204" s="3" t="n">
+        <v>0.5128</v>
+      </c>
+      <c r="C204" s="3" t="n">
+        <v>0.5138</v>
+      </c>
+      <c r="D204" s="3" t="n">
         <v>0.5187</v>
       </c>
-      <c r="C204" s="3" t="n">
-        <v>0.5236</v>
-      </c>
-      <c r="D204" s="3" t="n">
+      <c r="E204" s="3" t="n">
         <v>0.5193</v>
       </c>
-      <c r="E204" s="3" t="n">
-        <v>-0.0049</v>
+      <c r="F204" s="3" t="n">
+        <v>-0.001</v>
       </c>
     </row>
     <row r="205" ht="22" customHeight="1">
@@ -4359,16 +4974,19 @@
         </is>
       </c>
       <c r="B205" s="3" t="n">
+        <v>0.0308</v>
+      </c>
+      <c r="C205" s="3" t="n">
+        <v>0.0306</v>
+      </c>
+      <c r="D205" s="3" t="n">
         <v>0.0293</v>
       </c>
-      <c r="C205" s="3" t="n">
-        <v>0.0311</v>
-      </c>
-      <c r="D205" s="3" t="n">
+      <c r="E205" s="3" t="n">
         <v>0.0304</v>
       </c>
-      <c r="E205" s="3" t="n">
-        <v>-0.0018</v>
+      <c r="F205" s="3" t="n">
+        <v>0.0002</v>
       </c>
     </row>
     <row r="206" ht="22" customHeight="1">
@@ -4381,13 +4999,16 @@
         <v>0.0185</v>
       </c>
       <c r="C206" s="3" t="n">
-        <v>0.0196</v>
+        <v>0.0166</v>
       </c>
       <c r="D206" s="3" t="n">
+        <v>0.0185</v>
+      </c>
+      <c r="E206" s="3" t="n">
         <v>0.0188</v>
       </c>
-      <c r="E206" s="3" t="n">
-        <v>-0.0011</v>
+      <c r="F206" s="3" t="n">
+        <v>0.0019</v>
       </c>
     </row>
     <row r="207" ht="22" customHeight="1">
@@ -4397,16 +5018,19 @@
         </is>
       </c>
       <c r="B207" s="3" t="n">
+        <v>0.0214</v>
+      </c>
+      <c r="C207" s="3" t="n">
+        <v>0.0201</v>
+      </c>
+      <c r="D207" s="3" t="n">
         <v>0.0266</v>
       </c>
-      <c r="C207" s="3" t="n">
-        <v>0.0163</v>
-      </c>
-      <c r="D207" s="3" t="n">
+      <c r="E207" s="3" t="n">
         <v>0.0268</v>
       </c>
-      <c r="E207" s="3" t="n">
-        <v>0.0103</v>
+      <c r="F207" s="3" t="n">
+        <v>0.0013</v>
       </c>
     </row>
     <row r="208" ht="22" customHeight="1">
@@ -4416,16 +5040,19 @@
         </is>
       </c>
       <c r="B208" s="3" t="n">
+        <v>0.014</v>
+      </c>
+      <c r="C208" s="3" t="n">
+        <v>0.0159</v>
+      </c>
+      <c r="D208" s="3" t="n">
         <v>0.0189</v>
       </c>
-      <c r="C208" s="3" t="n">
-        <v>0.0172</v>
-      </c>
-      <c r="D208" s="3" t="n">
+      <c r="E208" s="3" t="n">
         <v>0.018</v>
       </c>
-      <c r="E208" s="3" t="n">
-        <v>0.0017</v>
+      <c r="F208" s="3" t="n">
+        <v>-0.0019</v>
       </c>
     </row>
     <row r="209" ht="22" customHeight="1">
@@ -4435,16 +5062,19 @@
         </is>
       </c>
       <c r="B209" s="3" t="n">
+        <v>0.0143</v>
+      </c>
+      <c r="C209" s="3" t="n">
+        <v>0.0169</v>
+      </c>
+      <c r="D209" s="3" t="n">
         <v>0.0117</v>
       </c>
-      <c r="C209" s="3" t="n">
-        <v>0.0173</v>
-      </c>
-      <c r="D209" s="3" t="n">
+      <c r="E209" s="3" t="n">
         <v>0.0175</v>
       </c>
-      <c r="E209" s="3" t="n">
-        <v>-0.0056</v>
+      <c r="F209" s="3" t="n">
+        <v>-0.0026</v>
       </c>
     </row>
     <row r="210" ht="22" customHeight="1">
@@ -4454,16 +5084,19 @@
         </is>
       </c>
       <c r="B210" s="3" t="n">
+        <v>0.0164</v>
+      </c>
+      <c r="C210" s="3" t="n">
+        <v>0.0166</v>
+      </c>
+      <c r="D210" s="3" t="n">
         <v>0.0147</v>
       </c>
-      <c r="C210" s="3" t="n">
-        <v>0.0152</v>
-      </c>
-      <c r="D210" s="3" t="n">
+      <c r="E210" s="3" t="n">
         <v>0.0161</v>
       </c>
-      <c r="E210" s="3" t="n">
-        <v>-0.0005</v>
+      <c r="F210" s="3" t="n">
+        <v>-0.0002</v>
       </c>
     </row>
     <row r="211" ht="22" customHeight="1">
@@ -4473,16 +5106,19 @@
         </is>
       </c>
       <c r="B211" s="3" t="n">
+        <v>0.0166</v>
+      </c>
+      <c r="C211" s="3" t="n">
+        <v>0.0156</v>
+      </c>
+      <c r="D211" s="3" t="n">
         <v>0.0138</v>
       </c>
-      <c r="C211" s="3" t="n">
-        <v>0.0155</v>
-      </c>
-      <c r="D211" s="3" t="n">
+      <c r="E211" s="3" t="n">
         <v>0.0146</v>
       </c>
-      <c r="E211" s="3" t="n">
-        <v>-0.0017</v>
+      <c r="F211" s="3" t="n">
+        <v>0.001</v>
       </c>
     </row>
     <row r="212" ht="22" customHeight="1">
@@ -4492,16 +5128,19 @@
         </is>
       </c>
       <c r="B212" s="3" t="n">
+        <v>5.4846</v>
+      </c>
+      <c r="C212" s="3" t="n">
+        <v>3.1574</v>
+      </c>
+      <c r="D212" s="3" t="n">
         <v>5.5933</v>
       </c>
-      <c r="C212" s="3" t="n">
-        <v>5.6844</v>
-      </c>
-      <c r="D212" s="3" t="n">
+      <c r="E212" s="3" t="n">
         <v>3.2104</v>
       </c>
-      <c r="E212" s="3" t="n">
-        <v>-0.0911</v>
+      <c r="F212" s="5" t="n">
+        <v>2.3272</v>
       </c>
     </row>
   </sheetData>
@@ -4604,7 +5243,7 @@
       </c>
       <c r="B3" s="3" t="inlineStr">
         <is>
-          <t>2025-08-15 00:00:00</t>
+          <t>2025-09-08 00:00:00</t>
         </is>
       </c>
       <c r="C3" s="3" t="n"/>
@@ -4631,7 +5270,7 @@
       </c>
       <c r="B4" s="3" t="inlineStr">
         <is>
-          <t>William</t>
+          <t>Nino</t>
         </is>
       </c>
       <c r="C4" s="3" t="n"/>
@@ -4712,7 +5351,7 @@
       </c>
       <c r="B7" s="3" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>61</t>
         </is>
       </c>
       <c r="C7" s="3" t="n"/>
@@ -4957,7 +5596,7 @@
       </c>
       <c r="F14" s="3" t="inlineStr">
         <is>
-          <t>CheerEAmber25E40600u</t>
+          <t>CheerEAmber25E40601c</t>
         </is>
       </c>
       <c r="G14" s="3" t="inlineStr">
@@ -4972,47 +5611,47 @@
       </c>
       <c r="I14" s="3" t="inlineStr">
         <is>
-          <t>/Users/sw-team/Desktop/Logs/</t>
+          <t>/Users/sw-team/Desktop/0910/</t>
         </is>
       </c>
       <c r="J14" s="3" t="inlineStr">
         <is>
-          <t>2646.57</t>
+          <t>2646.10</t>
         </is>
       </c>
       <c r="K14" s="3" t="inlineStr">
         <is>
-          <t>2651.87</t>
+          <t>2652.87</t>
         </is>
       </c>
       <c r="L14" s="3" t="inlineStr">
         <is>
-          <t>2639.50</t>
+          <t>2627.87</t>
         </is>
       </c>
       <c r="M14" s="3" t="inlineStr">
         <is>
-          <t>2765.56</t>
+          <t>2885.23</t>
         </is>
       </c>
       <c r="N14" s="3" t="inlineStr">
         <is>
-          <t>126.06</t>
+          <t>257.36</t>
         </is>
       </c>
       <c r="O14" s="3" t="inlineStr">
         <is>
-          <t>23.54</t>
+          <t>35.05</t>
         </is>
       </c>
       <c r="P14" s="3" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>4</t>
         </is>
       </c>
       <c r="Q14" s="3" t="inlineStr">
         <is>
-          <t>Outliers determined by boxplot method (Q1-1.5IQR, Q3+1.5IQR); Min at loops: 26; Max at loops: 1</t>
+          <t>Outliers determined by boxplot method (Q1-1.5IQR, Q3+1.5IQR); Min at loops: 52; Max at loops: 2</t>
         </is>
       </c>
     </row>

--- a/data/output/form/all_comparisons.xlsx
+++ b/data/output/form/all_comparisons.xlsx
@@ -453,7 +453,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F212"/>
+  <dimension ref="A1:K212"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -462,11 +462,16 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="50" customWidth="1" min="1" max="1"/>
-    <col width="26" customWidth="1" min="2" max="2"/>
-    <col width="27" customWidth="1" min="3" max="3"/>
-    <col width="22" customWidth="1" min="4" max="4"/>
-    <col width="23" customWidth="1" min="5" max="5"/>
-    <col width="28" customWidth="1" min="6" max="6"/>
+    <col width="21" customWidth="1" min="2" max="2"/>
+    <col width="26" customWidth="1" min="3" max="3"/>
+    <col width="27" customWidth="1" min="4" max="4"/>
+    <col width="22" customWidth="1" min="5" max="5"/>
+    <col width="23" customWidth="1" min="6" max="6"/>
+    <col width="28" customWidth="1" min="7" max="7"/>
+    <col width="46" customWidth="1" min="8" max="8"/>
+    <col width="47" customWidth="1" min="9" max="9"/>
+    <col width="31" customWidth="1" min="10" max="10"/>
+    <col width="31" customWidth="1" min="11" max="11"/>
   </cols>
   <sheetData>
     <row r="1" ht="22" customHeight="1">
@@ -477,27 +482,52 @@
       </c>
       <c r="B1" s="4" t="inlineStr">
         <is>
+          <t>Median(59th loop)</t>
+        </is>
+      </c>
+      <c r="C1" s="4" t="inlineStr">
+        <is>
           <t>Max_abnormal(2nd loop)</t>
         </is>
       </c>
-      <c r="C1" s="4" t="inlineStr">
+      <c r="D1" s="4" t="inlineStr">
         <is>
           <t>Min_abnormal(52nd loop)</t>
         </is>
       </c>
-      <c r="D1" s="4" t="inlineStr">
+      <c r="E1" s="4" t="inlineStr">
         <is>
           <t>Abnormal(5th loop)</t>
         </is>
       </c>
-      <c r="E1" s="4" t="inlineStr">
+      <c r="F1" s="4" t="inlineStr">
         <is>
           <t>Abnormal(36th loop)</t>
         </is>
       </c>
-      <c r="F1" s="4" t="inlineStr">
+      <c r="G1" s="4" t="inlineStr">
         <is>
           <t>Time_Difference(Max-Min)</t>
+        </is>
+      </c>
+      <c r="H1" s="4" t="inlineStr">
+        <is>
+          <t>Time_Difference(Abnormal(5th loop)-Median)</t>
+        </is>
+      </c>
+      <c r="I1" s="4" t="inlineStr">
+        <is>
+          <t>Time_Difference(Abnormal(36th loop)-Median)</t>
+        </is>
+      </c>
+      <c r="J1" s="4" t="inlineStr">
+        <is>
+          <t>Time_Difference(Max-Median)</t>
+        </is>
+      </c>
+      <c r="K1" s="4" t="inlineStr">
+        <is>
+          <t>Time_Difference(Min-Median)</t>
         </is>
       </c>
     </row>
@@ -508,19 +538,34 @@
         </is>
       </c>
       <c r="B2" s="3" t="n">
+        <v>5.4584</v>
+      </c>
+      <c r="C2" s="3" t="n">
         <v>3.4516</v>
       </c>
-      <c r="C2" s="3" t="n">
+      <c r="D2" s="3" t="n">
         <v>3.3569</v>
       </c>
-      <c r="D2" s="3" t="n">
+      <c r="E2" s="3" t="n">
         <v>3.8873</v>
       </c>
-      <c r="E2" s="3" t="n">
+      <c r="F2" s="3" t="n">
         <v>3.6244</v>
       </c>
-      <c r="F2" s="3" t="n">
+      <c r="G2" s="3" t="n">
         <v>0.09470000000000001</v>
+      </c>
+      <c r="H2" s="3" t="n">
+        <v>-1.5711</v>
+      </c>
+      <c r="I2" s="3" t="n">
+        <v>-1.834</v>
+      </c>
+      <c r="J2" s="3" t="n">
+        <v>-2.0068</v>
+      </c>
+      <c r="K2" s="3" t="n">
+        <v>-2.1015</v>
       </c>
     </row>
     <row r="3" ht="22" customHeight="1">
@@ -530,19 +575,34 @@
         </is>
       </c>
       <c r="B3" s="3" t="n">
+        <v>3.0279</v>
+      </c>
+      <c r="C3" s="3" t="n">
         <v>3.0064</v>
       </c>
-      <c r="C3" s="3" t="n">
+      <c r="D3" s="3" t="n">
         <v>3.0932</v>
       </c>
-      <c r="D3" s="3" t="n">
+      <c r="E3" s="3" t="n">
         <v>3.1868</v>
       </c>
-      <c r="E3" s="3" t="n">
+      <c r="F3" s="3" t="n">
         <v>3.0886</v>
       </c>
-      <c r="F3" s="3" t="n">
+      <c r="G3" s="3" t="n">
         <v>-0.0868</v>
+      </c>
+      <c r="H3" s="3" t="n">
+        <v>0.1589</v>
+      </c>
+      <c r="I3" s="3" t="n">
+        <v>0.0607</v>
+      </c>
+      <c r="J3" s="3" t="n">
+        <v>-0.0215</v>
+      </c>
+      <c r="K3" s="3" t="n">
+        <v>0.0653</v>
       </c>
     </row>
     <row r="4" ht="22" customHeight="1">
@@ -552,19 +612,34 @@
         </is>
       </c>
       <c r="B4" s="3" t="n">
+        <v>8.5608</v>
+      </c>
+      <c r="C4" s="3" t="n">
         <v>8.5648</v>
       </c>
-      <c r="C4" s="3" t="n">
+      <c r="D4" s="3" t="n">
         <v>8.6592</v>
       </c>
-      <c r="D4" s="3" t="n">
+      <c r="E4" s="3" t="n">
         <v>12.3034</v>
       </c>
-      <c r="E4" s="3" t="n">
+      <c r="F4" s="3" t="n">
         <v>45.6884</v>
       </c>
-      <c r="F4" s="3" t="n">
+      <c r="G4" s="3" t="n">
         <v>-0.0944</v>
+      </c>
+      <c r="H4" s="5" t="n">
+        <v>3.7426</v>
+      </c>
+      <c r="I4" s="5" t="n">
+        <v>37.1276</v>
+      </c>
+      <c r="J4" s="3" t="n">
+        <v>0.004</v>
+      </c>
+      <c r="K4" s="3" t="n">
+        <v>0.0984</v>
       </c>
     </row>
     <row r="5" ht="22" customHeight="1">
@@ -574,19 +649,34 @@
         </is>
       </c>
       <c r="B5" s="3" t="n">
+        <v>62.4077</v>
+      </c>
+      <c r="C5" s="3" t="n">
         <v>62.4245</v>
       </c>
-      <c r="C5" s="3" t="n">
+      <c r="D5" s="3" t="n">
         <v>61.1256</v>
       </c>
-      <c r="D5" s="3" t="n">
+      <c r="E5" s="3" t="n">
         <v>94.55759999999999</v>
       </c>
-      <c r="E5" s="3" t="n">
+      <c r="F5" s="3" t="n">
         <v>61.6057</v>
       </c>
-      <c r="F5" s="5" t="n">
+      <c r="G5" s="5" t="n">
         <v>1.2989</v>
+      </c>
+      <c r="H5" s="5" t="n">
+        <v>32.1499</v>
+      </c>
+      <c r="I5" s="3" t="n">
+        <v>-0.802</v>
+      </c>
+      <c r="J5" s="3" t="n">
+        <v>0.0168</v>
+      </c>
+      <c r="K5" s="3" t="n">
+        <v>-1.2821</v>
       </c>
     </row>
     <row r="6" ht="22" customHeight="1">
@@ -596,19 +686,34 @@
         </is>
       </c>
       <c r="B6" s="3" t="n">
+        <v>2424.6989</v>
+      </c>
+      <c r="C6" s="3" t="n">
         <v>2666.5478</v>
       </c>
-      <c r="C6" s="3" t="n">
+      <c r="D6" s="3" t="n">
         <v>2410.7273</v>
       </c>
-      <c r="D6" s="3" t="n">
+      <c r="E6" s="3" t="n">
         <v>2508.9939</v>
       </c>
-      <c r="E6" s="3" t="n">
+      <c r="F6" s="3" t="n">
         <v>2455.3162</v>
       </c>
-      <c r="F6" s="5" t="n">
+      <c r="G6" s="5" t="n">
         <v>255.8205</v>
+      </c>
+      <c r="H6" s="5" t="n">
+        <v>84.295</v>
+      </c>
+      <c r="I6" s="5" t="n">
+        <v>30.6173</v>
+      </c>
+      <c r="J6" s="5" t="n">
+        <v>241.8489</v>
+      </c>
+      <c r="K6" s="3" t="n">
+        <v>-13.9716</v>
       </c>
     </row>
     <row r="7" ht="22" customHeight="1">
@@ -618,19 +723,34 @@
         </is>
       </c>
       <c r="B7" s="3" t="n">
+        <v>141.9421</v>
+      </c>
+      <c r="C7" s="3" t="n">
         <v>141.235</v>
       </c>
-      <c r="C7" s="3" t="n">
+      <c r="D7" s="3" t="n">
         <v>140.9067</v>
       </c>
-      <c r="D7" s="3" t="n">
+      <c r="E7" s="3" t="n">
         <v>142.6277</v>
       </c>
-      <c r="E7" s="3" t="n">
+      <c r="F7" s="3" t="n">
         <v>144.4208</v>
       </c>
-      <c r="F7" s="3" t="n">
+      <c r="G7" s="3" t="n">
         <v>0.3283</v>
+      </c>
+      <c r="H7" s="3" t="n">
+        <v>0.6856</v>
+      </c>
+      <c r="I7" s="5" t="n">
+        <v>2.4787</v>
+      </c>
+      <c r="J7" s="3" t="n">
+        <v>-0.7071</v>
+      </c>
+      <c r="K7" s="3" t="n">
+        <v>-1.0354</v>
       </c>
     </row>
     <row r="8" ht="22" customHeight="1">
@@ -640,19 +760,34 @@
         </is>
       </c>
       <c r="B8" s="3" t="n">
+        <v>2646.096</v>
+      </c>
+      <c r="C8" s="3" t="n">
         <v>2885.23</v>
       </c>
-      <c r="C8" s="3" t="n">
+      <c r="D8" s="3" t="n">
         <v>2627.869</v>
       </c>
-      <c r="D8" s="3" t="n">
+      <c r="E8" s="3" t="n">
         <v>2765.557</v>
       </c>
-      <c r="E8" s="3" t="n">
+      <c r="F8" s="3" t="n">
         <v>2713.744</v>
       </c>
-      <c r="F8" s="5" t="n">
+      <c r="G8" s="5" t="n">
         <v>257.361</v>
+      </c>
+      <c r="H8" s="5" t="n">
+        <v>119.461</v>
+      </c>
+      <c r="I8" s="5" t="n">
+        <v>67.648</v>
+      </c>
+      <c r="J8" s="5" t="n">
+        <v>239.134</v>
+      </c>
+      <c r="K8" s="3" t="n">
+        <v>-18.227</v>
       </c>
     </row>
     <row r="9" ht="22" customHeight="1">
@@ -662,19 +797,34 @@
         </is>
       </c>
       <c r="B9" s="3" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="C9" s="3" t="n">
         <v>0.0002</v>
       </c>
-      <c r="C9" s="3" t="n">
-        <v>0</v>
-      </c>
       <c r="D9" s="3" t="n">
-        <v>0.0001</v>
+        <v>0</v>
       </c>
       <c r="E9" s="3" t="n">
         <v>0.0001</v>
       </c>
       <c r="F9" s="3" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="G9" s="3" t="n">
         <v>0.0002</v>
+      </c>
+      <c r="H9" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I9" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" s="3" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="K9" s="3" t="n">
+        <v>-0.0001</v>
       </c>
     </row>
     <row r="10" ht="22" customHeight="1">
@@ -698,6 +848,21 @@
       <c r="F10" s="3" t="n">
         <v>0</v>
       </c>
+      <c r="G10" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H10" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I10" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J10" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" s="3" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="11" ht="22" customHeight="1">
       <c r="A11" s="3" t="inlineStr">
@@ -709,16 +874,31 @@
         <v>0.0001</v>
       </c>
       <c r="C11" s="3" t="n">
-        <v>0</v>
+        <v>0.0001</v>
       </c>
       <c r="D11" s="3" t="n">
-        <v>0.0001</v>
+        <v>0</v>
       </c>
       <c r="E11" s="3" t="n">
         <v>0.0001</v>
       </c>
       <c r="F11" s="3" t="n">
         <v>0.0001</v>
+      </c>
+      <c r="G11" s="3" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="H11" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I11" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J11" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K11" s="3" t="n">
+        <v>-0.0001</v>
       </c>
     </row>
     <row r="12" ht="22" customHeight="1">
@@ -728,19 +908,34 @@
         </is>
       </c>
       <c r="B12" s="3" t="n">
-        <v>0</v>
+        <v>0.0001</v>
       </c>
       <c r="C12" s="3" t="n">
         <v>0</v>
       </c>
       <c r="D12" s="3" t="n">
-        <v>0.0001</v>
+        <v>0</v>
       </c>
       <c r="E12" s="3" t="n">
         <v>0.0001</v>
       </c>
       <c r="F12" s="3" t="n">
-        <v>0</v>
+        <v>0.0001</v>
+      </c>
+      <c r="G12" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H12" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I12" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J12" s="3" t="n">
+        <v>-0.0001</v>
+      </c>
+      <c r="K12" s="3" t="n">
+        <v>-0.0001</v>
       </c>
     </row>
     <row r="13" ht="22" customHeight="1">
@@ -764,6 +959,21 @@
       <c r="F13" s="3" t="n">
         <v>0</v>
       </c>
+      <c r="G13" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H13" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I13" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J13" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K13" s="3" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="14" ht="22" customHeight="1">
       <c r="A14" s="3" t="inlineStr">
@@ -775,16 +985,31 @@
         <v>0.0001</v>
       </c>
       <c r="C14" s="3" t="n">
-        <v>0</v>
+        <v>0.0001</v>
       </c>
       <c r="D14" s="3" t="n">
-        <v>0.0001</v>
+        <v>0</v>
       </c>
       <c r="E14" s="3" t="n">
         <v>0.0001</v>
       </c>
       <c r="F14" s="3" t="n">
         <v>0.0001</v>
+      </c>
+      <c r="G14" s="3" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="H14" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I14" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J14" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K14" s="3" t="n">
+        <v>-0.0001</v>
       </c>
     </row>
     <row r="15" ht="22" customHeight="1">
@@ -808,6 +1033,21 @@
       <c r="F15" s="3" t="n">
         <v>0</v>
       </c>
+      <c r="G15" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H15" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I15" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K15" s="3" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="16" ht="22" customHeight="1">
       <c r="A16" s="3" t="inlineStr">
@@ -816,19 +1056,34 @@
         </is>
       </c>
       <c r="B16" s="3" t="n">
-        <v>0.0001</v>
+        <v>0</v>
       </c>
       <c r="C16" s="3" t="n">
-        <v>0</v>
+        <v>0.0001</v>
       </c>
       <c r="D16" s="3" t="n">
-        <v>0.0001</v>
+        <v>0</v>
       </c>
       <c r="E16" s="3" t="n">
-        <v>0</v>
+        <v>0.0001</v>
       </c>
       <c r="F16" s="3" t="n">
-        <v>0.0001</v>
+        <v>0</v>
+      </c>
+      <c r="G16" s="3" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="H16" s="3" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="I16" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" s="3" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="K16" s="3" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="17" ht="22" customHeight="1">
@@ -852,6 +1107,21 @@
       <c r="F17" s="3" t="n">
         <v>0</v>
       </c>
+      <c r="G17" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H17" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I17" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J17" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K17" s="3" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="18" ht="22" customHeight="1">
       <c r="A18" s="3" t="inlineStr">
@@ -863,16 +1133,31 @@
         <v>0.0001</v>
       </c>
       <c r="C18" s="3" t="n">
-        <v>0</v>
+        <v>0.0001</v>
       </c>
       <c r="D18" s="3" t="n">
-        <v>0.0001</v>
+        <v>0</v>
       </c>
       <c r="E18" s="3" t="n">
         <v>0.0001</v>
       </c>
       <c r="F18" s="3" t="n">
         <v>0.0001</v>
+      </c>
+      <c r="G18" s="3" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="H18" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I18" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J18" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K18" s="3" t="n">
+        <v>-0.0001</v>
       </c>
     </row>
     <row r="19" ht="22" customHeight="1">
@@ -896,6 +1181,21 @@
       <c r="F19" s="3" t="n">
         <v>0</v>
       </c>
+      <c r="G19" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H19" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I19" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K19" s="3" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="20" ht="22" customHeight="1">
       <c r="A20" s="3" t="inlineStr">
@@ -907,16 +1207,31 @@
         <v>0.0001</v>
       </c>
       <c r="C20" s="3" t="n">
-        <v>0</v>
+        <v>0.0001</v>
       </c>
       <c r="D20" s="3" t="n">
-        <v>0.0001</v>
+        <v>0</v>
       </c>
       <c r="E20" s="3" t="n">
         <v>0.0001</v>
       </c>
       <c r="F20" s="3" t="n">
         <v>0.0001</v>
+      </c>
+      <c r="G20" s="3" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="H20" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I20" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K20" s="3" t="n">
+        <v>-0.0001</v>
       </c>
     </row>
     <row r="21" ht="22" customHeight="1">
@@ -926,19 +1241,34 @@
         </is>
       </c>
       <c r="B21" s="3" t="n">
+        <v>0.007900000000000001</v>
+      </c>
+      <c r="C21" s="3" t="n">
         <v>0.0078</v>
       </c>
-      <c r="C21" s="3" t="n">
-        <v>0</v>
-      </c>
       <c r="D21" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E21" s="3" t="n">
         <v>0.0083</v>
       </c>
-      <c r="E21" s="3" t="n">
+      <c r="F21" s="3" t="n">
         <v>0.0081</v>
       </c>
-      <c r="F21" s="3" t="n">
+      <c r="G21" s="3" t="n">
         <v>0.0078</v>
+      </c>
+      <c r="H21" s="3" t="n">
+        <v>0.0004</v>
+      </c>
+      <c r="I21" s="3" t="n">
+        <v>0.0002</v>
+      </c>
+      <c r="J21" s="3" t="n">
+        <v>-0.0001</v>
+      </c>
+      <c r="K21" s="3" t="n">
+        <v>-0.007900000000000001</v>
       </c>
     </row>
     <row r="22" ht="22" customHeight="1">
@@ -948,19 +1278,34 @@
         </is>
       </c>
       <c r="B22" s="3" t="n">
+        <v>0.2682</v>
+      </c>
+      <c r="C22" s="3" t="n">
         <v>0.2679</v>
       </c>
-      <c r="C22" s="3" t="n">
+      <c r="D22" s="3" t="n">
         <v>0.0013</v>
       </c>
-      <c r="D22" s="3" t="n">
+      <c r="E22" s="3" t="n">
         <v>0.2676</v>
       </c>
-      <c r="E22" s="3" t="n">
+      <c r="F22" s="3" t="n">
         <v>0.2691</v>
       </c>
-      <c r="F22" s="3" t="n">
+      <c r="G22" s="3" t="n">
         <v>0.2666</v>
+      </c>
+      <c r="H22" s="3" t="n">
+        <v>-0.0005999999999999999</v>
+      </c>
+      <c r="I22" s="3" t="n">
+        <v>0.0009</v>
+      </c>
+      <c r="J22" s="3" t="n">
+        <v>-0.0003</v>
+      </c>
+      <c r="K22" s="3" t="n">
+        <v>-0.2669</v>
       </c>
     </row>
     <row r="23" ht="22" customHeight="1">
@@ -970,19 +1315,34 @@
         </is>
       </c>
       <c r="B23" s="3" t="n">
+        <v>0.0063</v>
+      </c>
+      <c r="C23" s="3" t="n">
         <v>0.0065</v>
       </c>
-      <c r="C23" s="3" t="n">
-        <v>0</v>
-      </c>
       <c r="D23" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E23" s="3" t="n">
         <v>0.0064</v>
       </c>
-      <c r="E23" s="3" t="n">
+      <c r="F23" s="3" t="n">
         <v>0.0062</v>
       </c>
-      <c r="F23" s="3" t="n">
+      <c r="G23" s="3" t="n">
         <v>0.0065</v>
+      </c>
+      <c r="H23" s="3" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="I23" s="3" t="n">
+        <v>-0.0001</v>
+      </c>
+      <c r="J23" s="3" t="n">
+        <v>0.0002</v>
+      </c>
+      <c r="K23" s="3" t="n">
+        <v>-0.0063</v>
       </c>
     </row>
     <row r="24" ht="22" customHeight="1">
@@ -992,19 +1352,34 @@
         </is>
       </c>
       <c r="B24" s="3" t="n">
+        <v>0.0065</v>
+      </c>
+      <c r="C24" s="3" t="n">
         <v>0.0067</v>
       </c>
-      <c r="C24" s="3" t="n">
-        <v>0</v>
-      </c>
       <c r="D24" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E24" s="3" t="n">
         <v>0.0068</v>
       </c>
-      <c r="E24" s="3" t="n">
+      <c r="F24" s="3" t="n">
         <v>0.0069</v>
       </c>
-      <c r="F24" s="3" t="n">
+      <c r="G24" s="3" t="n">
         <v>0.0067</v>
+      </c>
+      <c r="H24" s="3" t="n">
+        <v>0.0003</v>
+      </c>
+      <c r="I24" s="3" t="n">
+        <v>0.0004</v>
+      </c>
+      <c r="J24" s="3" t="n">
+        <v>0.0002</v>
+      </c>
+      <c r="K24" s="3" t="n">
+        <v>-0.0065</v>
       </c>
     </row>
     <row r="25" ht="22" customHeight="1">
@@ -1014,19 +1389,34 @@
         </is>
       </c>
       <c r="B25" s="3" t="n">
+        <v>0.0065</v>
+      </c>
+      <c r="C25" s="3" t="n">
         <v>0.0066</v>
       </c>
-      <c r="C25" s="3" t="n">
-        <v>0</v>
-      </c>
       <c r="D25" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E25" s="3" t="n">
         <v>0.0063</v>
       </c>
-      <c r="E25" s="3" t="n">
+      <c r="F25" s="3" t="n">
         <v>0.0064</v>
       </c>
-      <c r="F25" s="3" t="n">
+      <c r="G25" s="3" t="n">
         <v>0.0066</v>
+      </c>
+      <c r="H25" s="3" t="n">
+        <v>-0.0002</v>
+      </c>
+      <c r="I25" s="3" t="n">
+        <v>-0.0001</v>
+      </c>
+      <c r="J25" s="3" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="K25" s="3" t="n">
+        <v>-0.0065</v>
       </c>
     </row>
     <row r="26" ht="22" customHeight="1">
@@ -1039,10 +1429,10 @@
         <v>0.0117</v>
       </c>
       <c r="C26" s="3" t="n">
-        <v>0</v>
+        <v>0.0117</v>
       </c>
       <c r="D26" s="3" t="n">
-        <v>0.0117</v>
+        <v>0</v>
       </c>
       <c r="E26" s="3" t="n">
         <v>0.0117</v>
@@ -1050,6 +1440,21 @@
       <c r="F26" s="3" t="n">
         <v>0.0117</v>
       </c>
+      <c r="G26" s="3" t="n">
+        <v>0.0117</v>
+      </c>
+      <c r="H26" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I26" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K26" s="3" t="n">
+        <v>-0.0117</v>
+      </c>
     </row>
     <row r="27" ht="22" customHeight="1">
       <c r="A27" s="3" t="inlineStr">
@@ -1058,19 +1463,34 @@
         </is>
       </c>
       <c r="B27" s="3" t="n">
+        <v>0.008200000000000001</v>
+      </c>
+      <c r="C27" s="3" t="n">
         <v>0.008399999999999901</v>
       </c>
-      <c r="C27" s="3" t="n">
-        <v>0</v>
-      </c>
       <c r="D27" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E27" s="3" t="n">
         <v>0.008200000000000001</v>
       </c>
-      <c r="E27" s="3" t="n">
+      <c r="F27" s="3" t="n">
         <v>0.0083</v>
       </c>
-      <c r="F27" s="3" t="n">
+      <c r="G27" s="3" t="n">
         <v>0.008399999999999999</v>
+      </c>
+      <c r="H27" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I27" s="3" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="J27" s="3" t="n">
+        <v>0.0002</v>
+      </c>
+      <c r="K27" s="3" t="n">
+        <v>-0.008200000000000001</v>
       </c>
     </row>
     <row r="28" ht="22" customHeight="1">
@@ -1080,19 +1500,34 @@
         </is>
       </c>
       <c r="B28" s="3" t="n">
+        <v>0.0091</v>
+      </c>
+      <c r="C28" s="3" t="n">
         <v>0.0089999999999999</v>
       </c>
-      <c r="C28" s="3" t="n">
-        <v>0</v>
-      </c>
       <c r="D28" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E28" s="3" t="n">
         <v>0.0089999999999999</v>
       </c>
-      <c r="E28" s="3" t="n">
+      <c r="F28" s="3" t="n">
         <v>0.0091</v>
       </c>
-      <c r="F28" s="3" t="n">
+      <c r="G28" s="3" t="n">
         <v>0.008999999999999999</v>
+      </c>
+      <c r="H28" s="3" t="n">
+        <v>-0.0001</v>
+      </c>
+      <c r="I28" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J28" s="3" t="n">
+        <v>-0.0001</v>
+      </c>
+      <c r="K28" s="3" t="n">
+        <v>-0.0091</v>
       </c>
     </row>
     <row r="29" ht="22" customHeight="1">
@@ -1102,20 +1537,35 @@
         </is>
       </c>
       <c r="B29" s="3" t="n">
+        <v>0.0234</v>
+      </c>
+      <c r="C29" s="3" t="n">
         <v>0.0233</v>
       </c>
-      <c r="C29" s="3" t="n">
-        <v>0.0001</v>
-      </c>
       <c r="D29" s="3" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="E29" s="3" t="n">
         <v>0.0235</v>
-      </c>
-      <c r="E29" s="3" t="n">
-        <v>0.0232</v>
       </c>
       <c r="F29" s="3" t="n">
         <v>0.0232</v>
       </c>
+      <c r="G29" s="3" t="n">
+        <v>0.0232</v>
+      </c>
+      <c r="H29" s="3" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="I29" s="3" t="n">
+        <v>-0.0002</v>
+      </c>
+      <c r="J29" s="3" t="n">
+        <v>-0.0001</v>
+      </c>
+      <c r="K29" s="3" t="n">
+        <v>-0.0233</v>
+      </c>
     </row>
     <row r="30" ht="22" customHeight="1">
       <c r="A30" s="3" t="inlineStr">
@@ -1124,19 +1574,34 @@
         </is>
       </c>
       <c r="B30" s="3" t="n">
+        <v>0.0065</v>
+      </c>
+      <c r="C30" s="3" t="n">
         <v>0.0066</v>
       </c>
-      <c r="C30" s="3" t="n">
-        <v>0</v>
-      </c>
       <c r="D30" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E30" s="3" t="n">
         <v>0.0066</v>
       </c>
-      <c r="E30" s="3" t="n">
+      <c r="F30" s="3" t="n">
         <v>0.0065</v>
       </c>
-      <c r="F30" s="3" t="n">
+      <c r="G30" s="3" t="n">
         <v>0.0066</v>
+      </c>
+      <c r="H30" s="3" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="I30" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J30" s="3" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="K30" s="3" t="n">
+        <v>-0.0065</v>
       </c>
     </row>
     <row r="31" ht="22" customHeight="1">
@@ -1149,10 +1614,10 @@
         <v>0.0066</v>
       </c>
       <c r="C31" s="3" t="n">
-        <v>0</v>
+        <v>0.0066</v>
       </c>
       <c r="D31" s="3" t="n">
-        <v>0.0066</v>
+        <v>0</v>
       </c>
       <c r="E31" s="3" t="n">
         <v>0.0066</v>
@@ -1160,6 +1625,21 @@
       <c r="F31" s="3" t="n">
         <v>0.0066</v>
       </c>
+      <c r="G31" s="3" t="n">
+        <v>0.0066</v>
+      </c>
+      <c r="H31" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I31" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J31" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K31" s="3" t="n">
+        <v>-0.0066</v>
+      </c>
     </row>
     <row r="32" ht="22" customHeight="1">
       <c r="A32" s="3" t="inlineStr">
@@ -1171,10 +1651,10 @@
         <v>0.0112</v>
       </c>
       <c r="C32" s="3" t="n">
-        <v>0</v>
+        <v>0.0112</v>
       </c>
       <c r="D32" s="3" t="n">
-        <v>0.0112</v>
+        <v>0</v>
       </c>
       <c r="E32" s="3" t="n">
         <v>0.0112</v>
@@ -1182,6 +1662,21 @@
       <c r="F32" s="3" t="n">
         <v>0.0112</v>
       </c>
+      <c r="G32" s="3" t="n">
+        <v>0.0112</v>
+      </c>
+      <c r="H32" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I32" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K32" s="3" t="n">
+        <v>-0.0112</v>
+      </c>
     </row>
     <row r="33" ht="22" customHeight="1">
       <c r="A33" s="3" t="inlineStr">
@@ -1190,19 +1685,34 @@
         </is>
       </c>
       <c r="B33" s="3" t="n">
+        <v>0.0104</v>
+      </c>
+      <c r="C33" s="3" t="n">
         <v>0.0103</v>
       </c>
-      <c r="C33" s="3" t="n">
-        <v>0</v>
-      </c>
       <c r="D33" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E33" s="3" t="n">
         <v>0.0103</v>
       </c>
-      <c r="E33" s="3" t="n">
+      <c r="F33" s="3" t="n">
         <v>0.0104</v>
       </c>
-      <c r="F33" s="3" t="n">
+      <c r="G33" s="3" t="n">
         <v>0.0103</v>
+      </c>
+      <c r="H33" s="3" t="n">
+        <v>-0.0001</v>
+      </c>
+      <c r="I33" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J33" s="3" t="n">
+        <v>-0.0001</v>
+      </c>
+      <c r="K33" s="3" t="n">
+        <v>-0.0104</v>
       </c>
     </row>
     <row r="34" ht="22" customHeight="1">
@@ -1212,20 +1722,35 @@
         </is>
       </c>
       <c r="B34" s="3" t="n">
+        <v>0.0222</v>
+      </c>
+      <c r="C34" s="3" t="n">
         <v>0.0225</v>
       </c>
-      <c r="C34" s="3" t="n">
-        <v>0</v>
-      </c>
       <c r="D34" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E34" s="3" t="n">
         <v>0.0223</v>
-      </c>
-      <c r="E34" s="3" t="n">
-        <v>0.0225</v>
       </c>
       <c r="F34" s="3" t="n">
         <v>0.0225</v>
       </c>
+      <c r="G34" s="3" t="n">
+        <v>0.0225</v>
+      </c>
+      <c r="H34" s="3" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="I34" s="3" t="n">
+        <v>0.0003</v>
+      </c>
+      <c r="J34" s="3" t="n">
+        <v>0.0003</v>
+      </c>
+      <c r="K34" s="3" t="n">
+        <v>-0.0222</v>
+      </c>
     </row>
     <row r="35" ht="22" customHeight="1">
       <c r="A35" s="3" t="inlineStr">
@@ -1237,16 +1762,31 @@
         <v>0.0186</v>
       </c>
       <c r="C35" s="3" t="n">
-        <v>0</v>
+        <v>0.0186</v>
       </c>
       <c r="D35" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E35" s="3" t="n">
         <v>0.0186</v>
       </c>
-      <c r="E35" s="3" t="n">
+      <c r="F35" s="3" t="n">
         <v>0.0184</v>
       </c>
-      <c r="F35" s="3" t="n">
+      <c r="G35" s="3" t="n">
         <v>0.0186</v>
+      </c>
+      <c r="H35" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I35" s="3" t="n">
+        <v>-0.0002</v>
+      </c>
+      <c r="J35" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K35" s="3" t="n">
+        <v>-0.0186</v>
       </c>
     </row>
     <row r="36" ht="22" customHeight="1">
@@ -1256,19 +1796,34 @@
         </is>
       </c>
       <c r="B36" s="3" t="n">
+        <v>0.0486</v>
+      </c>
+      <c r="C36" s="3" t="n">
         <v>0.0451</v>
       </c>
-      <c r="C36" s="3" t="n">
+      <c r="D36" s="3" t="n">
         <v>0.0266</v>
       </c>
-      <c r="D36" s="3" t="n">
+      <c r="E36" s="3" t="n">
         <v>0.0494</v>
       </c>
-      <c r="E36" s="3" t="n">
+      <c r="F36" s="3" t="n">
         <v>0.0496</v>
       </c>
-      <c r="F36" s="3" t="n">
+      <c r="G36" s="3" t="n">
         <v>0.0185</v>
+      </c>
+      <c r="H36" s="3" t="n">
+        <v>0.0008</v>
+      </c>
+      <c r="I36" s="3" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="J36" s="3" t="n">
+        <v>-0.0035</v>
+      </c>
+      <c r="K36" s="3" t="n">
+        <v>-0.022</v>
       </c>
     </row>
     <row r="37" ht="22" customHeight="1">
@@ -1278,19 +1833,34 @@
         </is>
       </c>
       <c r="B37" s="3" t="n">
+        <v>8.9659</v>
+      </c>
+      <c r="C37" s="3" t="n">
         <v>8.9666</v>
       </c>
-      <c r="C37" s="3" t="n">
+      <c r="D37" s="3" t="n">
         <v>8.956200000000001</v>
       </c>
-      <c r="D37" s="3" t="n">
+      <c r="E37" s="3" t="n">
         <v>8.9617</v>
       </c>
-      <c r="E37" s="3" t="n">
+      <c r="F37" s="3" t="n">
         <v>8.953900000000001</v>
       </c>
-      <c r="F37" s="3" t="n">
+      <c r="G37" s="3" t="n">
         <v>0.0104</v>
+      </c>
+      <c r="H37" s="3" t="n">
+        <v>-0.0042</v>
+      </c>
+      <c r="I37" s="3" t="n">
+        <v>-0.012</v>
+      </c>
+      <c r="J37" s="3" t="n">
+        <v>0.0007</v>
+      </c>
+      <c r="K37" s="3" t="n">
+        <v>-0.0097</v>
       </c>
     </row>
     <row r="38" ht="22" customHeight="1">
@@ -1300,19 +1870,34 @@
         </is>
       </c>
       <c r="B38" s="3" t="n">
+        <v>0.0109</v>
+      </c>
+      <c r="C38" s="3" t="n">
         <v>0.0112</v>
       </c>
-      <c r="C38" s="3" t="n">
+      <c r="D38" s="3" t="n">
         <v>0.0113</v>
       </c>
-      <c r="D38" s="3" t="n">
+      <c r="E38" s="3" t="n">
         <v>0.0109</v>
       </c>
-      <c r="E38" s="3" t="n">
+      <c r="F38" s="3" t="n">
         <v>0.0108</v>
       </c>
-      <c r="F38" s="3" t="n">
+      <c r="G38" s="3" t="n">
         <v>-0.0001</v>
+      </c>
+      <c r="H38" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I38" s="3" t="n">
+        <v>-0.0001</v>
+      </c>
+      <c r="J38" s="3" t="n">
+        <v>0.0003</v>
+      </c>
+      <c r="K38" s="3" t="n">
+        <v>0.0004</v>
       </c>
     </row>
     <row r="39" ht="22" customHeight="1">
@@ -1322,19 +1907,34 @@
         </is>
       </c>
       <c r="B39" s="3" t="n">
+        <v>0.0667</v>
+      </c>
+      <c r="C39" s="3" t="n">
         <v>0.0977</v>
       </c>
-      <c r="C39" s="3" t="n">
+      <c r="D39" s="3" t="n">
         <v>0.007900000000000001</v>
       </c>
-      <c r="D39" s="3" t="n">
+      <c r="E39" s="3" t="n">
         <v>0.0978</v>
       </c>
-      <c r="E39" s="3" t="n">
+      <c r="F39" s="3" t="n">
         <v>0.0974</v>
       </c>
-      <c r="F39" s="3" t="n">
+      <c r="G39" s="3" t="n">
         <v>0.0898</v>
+      </c>
+      <c r="H39" s="3" t="n">
+        <v>0.0311</v>
+      </c>
+      <c r="I39" s="3" t="n">
+        <v>0.0307</v>
+      </c>
+      <c r="J39" s="3" t="n">
+        <v>0.031</v>
+      </c>
+      <c r="K39" s="3" t="n">
+        <v>-0.0588</v>
       </c>
     </row>
     <row r="40" ht="22" customHeight="1">
@@ -1347,16 +1947,31 @@
         <v>0.0074</v>
       </c>
       <c r="C40" s="3" t="n">
+        <v>0.0074</v>
+      </c>
+      <c r="D40" s="3" t="n">
         <v>0.0023</v>
-      </c>
-      <c r="D40" s="3" t="n">
-        <v>0.0074</v>
       </c>
       <c r="E40" s="3" t="n">
         <v>0.0074</v>
       </c>
       <c r="F40" s="3" t="n">
+        <v>0.0074</v>
+      </c>
+      <c r="G40" s="3" t="n">
         <v>0.0051</v>
+      </c>
+      <c r="H40" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I40" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J40" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K40" s="3" t="n">
+        <v>-0.0051</v>
       </c>
     </row>
     <row r="41" ht="22" customHeight="1">
@@ -1366,19 +1981,34 @@
         </is>
       </c>
       <c r="B41" s="3" t="n">
+        <v>0.0602</v>
+      </c>
+      <c r="C41" s="3" t="n">
         <v>0.1105</v>
       </c>
-      <c r="C41" s="3" t="n">
+      <c r="D41" s="3" t="n">
         <v>0.5336</v>
       </c>
-      <c r="D41" s="3" t="n">
+      <c r="E41" s="3" t="n">
         <v>0.057</v>
       </c>
-      <c r="E41" s="3" t="n">
+      <c r="F41" s="3" t="n">
         <v>0.0611</v>
       </c>
-      <c r="F41" s="3" t="n">
+      <c r="G41" s="3" t="n">
         <v>-0.4231</v>
+      </c>
+      <c r="H41" s="3" t="n">
+        <v>-0.0032</v>
+      </c>
+      <c r="I41" s="3" t="n">
+        <v>0.0009</v>
+      </c>
+      <c r="J41" s="3" t="n">
+        <v>0.0503</v>
+      </c>
+      <c r="K41" s="3" t="n">
+        <v>0.4734</v>
       </c>
     </row>
     <row r="42" ht="22" customHeight="1">
@@ -1391,16 +2021,31 @@
         <v>0.007</v>
       </c>
       <c r="C42" s="3" t="n">
+        <v>0.007</v>
+      </c>
+      <c r="D42" s="3" t="n">
         <v>0.0071</v>
-      </c>
-      <c r="D42" s="3" t="n">
-        <v>0.0069</v>
       </c>
       <c r="E42" s="3" t="n">
         <v>0.0069</v>
       </c>
       <c r="F42" s="3" t="n">
+        <v>0.0069</v>
+      </c>
+      <c r="G42" s="3" t="n">
         <v>-0.0001</v>
+      </c>
+      <c r="H42" s="3" t="n">
+        <v>-0.0001</v>
+      </c>
+      <c r="I42" s="3" t="n">
+        <v>-0.0001</v>
+      </c>
+      <c r="J42" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K42" s="3" t="n">
+        <v>0.0001</v>
       </c>
     </row>
     <row r="43" ht="22" customHeight="1">
@@ -1410,19 +2055,34 @@
         </is>
       </c>
       <c r="B43" s="3" t="n">
+        <v>2.9139</v>
+      </c>
+      <c r="C43" s="3" t="n">
         <v>2.9264</v>
       </c>
-      <c r="C43" s="3" t="n">
+      <c r="D43" s="3" t="n">
         <v>2.9273</v>
       </c>
-      <c r="D43" s="3" t="n">
+      <c r="E43" s="3" t="n">
         <v>2.904</v>
       </c>
-      <c r="E43" s="3" t="n">
+      <c r="F43" s="3" t="n">
         <v>3.1016</v>
       </c>
-      <c r="F43" s="3" t="n">
+      <c r="G43" s="3" t="n">
         <v>-0.0009</v>
+      </c>
+      <c r="H43" s="3" t="n">
+        <v>-0.009900000000000001</v>
+      </c>
+      <c r="I43" s="3" t="n">
+        <v>0.1877</v>
+      </c>
+      <c r="J43" s="3" t="n">
+        <v>0.0125</v>
+      </c>
+      <c r="K43" s="3" t="n">
+        <v>0.0134</v>
       </c>
     </row>
     <row r="44" ht="22" customHeight="1">
@@ -1432,19 +2092,34 @@
         </is>
       </c>
       <c r="B44" s="3" t="n">
+        <v>0.0095</v>
+      </c>
+      <c r="C44" s="3" t="n">
         <v>0.0092</v>
       </c>
-      <c r="C44" s="3" t="n">
+      <c r="D44" s="3" t="n">
         <v>0.0095</v>
       </c>
-      <c r="D44" s="3" t="n">
+      <c r="E44" s="3" t="n">
         <v>0.0094</v>
       </c>
-      <c r="E44" s="3" t="n">
+      <c r="F44" s="3" t="n">
         <v>0.0092999999999999</v>
       </c>
-      <c r="F44" s="3" t="n">
+      <c r="G44" s="3" t="n">
         <v>-0.0003</v>
+      </c>
+      <c r="H44" s="3" t="n">
+        <v>-0.0001</v>
+      </c>
+      <c r="I44" s="3" t="n">
+        <v>-0.0002</v>
+      </c>
+      <c r="J44" s="3" t="n">
+        <v>-0.0003</v>
+      </c>
+      <c r="K44" s="3" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="45" ht="22" customHeight="1">
@@ -1454,19 +2129,34 @@
         </is>
       </c>
       <c r="B45" s="3" t="n">
+        <v>0.0155</v>
+      </c>
+      <c r="C45" s="3" t="n">
         <v>0.0144</v>
       </c>
-      <c r="C45" s="3" t="n">
+      <c r="D45" s="3" t="n">
         <v>0.0156</v>
       </c>
-      <c r="D45" s="3" t="n">
+      <c r="E45" s="3" t="n">
         <v>0.0154</v>
       </c>
-      <c r="E45" s="3" t="n">
+      <c r="F45" s="3" t="n">
         <v>0.0157</v>
       </c>
-      <c r="F45" s="3" t="n">
+      <c r="G45" s="3" t="n">
         <v>-0.0012</v>
+      </c>
+      <c r="H45" s="3" t="n">
+        <v>-0.0001</v>
+      </c>
+      <c r="I45" s="3" t="n">
+        <v>0.0002</v>
+      </c>
+      <c r="J45" s="3" t="n">
+        <v>-0.0011</v>
+      </c>
+      <c r="K45" s="3" t="n">
+        <v>0.0001</v>
       </c>
     </row>
     <row r="46" ht="22" customHeight="1">
@@ -1476,19 +2166,34 @@
         </is>
       </c>
       <c r="B46" s="3" t="n">
+        <v>1.0921</v>
+      </c>
+      <c r="C46" s="3" t="n">
         <v>0.7702</v>
       </c>
-      <c r="C46" s="3" t="n">
+      <c r="D46" s="3" t="n">
         <v>1.1017</v>
       </c>
-      <c r="D46" s="3" t="n">
+      <c r="E46" s="3" t="n">
         <v>0.868</v>
       </c>
-      <c r="E46" s="3" t="n">
+      <c r="F46" s="3" t="n">
         <v>1.0789</v>
       </c>
-      <c r="F46" s="3" t="n">
+      <c r="G46" s="3" t="n">
         <v>-0.3315</v>
+      </c>
+      <c r="H46" s="3" t="n">
+        <v>-0.2241</v>
+      </c>
+      <c r="I46" s="3" t="n">
+        <v>-0.0132</v>
+      </c>
+      <c r="J46" s="3" t="n">
+        <v>-0.3219</v>
+      </c>
+      <c r="K46" s="3" t="n">
+        <v>0.009599999999999999</v>
       </c>
     </row>
     <row r="47" ht="22" customHeight="1">
@@ -1501,16 +2206,31 @@
         <v>0.0075</v>
       </c>
       <c r="C47" s="3" t="n">
+        <v>0.0075</v>
+      </c>
+      <c r="D47" s="3" t="n">
         <v>0.0072</v>
       </c>
-      <c r="D47" s="3" t="n">
+      <c r="E47" s="3" t="n">
         <v>0.0076</v>
       </c>
-      <c r="E47" s="3" t="n">
+      <c r="F47" s="3" t="n">
         <v>0.0075</v>
       </c>
-      <c r="F47" s="3" t="n">
+      <c r="G47" s="3" t="n">
         <v>0.0003</v>
+      </c>
+      <c r="H47" s="3" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="I47" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J47" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K47" s="3" t="n">
+        <v>-0.0003</v>
       </c>
     </row>
     <row r="48" ht="22" customHeight="1">
@@ -1523,16 +2243,31 @@
         <v>0.0066</v>
       </c>
       <c r="C48" s="3" t="n">
+        <v>0.0066</v>
+      </c>
+      <c r="D48" s="3" t="n">
         <v>0.0064</v>
-      </c>
-      <c r="D48" s="3" t="n">
-        <v>0.0066</v>
       </c>
       <c r="E48" s="3" t="n">
         <v>0.0066</v>
       </c>
       <c r="F48" s="3" t="n">
+        <v>0.0066</v>
+      </c>
+      <c r="G48" s="3" t="n">
         <v>0.0002</v>
+      </c>
+      <c r="H48" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I48" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J48" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K48" s="3" t="n">
+        <v>-0.0002</v>
       </c>
     </row>
     <row r="49" ht="22" customHeight="1">
@@ -1542,19 +2277,34 @@
         </is>
       </c>
       <c r="B49" s="3" t="n">
+        <v>0.0073</v>
+      </c>
+      <c r="C49" s="3" t="n">
         <v>0.0074</v>
       </c>
-      <c r="C49" s="3" t="n">
+      <c r="D49" s="3" t="n">
         <v>0.0072</v>
       </c>
-      <c r="D49" s="3" t="n">
+      <c r="E49" s="3" t="n">
         <v>0.0075</v>
       </c>
-      <c r="E49" s="3" t="n">
+      <c r="F49" s="3" t="n">
         <v>0.0073</v>
       </c>
-      <c r="F49" s="3" t="n">
+      <c r="G49" s="3" t="n">
         <v>0.0002</v>
+      </c>
+      <c r="H49" s="3" t="n">
+        <v>0.0002</v>
+      </c>
+      <c r="I49" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J49" s="3" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="K49" s="3" t="n">
+        <v>-0.0001</v>
       </c>
     </row>
     <row r="50" ht="22" customHeight="1">
@@ -1564,19 +2314,34 @@
         </is>
       </c>
       <c r="B50" s="3" t="n">
+        <v>0.0077</v>
+      </c>
+      <c r="C50" s="3" t="n">
         <v>0.0078</v>
       </c>
-      <c r="C50" s="3" t="n">
+      <c r="D50" s="3" t="n">
         <v>0.007900000000000001</v>
       </c>
-      <c r="D50" s="3" t="n">
+      <c r="E50" s="3" t="n">
         <v>0.0076</v>
       </c>
-      <c r="E50" s="3" t="n">
+      <c r="F50" s="3" t="n">
         <v>0.0078</v>
       </c>
-      <c r="F50" s="3" t="n">
+      <c r="G50" s="3" t="n">
         <v>-0.0001</v>
+      </c>
+      <c r="H50" s="3" t="n">
+        <v>-0.0001</v>
+      </c>
+      <c r="I50" s="3" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="J50" s="3" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="K50" s="3" t="n">
+        <v>0.0002</v>
       </c>
     </row>
     <row r="51" ht="22" customHeight="1">
@@ -1589,16 +2354,31 @@
         <v>0.0069</v>
       </c>
       <c r="C51" s="3" t="n">
+        <v>0.0069</v>
+      </c>
+      <c r="D51" s="3" t="n">
         <v>0.007</v>
-      </c>
-      <c r="D51" s="3" t="n">
-        <v>0.0069</v>
       </c>
       <c r="E51" s="3" t="n">
         <v>0.0069</v>
       </c>
       <c r="F51" s="3" t="n">
+        <v>0.0069</v>
+      </c>
+      <c r="G51" s="3" t="n">
         <v>-0.0001</v>
+      </c>
+      <c r="H51" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I51" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J51" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K51" s="3" t="n">
+        <v>0.0001</v>
       </c>
     </row>
     <row r="52" ht="22" customHeight="1">
@@ -1608,19 +2388,34 @@
         </is>
       </c>
       <c r="B52" s="3" t="n">
-        <v>0.0064</v>
+        <v>0.0063</v>
       </c>
       <c r="C52" s="3" t="n">
         <v>0.0064</v>
       </c>
       <c r="D52" s="3" t="n">
+        <v>0.0064</v>
+      </c>
+      <c r="E52" s="3" t="n">
         <v>0.0063</v>
       </c>
-      <c r="E52" s="3" t="n">
+      <c r="F52" s="3" t="n">
         <v>0.0064</v>
       </c>
-      <c r="F52" s="3" t="n">
-        <v>0</v>
+      <c r="G52" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H52" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I52" s="3" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="J52" s="3" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="K52" s="3" t="n">
+        <v>0.0001</v>
       </c>
     </row>
     <row r="53" ht="22" customHeight="1">
@@ -1630,19 +2425,34 @@
         </is>
       </c>
       <c r="B53" s="3" t="n">
-        <v>0.0066</v>
+        <v>0.0067</v>
       </c>
       <c r="C53" s="3" t="n">
         <v>0.0066</v>
       </c>
       <c r="D53" s="3" t="n">
+        <v>0.0066</v>
+      </c>
+      <c r="E53" s="3" t="n">
         <v>0.0067</v>
       </c>
-      <c r="E53" s="3" t="n">
+      <c r="F53" s="3" t="n">
         <v>0.0066</v>
       </c>
-      <c r="F53" s="3" t="n">
-        <v>0</v>
+      <c r="G53" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H53" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I53" s="3" t="n">
+        <v>-0.0001</v>
+      </c>
+      <c r="J53" s="3" t="n">
+        <v>-0.0001</v>
+      </c>
+      <c r="K53" s="3" t="n">
+        <v>-0.0001</v>
       </c>
     </row>
     <row r="54" ht="22" customHeight="1">
@@ -1652,19 +2462,34 @@
         </is>
       </c>
       <c r="B54" s="3" t="n">
+        <v>0.0071</v>
+      </c>
+      <c r="C54" s="3" t="n">
         <v>0.007</v>
       </c>
-      <c r="C54" s="3" t="n">
+      <c r="D54" s="3" t="n">
         <v>0.0069</v>
-      </c>
-      <c r="D54" s="3" t="n">
-        <v>0.007</v>
       </c>
       <c r="E54" s="3" t="n">
         <v>0.007</v>
       </c>
       <c r="F54" s="3" t="n">
-        <v>0.0001</v>
+        <v>0.007</v>
+      </c>
+      <c r="G54" s="3" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="H54" s="3" t="n">
+        <v>-0.0001</v>
+      </c>
+      <c r="I54" s="3" t="n">
+        <v>-0.0001</v>
+      </c>
+      <c r="J54" s="3" t="n">
+        <v>-0.0001</v>
+      </c>
+      <c r="K54" s="3" t="n">
+        <v>-0.0002</v>
       </c>
     </row>
     <row r="55" ht="22" customHeight="1">
@@ -1674,19 +2499,34 @@
         </is>
       </c>
       <c r="B55" s="3" t="n">
+        <v>2.341</v>
+      </c>
+      <c r="C55" s="3" t="n">
         <v>2.0088</v>
       </c>
-      <c r="C55" s="3" t="n">
+      <c r="D55" s="3" t="n">
         <v>2.0054</v>
       </c>
-      <c r="D55" s="3" t="n">
+      <c r="E55" s="3" t="n">
         <v>2.0091</v>
       </c>
-      <c r="E55" s="3" t="n">
+      <c r="F55" s="3" t="n">
         <v>32.7888</v>
       </c>
-      <c r="F55" s="3" t="n">
+      <c r="G55" s="3" t="n">
         <v>0.0034</v>
+      </c>
+      <c r="H55" s="3" t="n">
+        <v>-0.3319</v>
+      </c>
+      <c r="I55" s="5" t="n">
+        <v>30.4478</v>
+      </c>
+      <c r="J55" s="3" t="n">
+        <v>-0.3322</v>
+      </c>
+      <c r="K55" s="3" t="n">
+        <v>-0.3356</v>
       </c>
     </row>
     <row r="56" ht="22" customHeight="1">
@@ -1696,19 +2536,34 @@
         </is>
       </c>
       <c r="B56" s="3" t="n">
+        <v>0.0109</v>
+      </c>
+      <c r="C56" s="3" t="n">
         <v>0.0092</v>
-      </c>
-      <c r="C56" s="3" t="n">
-        <v>0.0101</v>
       </c>
       <c r="D56" s="3" t="n">
         <v>0.0101</v>
       </c>
       <c r="E56" s="3" t="n">
+        <v>0.0101</v>
+      </c>
+      <c r="F56" s="3" t="n">
         <v>0.0109</v>
       </c>
-      <c r="F56" s="3" t="n">
+      <c r="G56" s="3" t="n">
         <v>-0.0009</v>
+      </c>
+      <c r="H56" s="3" t="n">
+        <v>-0.0008</v>
+      </c>
+      <c r="I56" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J56" s="3" t="n">
+        <v>-0.0017</v>
+      </c>
+      <c r="K56" s="3" t="n">
+        <v>-0.0008</v>
       </c>
     </row>
     <row r="57" ht="22" customHeight="1">
@@ -1718,19 +2573,34 @@
         </is>
       </c>
       <c r="B57" s="3" t="n">
-        <v>0.0073</v>
+        <v>0.0076</v>
       </c>
       <c r="C57" s="3" t="n">
         <v>0.0073</v>
       </c>
       <c r="D57" s="3" t="n">
+        <v>0.0073</v>
+      </c>
+      <c r="E57" s="3" t="n">
         <v>0.0074</v>
       </c>
-      <c r="E57" s="3" t="n">
+      <c r="F57" s="3" t="n">
         <v>0.0092</v>
       </c>
-      <c r="F57" s="3" t="n">
-        <v>0</v>
+      <c r="G57" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H57" s="3" t="n">
+        <v>-0.0002</v>
+      </c>
+      <c r="I57" s="3" t="n">
+        <v>0.0016</v>
+      </c>
+      <c r="J57" s="3" t="n">
+        <v>-0.0003</v>
+      </c>
+      <c r="K57" s="3" t="n">
+        <v>-0.0003</v>
       </c>
     </row>
     <row r="58" ht="22" customHeight="1">
@@ -1740,19 +2610,34 @@
         </is>
       </c>
       <c r="B58" s="3" t="n">
+        <v>0.0073</v>
+      </c>
+      <c r="C58" s="3" t="n">
         <v>0.0072</v>
       </c>
-      <c r="C58" s="3" t="n">
+      <c r="D58" s="3" t="n">
         <v>0.0071</v>
       </c>
-      <c r="D58" s="3" t="n">
+      <c r="E58" s="3" t="n">
         <v>0.007</v>
       </c>
-      <c r="E58" s="3" t="n">
+      <c r="F58" s="3" t="n">
         <v>0.0074</v>
       </c>
-      <c r="F58" s="3" t="n">
-        <v>0.0001</v>
+      <c r="G58" s="3" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="H58" s="3" t="n">
+        <v>-0.0003</v>
+      </c>
+      <c r="I58" s="3" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="J58" s="3" t="n">
+        <v>-0.0001</v>
+      </c>
+      <c r="K58" s="3" t="n">
+        <v>-0.0002</v>
       </c>
     </row>
     <row r="59" ht="22" customHeight="1">
@@ -1762,19 +2647,34 @@
         </is>
       </c>
       <c r="B59" s="3" t="n">
-        <v>0.0083</v>
+        <v>0.008800000000000001</v>
       </c>
       <c r="C59" s="3" t="n">
         <v>0.0083</v>
       </c>
       <c r="D59" s="3" t="n">
+        <v>0.0083</v>
+      </c>
+      <c r="E59" s="3" t="n">
         <v>0.008399999999999901</v>
       </c>
-      <c r="E59" s="3" t="n">
+      <c r="F59" s="3" t="n">
         <v>0.0086</v>
       </c>
-      <c r="F59" s="3" t="n">
-        <v>0</v>
+      <c r="G59" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H59" s="3" t="n">
+        <v>-0.0004</v>
+      </c>
+      <c r="I59" s="3" t="n">
+        <v>-0.0002</v>
+      </c>
+      <c r="J59" s="3" t="n">
+        <v>-0.0005</v>
+      </c>
+      <c r="K59" s="3" t="n">
+        <v>-0.0005</v>
       </c>
     </row>
     <row r="60" ht="22" customHeight="1">
@@ -1790,12 +2690,27 @@
         <v>0.008500000000000001</v>
       </c>
       <c r="D60" s="3" t="n">
+        <v>0.008500000000000001</v>
+      </c>
+      <c r="E60" s="3" t="n">
         <v>0.0086</v>
       </c>
-      <c r="E60" s="3" t="n">
+      <c r="F60" s="3" t="n">
         <v>0.0092</v>
       </c>
-      <c r="F60" s="3" t="n">
+      <c r="G60" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H60" s="3" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="I60" s="3" t="n">
+        <v>0.0007</v>
+      </c>
+      <c r="J60" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K60" s="3" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1806,19 +2721,34 @@
         </is>
       </c>
       <c r="B61" s="3" t="n">
-        <v>0.0078</v>
+        <v>0.008200000000000001</v>
       </c>
       <c r="C61" s="3" t="n">
         <v>0.0078</v>
       </c>
       <c r="D61" s="3" t="n">
+        <v>0.0078</v>
+      </c>
+      <c r="E61" s="3" t="n">
         <v>0.0077</v>
       </c>
-      <c r="E61" s="3" t="n">
+      <c r="F61" s="3" t="n">
         <v>0.0083</v>
       </c>
-      <c r="F61" s="3" t="n">
-        <v>0</v>
+      <c r="G61" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H61" s="3" t="n">
+        <v>-0.0005</v>
+      </c>
+      <c r="I61" s="3" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="J61" s="3" t="n">
+        <v>-0.0004</v>
+      </c>
+      <c r="K61" s="3" t="n">
+        <v>-0.0004</v>
       </c>
     </row>
     <row r="62" ht="22" customHeight="1">
@@ -1828,19 +2758,34 @@
         </is>
       </c>
       <c r="B62" s="3" t="n">
+        <v>0.6926</v>
+      </c>
+      <c r="C62" s="3" t="n">
         <v>0.6924</v>
       </c>
-      <c r="C62" s="3" t="n">
+      <c r="D62" s="3" t="n">
         <v>0.6949</v>
       </c>
-      <c r="D62" s="3" t="n">
+      <c r="E62" s="3" t="n">
         <v>0.6946</v>
       </c>
-      <c r="E62" s="3" t="n">
+      <c r="F62" s="3" t="n">
         <v>0.6943</v>
       </c>
-      <c r="F62" s="3" t="n">
+      <c r="G62" s="3" t="n">
         <v>-0.0025</v>
+      </c>
+      <c r="H62" s="3" t="n">
+        <v>0.002</v>
+      </c>
+      <c r="I62" s="3" t="n">
+        <v>0.0017</v>
+      </c>
+      <c r="J62" s="3" t="n">
+        <v>-0.0002</v>
+      </c>
+      <c r="K62" s="3" t="n">
+        <v>0.0023</v>
       </c>
     </row>
     <row r="63" ht="22" customHeight="1">
@@ -1850,19 +2795,34 @@
         </is>
       </c>
       <c r="B63" s="3" t="n">
+        <v>0.0327</v>
+      </c>
+      <c r="C63" s="3" t="n">
         <v>0.0309</v>
       </c>
-      <c r="C63" s="3" t="n">
+      <c r="D63" s="3" t="n">
         <v>0.0322</v>
       </c>
-      <c r="D63" s="3" t="n">
+      <c r="E63" s="3" t="n">
         <v>0.0325</v>
       </c>
-      <c r="E63" s="3" t="n">
+      <c r="F63" s="3" t="n">
         <v>0.0328</v>
       </c>
-      <c r="F63" s="3" t="n">
+      <c r="G63" s="3" t="n">
         <v>-0.0013</v>
+      </c>
+      <c r="H63" s="3" t="n">
+        <v>-0.0002</v>
+      </c>
+      <c r="I63" s="3" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="J63" s="3" t="n">
+        <v>-0.0018</v>
+      </c>
+      <c r="K63" s="3" t="n">
+        <v>-0.0005</v>
       </c>
     </row>
     <row r="64" ht="22" customHeight="1">
@@ -1872,19 +2832,34 @@
         </is>
       </c>
       <c r="B64" s="3" t="n">
+        <v>2.9001</v>
+      </c>
+      <c r="C64" s="3" t="n">
         <v>2.9306</v>
       </c>
-      <c r="C64" s="3" t="n">
+      <c r="D64" s="3" t="n">
         <v>2.8373</v>
       </c>
-      <c r="D64" s="3" t="n">
+      <c r="E64" s="3" t="n">
         <v>2.9939</v>
       </c>
-      <c r="E64" s="3" t="n">
+      <c r="F64" s="3" t="n">
         <v>2.8678</v>
       </c>
-      <c r="F64" s="3" t="n">
+      <c r="G64" s="3" t="n">
         <v>0.09329999999999999</v>
+      </c>
+      <c r="H64" s="3" t="n">
+        <v>0.09379999999999999</v>
+      </c>
+      <c r="I64" s="3" t="n">
+        <v>-0.0323</v>
+      </c>
+      <c r="J64" s="3" t="n">
+        <v>0.0305</v>
+      </c>
+      <c r="K64" s="3" t="n">
+        <v>-0.06279999999999999</v>
       </c>
     </row>
     <row r="65" ht="22" customHeight="1">
@@ -1894,19 +2869,34 @@
         </is>
       </c>
       <c r="B65" s="3" t="n">
+        <v>0.0083</v>
+      </c>
+      <c r="C65" s="3" t="n">
         <v>0.0058</v>
       </c>
-      <c r="C65" s="3" t="n">
+      <c r="D65" s="3" t="n">
         <v>0.008699999999999901</v>
       </c>
-      <c r="D65" s="3" t="n">
+      <c r="E65" s="3" t="n">
         <v>0.0081</v>
       </c>
-      <c r="E65" s="3" t="n">
+      <c r="F65" s="3" t="n">
         <v>0.0056</v>
       </c>
-      <c r="F65" s="3" t="n">
+      <c r="G65" s="3" t="n">
         <v>-0.0029</v>
+      </c>
+      <c r="H65" s="3" t="n">
+        <v>-0.0002</v>
+      </c>
+      <c r="I65" s="3" t="n">
+        <v>-0.0027</v>
+      </c>
+      <c r="J65" s="3" t="n">
+        <v>-0.0025</v>
+      </c>
+      <c r="K65" s="3" t="n">
+        <v>0.0004</v>
       </c>
     </row>
     <row r="66" ht="22" customHeight="1">
@@ -1916,19 +2906,34 @@
         </is>
       </c>
       <c r="B66" s="3" t="n">
+        <v>0.0228</v>
+      </c>
+      <c r="C66" s="3" t="n">
         <v>0.0229</v>
-      </c>
-      <c r="C66" s="3" t="n">
-        <v>0.0228</v>
       </c>
       <c r="D66" s="3" t="n">
         <v>0.0228</v>
       </c>
       <c r="E66" s="3" t="n">
+        <v>0.0228</v>
+      </c>
+      <c r="F66" s="3" t="n">
         <v>0.0226</v>
       </c>
-      <c r="F66" s="3" t="n">
-        <v>0.0001</v>
+      <c r="G66" s="3" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="H66" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I66" s="3" t="n">
+        <v>-0.0002</v>
+      </c>
+      <c r="J66" s="3" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="K66" s="3" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="67" ht="22" customHeight="1">
@@ -1941,16 +2946,31 @@
         <v>0.01</v>
       </c>
       <c r="C67" s="3" t="n">
-        <v>0.009900000000000001</v>
+        <v>0.01</v>
       </c>
       <c r="D67" s="3" t="n">
         <v>0.009900000000000001</v>
       </c>
       <c r="E67" s="3" t="n">
+        <v>0.009900000000000001</v>
+      </c>
+      <c r="F67" s="3" t="n">
         <v>0.01</v>
       </c>
-      <c r="F67" s="3" t="n">
-        <v>0.0001</v>
+      <c r="G67" s="3" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="H67" s="3" t="n">
+        <v>-0.0001</v>
+      </c>
+      <c r="I67" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J67" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K67" s="3" t="n">
+        <v>-0.0001</v>
       </c>
     </row>
     <row r="68" ht="22" customHeight="1">
@@ -1960,19 +2980,34 @@
         </is>
       </c>
       <c r="B68" s="3" t="n">
+        <v>0.0151</v>
+      </c>
+      <c r="C68" s="3" t="n">
         <v>0.015</v>
       </c>
-      <c r="C68" s="3" t="n">
+      <c r="D68" s="3" t="n">
         <v>0.0149</v>
       </c>
-      <c r="D68" s="3" t="n">
+      <c r="E68" s="3" t="n">
         <v>0.015</v>
       </c>
-      <c r="E68" s="3" t="n">
+      <c r="F68" s="3" t="n">
         <v>0.0149</v>
       </c>
-      <c r="F68" s="3" t="n">
-        <v>0.0001</v>
+      <c r="G68" s="3" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="H68" s="3" t="n">
+        <v>-0.0001</v>
+      </c>
+      <c r="I68" s="3" t="n">
+        <v>-0.0002</v>
+      </c>
+      <c r="J68" s="3" t="n">
+        <v>-0.0001</v>
+      </c>
+      <c r="K68" s="3" t="n">
+        <v>-0.0002</v>
       </c>
     </row>
     <row r="69" ht="22" customHeight="1">
@@ -1982,19 +3017,34 @@
         </is>
       </c>
       <c r="B69" s="3" t="n">
+        <v>0.0627999999999999</v>
+      </c>
+      <c r="C69" s="3" t="n">
         <v>0.06320000000000001</v>
       </c>
-      <c r="C69" s="3" t="n">
+      <c r="D69" s="3" t="n">
         <v>0.0634</v>
       </c>
-      <c r="D69" s="3" t="n">
+      <c r="E69" s="3" t="n">
         <v>0.0633</v>
       </c>
-      <c r="E69" s="3" t="n">
+      <c r="F69" s="3" t="n">
         <v>0.065</v>
       </c>
-      <c r="F69" s="3" t="n">
+      <c r="G69" s="3" t="n">
         <v>-0.0002</v>
+      </c>
+      <c r="H69" s="3" t="n">
+        <v>0.0005</v>
+      </c>
+      <c r="I69" s="3" t="n">
+        <v>0.0022</v>
+      </c>
+      <c r="J69" s="3" t="n">
+        <v>0.0004</v>
+      </c>
+      <c r="K69" s="3" t="n">
+        <v>0.0005999999999999999</v>
       </c>
     </row>
     <row r="70" ht="22" customHeight="1">
@@ -2004,7 +3054,7 @@
         </is>
       </c>
       <c r="B70" s="3" t="n">
-        <v>0.0145</v>
+        <v>0.0146</v>
       </c>
       <c r="C70" s="3" t="n">
         <v>0.0145</v>
@@ -2013,10 +3063,25 @@
         <v>0.0145</v>
       </c>
       <c r="E70" s="3" t="n">
+        <v>0.0145</v>
+      </c>
+      <c r="F70" s="3" t="n">
         <v>0.0146</v>
       </c>
-      <c r="F70" s="3" t="n">
-        <v>0</v>
+      <c r="G70" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H70" s="3" t="n">
+        <v>-0.0001</v>
+      </c>
+      <c r="I70" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J70" s="3" t="n">
+        <v>-0.0001</v>
+      </c>
+      <c r="K70" s="3" t="n">
+        <v>-0.0001</v>
       </c>
     </row>
     <row r="71" ht="22" customHeight="1">
@@ -2026,19 +3091,34 @@
         </is>
       </c>
       <c r="B71" s="3" t="n">
+        <v>0.0313</v>
+      </c>
+      <c r="C71" s="3" t="n">
         <v>0.029</v>
       </c>
-      <c r="C71" s="3" t="n">
+      <c r="D71" s="3" t="n">
         <v>0.0314</v>
       </c>
-      <c r="D71" s="3" t="n">
+      <c r="E71" s="3" t="n">
         <v>0.0317</v>
       </c>
-      <c r="E71" s="3" t="n">
+      <c r="F71" s="3" t="n">
         <v>0.0315</v>
       </c>
-      <c r="F71" s="3" t="n">
+      <c r="G71" s="3" t="n">
         <v>-0.0024</v>
+      </c>
+      <c r="H71" s="3" t="n">
+        <v>0.0004</v>
+      </c>
+      <c r="I71" s="3" t="n">
+        <v>0.0002</v>
+      </c>
+      <c r="J71" s="3" t="n">
+        <v>-0.0023</v>
+      </c>
+      <c r="K71" s="3" t="n">
+        <v>0.0001</v>
       </c>
     </row>
     <row r="72" ht="22" customHeight="1">
@@ -2048,19 +3128,34 @@
         </is>
       </c>
       <c r="B72" s="3" t="n">
+        <v>8.7461</v>
+      </c>
+      <c r="C72" s="3" t="n">
         <v>8.7059</v>
       </c>
-      <c r="C72" s="3" t="n">
+      <c r="D72" s="3" t="n">
         <v>8.7416</v>
       </c>
-      <c r="D72" s="3" t="n">
+      <c r="E72" s="3" t="n">
         <v>8.7272</v>
       </c>
-      <c r="E72" s="3" t="n">
+      <c r="F72" s="3" t="n">
         <v>8.698399999999999</v>
       </c>
-      <c r="F72" s="3" t="n">
+      <c r="G72" s="3" t="n">
         <v>-0.0357</v>
+      </c>
+      <c r="H72" s="3" t="n">
+        <v>-0.0189</v>
+      </c>
+      <c r="I72" s="3" t="n">
+        <v>-0.0477</v>
+      </c>
+      <c r="J72" s="3" t="n">
+        <v>-0.0402</v>
+      </c>
+      <c r="K72" s="3" t="n">
+        <v>-0.0045</v>
       </c>
     </row>
     <row r="73" ht="22" customHeight="1">
@@ -2070,19 +3165,34 @@
         </is>
       </c>
       <c r="B73" s="3" t="n">
+        <v>0.0532</v>
+      </c>
+      <c r="C73" s="3" t="n">
         <v>0.0515</v>
       </c>
-      <c r="C73" s="3" t="n">
+      <c r="D73" s="3" t="n">
         <v>0.0531</v>
       </c>
-      <c r="D73" s="3" t="n">
+      <c r="E73" s="3" t="n">
         <v>0.0536</v>
       </c>
-      <c r="E73" s="3" t="n">
+      <c r="F73" s="3" t="n">
         <v>0.0539</v>
       </c>
-      <c r="F73" s="3" t="n">
+      <c r="G73" s="3" t="n">
         <v>-0.0016</v>
+      </c>
+      <c r="H73" s="3" t="n">
+        <v>0.0004</v>
+      </c>
+      <c r="I73" s="3" t="n">
+        <v>0.0007</v>
+      </c>
+      <c r="J73" s="3" t="n">
+        <v>-0.0017</v>
+      </c>
+      <c r="K73" s="3" t="n">
+        <v>-0.0001</v>
       </c>
     </row>
     <row r="74" ht="22" customHeight="1">
@@ -2092,18 +3202,33 @@
         </is>
       </c>
       <c r="B74" s="3" t="n">
+        <v>0.0103</v>
+      </c>
+      <c r="C74" s="3" t="n">
         <v>0.0105</v>
-      </c>
-      <c r="C74" s="3" t="n">
-        <v>0.0104</v>
       </c>
       <c r="D74" s="3" t="n">
         <v>0.0104</v>
       </c>
       <c r="E74" s="3" t="n">
+        <v>0.0104</v>
+      </c>
+      <c r="F74" s="3" t="n">
         <v>0.0105</v>
       </c>
-      <c r="F74" s="3" t="n">
+      <c r="G74" s="3" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="H74" s="3" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="I74" s="3" t="n">
+        <v>0.0002</v>
+      </c>
+      <c r="J74" s="3" t="n">
+        <v>0.0002</v>
+      </c>
+      <c r="K74" s="3" t="n">
         <v>0.0001</v>
       </c>
     </row>
@@ -2114,19 +3239,34 @@
         </is>
       </c>
       <c r="B75" s="3" t="n">
+        <v>2.5141</v>
+      </c>
+      <c r="C75" s="3" t="n">
         <v>2.5181</v>
       </c>
-      <c r="C75" s="3" t="n">
+      <c r="D75" s="3" t="n">
         <v>2.5124</v>
       </c>
-      <c r="D75" s="3" t="n">
+      <c r="E75" s="3" t="n">
         <v>2.535</v>
       </c>
-      <c r="E75" s="3" t="n">
+      <c r="F75" s="3" t="n">
         <v>2.5277</v>
       </c>
-      <c r="F75" s="3" t="n">
+      <c r="G75" s="3" t="n">
         <v>0.0057</v>
+      </c>
+      <c r="H75" s="3" t="n">
+        <v>0.0209</v>
+      </c>
+      <c r="I75" s="3" t="n">
+        <v>0.0136</v>
+      </c>
+      <c r="J75" s="3" t="n">
+        <v>0.004</v>
+      </c>
+      <c r="K75" s="3" t="n">
+        <v>-0.0017</v>
       </c>
     </row>
     <row r="76" ht="22" customHeight="1">
@@ -2136,19 +3276,34 @@
         </is>
       </c>
       <c r="B76" s="3" t="n">
+        <v>1.5424</v>
+      </c>
+      <c r="C76" s="3" t="n">
         <v>1.5416</v>
       </c>
-      <c r="C76" s="3" t="n">
+      <c r="D76" s="3" t="n">
         <v>1.5502</v>
       </c>
-      <c r="D76" s="3" t="n">
+      <c r="E76" s="3" t="n">
         <v>1.5391</v>
       </c>
-      <c r="E76" s="3" t="n">
+      <c r="F76" s="3" t="n">
         <v>1.5295</v>
       </c>
-      <c r="F76" s="3" t="n">
+      <c r="G76" s="3" t="n">
         <v>-0.0086</v>
+      </c>
+      <c r="H76" s="3" t="n">
+        <v>-0.0033</v>
+      </c>
+      <c r="I76" s="3" t="n">
+        <v>-0.0129</v>
+      </c>
+      <c r="J76" s="3" t="n">
+        <v>-0.0008</v>
+      </c>
+      <c r="K76" s="3" t="n">
+        <v>0.0078</v>
       </c>
     </row>
     <row r="77" ht="22" customHeight="1">
@@ -2158,19 +3313,34 @@
         </is>
       </c>
       <c r="B77" s="3" t="n">
+        <v>1.4938</v>
+      </c>
+      <c r="C77" s="3" t="n">
         <v>1.4881</v>
       </c>
-      <c r="C77" s="3" t="n">
+      <c r="D77" s="3" t="n">
         <v>1.5122</v>
       </c>
-      <c r="D77" s="3" t="n">
+      <c r="E77" s="3" t="n">
         <v>1.4889</v>
       </c>
-      <c r="E77" s="3" t="n">
+      <c r="F77" s="3" t="n">
         <v>1.4929</v>
       </c>
-      <c r="F77" s="3" t="n">
+      <c r="G77" s="3" t="n">
         <v>-0.0241</v>
+      </c>
+      <c r="H77" s="3" t="n">
+        <v>-0.0049</v>
+      </c>
+      <c r="I77" s="3" t="n">
+        <v>-0.0009</v>
+      </c>
+      <c r="J77" s="3" t="n">
+        <v>-0.0057</v>
+      </c>
+      <c r="K77" s="3" t="n">
+        <v>0.0184</v>
       </c>
     </row>
     <row r="78" ht="22" customHeight="1">
@@ -2183,16 +3353,31 @@
         <v>2.002</v>
       </c>
       <c r="C78" s="3" t="n">
+        <v>2.002</v>
+      </c>
+      <c r="D78" s="3" t="n">
         <v>2.0144</v>
       </c>
-      <c r="D78" s="3" t="n">
+      <c r="E78" s="3" t="n">
         <v>2.0053</v>
       </c>
-      <c r="E78" s="3" t="n">
+      <c r="F78" s="3" t="n">
         <v>1.9996</v>
       </c>
-      <c r="F78" s="3" t="n">
+      <c r="G78" s="3" t="n">
         <v>-0.0124</v>
+      </c>
+      <c r="H78" s="3" t="n">
+        <v>0.0033</v>
+      </c>
+      <c r="I78" s="3" t="n">
+        <v>-0.0024</v>
+      </c>
+      <c r="J78" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K78" s="3" t="n">
+        <v>0.0124</v>
       </c>
     </row>
     <row r="79" ht="22" customHeight="1">
@@ -2202,10 +3387,10 @@
         </is>
       </c>
       <c r="B79" s="3" t="n">
+        <v>0.011</v>
+      </c>
+      <c r="C79" s="3" t="n">
         <v>0.0107</v>
-      </c>
-      <c r="C79" s="3" t="n">
-        <v>0.0109</v>
       </c>
       <c r="D79" s="3" t="n">
         <v>0.0109</v>
@@ -2214,7 +3399,22 @@
         <v>0.0109</v>
       </c>
       <c r="F79" s="3" t="n">
+        <v>0.0109</v>
+      </c>
+      <c r="G79" s="3" t="n">
         <v>-0.0002</v>
+      </c>
+      <c r="H79" s="3" t="n">
+        <v>-0.0001</v>
+      </c>
+      <c r="I79" s="3" t="n">
+        <v>-0.0001</v>
+      </c>
+      <c r="J79" s="3" t="n">
+        <v>-0.0003</v>
+      </c>
+      <c r="K79" s="3" t="n">
+        <v>-0.0001</v>
       </c>
     </row>
     <row r="80" ht="22" customHeight="1">
@@ -2224,19 +3424,34 @@
         </is>
       </c>
       <c r="B80" s="3" t="n">
+        <v>0.0457</v>
+      </c>
+      <c r="C80" s="3" t="n">
         <v>0.0463</v>
       </c>
-      <c r="C80" s="3" t="n">
+      <c r="D80" s="3" t="n">
         <v>0.0488</v>
       </c>
-      <c r="D80" s="3" t="n">
+      <c r="E80" s="3" t="n">
         <v>0.0468</v>
       </c>
-      <c r="E80" s="3" t="n">
+      <c r="F80" s="3" t="n">
         <v>0.0462</v>
       </c>
-      <c r="F80" s="3" t="n">
+      <c r="G80" s="3" t="n">
         <v>-0.0025</v>
+      </c>
+      <c r="H80" s="3" t="n">
+        <v>0.0011</v>
+      </c>
+      <c r="I80" s="3" t="n">
+        <v>0.0005</v>
+      </c>
+      <c r="J80" s="3" t="n">
+        <v>0.0005999999999999999</v>
+      </c>
+      <c r="K80" s="3" t="n">
+        <v>0.0031</v>
       </c>
     </row>
     <row r="81" ht="22" customHeight="1">
@@ -2249,16 +3464,31 @@
         <v>0.008399999999999901</v>
       </c>
       <c r="C81" s="3" t="n">
+        <v>0.008399999999999901</v>
+      </c>
+      <c r="D81" s="3" t="n">
         <v>0.0066</v>
-      </c>
-      <c r="D81" s="3" t="n">
-        <v>0.0083</v>
       </c>
       <c r="E81" s="3" t="n">
         <v>0.0083</v>
       </c>
       <c r="F81" s="3" t="n">
+        <v>0.0083</v>
+      </c>
+      <c r="G81" s="3" t="n">
         <v>0.0018</v>
+      </c>
+      <c r="H81" s="3" t="n">
+        <v>-0.0001</v>
+      </c>
+      <c r="I81" s="3" t="n">
+        <v>-0.0001</v>
+      </c>
+      <c r="J81" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K81" s="3" t="n">
+        <v>-0.0018</v>
       </c>
     </row>
     <row r="82" ht="22" customHeight="1">
@@ -2268,19 +3498,34 @@
         </is>
       </c>
       <c r="B82" s="3" t="n">
+        <v>0.0339</v>
+      </c>
+      <c r="C82" s="3" t="n">
         <v>0.0348</v>
       </c>
-      <c r="C82" s="3" t="n">
+      <c r="D82" s="3" t="n">
         <v>0.015</v>
       </c>
-      <c r="D82" s="3" t="n">
+      <c r="E82" s="3" t="n">
         <v>0.0343</v>
       </c>
-      <c r="E82" s="3" t="n">
+      <c r="F82" s="3" t="n">
         <v>0.0346</v>
       </c>
-      <c r="F82" s="3" t="n">
+      <c r="G82" s="3" t="n">
         <v>0.0198</v>
+      </c>
+      <c r="H82" s="3" t="n">
+        <v>0.0004</v>
+      </c>
+      <c r="I82" s="3" t="n">
+        <v>0.0007</v>
+      </c>
+      <c r="J82" s="3" t="n">
+        <v>0.0009</v>
+      </c>
+      <c r="K82" s="3" t="n">
+        <v>-0.0189</v>
       </c>
     </row>
     <row r="83" ht="22" customHeight="1">
@@ -2290,19 +3535,34 @@
         </is>
       </c>
       <c r="B83" s="3" t="n">
+        <v>0.0129</v>
+      </c>
+      <c r="C83" s="3" t="n">
         <v>0.0119</v>
       </c>
-      <c r="C83" s="3" t="n">
+      <c r="D83" s="3" t="n">
         <v>0.0032</v>
       </c>
-      <c r="D83" s="3" t="n">
+      <c r="E83" s="3" t="n">
         <v>0.0112</v>
       </c>
-      <c r="E83" s="3" t="n">
+      <c r="F83" s="3" t="n">
         <v>0.0118</v>
       </c>
-      <c r="F83" s="3" t="n">
+      <c r="G83" s="3" t="n">
         <v>0.008699999999999999</v>
+      </c>
+      <c r="H83" s="3" t="n">
+        <v>-0.0017</v>
+      </c>
+      <c r="I83" s="3" t="n">
+        <v>-0.0011</v>
+      </c>
+      <c r="J83" s="3" t="n">
+        <v>-0.001</v>
+      </c>
+      <c r="K83" s="3" t="n">
+        <v>-0.0097</v>
       </c>
     </row>
     <row r="84" ht="22" customHeight="1">
@@ -2312,19 +3572,34 @@
         </is>
       </c>
       <c r="B84" s="3" t="n">
+        <v>0.144</v>
+      </c>
+      <c r="C84" s="3" t="n">
         <v>0.1417</v>
       </c>
-      <c r="C84" s="3" t="n">
+      <c r="D84" s="3" t="n">
         <v>0.1435</v>
       </c>
-      <c r="D84" s="3" t="n">
+      <c r="E84" s="3" t="n">
         <v>0.1436</v>
       </c>
-      <c r="E84" s="3" t="n">
+      <c r="F84" s="3" t="n">
         <v>0.1419</v>
       </c>
-      <c r="F84" s="3" t="n">
+      <c r="G84" s="3" t="n">
         <v>-0.0018</v>
+      </c>
+      <c r="H84" s="3" t="n">
+        <v>-0.0004</v>
+      </c>
+      <c r="I84" s="3" t="n">
+        <v>-0.0021</v>
+      </c>
+      <c r="J84" s="3" t="n">
+        <v>-0.0023</v>
+      </c>
+      <c r="K84" s="3" t="n">
+        <v>-0.0005</v>
       </c>
     </row>
     <row r="85" ht="22" customHeight="1">
@@ -2334,19 +3609,34 @@
         </is>
       </c>
       <c r="B85" s="3" t="n">
+        <v>0.0173</v>
+      </c>
+      <c r="C85" s="3" t="n">
         <v>0.0154</v>
       </c>
-      <c r="C85" s="3" t="n">
+      <c r="D85" s="3" t="n">
         <v>0.016</v>
       </c>
-      <c r="D85" s="3" t="n">
+      <c r="E85" s="3" t="n">
         <v>0.0159</v>
       </c>
-      <c r="E85" s="3" t="n">
+      <c r="F85" s="3" t="n">
         <v>0.0158</v>
       </c>
-      <c r="F85" s="3" t="n">
+      <c r="G85" s="3" t="n">
         <v>-0.0005999999999999999</v>
+      </c>
+      <c r="H85" s="3" t="n">
+        <v>-0.0014</v>
+      </c>
+      <c r="I85" s="3" t="n">
+        <v>-0.0015</v>
+      </c>
+      <c r="J85" s="3" t="n">
+        <v>-0.0019</v>
+      </c>
+      <c r="K85" s="3" t="n">
+        <v>-0.0013</v>
       </c>
     </row>
     <row r="86" ht="22" customHeight="1">
@@ -2356,19 +3646,34 @@
         </is>
       </c>
       <c r="B86" s="3" t="n">
-        <v>0.0077</v>
+        <v>0.0078</v>
       </c>
       <c r="C86" s="3" t="n">
         <v>0.0077</v>
       </c>
       <c r="D86" s="3" t="n">
-        <v>0.007900000000000001</v>
+        <v>0.0077</v>
       </c>
       <c r="E86" s="3" t="n">
         <v>0.007900000000000001</v>
       </c>
       <c r="F86" s="3" t="n">
-        <v>0</v>
+        <v>0.007900000000000001</v>
+      </c>
+      <c r="G86" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H86" s="3" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="I86" s="3" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="J86" s="3" t="n">
+        <v>-0.0001</v>
+      </c>
+      <c r="K86" s="3" t="n">
+        <v>-0.0001</v>
       </c>
     </row>
     <row r="87" ht="22" customHeight="1">
@@ -2381,16 +3686,31 @@
         <v>0.0092999999999999</v>
       </c>
       <c r="C87" s="3" t="n">
+        <v>0.0092999999999999</v>
+      </c>
+      <c r="D87" s="3" t="n">
         <v>0.0095</v>
       </c>
-      <c r="D87" s="3" t="n">
+      <c r="E87" s="3" t="n">
         <v>0.0094</v>
       </c>
-      <c r="E87" s="3" t="n">
+      <c r="F87" s="3" t="n">
         <v>0.0092999999999999</v>
       </c>
-      <c r="F87" s="3" t="n">
+      <c r="G87" s="3" t="n">
         <v>-0.0002</v>
+      </c>
+      <c r="H87" s="3" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="I87" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J87" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K87" s="3" t="n">
+        <v>0.0002</v>
       </c>
     </row>
     <row r="88" ht="22" customHeight="1">
@@ -2409,9 +3729,24 @@
         <v>0.0119</v>
       </c>
       <c r="E88" s="3" t="n">
+        <v>0.0119</v>
+      </c>
+      <c r="F88" s="3" t="n">
         <v>0.012</v>
       </c>
-      <c r="F88" s="3" t="n">
+      <c r="G88" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H88" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I88" s="3" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="J88" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K88" s="3" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2422,19 +3757,34 @@
         </is>
       </c>
       <c r="B89" s="3" t="n">
+        <v>13.0667</v>
+      </c>
+      <c r="C89" s="3" t="n">
         <v>13.0589</v>
       </c>
-      <c r="C89" s="3" t="n">
+      <c r="D89" s="3" t="n">
         <v>13.044</v>
       </c>
-      <c r="D89" s="3" t="n">
+      <c r="E89" s="3" t="n">
         <v>80.03919999999999</v>
       </c>
-      <c r="E89" s="3" t="n">
+      <c r="F89" s="3" t="n">
         <v>13.094</v>
       </c>
-      <c r="F89" s="3" t="n">
+      <c r="G89" s="3" t="n">
         <v>0.0149</v>
+      </c>
+      <c r="H89" s="5" t="n">
+        <v>66.9725</v>
+      </c>
+      <c r="I89" s="3" t="n">
+        <v>0.0273</v>
+      </c>
+      <c r="J89" s="3" t="n">
+        <v>-0.0078</v>
+      </c>
+      <c r="K89" s="3" t="n">
+        <v>-0.0227</v>
       </c>
     </row>
     <row r="90" ht="22" customHeight="1">
@@ -2447,16 +3797,31 @@
         <v>0.008500000000000001</v>
       </c>
       <c r="C90" s="3" t="n">
+        <v>0.008500000000000001</v>
+      </c>
+      <c r="D90" s="3" t="n">
         <v>0.0097</v>
       </c>
-      <c r="D90" s="3" t="n">
+      <c r="E90" s="3" t="n">
         <v>0.0111</v>
       </c>
-      <c r="E90" s="3" t="n">
+      <c r="F90" s="3" t="n">
         <v>0.008800000000000001</v>
       </c>
-      <c r="F90" s="3" t="n">
+      <c r="G90" s="3" t="n">
         <v>-0.0012</v>
+      </c>
+      <c r="H90" s="3" t="n">
+        <v>0.0026</v>
+      </c>
+      <c r="I90" s="3" t="n">
+        <v>0.0003</v>
+      </c>
+      <c r="J90" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K90" s="3" t="n">
+        <v>0.0012</v>
       </c>
     </row>
     <row r="91" ht="22" customHeight="1">
@@ -2466,19 +3831,34 @@
         </is>
       </c>
       <c r="B91" s="3" t="n">
+        <v>0.0086</v>
+      </c>
+      <c r="C91" s="3" t="n">
         <v>0.0089999999999999</v>
       </c>
-      <c r="C91" s="3" t="n">
+      <c r="D91" s="3" t="n">
         <v>0.008200000000000001</v>
-      </c>
-      <c r="D91" s="3" t="n">
-        <v>0.0092999999999999</v>
       </c>
       <c r="E91" s="3" t="n">
         <v>0.0092999999999999</v>
       </c>
       <c r="F91" s="3" t="n">
+        <v>0.0092999999999999</v>
+      </c>
+      <c r="G91" s="3" t="n">
         <v>0.0008</v>
+      </c>
+      <c r="H91" s="3" t="n">
+        <v>0.0007</v>
+      </c>
+      <c r="I91" s="3" t="n">
+        <v>0.0007</v>
+      </c>
+      <c r="J91" s="3" t="n">
+        <v>0.0004</v>
+      </c>
+      <c r="K91" s="3" t="n">
+        <v>-0.0004</v>
       </c>
     </row>
     <row r="92" ht="22" customHeight="1">
@@ -2488,19 +3868,34 @@
         </is>
       </c>
       <c r="B92" s="3" t="n">
+        <v>0.1768</v>
+      </c>
+      <c r="C92" s="3" t="n">
         <v>0.1764</v>
       </c>
-      <c r="C92" s="3" t="n">
+      <c r="D92" s="3" t="n">
         <v>0.1756</v>
       </c>
-      <c r="D92" s="3" t="n">
+      <c r="E92" s="3" t="n">
         <v>0.1787</v>
       </c>
-      <c r="E92" s="3" t="n">
+      <c r="F92" s="3" t="n">
         <v>0.1795</v>
       </c>
-      <c r="F92" s="3" t="n">
+      <c r="G92" s="3" t="n">
         <v>0.0008</v>
+      </c>
+      <c r="H92" s="3" t="n">
+        <v>0.0019</v>
+      </c>
+      <c r="I92" s="3" t="n">
+        <v>0.0027</v>
+      </c>
+      <c r="J92" s="3" t="n">
+        <v>-0.0004</v>
+      </c>
+      <c r="K92" s="3" t="n">
+        <v>-0.0012</v>
       </c>
     </row>
     <row r="93" ht="22" customHeight="1">
@@ -2513,16 +3908,31 @@
         <v>0.0573</v>
       </c>
       <c r="C93" s="3" t="n">
+        <v>0.0573</v>
+      </c>
+      <c r="D93" s="3" t="n">
         <v>0.0552</v>
       </c>
-      <c r="D93" s="3" t="n">
+      <c r="E93" s="3" t="n">
         <v>0.0559</v>
       </c>
-      <c r="E93" s="3" t="n">
+      <c r="F93" s="3" t="n">
         <v>0.0571</v>
       </c>
-      <c r="F93" s="3" t="n">
+      <c r="G93" s="3" t="n">
         <v>0.0021</v>
+      </c>
+      <c r="H93" s="3" t="n">
+        <v>-0.0014</v>
+      </c>
+      <c r="I93" s="3" t="n">
+        <v>-0.0002</v>
+      </c>
+      <c r="J93" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K93" s="3" t="n">
+        <v>-0.0021</v>
       </c>
     </row>
     <row r="94" ht="22" customHeight="1">
@@ -2532,19 +3942,34 @@
         </is>
       </c>
       <c r="B94" s="3" t="n">
+        <v>0.6911</v>
+      </c>
+      <c r="C94" s="3" t="n">
         <v>0.6718</v>
       </c>
-      <c r="C94" s="3" t="n">
+      <c r="D94" s="3" t="n">
         <v>0.6801</v>
       </c>
-      <c r="D94" s="3" t="n">
+      <c r="E94" s="3" t="n">
         <v>0.6889999999999999</v>
       </c>
-      <c r="E94" s="3" t="n">
+      <c r="F94" s="3" t="n">
         <v>0.6765</v>
       </c>
-      <c r="F94" s="3" t="n">
+      <c r="G94" s="3" t="n">
         <v>-0.0083</v>
+      </c>
+      <c r="H94" s="3" t="n">
+        <v>-0.0021</v>
+      </c>
+      <c r="I94" s="3" t="n">
+        <v>-0.0146</v>
+      </c>
+      <c r="J94" s="3" t="n">
+        <v>-0.0193</v>
+      </c>
+      <c r="K94" s="3" t="n">
+        <v>-0.011</v>
       </c>
     </row>
     <row r="95" ht="22" customHeight="1">
@@ -2554,19 +3979,34 @@
         </is>
       </c>
       <c r="B95" s="3" t="n">
+        <v>10.6109</v>
+      </c>
+      <c r="C95" s="3" t="n">
         <v>10.4917</v>
       </c>
-      <c r="C95" s="3" t="n">
+      <c r="D95" s="3" t="n">
         <v>10.4836</v>
       </c>
-      <c r="D95" s="3" t="n">
+      <c r="E95" s="3" t="n">
         <v>10.4438</v>
       </c>
-      <c r="E95" s="3" t="n">
+      <c r="F95" s="3" t="n">
         <v>10.5235</v>
       </c>
-      <c r="F95" s="3" t="n">
+      <c r="G95" s="3" t="n">
         <v>0.0081</v>
+      </c>
+      <c r="H95" s="3" t="n">
+        <v>-0.1671</v>
+      </c>
+      <c r="I95" s="3" t="n">
+        <v>-0.08740000000000001</v>
+      </c>
+      <c r="J95" s="3" t="n">
+        <v>-0.1192</v>
+      </c>
+      <c r="K95" s="3" t="n">
+        <v>-0.1273</v>
       </c>
     </row>
     <row r="96" ht="22" customHeight="1">
@@ -2576,19 +4016,34 @@
         </is>
       </c>
       <c r="B96" s="3" t="n">
+        <v>0.4661</v>
+      </c>
+      <c r="C96" s="3" t="n">
         <v>0.4577</v>
       </c>
-      <c r="C96" s="3" t="n">
+      <c r="D96" s="3" t="n">
         <v>0.4528</v>
       </c>
-      <c r="D96" s="3" t="n">
+      <c r="E96" s="3" t="n">
         <v>0.6192</v>
       </c>
-      <c r="E96" s="3" t="n">
+      <c r="F96" s="3" t="n">
         <v>0.4754</v>
       </c>
-      <c r="F96" s="3" t="n">
+      <c r="G96" s="3" t="n">
         <v>0.0049</v>
+      </c>
+      <c r="H96" s="3" t="n">
+        <v>0.1531</v>
+      </c>
+      <c r="I96" s="3" t="n">
+        <v>0.009299999999999999</v>
+      </c>
+      <c r="J96" s="3" t="n">
+        <v>-0.008399999999999999</v>
+      </c>
+      <c r="K96" s="3" t="n">
+        <v>-0.0133</v>
       </c>
     </row>
     <row r="97" ht="22" customHeight="1">
@@ -2598,19 +4053,34 @@
         </is>
       </c>
       <c r="B97" s="3" t="n">
+        <v>0.0298</v>
+      </c>
+      <c r="C97" s="3" t="n">
         <v>0.0301</v>
       </c>
-      <c r="C97" s="3" t="n">
+      <c r="D97" s="3" t="n">
         <v>0.0296</v>
       </c>
-      <c r="D97" s="3" t="n">
+      <c r="E97" s="3" t="n">
         <v>0.0273</v>
       </c>
-      <c r="E97" s="3" t="n">
+      <c r="F97" s="3" t="n">
         <v>0.0317</v>
       </c>
-      <c r="F97" s="3" t="n">
+      <c r="G97" s="3" t="n">
         <v>0.0005</v>
+      </c>
+      <c r="H97" s="3" t="n">
+        <v>-0.0025</v>
+      </c>
+      <c r="I97" s="3" t="n">
+        <v>0.0019</v>
+      </c>
+      <c r="J97" s="3" t="n">
+        <v>0.0003</v>
+      </c>
+      <c r="K97" s="3" t="n">
+        <v>-0.0002</v>
       </c>
     </row>
     <row r="98" ht="22" customHeight="1">
@@ -2620,19 +4090,34 @@
         </is>
       </c>
       <c r="B98" s="3" t="n">
+        <v>0.0185</v>
+      </c>
+      <c r="C98" s="3" t="n">
         <v>0.0169</v>
       </c>
-      <c r="C98" s="3" t="n">
+      <c r="D98" s="3" t="n">
         <v>0.0175</v>
       </c>
-      <c r="D98" s="3" t="n">
+      <c r="E98" s="3" t="n">
         <v>0.0155</v>
       </c>
-      <c r="E98" s="3" t="n">
+      <c r="F98" s="3" t="n">
         <v>0.0189</v>
       </c>
-      <c r="F98" s="3" t="n">
+      <c r="G98" s="3" t="n">
         <v>-0.0005999999999999999</v>
+      </c>
+      <c r="H98" s="3" t="n">
+        <v>-0.003</v>
+      </c>
+      <c r="I98" s="3" t="n">
+        <v>0.0004</v>
+      </c>
+      <c r="J98" s="3" t="n">
+        <v>-0.0016</v>
+      </c>
+      <c r="K98" s="3" t="n">
+        <v>-0.001</v>
       </c>
     </row>
     <row r="99" ht="22" customHeight="1">
@@ -2642,19 +4127,34 @@
         </is>
       </c>
       <c r="B99" s="3" t="n">
+        <v>0.0226</v>
+      </c>
+      <c r="C99" s="3" t="n">
         <v>0.0227</v>
       </c>
-      <c r="C99" s="3" t="n">
+      <c r="D99" s="3" t="n">
         <v>0.0226</v>
       </c>
-      <c r="D99" s="3" t="n">
+      <c r="E99" s="3" t="n">
         <v>0.0198</v>
       </c>
-      <c r="E99" s="3" t="n">
+      <c r="F99" s="3" t="n">
         <v>0.0206</v>
       </c>
-      <c r="F99" s="3" t="n">
-        <v>0.0001</v>
+      <c r="G99" s="3" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="H99" s="3" t="n">
+        <v>-0.0028</v>
+      </c>
+      <c r="I99" s="3" t="n">
+        <v>-0.002</v>
+      </c>
+      <c r="J99" s="3" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="K99" s="3" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="100" ht="22" customHeight="1">
@@ -2664,19 +4164,34 @@
         </is>
       </c>
       <c r="B100" s="3" t="n">
+        <v>0.0119</v>
+      </c>
+      <c r="C100" s="3" t="n">
         <v>0.0118</v>
       </c>
-      <c r="C100" s="3" t="n">
+      <c r="D100" s="3" t="n">
         <v>0.0147</v>
       </c>
-      <c r="D100" s="3" t="n">
+      <c r="E100" s="3" t="n">
         <v>0.0123</v>
       </c>
-      <c r="E100" s="3" t="n">
+      <c r="F100" s="3" t="n">
         <v>0.0125</v>
       </c>
-      <c r="F100" s="3" t="n">
+      <c r="G100" s="3" t="n">
         <v>-0.0029</v>
+      </c>
+      <c r="H100" s="3" t="n">
+        <v>0.0004</v>
+      </c>
+      <c r="I100" s="3" t="n">
+        <v>0.0005999999999999999</v>
+      </c>
+      <c r="J100" s="3" t="n">
+        <v>-0.0001</v>
+      </c>
+      <c r="K100" s="3" t="n">
+        <v>0.0028</v>
       </c>
     </row>
     <row r="101" ht="22" customHeight="1">
@@ -2686,19 +4201,34 @@
         </is>
       </c>
       <c r="B101" s="3" t="n">
+        <v>0.0115</v>
+      </c>
+      <c r="C101" s="3" t="n">
         <v>0.013</v>
       </c>
-      <c r="C101" s="3" t="n">
+      <c r="D101" s="3" t="n">
         <v>0.0168</v>
       </c>
-      <c r="D101" s="3" t="n">
+      <c r="E101" s="3" t="n">
         <v>0.0128</v>
       </c>
-      <c r="E101" s="3" t="n">
+      <c r="F101" s="3" t="n">
         <v>0.013</v>
       </c>
-      <c r="F101" s="3" t="n">
+      <c r="G101" s="3" t="n">
         <v>-0.0038</v>
+      </c>
+      <c r="H101" s="3" t="n">
+        <v>0.0013</v>
+      </c>
+      <c r="I101" s="3" t="n">
+        <v>0.0015</v>
+      </c>
+      <c r="J101" s="3" t="n">
+        <v>0.0015</v>
+      </c>
+      <c r="K101" s="3" t="n">
+        <v>0.0053</v>
       </c>
     </row>
     <row r="102" ht="22" customHeight="1">
@@ -2708,19 +4238,34 @@
         </is>
       </c>
       <c r="B102" s="3" t="n">
+        <v>0.016</v>
+      </c>
+      <c r="C102" s="3" t="n">
         <v>0.0115</v>
       </c>
-      <c r="C102" s="3" t="n">
+      <c r="D102" s="3" t="n">
         <v>0.0158</v>
       </c>
-      <c r="D102" s="3" t="n">
+      <c r="E102" s="3" t="n">
         <v>0.0168</v>
       </c>
-      <c r="E102" s="3" t="n">
+      <c r="F102" s="3" t="n">
         <v>0.0169</v>
       </c>
-      <c r="F102" s="3" t="n">
+      <c r="G102" s="3" t="n">
         <v>-0.0043</v>
+      </c>
+      <c r="H102" s="3" t="n">
+        <v>0.0008</v>
+      </c>
+      <c r="I102" s="3" t="n">
+        <v>0.0009</v>
+      </c>
+      <c r="J102" s="3" t="n">
+        <v>-0.0045</v>
+      </c>
+      <c r="K102" s="3" t="n">
+        <v>-0.0002</v>
       </c>
     </row>
     <row r="103" ht="22" customHeight="1">
@@ -2730,19 +4275,34 @@
         </is>
       </c>
       <c r="B103" s="3" t="n">
+        <v>0.0125</v>
+      </c>
+      <c r="C103" s="3" t="n">
         <v>0.0128</v>
       </c>
-      <c r="C103" s="3" t="n">
+      <c r="D103" s="3" t="n">
         <v>0.0125</v>
       </c>
-      <c r="D103" s="3" t="n">
+      <c r="E103" s="3" t="n">
         <v>0.0142</v>
       </c>
-      <c r="E103" s="3" t="n">
+      <c r="F103" s="3" t="n">
         <v>0.0111</v>
       </c>
-      <c r="F103" s="3" t="n">
+      <c r="G103" s="3" t="n">
         <v>0.0003</v>
+      </c>
+      <c r="H103" s="3" t="n">
+        <v>0.0017</v>
+      </c>
+      <c r="I103" s="3" t="n">
+        <v>-0.0014</v>
+      </c>
+      <c r="J103" s="3" t="n">
+        <v>0.0003</v>
+      </c>
+      <c r="K103" s="3" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="104" ht="22" customHeight="1">
@@ -2752,19 +4312,34 @@
         </is>
       </c>
       <c r="B104" s="3" t="n">
+        <v>0.0112</v>
+      </c>
+      <c r="C104" s="3" t="n">
         <v>0.0113</v>
       </c>
-      <c r="C104" s="3" t="n">
+      <c r="D104" s="3" t="n">
         <v>0.0111</v>
       </c>
-      <c r="D104" s="3" t="n">
+      <c r="E104" s="3" t="n">
         <v>0.0107</v>
       </c>
-      <c r="E104" s="3" t="n">
+      <c r="F104" s="3" t="n">
         <v>0.0091</v>
       </c>
-      <c r="F104" s="3" t="n">
+      <c r="G104" s="3" t="n">
         <v>0.0002</v>
+      </c>
+      <c r="H104" s="3" t="n">
+        <v>-0.0005</v>
+      </c>
+      <c r="I104" s="3" t="n">
+        <v>-0.0021</v>
+      </c>
+      <c r="J104" s="3" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="K104" s="3" t="n">
+        <v>-0.0001</v>
       </c>
     </row>
     <row r="105" ht="22" customHeight="1">
@@ -2774,18 +4349,33 @@
         </is>
       </c>
       <c r="B105" s="3" t="n">
+        <v>0.0128</v>
+      </c>
+      <c r="C105" s="3" t="n">
         <v>0.0132</v>
       </c>
-      <c r="C105" s="3" t="n">
+      <c r="D105" s="3" t="n">
         <v>0.013</v>
       </c>
-      <c r="D105" s="3" t="n">
+      <c r="E105" s="3" t="n">
         <v>0.0138</v>
       </c>
-      <c r="E105" s="3" t="n">
+      <c r="F105" s="3" t="n">
         <v>0.0123</v>
       </c>
-      <c r="F105" s="3" t="n">
+      <c r="G105" s="3" t="n">
+        <v>0.0002</v>
+      </c>
+      <c r="H105" s="3" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="I105" s="3" t="n">
+        <v>-0.0005</v>
+      </c>
+      <c r="J105" s="3" t="n">
+        <v>0.0004</v>
+      </c>
+      <c r="K105" s="3" t="n">
         <v>0.0002</v>
       </c>
     </row>
@@ -2796,19 +4386,34 @@
         </is>
       </c>
       <c r="B106" s="3" t="n">
+        <v>0.0138</v>
+      </c>
+      <c r="C106" s="3" t="n">
         <v>0.0121</v>
       </c>
-      <c r="C106" s="3" t="n">
+      <c r="D106" s="3" t="n">
         <v>0.0126</v>
       </c>
-      <c r="D106" s="3" t="n">
+      <c r="E106" s="3" t="n">
         <v>0.0097</v>
       </c>
-      <c r="E106" s="3" t="n">
+      <c r="F106" s="3" t="n">
         <v>0.0128</v>
       </c>
-      <c r="F106" s="3" t="n">
+      <c r="G106" s="3" t="n">
         <v>-0.0005</v>
+      </c>
+      <c r="H106" s="3" t="n">
+        <v>-0.0041</v>
+      </c>
+      <c r="I106" s="3" t="n">
+        <v>-0.001</v>
+      </c>
+      <c r="J106" s="3" t="n">
+        <v>-0.0017</v>
+      </c>
+      <c r="K106" s="3" t="n">
+        <v>-0.0012</v>
       </c>
     </row>
     <row r="107" ht="22" customHeight="1">
@@ -2818,19 +4423,34 @@
         </is>
       </c>
       <c r="B107" s="3" t="n">
+        <v>17.4722</v>
+      </c>
+      <c r="C107" s="3" t="n">
         <v>21.029</v>
       </c>
-      <c r="C107" s="3" t="n">
+      <c r="D107" s="3" t="n">
         <v>20.3411</v>
       </c>
-      <c r="D107" s="3" t="n">
+      <c r="E107" s="3" t="n">
         <v>19.485</v>
       </c>
-      <c r="E107" s="3" t="n">
+      <c r="F107" s="3" t="n">
         <v>19.4685</v>
       </c>
-      <c r="F107" s="3" t="n">
+      <c r="G107" s="3" t="n">
         <v>0.6879</v>
+      </c>
+      <c r="H107" s="5" t="n">
+        <v>2.0128</v>
+      </c>
+      <c r="I107" s="5" t="n">
+        <v>1.9963</v>
+      </c>
+      <c r="J107" s="5" t="n">
+        <v>3.5568</v>
+      </c>
+      <c r="K107" s="5" t="n">
+        <v>2.8689</v>
       </c>
     </row>
     <row r="108" ht="22" customHeight="1">
@@ -2840,19 +4460,34 @@
         </is>
       </c>
       <c r="B108" s="3" t="n">
+        <v>0.0314</v>
+      </c>
+      <c r="C108" s="3" t="n">
         <v>0.0302</v>
       </c>
-      <c r="C108" s="3" t="n">
+      <c r="D108" s="3" t="n">
         <v>0.0311</v>
       </c>
-      <c r="D108" s="3" t="n">
+      <c r="E108" s="3" t="n">
         <v>0.0288</v>
       </c>
-      <c r="E108" s="3" t="n">
+      <c r="F108" s="3" t="n">
         <v>0.0311</v>
       </c>
-      <c r="F108" s="3" t="n">
+      <c r="G108" s="3" t="n">
         <v>-0.0009</v>
+      </c>
+      <c r="H108" s="3" t="n">
+        <v>-0.0026</v>
+      </c>
+      <c r="I108" s="3" t="n">
+        <v>-0.0003</v>
+      </c>
+      <c r="J108" s="3" t="n">
+        <v>-0.0012</v>
+      </c>
+      <c r="K108" s="3" t="n">
+        <v>-0.0003</v>
       </c>
     </row>
     <row r="109" ht="22" customHeight="1">
@@ -2862,19 +4497,34 @@
         </is>
       </c>
       <c r="B109" s="3" t="n">
+        <v>0.0132</v>
+      </c>
+      <c r="C109" s="3" t="n">
         <v>0.0135</v>
       </c>
-      <c r="C109" s="3" t="n">
+      <c r="D109" s="3" t="n">
         <v>0.0131</v>
       </c>
-      <c r="D109" s="3" t="n">
+      <c r="E109" s="3" t="n">
         <v>0.013</v>
       </c>
-      <c r="E109" s="3" t="n">
+      <c r="F109" s="3" t="n">
         <v>0.0135</v>
       </c>
-      <c r="F109" s="3" t="n">
+      <c r="G109" s="3" t="n">
         <v>0.0004</v>
+      </c>
+      <c r="H109" s="3" t="n">
+        <v>-0.0002</v>
+      </c>
+      <c r="I109" s="3" t="n">
+        <v>0.0003</v>
+      </c>
+      <c r="J109" s="3" t="n">
+        <v>0.0003</v>
+      </c>
+      <c r="K109" s="3" t="n">
+        <v>-0.0001</v>
       </c>
     </row>
     <row r="110" ht="22" customHeight="1">
@@ -2884,19 +4534,34 @@
         </is>
       </c>
       <c r="B110" s="3" t="n">
+        <v>0.0114</v>
+      </c>
+      <c r="C110" s="3" t="n">
         <v>0.0122</v>
-      </c>
-      <c r="C110" s="3" t="n">
-        <v>0.0134</v>
       </c>
       <c r="D110" s="3" t="n">
         <v>0.0134</v>
       </c>
       <c r="E110" s="3" t="n">
+        <v>0.0134</v>
+      </c>
+      <c r="F110" s="3" t="n">
         <v>0.0129</v>
       </c>
-      <c r="F110" s="3" t="n">
+      <c r="G110" s="3" t="n">
         <v>-0.0012</v>
+      </c>
+      <c r="H110" s="3" t="n">
+        <v>0.002</v>
+      </c>
+      <c r="I110" s="3" t="n">
+        <v>0.0015</v>
+      </c>
+      <c r="J110" s="3" t="n">
+        <v>0.0008</v>
+      </c>
+      <c r="K110" s="3" t="n">
+        <v>0.002</v>
       </c>
     </row>
     <row r="111" ht="22" customHeight="1">
@@ -2906,19 +4571,34 @@
         </is>
       </c>
       <c r="B111" s="3" t="n">
+        <v>0.0115</v>
+      </c>
+      <c r="C111" s="3" t="n">
         <v>0.0116</v>
       </c>
-      <c r="C111" s="3" t="n">
+      <c r="D111" s="3" t="n">
         <v>0.012</v>
       </c>
-      <c r="D111" s="3" t="n">
+      <c r="E111" s="3" t="n">
         <v>0.0144</v>
       </c>
-      <c r="E111" s="3" t="n">
+      <c r="F111" s="3" t="n">
         <v>0.0126</v>
       </c>
-      <c r="F111" s="3" t="n">
+      <c r="G111" s="3" t="n">
         <v>-0.0004</v>
+      </c>
+      <c r="H111" s="3" t="n">
+        <v>0.0029</v>
+      </c>
+      <c r="I111" s="3" t="n">
+        <v>0.0011</v>
+      </c>
+      <c r="J111" s="3" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="K111" s="3" t="n">
+        <v>0.0005</v>
       </c>
     </row>
     <row r="112" ht="22" customHeight="1">
@@ -2928,19 +4608,34 @@
         </is>
       </c>
       <c r="B112" s="3" t="n">
+        <v>0.0119</v>
+      </c>
+      <c r="C112" s="3" t="n">
         <v>0.0143</v>
       </c>
-      <c r="C112" s="3" t="n">
+      <c r="D112" s="3" t="n">
         <v>0.0132</v>
       </c>
-      <c r="D112" s="3" t="n">
+      <c r="E112" s="3" t="n">
         <v>0.0128</v>
       </c>
-      <c r="E112" s="3" t="n">
+      <c r="F112" s="3" t="n">
         <v>0.0138</v>
       </c>
-      <c r="F112" s="3" t="n">
+      <c r="G112" s="3" t="n">
         <v>0.0011</v>
+      </c>
+      <c r="H112" s="3" t="n">
+        <v>0.0009</v>
+      </c>
+      <c r="I112" s="3" t="n">
+        <v>0.0019</v>
+      </c>
+      <c r="J112" s="3" t="n">
+        <v>0.0024</v>
+      </c>
+      <c r="K112" s="3" t="n">
+        <v>0.0013</v>
       </c>
     </row>
     <row r="113" ht="22" customHeight="1">
@@ -2950,19 +4645,34 @@
         </is>
       </c>
       <c r="B113" s="3" t="n">
+        <v>0.0122</v>
+      </c>
+      <c r="C113" s="3" t="n">
         <v>0.0119</v>
       </c>
-      <c r="C113" s="3" t="n">
+      <c r="D113" s="3" t="n">
         <v>0.0132</v>
       </c>
-      <c r="D113" s="3" t="n">
+      <c r="E113" s="3" t="n">
         <v>0.0138</v>
       </c>
-      <c r="E113" s="3" t="n">
+      <c r="F113" s="3" t="n">
         <v>0.0115</v>
       </c>
-      <c r="F113" s="3" t="n">
+      <c r="G113" s="3" t="n">
         <v>-0.0013</v>
+      </c>
+      <c r="H113" s="3" t="n">
+        <v>0.0016</v>
+      </c>
+      <c r="I113" s="3" t="n">
+        <v>-0.0007</v>
+      </c>
+      <c r="J113" s="3" t="n">
+        <v>-0.0003</v>
+      </c>
+      <c r="K113" s="3" t="n">
+        <v>0.001</v>
       </c>
     </row>
     <row r="114" ht="22" customHeight="1">
@@ -2972,19 +4682,34 @@
         </is>
       </c>
       <c r="B114" s="3" t="n">
+        <v>11.2283</v>
+      </c>
+      <c r="C114" s="3" t="n">
         <v>11.2079</v>
       </c>
-      <c r="C114" s="3" t="n">
+      <c r="D114" s="3" t="n">
         <v>11.0183</v>
       </c>
-      <c r="D114" s="3" t="n">
+      <c r="E114" s="3" t="n">
         <v>11.1366</v>
       </c>
-      <c r="E114" s="3" t="n">
+      <c r="F114" s="3" t="n">
         <v>11.1965</v>
       </c>
-      <c r="F114" s="3" t="n">
+      <c r="G114" s="3" t="n">
         <v>0.1896</v>
+      </c>
+      <c r="H114" s="3" t="n">
+        <v>-0.0917</v>
+      </c>
+      <c r="I114" s="3" t="n">
+        <v>-0.0318</v>
+      </c>
+      <c r="J114" s="3" t="n">
+        <v>-0.0204</v>
+      </c>
+      <c r="K114" s="3" t="n">
+        <v>-0.21</v>
       </c>
     </row>
     <row r="115" ht="22" customHeight="1">
@@ -2994,19 +4719,34 @@
         </is>
       </c>
       <c r="B115" s="3" t="n">
+        <v>103.1788</v>
+      </c>
+      <c r="C115" s="3" t="n">
         <v>103.1946</v>
       </c>
-      <c r="C115" s="3" t="n">
+      <c r="D115" s="3" t="n">
         <v>103.2165</v>
       </c>
-      <c r="D115" s="3" t="n">
+      <c r="E115" s="3" t="n">
         <v>103.3037</v>
       </c>
-      <c r="E115" s="3" t="n">
+      <c r="F115" s="3" t="n">
         <v>103.1502</v>
       </c>
-      <c r="F115" s="3" t="n">
+      <c r="G115" s="3" t="n">
         <v>-0.0219</v>
+      </c>
+      <c r="H115" s="3" t="n">
+        <v>0.1249</v>
+      </c>
+      <c r="I115" s="3" t="n">
+        <v>-0.0286</v>
+      </c>
+      <c r="J115" s="3" t="n">
+        <v>0.0158</v>
+      </c>
+      <c r="K115" s="3" t="n">
+        <v>0.0377</v>
       </c>
     </row>
     <row r="116" ht="22" customHeight="1">
@@ -3016,19 +4756,34 @@
         </is>
       </c>
       <c r="B116" s="3" t="n">
+        <v>0.07240000000000001</v>
+      </c>
+      <c r="C116" s="3" t="n">
         <v>0.0704</v>
       </c>
-      <c r="C116" s="3" t="n">
+      <c r="D116" s="3" t="n">
         <v>0.0685999999999999</v>
       </c>
-      <c r="D116" s="3" t="n">
+      <c r="E116" s="3" t="n">
         <v>0.0704</v>
       </c>
-      <c r="E116" s="3" t="n">
+      <c r="F116" s="3" t="n">
         <v>0.0702</v>
       </c>
-      <c r="F116" s="3" t="n">
+      <c r="G116" s="3" t="n">
         <v>0.0018</v>
+      </c>
+      <c r="H116" s="3" t="n">
+        <v>-0.002</v>
+      </c>
+      <c r="I116" s="3" t="n">
+        <v>-0.0022</v>
+      </c>
+      <c r="J116" s="3" t="n">
+        <v>-0.002</v>
+      </c>
+      <c r="K116" s="3" t="n">
+        <v>-0.0038</v>
       </c>
     </row>
     <row r="117" ht="22" customHeight="1">
@@ -3038,19 +4793,34 @@
         </is>
       </c>
       <c r="B117" s="3" t="n">
+        <v>78.2829</v>
+      </c>
+      <c r="C117" s="3" t="n">
         <v>78.2533</v>
       </c>
-      <c r="C117" s="3" t="n">
+      <c r="D117" s="3" t="n">
         <v>78.30589999999999</v>
       </c>
-      <c r="D117" s="3" t="n">
+      <c r="E117" s="3" t="n">
         <v>78.2992</v>
       </c>
-      <c r="E117" s="3" t="n">
+      <c r="F117" s="3" t="n">
         <v>78.2975</v>
       </c>
-      <c r="F117" s="3" t="n">
+      <c r="G117" s="3" t="n">
         <v>-0.0526</v>
+      </c>
+      <c r="H117" s="3" t="n">
+        <v>0.0163</v>
+      </c>
+      <c r="I117" s="3" t="n">
+        <v>0.0146</v>
+      </c>
+      <c r="J117" s="3" t="n">
+        <v>-0.0296</v>
+      </c>
+      <c r="K117" s="3" t="n">
+        <v>0.023</v>
       </c>
     </row>
     <row r="118" ht="22" customHeight="1">
@@ -3060,19 +4830,34 @@
         </is>
       </c>
       <c r="B118" s="3" t="n">
+        <v>0.0136</v>
+      </c>
+      <c r="C118" s="3" t="n">
         <v>0.0127</v>
       </c>
-      <c r="C118" s="3" t="n">
+      <c r="D118" s="3" t="n">
         <v>0.0133</v>
       </c>
-      <c r="D118" s="3" t="n">
+      <c r="E118" s="3" t="n">
         <v>0.0143</v>
       </c>
-      <c r="E118" s="3" t="n">
+      <c r="F118" s="3" t="n">
         <v>0.0134</v>
       </c>
-      <c r="F118" s="3" t="n">
+      <c r="G118" s="3" t="n">
         <v>-0.0005999999999999999</v>
+      </c>
+      <c r="H118" s="3" t="n">
+        <v>0.0007</v>
+      </c>
+      <c r="I118" s="3" t="n">
+        <v>-0.0002</v>
+      </c>
+      <c r="J118" s="3" t="n">
+        <v>-0.0009</v>
+      </c>
+      <c r="K118" s="3" t="n">
+        <v>-0.0003</v>
       </c>
     </row>
     <row r="119" ht="22" customHeight="1">
@@ -3082,19 +4867,34 @@
         </is>
       </c>
       <c r="B119" s="3" t="n">
+        <v>0.0132</v>
+      </c>
+      <c r="C119" s="3" t="n">
         <v>0.0127</v>
       </c>
-      <c r="C119" s="3" t="n">
+      <c r="D119" s="3" t="n">
         <v>0.0133</v>
       </c>
-      <c r="D119" s="3" t="n">
+      <c r="E119" s="3" t="n">
         <v>0.0116</v>
       </c>
-      <c r="E119" s="3" t="n">
+      <c r="F119" s="3" t="n">
         <v>0.0132</v>
       </c>
-      <c r="F119" s="3" t="n">
+      <c r="G119" s="3" t="n">
         <v>-0.0005999999999999999</v>
+      </c>
+      <c r="H119" s="3" t="n">
+        <v>-0.0016</v>
+      </c>
+      <c r="I119" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J119" s="3" t="n">
+        <v>-0.0005</v>
+      </c>
+      <c r="K119" s="3" t="n">
+        <v>0.0001</v>
       </c>
     </row>
     <row r="120" ht="22" customHeight="1">
@@ -3104,19 +4904,34 @@
         </is>
       </c>
       <c r="B120" s="3" t="n">
+        <v>0.0138</v>
+      </c>
+      <c r="C120" s="3" t="n">
         <v>0.0123</v>
       </c>
-      <c r="C120" s="3" t="n">
+      <c r="D120" s="3" t="n">
         <v>0.0125</v>
       </c>
-      <c r="D120" s="3" t="n">
+      <c r="E120" s="3" t="n">
         <v>0.0139</v>
       </c>
-      <c r="E120" s="3" t="n">
+      <c r="F120" s="3" t="n">
         <v>0.0113</v>
       </c>
-      <c r="F120" s="3" t="n">
+      <c r="G120" s="3" t="n">
         <v>-0.0002</v>
+      </c>
+      <c r="H120" s="3" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="I120" s="3" t="n">
+        <v>-0.0025</v>
+      </c>
+      <c r="J120" s="3" t="n">
+        <v>-0.0015</v>
+      </c>
+      <c r="K120" s="3" t="n">
+        <v>-0.0013</v>
       </c>
     </row>
     <row r="121" ht="22" customHeight="1">
@@ -3126,19 +4941,34 @@
         </is>
       </c>
       <c r="B121" s="3" t="n">
+        <v>0.0133</v>
+      </c>
+      <c r="C121" s="3" t="n">
         <v>0.0153</v>
       </c>
-      <c r="C121" s="3" t="n">
+      <c r="D121" s="3" t="n">
         <v>0.0131</v>
       </c>
-      <c r="D121" s="3" t="n">
+      <c r="E121" s="3" t="n">
         <v>0.0127</v>
       </c>
-      <c r="E121" s="3" t="n">
+      <c r="F121" s="3" t="n">
         <v>0.0114</v>
       </c>
-      <c r="F121" s="3" t="n">
+      <c r="G121" s="3" t="n">
         <v>0.0022</v>
+      </c>
+      <c r="H121" s="3" t="n">
+        <v>-0.0005999999999999999</v>
+      </c>
+      <c r="I121" s="3" t="n">
+        <v>-0.0019</v>
+      </c>
+      <c r="J121" s="3" t="n">
+        <v>0.002</v>
+      </c>
+      <c r="K121" s="3" t="n">
+        <v>-0.0002</v>
       </c>
     </row>
     <row r="122" ht="22" customHeight="1">
@@ -3148,19 +4978,34 @@
         </is>
       </c>
       <c r="B122" s="3" t="n">
+        <v>0.0372</v>
+      </c>
+      <c r="C122" s="3" t="n">
         <v>0.036</v>
       </c>
-      <c r="C122" s="3" t="n">
+      <c r="D122" s="3" t="n">
         <v>0.0365</v>
       </c>
-      <c r="D122" s="3" t="n">
+      <c r="E122" s="3" t="n">
         <v>0.0353</v>
       </c>
-      <c r="E122" s="3" t="n">
+      <c r="F122" s="3" t="n">
         <v>0.0359</v>
       </c>
-      <c r="F122" s="3" t="n">
+      <c r="G122" s="3" t="n">
         <v>-0.0005</v>
+      </c>
+      <c r="H122" s="3" t="n">
+        <v>-0.0019</v>
+      </c>
+      <c r="I122" s="3" t="n">
+        <v>-0.0013</v>
+      </c>
+      <c r="J122" s="3" t="n">
+        <v>-0.0012</v>
+      </c>
+      <c r="K122" s="3" t="n">
+        <v>-0.0007</v>
       </c>
     </row>
     <row r="123" ht="22" customHeight="1">
@@ -3170,19 +5015,34 @@
         </is>
       </c>
       <c r="B123" s="3" t="n">
+        <v>0.008800000000000001</v>
+      </c>
+      <c r="C123" s="3" t="n">
         <v>0.0109</v>
       </c>
-      <c r="C123" s="3" t="n">
+      <c r="D123" s="3" t="n">
         <v>0.0089</v>
       </c>
-      <c r="D123" s="3" t="n">
+      <c r="E123" s="3" t="n">
         <v>0.0111</v>
       </c>
-      <c r="E123" s="3" t="n">
+      <c r="F123" s="3" t="n">
         <v>0.0109</v>
       </c>
-      <c r="F123" s="3" t="n">
+      <c r="G123" s="3" t="n">
         <v>0.002</v>
+      </c>
+      <c r="H123" s="3" t="n">
+        <v>0.0023</v>
+      </c>
+      <c r="I123" s="3" t="n">
+        <v>0.0021</v>
+      </c>
+      <c r="J123" s="3" t="n">
+        <v>0.0021</v>
+      </c>
+      <c r="K123" s="3" t="n">
+        <v>0.0001</v>
       </c>
     </row>
     <row r="124" ht="22" customHeight="1">
@@ -3192,19 +5052,34 @@
         </is>
       </c>
       <c r="B124" s="3" t="n">
+        <v>0.033</v>
+      </c>
+      <c r="C124" s="3" t="n">
         <v>0.0261</v>
       </c>
-      <c r="C124" s="3" t="n">
+      <c r="D124" s="3" t="n">
         <v>0.0289</v>
       </c>
-      <c r="D124" s="3" t="n">
+      <c r="E124" s="3" t="n">
         <v>0.0287</v>
       </c>
-      <c r="E124" s="3" t="n">
+      <c r="F124" s="3" t="n">
         <v>0.0289</v>
       </c>
-      <c r="F124" s="3" t="n">
+      <c r="G124" s="3" t="n">
         <v>-0.0028</v>
+      </c>
+      <c r="H124" s="3" t="n">
+        <v>-0.0043</v>
+      </c>
+      <c r="I124" s="3" t="n">
+        <v>-0.0041</v>
+      </c>
+      <c r="J124" s="3" t="n">
+        <v>-0.0069</v>
+      </c>
+      <c r="K124" s="3" t="n">
+        <v>-0.0041</v>
       </c>
     </row>
     <row r="125" ht="22" customHeight="1">
@@ -3214,19 +5089,34 @@
         </is>
       </c>
       <c r="B125" s="3" t="n">
+        <v>0.007</v>
+      </c>
+      <c r="C125" s="3" t="n">
         <v>0.0072</v>
       </c>
-      <c r="C125" s="3" t="n">
+      <c r="D125" s="3" t="n">
         <v>0.0073</v>
       </c>
-      <c r="D125" s="3" t="n">
+      <c r="E125" s="3" t="n">
         <v>0.0069</v>
       </c>
-      <c r="E125" s="3" t="n">
+      <c r="F125" s="3" t="n">
         <v>0.0066</v>
       </c>
-      <c r="F125" s="3" t="n">
+      <c r="G125" s="3" t="n">
         <v>-0.0001</v>
+      </c>
+      <c r="H125" s="3" t="n">
+        <v>-0.0001</v>
+      </c>
+      <c r="I125" s="3" t="n">
+        <v>-0.0004</v>
+      </c>
+      <c r="J125" s="3" t="n">
+        <v>0.0002</v>
+      </c>
+      <c r="K125" s="3" t="n">
+        <v>0.0003</v>
       </c>
     </row>
     <row r="126" ht="22" customHeight="1">
@@ -3236,19 +5126,34 @@
         </is>
       </c>
       <c r="B126" s="3" t="n">
+        <v>6.7951</v>
+      </c>
+      <c r="C126" s="3" t="n">
         <v>7.7834</v>
       </c>
-      <c r="C126" s="3" t="n">
+      <c r="D126" s="3" t="n">
         <v>7.7819</v>
       </c>
-      <c r="D126" s="3" t="n">
+      <c r="E126" s="3" t="n">
         <v>5.7081</v>
       </c>
-      <c r="E126" s="3" t="n">
+      <c r="F126" s="3" t="n">
         <v>5.7648</v>
       </c>
-      <c r="F126" s="3" t="n">
+      <c r="G126" s="3" t="n">
         <v>0.0015</v>
+      </c>
+      <c r="H126" s="3" t="n">
+        <v>-1.087</v>
+      </c>
+      <c r="I126" s="3" t="n">
+        <v>-1.0303</v>
+      </c>
+      <c r="J126" s="3" t="n">
+        <v>0.9883</v>
+      </c>
+      <c r="K126" s="3" t="n">
+        <v>0.9868</v>
       </c>
     </row>
     <row r="127" ht="22" customHeight="1">
@@ -3258,19 +5163,34 @@
         </is>
       </c>
       <c r="B127" s="3" t="n">
+        <v>0.0116</v>
+      </c>
+      <c r="C127" s="3" t="n">
         <v>0.0097</v>
       </c>
-      <c r="C127" s="3" t="n">
+      <c r="D127" s="3" t="n">
         <v>0.008800000000000001</v>
       </c>
-      <c r="D127" s="3" t="n">
+      <c r="E127" s="3" t="n">
         <v>0.0094</v>
       </c>
-      <c r="E127" s="3" t="n">
+      <c r="F127" s="3" t="n">
         <v>0.0089999999999999</v>
       </c>
-      <c r="F127" s="3" t="n">
+      <c r="G127" s="3" t="n">
         <v>0.0009</v>
+      </c>
+      <c r="H127" s="3" t="n">
+        <v>-0.0022</v>
+      </c>
+      <c r="I127" s="3" t="n">
+        <v>-0.0026</v>
+      </c>
+      <c r="J127" s="3" t="n">
+        <v>-0.0019</v>
+      </c>
+      <c r="K127" s="3" t="n">
+        <v>-0.0028</v>
       </c>
     </row>
     <row r="128" ht="22" customHeight="1">
@@ -3280,19 +5200,34 @@
         </is>
       </c>
       <c r="B128" s="3" t="n">
+        <v>6.911</v>
+      </c>
+      <c r="C128" s="3" t="n">
         <v>6.9143</v>
       </c>
-      <c r="C128" s="3" t="n">
+      <c r="D128" s="3" t="n">
         <v>6.901</v>
       </c>
-      <c r="D128" s="3" t="n">
+      <c r="E128" s="3" t="n">
         <v>6.8805</v>
       </c>
-      <c r="E128" s="3" t="n">
+      <c r="F128" s="3" t="n">
         <v>6.9137</v>
       </c>
-      <c r="F128" s="3" t="n">
+      <c r="G128" s="3" t="n">
         <v>0.0133</v>
+      </c>
+      <c r="H128" s="3" t="n">
+        <v>-0.0305</v>
+      </c>
+      <c r="I128" s="3" t="n">
+        <v>0.0027</v>
+      </c>
+      <c r="J128" s="3" t="n">
+        <v>0.0033</v>
+      </c>
+      <c r="K128" s="3" t="n">
+        <v>-0.01</v>
       </c>
     </row>
     <row r="129" ht="22" customHeight="1">
@@ -3302,19 +5237,34 @@
         </is>
       </c>
       <c r="B129" s="3" t="n">
+        <v>0.0712</v>
+      </c>
+      <c r="C129" s="3" t="n">
         <v>0.0737</v>
       </c>
-      <c r="C129" s="3" t="n">
+      <c r="D129" s="3" t="n">
         <v>0.0761</v>
       </c>
-      <c r="D129" s="3" t="n">
+      <c r="E129" s="3" t="n">
         <v>0.0728</v>
       </c>
-      <c r="E129" s="3" t="n">
+      <c r="F129" s="3" t="n">
         <v>0.0726</v>
       </c>
-      <c r="F129" s="3" t="n">
+      <c r="G129" s="3" t="n">
         <v>-0.0024</v>
+      </c>
+      <c r="H129" s="3" t="n">
+        <v>0.0016</v>
+      </c>
+      <c r="I129" s="3" t="n">
+        <v>0.0014</v>
+      </c>
+      <c r="J129" s="3" t="n">
+        <v>0.0025</v>
+      </c>
+      <c r="K129" s="3" t="n">
+        <v>0.0049</v>
       </c>
     </row>
     <row r="130" ht="22" customHeight="1">
@@ -3324,19 +5274,34 @@
         </is>
       </c>
       <c r="B130" s="3" t="n">
+        <v>0.0519</v>
+      </c>
+      <c r="C130" s="3" t="n">
         <v>0.049</v>
       </c>
-      <c r="C130" s="3" t="n">
+      <c r="D130" s="3" t="n">
         <v>0.0492</v>
       </c>
-      <c r="D130" s="3" t="n">
+      <c r="E130" s="3" t="n">
         <v>0.05</v>
       </c>
-      <c r="E130" s="3" t="n">
+      <c r="F130" s="3" t="n">
         <v>0.0515</v>
       </c>
-      <c r="F130" s="3" t="n">
+      <c r="G130" s="3" t="n">
         <v>-0.0002</v>
+      </c>
+      <c r="H130" s="3" t="n">
+        <v>-0.0019</v>
+      </c>
+      <c r="I130" s="3" t="n">
+        <v>-0.0004</v>
+      </c>
+      <c r="J130" s="3" t="n">
+        <v>-0.0029</v>
+      </c>
+      <c r="K130" s="3" t="n">
+        <v>-0.0027</v>
       </c>
     </row>
     <row r="131" ht="22" customHeight="1">
@@ -3346,19 +5311,34 @@
         </is>
       </c>
       <c r="B131" s="3" t="n">
+        <v>0.0421</v>
+      </c>
+      <c r="C131" s="3" t="n">
         <v>0.044</v>
       </c>
-      <c r="C131" s="3" t="n">
+      <c r="D131" s="3" t="n">
         <v>0.0427</v>
       </c>
-      <c r="D131" s="3" t="n">
+      <c r="E131" s="3" t="n">
         <v>0.0422</v>
       </c>
-      <c r="E131" s="3" t="n">
+      <c r="F131" s="3" t="n">
         <v>0.0416</v>
       </c>
-      <c r="F131" s="3" t="n">
+      <c r="G131" s="3" t="n">
         <v>0.0013</v>
+      </c>
+      <c r="H131" s="3" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="I131" s="3" t="n">
+        <v>-0.0005</v>
+      </c>
+      <c r="J131" s="3" t="n">
+        <v>0.0019</v>
+      </c>
+      <c r="K131" s="3" t="n">
+        <v>0.0005999999999999999</v>
       </c>
     </row>
     <row r="132" ht="22" customHeight="1">
@@ -3368,19 +5348,34 @@
         </is>
       </c>
       <c r="B132" s="3" t="n">
+        <v>1.0402</v>
+      </c>
+      <c r="C132" s="3" t="n">
         <v>1.0404</v>
       </c>
-      <c r="C132" s="3" t="n">
+      <c r="D132" s="3" t="n">
         <v>1.0365</v>
       </c>
-      <c r="D132" s="3" t="n">
+      <c r="E132" s="3" t="n">
         <v>1.0084</v>
       </c>
-      <c r="E132" s="3" t="n">
+      <c r="F132" s="3" t="n">
         <v>1.0281</v>
       </c>
-      <c r="F132" s="3" t="n">
+      <c r="G132" s="3" t="n">
         <v>0.0039</v>
+      </c>
+      <c r="H132" s="3" t="n">
+        <v>-0.0318</v>
+      </c>
+      <c r="I132" s="3" t="n">
+        <v>-0.0121</v>
+      </c>
+      <c r="J132" s="3" t="n">
+        <v>0.0002</v>
+      </c>
+      <c r="K132" s="3" t="n">
+        <v>-0.0037</v>
       </c>
     </row>
     <row r="133" ht="22" customHeight="1">
@@ -3390,19 +5385,34 @@
         </is>
       </c>
       <c r="B133" s="3" t="n">
+        <v>0.011</v>
+      </c>
+      <c r="C133" s="3" t="n">
         <v>0.0111</v>
       </c>
-      <c r="C133" s="3" t="n">
+      <c r="D133" s="3" t="n">
         <v>0.0089</v>
       </c>
-      <c r="D133" s="3" t="n">
+      <c r="E133" s="3" t="n">
         <v>0.0116</v>
       </c>
-      <c r="E133" s="3" t="n">
+      <c r="F133" s="3" t="n">
         <v>0.0111</v>
       </c>
-      <c r="F133" s="3" t="n">
+      <c r="G133" s="3" t="n">
         <v>0.0022</v>
+      </c>
+      <c r="H133" s="3" t="n">
+        <v>0.0005999999999999999</v>
+      </c>
+      <c r="I133" s="3" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="J133" s="3" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="K133" s="3" t="n">
+        <v>-0.0021</v>
       </c>
     </row>
     <row r="134" ht="22" customHeight="1">
@@ -3412,19 +5422,34 @@
         </is>
       </c>
       <c r="B134" s="3" t="n">
+        <v>0.0114</v>
+      </c>
+      <c r="C134" s="3" t="n">
         <v>0.0115</v>
       </c>
-      <c r="C134" s="3" t="n">
+      <c r="D134" s="3" t="n">
         <v>0.012</v>
       </c>
-      <c r="D134" s="3" t="n">
+      <c r="E134" s="3" t="n">
         <v>0.0103</v>
       </c>
-      <c r="E134" s="3" t="n">
+      <c r="F134" s="3" t="n">
         <v>0.0114</v>
       </c>
-      <c r="F134" s="3" t="n">
+      <c r="G134" s="3" t="n">
         <v>-0.0005</v>
+      </c>
+      <c r="H134" s="3" t="n">
+        <v>-0.0011</v>
+      </c>
+      <c r="I134" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J134" s="3" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="K134" s="3" t="n">
+        <v>0.0005999999999999999</v>
       </c>
     </row>
     <row r="135" ht="22" customHeight="1">
@@ -3434,19 +5459,34 @@
         </is>
       </c>
       <c r="B135" s="3" t="n">
+        <v>4.0978</v>
+      </c>
+      <c r="C135" s="3" t="n">
         <v>4.1014</v>
       </c>
-      <c r="C135" s="3" t="n">
+      <c r="D135" s="3" t="n">
         <v>4.095</v>
       </c>
-      <c r="D135" s="3" t="n">
+      <c r="E135" s="3" t="n">
         <v>4.0891</v>
       </c>
-      <c r="E135" s="3" t="n">
+      <c r="F135" s="3" t="n">
         <v>4.0932</v>
       </c>
-      <c r="F135" s="3" t="n">
+      <c r="G135" s="3" t="n">
         <v>0.0064</v>
+      </c>
+      <c r="H135" s="3" t="n">
+        <v>-0.008699999999999999</v>
+      </c>
+      <c r="I135" s="3" t="n">
+        <v>-0.0046</v>
+      </c>
+      <c r="J135" s="3" t="n">
+        <v>0.0036</v>
+      </c>
+      <c r="K135" s="3" t="n">
+        <v>-0.0028</v>
       </c>
     </row>
     <row r="136" ht="22" customHeight="1">
@@ -3456,19 +5496,34 @@
         </is>
       </c>
       <c r="B136" s="3" t="n">
+        <v>22.9785</v>
+      </c>
+      <c r="C136" s="3" t="n">
         <v>23.0271</v>
       </c>
-      <c r="C136" s="3" t="n">
+      <c r="D136" s="3" t="n">
         <v>22.8501</v>
       </c>
-      <c r="D136" s="3" t="n">
+      <c r="E136" s="3" t="n">
         <v>22.8128</v>
       </c>
-      <c r="E136" s="3" t="n">
+      <c r="F136" s="3" t="n">
         <v>22.9528</v>
       </c>
-      <c r="F136" s="3" t="n">
+      <c r="G136" s="3" t="n">
         <v>0.177</v>
+      </c>
+      <c r="H136" s="3" t="n">
+        <v>-0.1657</v>
+      </c>
+      <c r="I136" s="3" t="n">
+        <v>-0.0257</v>
+      </c>
+      <c r="J136" s="3" t="n">
+        <v>0.0486</v>
+      </c>
+      <c r="K136" s="3" t="n">
+        <v>-0.1284</v>
       </c>
     </row>
     <row r="137" ht="22" customHeight="1">
@@ -3478,19 +5533,34 @@
         </is>
       </c>
       <c r="B137" s="3" t="n">
+        <v>0.0097</v>
+      </c>
+      <c r="C137" s="3" t="n">
         <v>0.0083</v>
       </c>
-      <c r="C137" s="3" t="n">
+      <c r="D137" s="3" t="n">
         <v>0.0091</v>
       </c>
-      <c r="D137" s="3" t="n">
+      <c r="E137" s="3" t="n">
         <v>0.0112</v>
       </c>
-      <c r="E137" s="3" t="n">
+      <c r="F137" s="3" t="n">
         <v>0.008699999999999901</v>
       </c>
-      <c r="F137" s="3" t="n">
+      <c r="G137" s="3" t="n">
         <v>-0.0008</v>
+      </c>
+      <c r="H137" s="3" t="n">
+        <v>0.0015</v>
+      </c>
+      <c r="I137" s="3" t="n">
+        <v>-0.001</v>
+      </c>
+      <c r="J137" s="3" t="n">
+        <v>-0.0014</v>
+      </c>
+      <c r="K137" s="3" t="n">
+        <v>-0.0005999999999999999</v>
       </c>
     </row>
     <row r="138" ht="22" customHeight="1">
@@ -3500,19 +5570,34 @@
         </is>
       </c>
       <c r="B138" s="3" t="n">
+        <v>0.008800000000000001</v>
+      </c>
+      <c r="C138" s="3" t="n">
         <v>0.0077</v>
       </c>
-      <c r="C138" s="3" t="n">
+      <c r="D138" s="3" t="n">
         <v>0.008</v>
       </c>
-      <c r="D138" s="3" t="n">
+      <c r="E138" s="3" t="n">
         <v>0.007</v>
       </c>
-      <c r="E138" s="3" t="n">
+      <c r="F138" s="3" t="n">
         <v>0.0116</v>
       </c>
-      <c r="F138" s="3" t="n">
+      <c r="G138" s="3" t="n">
         <v>-0.0003</v>
+      </c>
+      <c r="H138" s="3" t="n">
+        <v>-0.0018</v>
+      </c>
+      <c r="I138" s="3" t="n">
+        <v>0.0028</v>
+      </c>
+      <c r="J138" s="3" t="n">
+        <v>-0.0011</v>
+      </c>
+      <c r="K138" s="3" t="n">
+        <v>-0.0008</v>
       </c>
     </row>
     <row r="139" ht="22" customHeight="1">
@@ -3522,19 +5607,34 @@
         </is>
       </c>
       <c r="B139" s="3" t="n">
+        <v>1021.5688</v>
+      </c>
+      <c r="C139" s="3" t="n">
         <v>1017.9934</v>
       </c>
-      <c r="C139" s="3" t="n">
+      <c r="D139" s="3" t="n">
         <v>1013.4797</v>
       </c>
-      <c r="D139" s="3" t="n">
+      <c r="E139" s="3" t="n">
         <v>954.6033</v>
       </c>
-      <c r="E139" s="3" t="n">
+      <c r="F139" s="3" t="n">
         <v>1022.0216</v>
       </c>
-      <c r="F139" s="5" t="n">
+      <c r="G139" s="5" t="n">
         <v>4.5137</v>
+      </c>
+      <c r="H139" s="3" t="n">
+        <v>-66.96550000000001</v>
+      </c>
+      <c r="I139" s="3" t="n">
+        <v>0.4528</v>
+      </c>
+      <c r="J139" s="3" t="n">
+        <v>-3.5754</v>
+      </c>
+      <c r="K139" s="3" t="n">
+        <v>-8.0891</v>
       </c>
     </row>
     <row r="140" ht="22" customHeight="1">
@@ -3544,19 +5644,34 @@
         </is>
       </c>
       <c r="B140" s="3" t="n">
+        <v>5.6838</v>
+      </c>
+      <c r="C140" s="3" t="n">
         <v>5.6573</v>
       </c>
-      <c r="C140" s="3" t="n">
+      <c r="D140" s="3" t="n">
         <v>5.5911</v>
       </c>
-      <c r="D140" s="3" t="n">
+      <c r="E140" s="3" t="n">
         <v>5.6694</v>
       </c>
-      <c r="E140" s="3" t="n">
+      <c r="F140" s="3" t="n">
         <v>5.678</v>
       </c>
-      <c r="F140" s="3" t="n">
+      <c r="G140" s="3" t="n">
         <v>0.06619999999999999</v>
+      </c>
+      <c r="H140" s="3" t="n">
+        <v>-0.0144</v>
+      </c>
+      <c r="I140" s="3" t="n">
+        <v>-0.0058</v>
+      </c>
+      <c r="J140" s="3" t="n">
+        <v>-0.0265</v>
+      </c>
+      <c r="K140" s="3" t="n">
+        <v>-0.0927</v>
       </c>
     </row>
     <row r="141" ht="22" customHeight="1">
@@ -3566,19 +5681,34 @@
         </is>
       </c>
       <c r="B141" s="3" t="n">
+        <v>0.0368</v>
+      </c>
+      <c r="C141" s="3" t="n">
         <v>0.036</v>
       </c>
-      <c r="C141" s="3" t="n">
+      <c r="D141" s="3" t="n">
         <v>0.0389</v>
       </c>
-      <c r="D141" s="3" t="n">
+      <c r="E141" s="3" t="n">
         <v>0.0369</v>
       </c>
-      <c r="E141" s="3" t="n">
+      <c r="F141" s="3" t="n">
         <v>0.0368</v>
       </c>
-      <c r="F141" s="3" t="n">
+      <c r="G141" s="3" t="n">
         <v>-0.0029</v>
+      </c>
+      <c r="H141" s="3" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="I141" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J141" s="3" t="n">
+        <v>-0.0008</v>
+      </c>
+      <c r="K141" s="3" t="n">
+        <v>0.0021</v>
       </c>
     </row>
     <row r="142" ht="22" customHeight="1">
@@ -3594,12 +5724,27 @@
         <v>0.0094</v>
       </c>
       <c r="D142" s="3" t="n">
+        <v>0.0094</v>
+      </c>
+      <c r="E142" s="3" t="n">
         <v>0.0095</v>
       </c>
-      <c r="E142" s="3" t="n">
+      <c r="F142" s="3" t="n">
         <v>0.0094</v>
       </c>
-      <c r="F142" s="3" t="n">
+      <c r="G142" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H142" s="3" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="I142" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J142" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K142" s="3" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3610,19 +5755,34 @@
         </is>
       </c>
       <c r="B143" s="3" t="n">
+        <v>1.0004</v>
+      </c>
+      <c r="C143" s="3" t="n">
         <v>0.998</v>
       </c>
-      <c r="C143" s="3" t="n">
+      <c r="D143" s="3" t="n">
         <v>1.0036</v>
       </c>
-      <c r="D143" s="3" t="n">
+      <c r="E143" s="3" t="n">
         <v>1.0025</v>
       </c>
-      <c r="E143" s="3" t="n">
+      <c r="F143" s="3" t="n">
         <v>1.0018</v>
       </c>
-      <c r="F143" s="3" t="n">
+      <c r="G143" s="3" t="n">
         <v>-0.0056</v>
+      </c>
+      <c r="H143" s="3" t="n">
+        <v>0.0021</v>
+      </c>
+      <c r="I143" s="3" t="n">
+        <v>0.0014</v>
+      </c>
+      <c r="J143" s="3" t="n">
+        <v>-0.0024</v>
+      </c>
+      <c r="K143" s="3" t="n">
+        <v>0.0032</v>
       </c>
     </row>
     <row r="144" ht="22" customHeight="1">
@@ -3632,19 +5792,34 @@
         </is>
       </c>
       <c r="B144" s="3" t="n">
+        <v>0.0199</v>
+      </c>
+      <c r="C144" s="3" t="n">
         <v>0.0193</v>
       </c>
-      <c r="C144" s="3" t="n">
+      <c r="D144" s="3" t="n">
         <v>0.0195</v>
       </c>
-      <c r="D144" s="3" t="n">
+      <c r="E144" s="3" t="n">
         <v>0.02</v>
       </c>
-      <c r="E144" s="3" t="n">
+      <c r="F144" s="3" t="n">
         <v>0.0197</v>
       </c>
-      <c r="F144" s="3" t="n">
+      <c r="G144" s="3" t="n">
         <v>-0.0002</v>
+      </c>
+      <c r="H144" s="3" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="I144" s="3" t="n">
+        <v>-0.0002</v>
+      </c>
+      <c r="J144" s="3" t="n">
+        <v>-0.0005999999999999999</v>
+      </c>
+      <c r="K144" s="3" t="n">
+        <v>-0.0004</v>
       </c>
     </row>
     <row r="145" ht="22" customHeight="1">
@@ -3654,19 +5829,34 @@
         </is>
       </c>
       <c r="B145" s="3" t="n">
+        <v>0.0239</v>
+      </c>
+      <c r="C145" s="3" t="n">
         <v>0.0228</v>
       </c>
-      <c r="C145" s="3" t="n">
+      <c r="D145" s="3" t="n">
         <v>0.0247</v>
       </c>
-      <c r="D145" s="3" t="n">
+      <c r="E145" s="3" t="n">
         <v>0.0226</v>
       </c>
-      <c r="E145" s="3" t="n">
+      <c r="F145" s="3" t="n">
         <v>0.0223</v>
       </c>
-      <c r="F145" s="3" t="n">
+      <c r="G145" s="3" t="n">
         <v>-0.0019</v>
+      </c>
+      <c r="H145" s="3" t="n">
+        <v>-0.0013</v>
+      </c>
+      <c r="I145" s="3" t="n">
+        <v>-0.0016</v>
+      </c>
+      <c r="J145" s="3" t="n">
+        <v>-0.0011</v>
+      </c>
+      <c r="K145" s="3" t="n">
+        <v>0.0008</v>
       </c>
     </row>
     <row r="146" ht="22" customHeight="1">
@@ -3676,7 +5866,7 @@
         </is>
       </c>
       <c r="B146" s="3" t="n">
-        <v>0.0073</v>
+        <v>0.0072</v>
       </c>
       <c r="C146" s="3" t="n">
         <v>0.0073</v>
@@ -3688,7 +5878,22 @@
         <v>0.0073</v>
       </c>
       <c r="F146" s="3" t="n">
-        <v>0</v>
+        <v>0.0073</v>
+      </c>
+      <c r="G146" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H146" s="3" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="I146" s="3" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="J146" s="3" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="K146" s="3" t="n">
+        <v>0.0001</v>
       </c>
     </row>
     <row r="147" ht="22" customHeight="1">
@@ -3698,19 +5903,34 @@
         </is>
       </c>
       <c r="B147" s="3" t="n">
+        <v>0.1123</v>
+      </c>
+      <c r="C147" s="3" t="n">
         <v>0.1104</v>
       </c>
-      <c r="C147" s="3" t="n">
+      <c r="D147" s="3" t="n">
         <v>0.1101</v>
       </c>
-      <c r="D147" s="3" t="n">
+      <c r="E147" s="3" t="n">
         <v>0.1105</v>
       </c>
-      <c r="E147" s="3" t="n">
+      <c r="F147" s="3" t="n">
         <v>0.1111</v>
       </c>
-      <c r="F147" s="3" t="n">
+      <c r="G147" s="3" t="n">
         <v>0.0003</v>
+      </c>
+      <c r="H147" s="3" t="n">
+        <v>-0.0018</v>
+      </c>
+      <c r="I147" s="3" t="n">
+        <v>-0.0012</v>
+      </c>
+      <c r="J147" s="3" t="n">
+        <v>-0.0019</v>
+      </c>
+      <c r="K147" s="3" t="n">
+        <v>-0.0022</v>
       </c>
     </row>
     <row r="148" ht="22" customHeight="1">
@@ -3720,19 +5940,34 @@
         </is>
       </c>
       <c r="B148" s="3" t="n">
+        <v>0.0147</v>
+      </c>
+      <c r="C148" s="3" t="n">
         <v>0.0143</v>
       </c>
-      <c r="C148" s="3" t="n">
+      <c r="D148" s="3" t="n">
         <v>0.0146</v>
       </c>
-      <c r="D148" s="3" t="n">
+      <c r="E148" s="3" t="n">
         <v>0.0148</v>
       </c>
-      <c r="E148" s="3" t="n">
+      <c r="F148" s="3" t="n">
         <v>0.0147</v>
       </c>
-      <c r="F148" s="3" t="n">
+      <c r="G148" s="3" t="n">
         <v>-0.0003</v>
+      </c>
+      <c r="H148" s="3" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="I148" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J148" s="3" t="n">
+        <v>-0.0004</v>
+      </c>
+      <c r="K148" s="3" t="n">
+        <v>-0.0001</v>
       </c>
     </row>
     <row r="149" ht="22" customHeight="1">
@@ -3742,19 +5977,34 @@
         </is>
       </c>
       <c r="B149" s="3" t="n">
+        <v>0.0145</v>
+      </c>
+      <c r="C149" s="3" t="n">
         <v>0.0144</v>
       </c>
-      <c r="C149" s="3" t="n">
+      <c r="D149" s="3" t="n">
         <v>0.0142</v>
-      </c>
-      <c r="D149" s="3" t="n">
-        <v>0.0143</v>
       </c>
       <c r="E149" s="3" t="n">
         <v>0.0143</v>
       </c>
       <c r="F149" s="3" t="n">
+        <v>0.0143</v>
+      </c>
+      <c r="G149" s="3" t="n">
         <v>0.0002</v>
+      </c>
+      <c r="H149" s="3" t="n">
+        <v>-0.0002</v>
+      </c>
+      <c r="I149" s="3" t="n">
+        <v>-0.0002</v>
+      </c>
+      <c r="J149" s="3" t="n">
+        <v>-0.0001</v>
+      </c>
+      <c r="K149" s="3" t="n">
+        <v>-0.0003</v>
       </c>
     </row>
     <row r="150" ht="22" customHeight="1">
@@ -3764,18 +6014,33 @@
         </is>
       </c>
       <c r="B150" s="3" t="n">
+        <v>0.0114</v>
+      </c>
+      <c r="C150" s="3" t="n">
         <v>0.0112</v>
-      </c>
-      <c r="C150" s="3" t="n">
-        <v>0.0113</v>
       </c>
       <c r="D150" s="3" t="n">
         <v>0.0113</v>
       </c>
       <c r="E150" s="3" t="n">
+        <v>0.0113</v>
+      </c>
+      <c r="F150" s="3" t="n">
         <v>0.0115</v>
       </c>
-      <c r="F150" s="3" t="n">
+      <c r="G150" s="3" t="n">
+        <v>-0.0001</v>
+      </c>
+      <c r="H150" s="3" t="n">
+        <v>-0.0001</v>
+      </c>
+      <c r="I150" s="3" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="J150" s="3" t="n">
+        <v>-0.0002</v>
+      </c>
+      <c r="K150" s="3" t="n">
         <v>-0.0001</v>
       </c>
     </row>
@@ -3786,19 +6051,34 @@
         </is>
       </c>
       <c r="B151" s="3" t="n">
+        <v>585.3546</v>
+      </c>
+      <c r="C151" s="3" t="n">
         <v>581.6846</v>
       </c>
-      <c r="C151" s="3" t="n">
+      <c r="D151" s="3" t="n">
         <v>576.0214</v>
       </c>
-      <c r="D151" s="3" t="n">
+      <c r="E151" s="3" t="n">
         <v>580.374</v>
       </c>
-      <c r="E151" s="3" t="n">
+      <c r="F151" s="3" t="n">
         <v>583.2809999999999</v>
       </c>
-      <c r="F151" s="5" t="n">
+      <c r="G151" s="5" t="n">
         <v>5.6632</v>
+      </c>
+      <c r="H151" s="3" t="n">
+        <v>-4.9806</v>
+      </c>
+      <c r="I151" s="3" t="n">
+        <v>-2.0736</v>
+      </c>
+      <c r="J151" s="3" t="n">
+        <v>-3.67</v>
+      </c>
+      <c r="K151" s="3" t="n">
+        <v>-9.3332</v>
       </c>
     </row>
     <row r="152" ht="22" customHeight="1">
@@ -3808,19 +6088,34 @@
         </is>
       </c>
       <c r="B152" s="3" t="n">
+        <v>0.0363</v>
+      </c>
+      <c r="C152" s="3" t="n">
         <v>0.0355</v>
       </c>
-      <c r="C152" s="3" t="n">
+      <c r="D152" s="3" t="n">
         <v>0.0363</v>
       </c>
-      <c r="D152" s="3" t="n">
+      <c r="E152" s="3" t="n">
         <v>0.0365</v>
       </c>
-      <c r="E152" s="3" t="n">
+      <c r="F152" s="3" t="n">
         <v>0.0366</v>
       </c>
-      <c r="F152" s="3" t="n">
+      <c r="G152" s="3" t="n">
         <v>-0.0008</v>
+      </c>
+      <c r="H152" s="3" t="n">
+        <v>0.0002</v>
+      </c>
+      <c r="I152" s="3" t="n">
+        <v>0.0003</v>
+      </c>
+      <c r="J152" s="3" t="n">
+        <v>-0.0008</v>
+      </c>
+      <c r="K152" s="3" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="153" ht="22" customHeight="1">
@@ -3830,19 +6125,34 @@
         </is>
       </c>
       <c r="B153" s="3" t="n">
+        <v>0.8282</v>
+      </c>
+      <c r="C153" s="3" t="n">
         <v>0.8236</v>
       </c>
-      <c r="C153" s="3" t="n">
+      <c r="D153" s="3" t="n">
         <v>0.8333</v>
       </c>
-      <c r="D153" s="3" t="n">
+      <c r="E153" s="3" t="n">
         <v>0.8319</v>
       </c>
-      <c r="E153" s="3" t="n">
+      <c r="F153" s="3" t="n">
         <v>0.83</v>
       </c>
-      <c r="F153" s="3" t="n">
+      <c r="G153" s="3" t="n">
         <v>-0.0097</v>
+      </c>
+      <c r="H153" s="3" t="n">
+        <v>0.0037</v>
+      </c>
+      <c r="I153" s="3" t="n">
+        <v>0.0018</v>
+      </c>
+      <c r="J153" s="3" t="n">
+        <v>-0.0046</v>
+      </c>
+      <c r="K153" s="3" t="n">
+        <v>0.0051</v>
       </c>
     </row>
     <row r="154" ht="22" customHeight="1">
@@ -3852,19 +6162,34 @@
         </is>
       </c>
       <c r="B154" s="3" t="n">
+        <v>0.0241</v>
+      </c>
+      <c r="C154" s="3" t="n">
         <v>0.0239</v>
       </c>
-      <c r="C154" s="3" t="n">
+      <c r="D154" s="3" t="n">
         <v>0.0238</v>
       </c>
-      <c r="D154" s="3" t="n">
+      <c r="E154" s="3" t="n">
         <v>0.0242</v>
       </c>
-      <c r="E154" s="3" t="n">
+      <c r="F154" s="3" t="n">
         <v>0.0241</v>
       </c>
-      <c r="F154" s="3" t="n">
-        <v>0.0001</v>
+      <c r="G154" s="3" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="H154" s="3" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="I154" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J154" s="3" t="n">
+        <v>-0.0002</v>
+      </c>
+      <c r="K154" s="3" t="n">
+        <v>-0.0003</v>
       </c>
     </row>
     <row r="155" ht="22" customHeight="1">
@@ -3874,19 +6199,34 @@
         </is>
       </c>
       <c r="B155" s="3" t="n">
-        <v>0.0116</v>
+        <v>0.0115</v>
       </c>
       <c r="C155" s="3" t="n">
         <v>0.0116</v>
       </c>
       <c r="D155" s="3" t="n">
+        <v>0.0116</v>
+      </c>
+      <c r="E155" s="3" t="n">
         <v>0.0117</v>
       </c>
-      <c r="E155" s="3" t="n">
+      <c r="F155" s="3" t="n">
         <v>0.0115</v>
       </c>
-      <c r="F155" s="3" t="n">
-        <v>0</v>
+      <c r="G155" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H155" s="3" t="n">
+        <v>0.0002</v>
+      </c>
+      <c r="I155" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J155" s="3" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="K155" s="3" t="n">
+        <v>0.0001</v>
       </c>
     </row>
     <row r="156" ht="22" customHeight="1">
@@ -3896,19 +6236,34 @@
         </is>
       </c>
       <c r="B156" s="3" t="n">
+        <v>6.2092</v>
+      </c>
+      <c r="C156" s="3" t="n">
         <v>227.4179</v>
       </c>
-      <c r="C156" s="3" t="n">
+      <c r="D156" s="3" t="n">
         <v>6.1446</v>
       </c>
-      <c r="D156" s="3" t="n">
+      <c r="E156" s="3" t="n">
         <v>85.6776</v>
       </c>
-      <c r="E156" s="3" t="n">
+      <c r="F156" s="3" t="n">
         <v>7.1944</v>
       </c>
-      <c r="F156" s="5" t="n">
+      <c r="G156" s="5" t="n">
         <v>221.2733</v>
+      </c>
+      <c r="H156" s="5" t="n">
+        <v>79.4684</v>
+      </c>
+      <c r="I156" s="3" t="n">
+        <v>0.9852</v>
+      </c>
+      <c r="J156" s="5" t="n">
+        <v>221.2087</v>
+      </c>
+      <c r="K156" s="3" t="n">
+        <v>-0.0646</v>
       </c>
     </row>
     <row r="157" ht="22" customHeight="1">
@@ -3921,16 +6276,31 @@
         <v>0.0122</v>
       </c>
       <c r="C157" s="3" t="n">
+        <v>0.0122</v>
+      </c>
+      <c r="D157" s="3" t="n">
         <v>0.0121</v>
       </c>
-      <c r="D157" s="3" t="n">
+      <c r="E157" s="3" t="n">
         <v>0.0123</v>
       </c>
-      <c r="E157" s="3" t="n">
+      <c r="F157" s="3" t="n">
         <v>0.0122</v>
       </c>
-      <c r="F157" s="3" t="n">
-        <v>0.0001</v>
+      <c r="G157" s="3" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="H157" s="3" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="I157" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J157" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K157" s="3" t="n">
+        <v>-0.0001</v>
       </c>
     </row>
     <row r="158" ht="22" customHeight="1">
@@ -3940,19 +6310,34 @@
         </is>
       </c>
       <c r="B158" s="3" t="n">
+        <v>0.0213</v>
+      </c>
+      <c r="C158" s="3" t="n">
         <v>0.0211</v>
       </c>
-      <c r="C158" s="3" t="n">
+      <c r="D158" s="3" t="n">
         <v>0.0213</v>
       </c>
-      <c r="D158" s="3" t="n">
+      <c r="E158" s="3" t="n">
         <v>0.0214</v>
       </c>
-      <c r="E158" s="3" t="n">
+      <c r="F158" s="3" t="n">
         <v>0.0213</v>
       </c>
-      <c r="F158" s="3" t="n">
+      <c r="G158" s="3" t="n">
         <v>-0.0002</v>
+      </c>
+      <c r="H158" s="3" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="I158" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J158" s="3" t="n">
+        <v>-0.0002</v>
+      </c>
+      <c r="K158" s="3" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="159" ht="22" customHeight="1">
@@ -3962,18 +6347,33 @@
         </is>
       </c>
       <c r="B159" s="3" t="n">
+        <v>0.0111</v>
+      </c>
+      <c r="C159" s="3" t="n">
         <v>0.0117</v>
-      </c>
-      <c r="C159" s="3" t="n">
-        <v>0.0114</v>
       </c>
       <c r="D159" s="3" t="n">
         <v>0.0114</v>
       </c>
       <c r="E159" s="3" t="n">
+        <v>0.0114</v>
+      </c>
+      <c r="F159" s="3" t="n">
         <v>0.0111</v>
       </c>
-      <c r="F159" s="3" t="n">
+      <c r="G159" s="3" t="n">
+        <v>0.0003</v>
+      </c>
+      <c r="H159" s="3" t="n">
+        <v>0.0003</v>
+      </c>
+      <c r="I159" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J159" s="3" t="n">
+        <v>0.0005999999999999999</v>
+      </c>
+      <c r="K159" s="3" t="n">
         <v>0.0003</v>
       </c>
     </row>
@@ -3984,18 +6384,33 @@
         </is>
       </c>
       <c r="B160" s="3" t="n">
+        <v>0.0116</v>
+      </c>
+      <c r="C160" s="3" t="n">
         <v>0.0118</v>
       </c>
-      <c r="C160" s="3" t="n">
+      <c r="D160" s="3" t="n">
         <v>0.0117</v>
       </c>
-      <c r="D160" s="3" t="n">
+      <c r="E160" s="3" t="n">
         <v>0.0118</v>
       </c>
-      <c r="E160" s="3" t="n">
+      <c r="F160" s="3" t="n">
         <v>0.0117</v>
       </c>
-      <c r="F160" s="3" t="n">
+      <c r="G160" s="3" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="H160" s="3" t="n">
+        <v>0.0002</v>
+      </c>
+      <c r="I160" s="3" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="J160" s="3" t="n">
+        <v>0.0002</v>
+      </c>
+      <c r="K160" s="3" t="n">
         <v>0.0001</v>
       </c>
     </row>
@@ -4009,16 +6424,31 @@
         <v>0.0104</v>
       </c>
       <c r="C161" s="3" t="n">
+        <v>0.0104</v>
+      </c>
+      <c r="D161" s="3" t="n">
         <v>0.0102</v>
       </c>
-      <c r="D161" s="3" t="n">
+      <c r="E161" s="3" t="n">
         <v>0.0104</v>
       </c>
-      <c r="E161" s="3" t="n">
+      <c r="F161" s="3" t="n">
         <v>0.0105</v>
       </c>
-      <c r="F161" s="3" t="n">
+      <c r="G161" s="3" t="n">
         <v>0.0002</v>
+      </c>
+      <c r="H161" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I161" s="3" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="J161" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K161" s="3" t="n">
+        <v>-0.0002</v>
       </c>
     </row>
     <row r="162" ht="22" customHeight="1">
@@ -4028,19 +6458,34 @@
         </is>
       </c>
       <c r="B162" s="3" t="n">
+        <v>0.0198</v>
+      </c>
+      <c r="C162" s="3" t="n">
         <v>0.0192</v>
       </c>
-      <c r="C162" s="3" t="n">
+      <c r="D162" s="3" t="n">
         <v>0.0194</v>
       </c>
-      <c r="D162" s="3" t="n">
+      <c r="E162" s="3" t="n">
         <v>0.0198</v>
       </c>
-      <c r="E162" s="3" t="n">
+      <c r="F162" s="3" t="n">
         <v>0.0196</v>
       </c>
-      <c r="F162" s="3" t="n">
+      <c r="G162" s="3" t="n">
         <v>-0.0002</v>
+      </c>
+      <c r="H162" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I162" s="3" t="n">
+        <v>-0.0002</v>
+      </c>
+      <c r="J162" s="3" t="n">
+        <v>-0.0005999999999999999</v>
+      </c>
+      <c r="K162" s="3" t="n">
+        <v>-0.0004</v>
       </c>
     </row>
     <row r="163" ht="22" customHeight="1">
@@ -4050,19 +6495,34 @@
         </is>
       </c>
       <c r="B163" s="3" t="n">
+        <v>37.4094</v>
+      </c>
+      <c r="C163" s="3" t="n">
         <v>37.4009</v>
       </c>
-      <c r="C163" s="3" t="n">
+      <c r="D163" s="3" t="n">
         <v>37.3891</v>
       </c>
-      <c r="D163" s="3" t="n">
+      <c r="E163" s="3" t="n">
         <v>37.4089</v>
       </c>
-      <c r="E163" s="3" t="n">
+      <c r="F163" s="3" t="n">
         <v>37.4054</v>
       </c>
-      <c r="F163" s="3" t="n">
+      <c r="G163" s="3" t="n">
         <v>0.0118</v>
+      </c>
+      <c r="H163" s="3" t="n">
+        <v>-0.0005</v>
+      </c>
+      <c r="I163" s="3" t="n">
+        <v>-0.004</v>
+      </c>
+      <c r="J163" s="3" t="n">
+        <v>-0.008500000000000001</v>
+      </c>
+      <c r="K163" s="3" t="n">
+        <v>-0.0203</v>
       </c>
     </row>
     <row r="164" ht="22" customHeight="1">
@@ -4072,19 +6532,34 @@
         </is>
       </c>
       <c r="B164" s="3" t="n">
+        <v>0.0126</v>
+      </c>
+      <c r="C164" s="3" t="n">
         <v>0.0125</v>
-      </c>
-      <c r="C164" s="3" t="n">
-        <v>0.0126</v>
       </c>
       <c r="D164" s="3" t="n">
         <v>0.0126</v>
       </c>
       <c r="E164" s="3" t="n">
+        <v>0.0126</v>
+      </c>
+      <c r="F164" s="3" t="n">
         <v>0.0129</v>
       </c>
-      <c r="F164" s="3" t="n">
+      <c r="G164" s="3" t="n">
         <v>-0.0001</v>
+      </c>
+      <c r="H164" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I164" s="3" t="n">
+        <v>0.0003</v>
+      </c>
+      <c r="J164" s="3" t="n">
+        <v>-0.0001</v>
+      </c>
+      <c r="K164" s="3" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="165" ht="22" customHeight="1">
@@ -4094,19 +6569,34 @@
         </is>
       </c>
       <c r="B165" s="3" t="n">
+        <v>0.0278</v>
+      </c>
+      <c r="C165" s="3" t="n">
         <v>0.0276</v>
       </c>
-      <c r="C165" s="3" t="n">
+      <c r="D165" s="3" t="n">
         <v>0.0278</v>
       </c>
-      <c r="D165" s="3" t="n">
+      <c r="E165" s="3" t="n">
         <v>0.0269</v>
       </c>
-      <c r="E165" s="3" t="n">
+      <c r="F165" s="3" t="n">
         <v>0.0278</v>
       </c>
-      <c r="F165" s="3" t="n">
+      <c r="G165" s="3" t="n">
         <v>-0.0002</v>
+      </c>
+      <c r="H165" s="3" t="n">
+        <v>-0.0009</v>
+      </c>
+      <c r="I165" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J165" s="3" t="n">
+        <v>-0.0002</v>
+      </c>
+      <c r="K165" s="3" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="166" ht="22" customHeight="1">
@@ -4116,18 +6606,33 @@
         </is>
       </c>
       <c r="B166" s="3" t="n">
+        <v>0.018</v>
+      </c>
+      <c r="C166" s="3" t="n">
         <v>0.0182</v>
       </c>
-      <c r="C166" s="3" t="n">
+      <c r="D166" s="3" t="n">
         <v>0.0181</v>
       </c>
-      <c r="D166" s="3" t="n">
+      <c r="E166" s="3" t="n">
         <v>0.018</v>
       </c>
-      <c r="E166" s="3" t="n">
+      <c r="F166" s="3" t="n">
         <v>0.0182</v>
       </c>
-      <c r="F166" s="3" t="n">
+      <c r="G166" s="3" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="H166" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I166" s="3" t="n">
+        <v>0.0002</v>
+      </c>
+      <c r="J166" s="3" t="n">
+        <v>0.0002</v>
+      </c>
+      <c r="K166" s="3" t="n">
         <v>0.0001</v>
       </c>
     </row>
@@ -4147,9 +6652,24 @@
         <v>0.007900000000000001</v>
       </c>
       <c r="E167" s="3" t="n">
+        <v>0.007900000000000001</v>
+      </c>
+      <c r="F167" s="3" t="n">
         <v>0.0077</v>
       </c>
-      <c r="F167" s="3" t="n">
+      <c r="G167" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H167" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I167" s="3" t="n">
+        <v>-0.0002</v>
+      </c>
+      <c r="J167" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K167" s="3" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4160,19 +6680,34 @@
         </is>
       </c>
       <c r="B168" s="3" t="n">
-        <v>0.0367</v>
+        <v>0.0365</v>
       </c>
       <c r="C168" s="3" t="n">
         <v>0.0367</v>
       </c>
       <c r="D168" s="3" t="n">
+        <v>0.0367</v>
+      </c>
+      <c r="E168" s="3" t="n">
         <v>0.0363</v>
       </c>
-      <c r="E168" s="3" t="n">
+      <c r="F168" s="3" t="n">
         <v>0.0365</v>
       </c>
-      <c r="F168" s="3" t="n">
-        <v>0</v>
+      <c r="G168" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H168" s="3" t="n">
+        <v>-0.0002</v>
+      </c>
+      <c r="I168" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J168" s="3" t="n">
+        <v>0.0002</v>
+      </c>
+      <c r="K168" s="3" t="n">
+        <v>0.0002</v>
       </c>
     </row>
     <row r="169" ht="22" customHeight="1">
@@ -4182,19 +6717,34 @@
         </is>
       </c>
       <c r="B169" s="3" t="n">
+        <v>1.3039</v>
+      </c>
+      <c r="C169" s="3" t="n">
         <v>1.295</v>
       </c>
-      <c r="C169" s="3" t="n">
+      <c r="D169" s="3" t="n">
         <v>1.2963</v>
       </c>
-      <c r="D169" s="3" t="n">
+      <c r="E169" s="3" t="n">
         <v>1.3022</v>
       </c>
-      <c r="E169" s="3" t="n">
+      <c r="F169" s="3" t="n">
         <v>1.2989</v>
       </c>
-      <c r="F169" s="3" t="n">
+      <c r="G169" s="3" t="n">
         <v>-0.0013</v>
+      </c>
+      <c r="H169" s="3" t="n">
+        <v>-0.0017</v>
+      </c>
+      <c r="I169" s="3" t="n">
+        <v>-0.005</v>
+      </c>
+      <c r="J169" s="3" t="n">
+        <v>-0.0089</v>
+      </c>
+      <c r="K169" s="3" t="n">
+        <v>-0.0076</v>
       </c>
     </row>
     <row r="170" ht="22" customHeight="1">
@@ -4204,19 +6754,34 @@
         </is>
       </c>
       <c r="B170" s="3" t="n">
+        <v>0.6636</v>
+      </c>
+      <c r="C170" s="3" t="n">
         <v>0.664</v>
       </c>
-      <c r="C170" s="3" t="n">
+      <c r="D170" s="3" t="n">
         <v>0.6627</v>
       </c>
-      <c r="D170" s="3" t="n">
+      <c r="E170" s="3" t="n">
         <v>0.6627999999999999</v>
       </c>
-      <c r="E170" s="3" t="n">
+      <c r="F170" s="3" t="n">
         <v>0.6636</v>
       </c>
-      <c r="F170" s="3" t="n">
+      <c r="G170" s="3" t="n">
         <v>0.0013</v>
+      </c>
+      <c r="H170" s="3" t="n">
+        <v>-0.0008</v>
+      </c>
+      <c r="I170" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J170" s="3" t="n">
+        <v>0.0004</v>
+      </c>
+      <c r="K170" s="3" t="n">
+        <v>-0.0009</v>
       </c>
     </row>
     <row r="171" ht="22" customHeight="1">
@@ -4226,19 +6791,34 @@
         </is>
       </c>
       <c r="B171" s="3" t="n">
+        <v>175.6666</v>
+      </c>
+      <c r="C171" s="3" t="n">
         <v>176.4808</v>
       </c>
-      <c r="C171" s="3" t="n">
+      <c r="D171" s="3" t="n">
         <v>175.667</v>
       </c>
-      <c r="D171" s="3" t="n">
+      <c r="E171" s="3" t="n">
         <v>175.7174</v>
       </c>
-      <c r="E171" s="3" t="n">
+      <c r="F171" s="3" t="n">
         <v>176.122</v>
       </c>
-      <c r="F171" s="3" t="n">
+      <c r="G171" s="3" t="n">
         <v>0.8138</v>
+      </c>
+      <c r="H171" s="3" t="n">
+        <v>0.0508</v>
+      </c>
+      <c r="I171" s="3" t="n">
+        <v>0.4554</v>
+      </c>
+      <c r="J171" s="3" t="n">
+        <v>0.8142</v>
+      </c>
+      <c r="K171" s="3" t="n">
+        <v>0.0004</v>
       </c>
     </row>
     <row r="172" ht="22" customHeight="1">
@@ -4248,19 +6828,34 @@
         </is>
       </c>
       <c r="B172" s="3" t="n">
+        <v>0.0102</v>
+      </c>
+      <c r="C172" s="3" t="n">
         <v>0.0101</v>
       </c>
-      <c r="C172" s="3" t="n">
+      <c r="D172" s="3" t="n">
         <v>0.0103</v>
       </c>
-      <c r="D172" s="3" t="n">
+      <c r="E172" s="3" t="n">
         <v>0.0101</v>
       </c>
-      <c r="E172" s="3" t="n">
+      <c r="F172" s="3" t="n">
         <v>0.0102</v>
       </c>
-      <c r="F172" s="3" t="n">
+      <c r="G172" s="3" t="n">
         <v>-0.0002</v>
+      </c>
+      <c r="H172" s="3" t="n">
+        <v>-0.0001</v>
+      </c>
+      <c r="I172" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J172" s="3" t="n">
+        <v>-0.0001</v>
+      </c>
+      <c r="K172" s="3" t="n">
+        <v>0.0001</v>
       </c>
     </row>
     <row r="173" ht="22" customHeight="1">
@@ -4270,19 +6865,34 @@
         </is>
       </c>
       <c r="B173" s="3" t="n">
+        <v>33.4812</v>
+      </c>
+      <c r="C173" s="3" t="n">
         <v>33.9282</v>
       </c>
-      <c r="C173" s="3" t="n">
+      <c r="D173" s="3" t="n">
         <v>33.4557</v>
       </c>
-      <c r="D173" s="3" t="n">
+      <c r="E173" s="3" t="n">
         <v>33.3398</v>
       </c>
-      <c r="E173" s="3" t="n">
+      <c r="F173" s="3" t="n">
         <v>33.3241</v>
       </c>
-      <c r="F173" s="3" t="n">
+      <c r="G173" s="3" t="n">
         <v>0.4725</v>
+      </c>
+      <c r="H173" s="3" t="n">
+        <v>-0.1414</v>
+      </c>
+      <c r="I173" s="3" t="n">
+        <v>-0.1571</v>
+      </c>
+      <c r="J173" s="3" t="n">
+        <v>0.447</v>
+      </c>
+      <c r="K173" s="3" t="n">
+        <v>-0.0255</v>
       </c>
     </row>
     <row r="174" ht="22" customHeight="1">
@@ -4292,19 +6902,34 @@
         </is>
       </c>
       <c r="B174" s="3" t="n">
+        <v>0.9944</v>
+      </c>
+      <c r="C174" s="3" t="n">
         <v>20.7753</v>
       </c>
-      <c r="C174" s="3" t="n">
+      <c r="D174" s="3" t="n">
         <v>0.9948</v>
       </c>
-      <c r="D174" s="3" t="n">
+      <c r="E174" s="3" t="n">
         <v>10.0296</v>
       </c>
-      <c r="E174" s="3" t="n">
+      <c r="F174" s="3" t="n">
         <v>1.0064</v>
       </c>
-      <c r="F174" s="5" t="n">
+      <c r="G174" s="5" t="n">
         <v>19.7805</v>
+      </c>
+      <c r="H174" s="5" t="n">
+        <v>9.0352</v>
+      </c>
+      <c r="I174" s="3" t="n">
+        <v>0.012</v>
+      </c>
+      <c r="J174" s="5" t="n">
+        <v>19.7809</v>
+      </c>
+      <c r="K174" s="3" t="n">
+        <v>0.0004</v>
       </c>
     </row>
     <row r="175" ht="22" customHeight="1">
@@ -4314,19 +6939,34 @@
         </is>
       </c>
       <c r="B175" s="3" t="n">
+        <v>1.8027</v>
+      </c>
+      <c r="C175" s="3" t="n">
         <v>1.8008</v>
       </c>
-      <c r="C175" s="3" t="n">
+      <c r="D175" s="3" t="n">
         <v>1.7939</v>
       </c>
-      <c r="D175" s="3" t="n">
+      <c r="E175" s="3" t="n">
         <v>1.8035</v>
       </c>
-      <c r="E175" s="3" t="n">
+      <c r="F175" s="3" t="n">
         <v>1.8041</v>
       </c>
-      <c r="F175" s="3" t="n">
+      <c r="G175" s="3" t="n">
         <v>0.0069</v>
+      </c>
+      <c r="H175" s="3" t="n">
+        <v>0.0008</v>
+      </c>
+      <c r="I175" s="3" t="n">
+        <v>0.0014</v>
+      </c>
+      <c r="J175" s="3" t="n">
+        <v>-0.0019</v>
+      </c>
+      <c r="K175" s="3" t="n">
+        <v>-0.008800000000000001</v>
       </c>
     </row>
     <row r="176" ht="22" customHeight="1">
@@ -4336,19 +6976,34 @@
         </is>
       </c>
       <c r="B176" s="3" t="n">
+        <v>4.6462</v>
+      </c>
+      <c r="C176" s="3" t="n">
         <v>4.6414</v>
       </c>
-      <c r="C176" s="3" t="n">
+      <c r="D176" s="3" t="n">
         <v>4.655</v>
       </c>
-      <c r="D176" s="3" t="n">
+      <c r="E176" s="3" t="n">
         <v>4.6262</v>
       </c>
-      <c r="E176" s="3" t="n">
+      <c r="F176" s="3" t="n">
         <v>4.6403</v>
       </c>
-      <c r="F176" s="3" t="n">
+      <c r="G176" s="3" t="n">
         <v>-0.0136</v>
+      </c>
+      <c r="H176" s="3" t="n">
+        <v>-0.02</v>
+      </c>
+      <c r="I176" s="3" t="n">
+        <v>-0.0059</v>
+      </c>
+      <c r="J176" s="3" t="n">
+        <v>-0.0048</v>
+      </c>
+      <c r="K176" s="3" t="n">
+        <v>0.008800000000000001</v>
       </c>
     </row>
     <row r="177" ht="22" customHeight="1">
@@ -4358,19 +7013,34 @@
         </is>
       </c>
       <c r="B177" s="3" t="n">
+        <v>0.7633</v>
+      </c>
+      <c r="C177" s="3" t="n">
         <v>0.7481</v>
       </c>
-      <c r="C177" s="3" t="n">
+      <c r="D177" s="3" t="n">
         <v>0.755</v>
       </c>
-      <c r="D177" s="3" t="n">
+      <c r="E177" s="3" t="n">
         <v>0.7544999999999999</v>
       </c>
-      <c r="E177" s="3" t="n">
+      <c r="F177" s="3" t="n">
         <v>0.753</v>
       </c>
-      <c r="F177" s="3" t="n">
+      <c r="G177" s="3" t="n">
         <v>-0.0069</v>
+      </c>
+      <c r="H177" s="3" t="n">
+        <v>-0.008800000000000001</v>
+      </c>
+      <c r="I177" s="3" t="n">
+        <v>-0.0103</v>
+      </c>
+      <c r="J177" s="3" t="n">
+        <v>-0.0152</v>
+      </c>
+      <c r="K177" s="3" t="n">
+        <v>-0.0083</v>
       </c>
     </row>
     <row r="178" ht="22" customHeight="1">
@@ -4380,19 +7050,34 @@
         </is>
       </c>
       <c r="B178" s="3" t="n">
+        <v>124.3488</v>
+      </c>
+      <c r="C178" s="3" t="n">
         <v>127.6254</v>
       </c>
-      <c r="C178" s="3" t="n">
+      <c r="D178" s="3" t="n">
         <v>124.0981</v>
       </c>
-      <c r="D178" s="3" t="n">
+      <c r="E178" s="3" t="n">
         <v>124.829</v>
       </c>
-      <c r="E178" s="3" t="n">
+      <c r="F178" s="3" t="n">
         <v>124.0522</v>
       </c>
-      <c r="F178" s="5" t="n">
+      <c r="G178" s="5" t="n">
         <v>3.5273</v>
+      </c>
+      <c r="H178" s="3" t="n">
+        <v>0.4802</v>
+      </c>
+      <c r="I178" s="3" t="n">
+        <v>-0.2966</v>
+      </c>
+      <c r="J178" s="5" t="n">
+        <v>3.2766</v>
+      </c>
+      <c r="K178" s="3" t="n">
+        <v>-0.2507</v>
       </c>
     </row>
     <row r="179" ht="22" customHeight="1">
@@ -4402,19 +7087,34 @@
         </is>
       </c>
       <c r="B179" s="3" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="C179" s="3" t="n">
         <v>0.009900000000000001</v>
       </c>
-      <c r="C179" s="3" t="n">
+      <c r="D179" s="3" t="n">
         <v>0.0101</v>
       </c>
-      <c r="D179" s="3" t="n">
+      <c r="E179" s="3" t="n">
         <v>0.009900000000000001</v>
       </c>
-      <c r="E179" s="3" t="n">
+      <c r="F179" s="3" t="n">
         <v>0.0098</v>
       </c>
-      <c r="F179" s="3" t="n">
+      <c r="G179" s="3" t="n">
         <v>-0.0002</v>
+      </c>
+      <c r="H179" s="3" t="n">
+        <v>-0.0001</v>
+      </c>
+      <c r="I179" s="3" t="n">
+        <v>-0.0002</v>
+      </c>
+      <c r="J179" s="3" t="n">
+        <v>-0.0001</v>
+      </c>
+      <c r="K179" s="3" t="n">
+        <v>0.0001</v>
       </c>
     </row>
     <row r="180" ht="22" customHeight="1">
@@ -4424,19 +7124,34 @@
         </is>
       </c>
       <c r="B180" s="3" t="n">
+        <v>18.1723</v>
+      </c>
+      <c r="C180" s="3" t="n">
         <v>18.1013</v>
       </c>
-      <c r="C180" s="3" t="n">
+      <c r="D180" s="3" t="n">
         <v>18.1427</v>
       </c>
-      <c r="D180" s="3" t="n">
+      <c r="E180" s="3" t="n">
         <v>18.1831</v>
       </c>
-      <c r="E180" s="3" t="n">
+      <c r="F180" s="3" t="n">
         <v>18.1746</v>
       </c>
-      <c r="F180" s="3" t="n">
+      <c r="G180" s="3" t="n">
         <v>-0.0414</v>
+      </c>
+      <c r="H180" s="3" t="n">
+        <v>0.0108</v>
+      </c>
+      <c r="I180" s="3" t="n">
+        <v>0.0023</v>
+      </c>
+      <c r="J180" s="3" t="n">
+        <v>-0.07099999999999999</v>
+      </c>
+      <c r="K180" s="3" t="n">
+        <v>-0.0296</v>
       </c>
     </row>
     <row r="181" ht="22" customHeight="1">
@@ -4446,19 +7161,34 @@
         </is>
       </c>
       <c r="B181" s="3" t="n">
-        <v>0.0114</v>
+        <v>0.0115</v>
       </c>
       <c r="C181" s="3" t="n">
         <v>0.0114</v>
       </c>
       <c r="D181" s="3" t="n">
-        <v>0.0115</v>
+        <v>0.0114</v>
       </c>
       <c r="E181" s="3" t="n">
         <v>0.0115</v>
       </c>
       <c r="F181" s="3" t="n">
-        <v>0</v>
+        <v>0.0115</v>
+      </c>
+      <c r="G181" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H181" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I181" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J181" s="3" t="n">
+        <v>-0.0001</v>
+      </c>
+      <c r="K181" s="3" t="n">
+        <v>-0.0001</v>
       </c>
     </row>
     <row r="182" ht="22" customHeight="1">
@@ -4471,7 +7201,7 @@
         <v>0.008</v>
       </c>
       <c r="C182" s="3" t="n">
-        <v>0.0081</v>
+        <v>0.008</v>
       </c>
       <c r="D182" s="3" t="n">
         <v>0.0081</v>
@@ -4480,7 +7210,22 @@
         <v>0.0081</v>
       </c>
       <c r="F182" s="3" t="n">
+        <v>0.0081</v>
+      </c>
+      <c r="G182" s="3" t="n">
         <v>-0.0001</v>
+      </c>
+      <c r="H182" s="3" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="I182" s="3" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="J182" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K182" s="3" t="n">
+        <v>0.0001</v>
       </c>
     </row>
     <row r="183" ht="22" customHeight="1">
@@ -4490,19 +7235,34 @@
         </is>
       </c>
       <c r="B183" s="3" t="n">
+        <v>0.0148</v>
+      </c>
+      <c r="C183" s="3" t="n">
         <v>0.0152</v>
       </c>
-      <c r="C183" s="3" t="n">
+      <c r="D183" s="3" t="n">
         <v>0.0143</v>
       </c>
-      <c r="D183" s="3" t="n">
+      <c r="E183" s="3" t="n">
         <v>0.0153</v>
       </c>
-      <c r="E183" s="3" t="n">
+      <c r="F183" s="3" t="n">
         <v>0.0163</v>
       </c>
-      <c r="F183" s="3" t="n">
+      <c r="G183" s="3" t="n">
         <v>0.0009</v>
+      </c>
+      <c r="H183" s="3" t="n">
+        <v>0.0005</v>
+      </c>
+      <c r="I183" s="3" t="n">
+        <v>0.0015</v>
+      </c>
+      <c r="J183" s="3" t="n">
+        <v>0.0004</v>
+      </c>
+      <c r="K183" s="3" t="n">
+        <v>-0.0005</v>
       </c>
     </row>
     <row r="184" ht="22" customHeight="1">
@@ -4512,19 +7272,34 @@
         </is>
       </c>
       <c r="B184" s="3" t="n">
+        <v>79.4679</v>
+      </c>
+      <c r="C184" s="3" t="n">
         <v>79.42919999999999</v>
       </c>
-      <c r="C184" s="3" t="n">
+      <c r="D184" s="3" t="n">
         <v>80.0701</v>
       </c>
-      <c r="D184" s="3" t="n">
+      <c r="E184" s="3" t="n">
         <v>79.5804</v>
       </c>
-      <c r="E184" s="3" t="n">
+      <c r="F184" s="3" t="n">
         <v>79.4152</v>
       </c>
-      <c r="F184" s="3" t="n">
+      <c r="G184" s="3" t="n">
         <v>-0.6409</v>
+      </c>
+      <c r="H184" s="3" t="n">
+        <v>0.1125</v>
+      </c>
+      <c r="I184" s="3" t="n">
+        <v>-0.0527</v>
+      </c>
+      <c r="J184" s="3" t="n">
+        <v>-0.0387</v>
+      </c>
+      <c r="K184" s="3" t="n">
+        <v>0.6022</v>
       </c>
     </row>
     <row r="185" ht="22" customHeight="1">
@@ -4534,19 +7309,34 @@
         </is>
       </c>
       <c r="B185" s="3" t="n">
+        <v>3.801</v>
+      </c>
+      <c r="C185" s="3" t="n">
         <v>3.7599</v>
       </c>
-      <c r="C185" s="3" t="n">
+      <c r="D185" s="3" t="n">
         <v>3.7546</v>
       </c>
-      <c r="D185" s="3" t="n">
+      <c r="E185" s="3" t="n">
         <v>3.8131</v>
       </c>
-      <c r="E185" s="3" t="n">
+      <c r="F185" s="3" t="n">
         <v>3.7478</v>
       </c>
-      <c r="F185" s="3" t="n">
+      <c r="G185" s="3" t="n">
         <v>0.0053</v>
+      </c>
+      <c r="H185" s="3" t="n">
+        <v>0.0121</v>
+      </c>
+      <c r="I185" s="3" t="n">
+        <v>-0.0532</v>
+      </c>
+      <c r="J185" s="3" t="n">
+        <v>-0.0411</v>
+      </c>
+      <c r="K185" s="3" t="n">
+        <v>-0.0464</v>
       </c>
     </row>
     <row r="186" ht="22" customHeight="1">
@@ -4556,19 +7346,34 @@
         </is>
       </c>
       <c r="B186" s="3" t="n">
+        <v>0.0149</v>
+      </c>
+      <c r="C186" s="3" t="n">
         <v>0.0146</v>
       </c>
-      <c r="C186" s="3" t="n">
+      <c r="D186" s="3" t="n">
         <v>0.015</v>
       </c>
-      <c r="D186" s="3" t="n">
+      <c r="E186" s="3" t="n">
         <v>0.0152</v>
       </c>
-      <c r="E186" s="3" t="n">
+      <c r="F186" s="3" t="n">
         <v>0.0151</v>
       </c>
-      <c r="F186" s="3" t="n">
+      <c r="G186" s="3" t="n">
         <v>-0.0004</v>
+      </c>
+      <c r="H186" s="3" t="n">
+        <v>0.0003</v>
+      </c>
+      <c r="I186" s="3" t="n">
+        <v>0.0002</v>
+      </c>
+      <c r="J186" s="3" t="n">
+        <v>-0.0003</v>
+      </c>
+      <c r="K186" s="3" t="n">
+        <v>0.0001</v>
       </c>
     </row>
     <row r="187" ht="22" customHeight="1">
@@ -4578,18 +7383,33 @@
         </is>
       </c>
       <c r="B187" s="3" t="n">
+        <v>0.0118</v>
+      </c>
+      <c r="C187" s="3" t="n">
         <v>0.0122</v>
-      </c>
-      <c r="C187" s="3" t="n">
-        <v>0.012</v>
       </c>
       <c r="D187" s="3" t="n">
         <v>0.012</v>
       </c>
       <c r="E187" s="3" t="n">
+        <v>0.012</v>
+      </c>
+      <c r="F187" s="3" t="n">
         <v>0.0121</v>
       </c>
-      <c r="F187" s="3" t="n">
+      <c r="G187" s="3" t="n">
+        <v>0.0002</v>
+      </c>
+      <c r="H187" s="3" t="n">
+        <v>0.0002</v>
+      </c>
+      <c r="I187" s="3" t="n">
+        <v>0.0003</v>
+      </c>
+      <c r="J187" s="3" t="n">
+        <v>0.0004</v>
+      </c>
+      <c r="K187" s="3" t="n">
         <v>0.0002</v>
       </c>
     </row>
@@ -4600,19 +7420,34 @@
         </is>
       </c>
       <c r="B188" s="3" t="n">
-        <v>0.0332</v>
+        <v>0.0328</v>
       </c>
       <c r="C188" s="3" t="n">
         <v>0.0332</v>
       </c>
       <c r="D188" s="3" t="n">
+        <v>0.0332</v>
+      </c>
+      <c r="E188" s="3" t="n">
         <v>0.033</v>
       </c>
-      <c r="E188" s="3" t="n">
+      <c r="F188" s="3" t="n">
         <v>0.0334</v>
       </c>
-      <c r="F188" s="3" t="n">
-        <v>0</v>
+      <c r="G188" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H188" s="3" t="n">
+        <v>0.0002</v>
+      </c>
+      <c r="I188" s="3" t="n">
+        <v>0.0005999999999999999</v>
+      </c>
+      <c r="J188" s="3" t="n">
+        <v>0.0004</v>
+      </c>
+      <c r="K188" s="3" t="n">
+        <v>0.0004</v>
       </c>
     </row>
     <row r="189" ht="22" customHeight="1">
@@ -4622,19 +7457,34 @@
         </is>
       </c>
       <c r="B189" s="3" t="n">
-        <v>0.007</v>
+        <v>0.0071</v>
       </c>
       <c r="C189" s="3" t="n">
         <v>0.007</v>
       </c>
       <c r="D189" s="3" t="n">
-        <v>0.0069</v>
+        <v>0.007</v>
       </c>
       <c r="E189" s="3" t="n">
         <v>0.0069</v>
       </c>
       <c r="F189" s="3" t="n">
-        <v>0</v>
+        <v>0.0069</v>
+      </c>
+      <c r="G189" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H189" s="3" t="n">
+        <v>-0.0002</v>
+      </c>
+      <c r="I189" s="3" t="n">
+        <v>-0.0002</v>
+      </c>
+      <c r="J189" s="3" t="n">
+        <v>-0.0001</v>
+      </c>
+      <c r="K189" s="3" t="n">
+        <v>-0.0001</v>
       </c>
     </row>
     <row r="190" ht="22" customHeight="1">
@@ -4644,19 +7494,34 @@
         </is>
       </c>
       <c r="B190" s="3" t="n">
+        <v>0.0707</v>
+      </c>
+      <c r="C190" s="3" t="n">
         <v>0.0668</v>
       </c>
-      <c r="C190" s="3" t="n">
+      <c r="D190" s="3" t="n">
         <v>0.0709999999999999</v>
       </c>
-      <c r="D190" s="3" t="n">
+      <c r="E190" s="3" t="n">
         <v>0.07190000000000001</v>
       </c>
-      <c r="E190" s="3" t="n">
+      <c r="F190" s="3" t="n">
         <v>0.0711</v>
       </c>
-      <c r="F190" s="3" t="n">
+      <c r="G190" s="3" t="n">
         <v>-0.0042</v>
+      </c>
+      <c r="H190" s="3" t="n">
+        <v>0.0012</v>
+      </c>
+      <c r="I190" s="3" t="n">
+        <v>0.0004</v>
+      </c>
+      <c r="J190" s="3" t="n">
+        <v>-0.0039</v>
+      </c>
+      <c r="K190" s="3" t="n">
+        <v>0.0003</v>
       </c>
     </row>
     <row r="191" ht="22" customHeight="1">
@@ -4669,16 +7534,31 @@
         <v>0.0154</v>
       </c>
       <c r="C191" s="3" t="n">
+        <v>0.0154</v>
+      </c>
+      <c r="D191" s="3" t="n">
         <v>0.0153</v>
       </c>
-      <c r="D191" s="3" t="n">
+      <c r="E191" s="3" t="n">
         <v>0.0154</v>
       </c>
-      <c r="E191" s="3" t="n">
+      <c r="F191" s="3" t="n">
         <v>0.0153</v>
       </c>
-      <c r="F191" s="3" t="n">
-        <v>0.0001</v>
+      <c r="G191" s="3" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="H191" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I191" s="3" t="n">
+        <v>-0.0001</v>
+      </c>
+      <c r="J191" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K191" s="3" t="n">
+        <v>-0.0001</v>
       </c>
     </row>
     <row r="192" ht="22" customHeight="1">
@@ -4688,7 +7568,7 @@
         </is>
       </c>
       <c r="B192" s="3" t="n">
-        <v>0.0069</v>
+        <v>0.007</v>
       </c>
       <c r="C192" s="3" t="n">
         <v>0.0069</v>
@@ -4697,10 +7577,25 @@
         <v>0.0069</v>
       </c>
       <c r="E192" s="3" t="n">
+        <v>0.0069</v>
+      </c>
+      <c r="F192" s="3" t="n">
         <v>0.0071</v>
       </c>
-      <c r="F192" s="3" t="n">
-        <v>0</v>
+      <c r="G192" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H192" s="3" t="n">
+        <v>-0.0001</v>
+      </c>
+      <c r="I192" s="3" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="J192" s="3" t="n">
+        <v>-0.0001</v>
+      </c>
+      <c r="K192" s="3" t="n">
+        <v>-0.0001</v>
       </c>
     </row>
     <row r="193" ht="22" customHeight="1">
@@ -4710,19 +7605,34 @@
         </is>
       </c>
       <c r="B193" s="3" t="n">
+        <v>0.0068</v>
+      </c>
+      <c r="C193" s="3" t="n">
         <v>0.0067</v>
       </c>
-      <c r="C193" s="3" t="n">
+      <c r="D193" s="3" t="n">
         <v>0.0066</v>
-      </c>
-      <c r="D193" s="3" t="n">
-        <v>0.0067</v>
       </c>
       <c r="E193" s="3" t="n">
         <v>0.0067</v>
       </c>
       <c r="F193" s="3" t="n">
-        <v>0.0001</v>
+        <v>0.0067</v>
+      </c>
+      <c r="G193" s="3" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="H193" s="3" t="n">
+        <v>-0.0001</v>
+      </c>
+      <c r="I193" s="3" t="n">
+        <v>-0.0001</v>
+      </c>
+      <c r="J193" s="3" t="n">
+        <v>-0.0001</v>
+      </c>
+      <c r="K193" s="3" t="n">
+        <v>-0.0002</v>
       </c>
     </row>
     <row r="194" ht="22" customHeight="1">
@@ -4732,18 +7642,33 @@
         </is>
       </c>
       <c r="B194" s="3" t="n">
+        <v>0.0098</v>
+      </c>
+      <c r="C194" s="3" t="n">
         <v>0.01</v>
-      </c>
-      <c r="C194" s="3" t="n">
-        <v>0.009900000000000001</v>
       </c>
       <c r="D194" s="3" t="n">
         <v>0.009900000000000001</v>
       </c>
       <c r="E194" s="3" t="n">
+        <v>0.009900000000000001</v>
+      </c>
+      <c r="F194" s="3" t="n">
         <v>0.0098</v>
       </c>
-      <c r="F194" s="3" t="n">
+      <c r="G194" s="3" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="H194" s="3" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="I194" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J194" s="3" t="n">
+        <v>0.0002</v>
+      </c>
+      <c r="K194" s="3" t="n">
         <v>0.0001</v>
       </c>
     </row>
@@ -4754,19 +7679,34 @@
         </is>
       </c>
       <c r="B195" s="3" t="n">
+        <v>0.0586</v>
+      </c>
+      <c r="C195" s="3" t="n">
         <v>0.0587</v>
       </c>
-      <c r="C195" s="3" t="n">
+      <c r="D195" s="3" t="n">
         <v>0.0589</v>
       </c>
-      <c r="D195" s="3" t="n">
+      <c r="E195" s="3" t="n">
         <v>0.0586</v>
       </c>
-      <c r="E195" s="3" t="n">
+      <c r="F195" s="3" t="n">
         <v>0.0589</v>
       </c>
-      <c r="F195" s="3" t="n">
+      <c r="G195" s="3" t="n">
         <v>-0.0002</v>
+      </c>
+      <c r="H195" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I195" s="3" t="n">
+        <v>0.0003</v>
+      </c>
+      <c r="J195" s="3" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="K195" s="3" t="n">
+        <v>0.0003</v>
       </c>
     </row>
     <row r="196" ht="22" customHeight="1">
@@ -4785,9 +7725,24 @@
         <v>0.0107</v>
       </c>
       <c r="E196" s="3" t="n">
+        <v>0.0107</v>
+      </c>
+      <c r="F196" s="3" t="n">
         <v>0.0108</v>
       </c>
-      <c r="F196" s="3" t="n">
+      <c r="G196" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H196" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I196" s="3" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="J196" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K196" s="3" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4810,6 +7765,21 @@
         <v>0.0068</v>
       </c>
       <c r="F197" s="3" t="n">
+        <v>0.0068</v>
+      </c>
+      <c r="G197" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H197" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I197" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J197" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K197" s="3" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4820,19 +7790,34 @@
         </is>
       </c>
       <c r="B198" s="3" t="n">
+        <v>0.0065</v>
+      </c>
+      <c r="C198" s="3" t="n">
         <v>0.0068</v>
       </c>
-      <c r="C198" s="3" t="n">
+      <c r="D198" s="3" t="n">
         <v>0.0067</v>
       </c>
-      <c r="D198" s="3" t="n">
+      <c r="E198" s="3" t="n">
         <v>0.0066</v>
       </c>
-      <c r="E198" s="3" t="n">
+      <c r="F198" s="3" t="n">
         <v>0.0067</v>
       </c>
-      <c r="F198" s="3" t="n">
-        <v>0.0001</v>
+      <c r="G198" s="3" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="H198" s="3" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="I198" s="3" t="n">
+        <v>0.0002</v>
+      </c>
+      <c r="J198" s="3" t="n">
+        <v>0.0003</v>
+      </c>
+      <c r="K198" s="3" t="n">
+        <v>0.0002</v>
       </c>
     </row>
     <row r="199" ht="22" customHeight="1">
@@ -4845,16 +7830,31 @@
         <v>0.0077</v>
       </c>
       <c r="C199" s="3" t="n">
-        <v>0.0076</v>
+        <v>0.0077</v>
       </c>
       <c r="D199" s="3" t="n">
         <v>0.0076</v>
       </c>
       <c r="E199" s="3" t="n">
+        <v>0.0076</v>
+      </c>
+      <c r="F199" s="3" t="n">
         <v>0.0077</v>
       </c>
-      <c r="F199" s="3" t="n">
-        <v>0.0001</v>
+      <c r="G199" s="3" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="H199" s="3" t="n">
+        <v>-0.0001</v>
+      </c>
+      <c r="I199" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J199" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K199" s="3" t="n">
+        <v>-0.0001</v>
       </c>
     </row>
     <row r="200" ht="22" customHeight="1">
@@ -4870,12 +7870,27 @@
         <v>0.0066</v>
       </c>
       <c r="D200" s="3" t="n">
-        <v>0.0065</v>
+        <v>0.0066</v>
       </c>
       <c r="E200" s="3" t="n">
         <v>0.0065</v>
       </c>
       <c r="F200" s="3" t="n">
+        <v>0.0065</v>
+      </c>
+      <c r="G200" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H200" s="3" t="n">
+        <v>-0.0001</v>
+      </c>
+      <c r="I200" s="3" t="n">
+        <v>-0.0001</v>
+      </c>
+      <c r="J200" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K200" s="3" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4886,7 +7901,7 @@
         </is>
       </c>
       <c r="B201" s="3" t="n">
-        <v>0.0138</v>
+        <v>0.0139</v>
       </c>
       <c r="C201" s="3" t="n">
         <v>0.0138</v>
@@ -4898,7 +7913,22 @@
         <v>0.0138</v>
       </c>
       <c r="F201" s="3" t="n">
-        <v>0</v>
+        <v>0.0138</v>
+      </c>
+      <c r="G201" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H201" s="3" t="n">
+        <v>-0.0001</v>
+      </c>
+      <c r="I201" s="3" t="n">
+        <v>-0.0001</v>
+      </c>
+      <c r="J201" s="3" t="n">
+        <v>-0.0001</v>
+      </c>
+      <c r="K201" s="3" t="n">
+        <v>-0.0001</v>
       </c>
     </row>
     <row r="202" ht="22" customHeight="1">
@@ -4908,19 +7938,34 @@
         </is>
       </c>
       <c r="B202" s="3" t="n">
+        <v>1271.5128</v>
+      </c>
+      <c r="C202" s="3" t="n">
         <v>1272.6788</v>
       </c>
-      <c r="C202" s="3" t="n">
+      <c r="D202" s="3" t="n">
         <v>1266.9385</v>
       </c>
-      <c r="D202" s="3" t="n">
+      <c r="E202" s="3" t="n">
         <v>1272.5427</v>
       </c>
-      <c r="E202" s="3" t="n">
+      <c r="F202" s="3" t="n">
         <v>1272.7325</v>
       </c>
-      <c r="F202" s="5" t="n">
+      <c r="G202" s="5" t="n">
         <v>5.7403</v>
+      </c>
+      <c r="H202" s="5" t="n">
+        <v>1.0299</v>
+      </c>
+      <c r="I202" s="5" t="n">
+        <v>1.2197</v>
+      </c>
+      <c r="J202" s="5" t="n">
+        <v>1.166</v>
+      </c>
+      <c r="K202" s="3" t="n">
+        <v>-4.5743</v>
       </c>
     </row>
     <row r="203" ht="22" customHeight="1">
@@ -4930,19 +7975,34 @@
         </is>
       </c>
       <c r="B203" s="3" t="n">
+        <v>0.019</v>
+      </c>
+      <c r="C203" s="3" t="n">
         <v>0.0163</v>
       </c>
-      <c r="C203" s="3" t="n">
+      <c r="D203" s="3" t="n">
         <v>0.0213</v>
       </c>
-      <c r="D203" s="3" t="n">
+      <c r="E203" s="3" t="n">
         <v>0.018</v>
       </c>
-      <c r="E203" s="3" t="n">
+      <c r="F203" s="3" t="n">
         <v>0.019</v>
       </c>
-      <c r="F203" s="3" t="n">
+      <c r="G203" s="3" t="n">
         <v>-0.005</v>
+      </c>
+      <c r="H203" s="3" t="n">
+        <v>-0.001</v>
+      </c>
+      <c r="I203" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J203" s="3" t="n">
+        <v>-0.0027</v>
+      </c>
+      <c r="K203" s="3" t="n">
+        <v>0.0023</v>
       </c>
     </row>
     <row r="204" ht="22" customHeight="1">
@@ -4952,19 +8012,34 @@
         </is>
       </c>
       <c r="B204" s="3" t="n">
+        <v>0.5221</v>
+      </c>
+      <c r="C204" s="3" t="n">
         <v>0.5128</v>
       </c>
-      <c r="C204" s="3" t="n">
+      <c r="D204" s="3" t="n">
         <v>0.5138</v>
       </c>
-      <c r="D204" s="3" t="n">
+      <c r="E204" s="3" t="n">
         <v>0.5187</v>
       </c>
-      <c r="E204" s="3" t="n">
+      <c r="F204" s="3" t="n">
         <v>0.5193</v>
       </c>
-      <c r="F204" s="3" t="n">
+      <c r="G204" s="3" t="n">
         <v>-0.001</v>
+      </c>
+      <c r="H204" s="3" t="n">
+        <v>-0.0034</v>
+      </c>
+      <c r="I204" s="3" t="n">
+        <v>-0.0028</v>
+      </c>
+      <c r="J204" s="3" t="n">
+        <v>-0.009299999999999999</v>
+      </c>
+      <c r="K204" s="3" t="n">
+        <v>-0.0083</v>
       </c>
     </row>
     <row r="205" ht="22" customHeight="1">
@@ -4974,19 +8049,34 @@
         </is>
       </c>
       <c r="B205" s="3" t="n">
+        <v>0.0306</v>
+      </c>
+      <c r="C205" s="3" t="n">
         <v>0.0308</v>
       </c>
-      <c r="C205" s="3" t="n">
+      <c r="D205" s="3" t="n">
         <v>0.0306</v>
       </c>
-      <c r="D205" s="3" t="n">
+      <c r="E205" s="3" t="n">
         <v>0.0293</v>
       </c>
-      <c r="E205" s="3" t="n">
+      <c r="F205" s="3" t="n">
         <v>0.0304</v>
       </c>
-      <c r="F205" s="3" t="n">
+      <c r="G205" s="3" t="n">
         <v>0.0002</v>
+      </c>
+      <c r="H205" s="3" t="n">
+        <v>-0.0013</v>
+      </c>
+      <c r="I205" s="3" t="n">
+        <v>-0.0002</v>
+      </c>
+      <c r="J205" s="3" t="n">
+        <v>0.0002</v>
+      </c>
+      <c r="K205" s="3" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="206" ht="22" customHeight="1">
@@ -4996,19 +8086,34 @@
         </is>
       </c>
       <c r="B206" s="3" t="n">
+        <v>0.0183</v>
+      </c>
+      <c r="C206" s="3" t="n">
         <v>0.0185</v>
       </c>
-      <c r="C206" s="3" t="n">
+      <c r="D206" s="3" t="n">
         <v>0.0166</v>
       </c>
-      <c r="D206" s="3" t="n">
+      <c r="E206" s="3" t="n">
         <v>0.0185</v>
       </c>
-      <c r="E206" s="3" t="n">
+      <c r="F206" s="3" t="n">
         <v>0.0188</v>
       </c>
-      <c r="F206" s="3" t="n">
+      <c r="G206" s="3" t="n">
         <v>0.0019</v>
+      </c>
+      <c r="H206" s="3" t="n">
+        <v>0.0002</v>
+      </c>
+      <c r="I206" s="3" t="n">
+        <v>0.0005</v>
+      </c>
+      <c r="J206" s="3" t="n">
+        <v>0.0002</v>
+      </c>
+      <c r="K206" s="3" t="n">
+        <v>-0.0017</v>
       </c>
     </row>
     <row r="207" ht="22" customHeight="1">
@@ -5018,19 +8123,34 @@
         </is>
       </c>
       <c r="B207" s="3" t="n">
+        <v>0.0213</v>
+      </c>
+      <c r="C207" s="3" t="n">
         <v>0.0214</v>
       </c>
-      <c r="C207" s="3" t="n">
+      <c r="D207" s="3" t="n">
         <v>0.0201</v>
       </c>
-      <c r="D207" s="3" t="n">
+      <c r="E207" s="3" t="n">
         <v>0.0266</v>
       </c>
-      <c r="E207" s="3" t="n">
+      <c r="F207" s="3" t="n">
         <v>0.0268</v>
       </c>
-      <c r="F207" s="3" t="n">
+      <c r="G207" s="3" t="n">
         <v>0.0013</v>
+      </c>
+      <c r="H207" s="3" t="n">
+        <v>0.0053</v>
+      </c>
+      <c r="I207" s="3" t="n">
+        <v>0.0055</v>
+      </c>
+      <c r="J207" s="3" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="K207" s="3" t="n">
+        <v>-0.0012</v>
       </c>
     </row>
     <row r="208" ht="22" customHeight="1">
@@ -5040,19 +8160,34 @@
         </is>
       </c>
       <c r="B208" s="3" t="n">
+        <v>0.0181</v>
+      </c>
+      <c r="C208" s="3" t="n">
         <v>0.014</v>
       </c>
-      <c r="C208" s="3" t="n">
+      <c r="D208" s="3" t="n">
         <v>0.0159</v>
       </c>
-      <c r="D208" s="3" t="n">
+      <c r="E208" s="3" t="n">
         <v>0.0189</v>
       </c>
-      <c r="E208" s="3" t="n">
+      <c r="F208" s="3" t="n">
         <v>0.018</v>
       </c>
-      <c r="F208" s="3" t="n">
+      <c r="G208" s="3" t="n">
         <v>-0.0019</v>
+      </c>
+      <c r="H208" s="3" t="n">
+        <v>0.0008</v>
+      </c>
+      <c r="I208" s="3" t="n">
+        <v>-0.0001</v>
+      </c>
+      <c r="J208" s="3" t="n">
+        <v>-0.0041</v>
+      </c>
+      <c r="K208" s="3" t="n">
+        <v>-0.0022</v>
       </c>
     </row>
     <row r="209" ht="22" customHeight="1">
@@ -5062,19 +8197,34 @@
         </is>
       </c>
       <c r="B209" s="3" t="n">
+        <v>0.0168</v>
+      </c>
+      <c r="C209" s="3" t="n">
         <v>0.0143</v>
       </c>
-      <c r="C209" s="3" t="n">
+      <c r="D209" s="3" t="n">
         <v>0.0169</v>
       </c>
-      <c r="D209" s="3" t="n">
+      <c r="E209" s="3" t="n">
         <v>0.0117</v>
       </c>
-      <c r="E209" s="3" t="n">
+      <c r="F209" s="3" t="n">
         <v>0.0175</v>
       </c>
-      <c r="F209" s="3" t="n">
+      <c r="G209" s="3" t="n">
         <v>-0.0026</v>
+      </c>
+      <c r="H209" s="3" t="n">
+        <v>-0.0051</v>
+      </c>
+      <c r="I209" s="3" t="n">
+        <v>0.0007</v>
+      </c>
+      <c r="J209" s="3" t="n">
+        <v>-0.0025</v>
+      </c>
+      <c r="K209" s="3" t="n">
+        <v>0.0001</v>
       </c>
     </row>
     <row r="210" ht="22" customHeight="1">
@@ -5084,19 +8234,34 @@
         </is>
       </c>
       <c r="B210" s="3" t="n">
+        <v>0.017</v>
+      </c>
+      <c r="C210" s="3" t="n">
         <v>0.0164</v>
       </c>
-      <c r="C210" s="3" t="n">
+      <c r="D210" s="3" t="n">
         <v>0.0166</v>
       </c>
-      <c r="D210" s="3" t="n">
+      <c r="E210" s="3" t="n">
         <v>0.0147</v>
       </c>
-      <c r="E210" s="3" t="n">
+      <c r="F210" s="3" t="n">
         <v>0.0161</v>
       </c>
-      <c r="F210" s="3" t="n">
+      <c r="G210" s="3" t="n">
         <v>-0.0002</v>
+      </c>
+      <c r="H210" s="3" t="n">
+        <v>-0.0023</v>
+      </c>
+      <c r="I210" s="3" t="n">
+        <v>-0.0009</v>
+      </c>
+      <c r="J210" s="3" t="n">
+        <v>-0.0005999999999999999</v>
+      </c>
+      <c r="K210" s="3" t="n">
+        <v>-0.0004</v>
       </c>
     </row>
     <row r="211" ht="22" customHeight="1">
@@ -5106,19 +8271,34 @@
         </is>
       </c>
       <c r="B211" s="3" t="n">
+        <v>0.0145</v>
+      </c>
+      <c r="C211" s="3" t="n">
         <v>0.0166</v>
       </c>
-      <c r="C211" s="3" t="n">
+      <c r="D211" s="3" t="n">
         <v>0.0156</v>
       </c>
-      <c r="D211" s="3" t="n">
+      <c r="E211" s="3" t="n">
         <v>0.0138</v>
       </c>
-      <c r="E211" s="3" t="n">
+      <c r="F211" s="3" t="n">
         <v>0.0146</v>
       </c>
-      <c r="F211" s="3" t="n">
+      <c r="G211" s="3" t="n">
         <v>0.001</v>
+      </c>
+      <c r="H211" s="3" t="n">
+        <v>-0.0007</v>
+      </c>
+      <c r="I211" s="3" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="J211" s="3" t="n">
+        <v>0.0021</v>
+      </c>
+      <c r="K211" s="3" t="n">
+        <v>0.0011</v>
       </c>
     </row>
     <row r="212" ht="22" customHeight="1">
@@ -5128,19 +8308,34 @@
         </is>
       </c>
       <c r="B212" s="3" t="n">
+        <v>3.4458</v>
+      </c>
+      <c r="C212" s="3" t="n">
         <v>5.4846</v>
       </c>
-      <c r="C212" s="3" t="n">
+      <c r="D212" s="3" t="n">
         <v>3.1574</v>
       </c>
-      <c r="D212" s="3" t="n">
+      <c r="E212" s="3" t="n">
         <v>5.5933</v>
       </c>
-      <c r="E212" s="3" t="n">
+      <c r="F212" s="3" t="n">
         <v>3.2104</v>
       </c>
-      <c r="F212" s="5" t="n">
+      <c r="G212" s="5" t="n">
         <v>2.3272</v>
+      </c>
+      <c r="H212" s="5" t="n">
+        <v>2.1475</v>
+      </c>
+      <c r="I212" s="3" t="n">
+        <v>-0.2354</v>
+      </c>
+      <c r="J212" s="5" t="n">
+        <v>2.0388</v>
+      </c>
+      <c r="K212" s="3" t="n">
+        <v>-0.2884</v>
       </c>
     </row>
   </sheetData>
@@ -5243,7 +8438,7 @@
       </c>
       <c r="B3" s="3" t="inlineStr">
         <is>
-          <t>2025-09-08 00:00:00</t>
+          <t>2025-09-08</t>
         </is>
       </c>
       <c r="C3" s="3" t="n"/>

--- a/data/output/form/all_comparisons.xlsx
+++ b/data/output/form/all_comparisons.xlsx
@@ -555,16 +555,16 @@
       <c r="G2" s="3" t="n">
         <v>0.09470000000000001</v>
       </c>
-      <c r="H2" s="3" t="n">
+      <c r="H2" s="5" t="n">
         <v>-1.5711</v>
       </c>
-      <c r="I2" s="3" t="n">
+      <c r="I2" s="5" t="n">
         <v>-1.834</v>
       </c>
-      <c r="J2" s="3" t="n">
+      <c r="J2" s="5" t="n">
         <v>-2.0068</v>
       </c>
-      <c r="K2" s="3" t="n">
+      <c r="K2" s="5" t="n">
         <v>-2.1015</v>
       </c>
     </row>
@@ -675,7 +675,7 @@
       <c r="J5" s="3" t="n">
         <v>0.0168</v>
       </c>
-      <c r="K5" s="3" t="n">
+      <c r="K5" s="5" t="n">
         <v>-1.2821</v>
       </c>
     </row>
@@ -712,7 +712,7 @@
       <c r="J6" s="5" t="n">
         <v>241.8489</v>
       </c>
-      <c r="K6" s="3" t="n">
+      <c r="K6" s="5" t="n">
         <v>-13.9716</v>
       </c>
     </row>
@@ -749,7 +749,7 @@
       <c r="J7" s="3" t="n">
         <v>-0.7071</v>
       </c>
-      <c r="K7" s="3" t="n">
+      <c r="K7" s="5" t="n">
         <v>-1.0354</v>
       </c>
     </row>
@@ -786,7 +786,7 @@
       <c r="J8" s="5" t="n">
         <v>239.134</v>
       </c>
-      <c r="K8" s="3" t="n">
+      <c r="K8" s="5" t="n">
         <v>-18.227</v>
       </c>
     </row>
@@ -5143,10 +5143,10 @@
       <c r="G126" s="3" t="n">
         <v>0.0015</v>
       </c>
-      <c r="H126" s="3" t="n">
+      <c r="H126" s="5" t="n">
         <v>-1.087</v>
       </c>
-      <c r="I126" s="3" t="n">
+      <c r="I126" s="5" t="n">
         <v>-1.0303</v>
       </c>
       <c r="J126" s="3" t="n">
@@ -5624,16 +5624,16 @@
       <c r="G139" s="5" t="n">
         <v>4.5137</v>
       </c>
-      <c r="H139" s="3" t="n">
+      <c r="H139" s="5" t="n">
         <v>-66.96550000000001</v>
       </c>
       <c r="I139" s="3" t="n">
         <v>0.4528</v>
       </c>
-      <c r="J139" s="3" t="n">
+      <c r="J139" s="5" t="n">
         <v>-3.5754</v>
       </c>
-      <c r="K139" s="3" t="n">
+      <c r="K139" s="5" t="n">
         <v>-8.0891</v>
       </c>
     </row>
@@ -6068,16 +6068,16 @@
       <c r="G151" s="5" t="n">
         <v>5.6632</v>
       </c>
-      <c r="H151" s="3" t="n">
+      <c r="H151" s="5" t="n">
         <v>-4.9806</v>
       </c>
-      <c r="I151" s="3" t="n">
+      <c r="I151" s="5" t="n">
         <v>-2.0736</v>
       </c>
-      <c r="J151" s="3" t="n">
+      <c r="J151" s="5" t="n">
         <v>-3.67</v>
       </c>
-      <c r="K151" s="3" t="n">
+      <c r="K151" s="5" t="n">
         <v>-9.3332</v>
       </c>
     </row>
@@ -7964,7 +7964,7 @@
       <c r="J202" s="5" t="n">
         <v>1.166</v>
       </c>
-      <c r="K202" s="3" t="n">
+      <c r="K202" s="5" t="n">
         <v>-4.5743</v>
       </c>
     </row>
@@ -8349,7 +8349,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q16"/>
+  <dimension ref="A1:P16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8365,15 +8365,14 @@
     <col width="22" customWidth="1" min="6" max="6"/>
     <col width="8" customWidth="1" min="7" max="7"/>
     <col width="16" customWidth="1" min="8" max="8"/>
-    <col width="30" customWidth="1" min="9" max="9"/>
-    <col width="17" customWidth="1" min="10" max="10"/>
+    <col width="17" customWidth="1" min="9" max="9"/>
+    <col width="13" customWidth="1" min="10" max="10"/>
     <col width="13" customWidth="1" min="11" max="11"/>
     <col width="13" customWidth="1" min="12" max="12"/>
-    <col width="13" customWidth="1" min="13" max="13"/>
-    <col width="10" customWidth="1" min="14" max="14"/>
-    <col width="8" customWidth="1" min="15" max="15"/>
-    <col width="15" customWidth="1" min="16" max="16"/>
-    <col width="50" customWidth="1" min="17" max="17"/>
+    <col width="10" customWidth="1" min="13" max="13"/>
+    <col width="8" customWidth="1" min="14" max="14"/>
+    <col width="15" customWidth="1" min="15" max="15"/>
+    <col width="50" customWidth="1" min="16" max="16"/>
   </cols>
   <sheetData>
     <row r="1" ht="22" customHeight="1">
@@ -8401,7 +8400,6 @@
       <c r="N1" s="2" t="n"/>
       <c r="O1" s="2" t="n"/>
       <c r="P1" s="2" t="n"/>
-      <c r="Q1" s="2" t="n"/>
     </row>
     <row r="2" ht="22" customHeight="1">
       <c r="A2" s="3" t="inlineStr">
@@ -8428,7 +8426,6 @@
       <c r="N2" s="3" t="n"/>
       <c r="O2" s="3" t="n"/>
       <c r="P2" s="3" t="n"/>
-      <c r="Q2" s="3" t="n"/>
     </row>
     <row r="3" ht="22" customHeight="1">
       <c r="A3" s="3" t="inlineStr">
@@ -8455,7 +8452,6 @@
       <c r="N3" s="3" t="n"/>
       <c r="O3" s="3" t="n"/>
       <c r="P3" s="3" t="n"/>
-      <c r="Q3" s="3" t="n"/>
     </row>
     <row r="4" ht="22" customHeight="1">
       <c r="A4" s="3" t="inlineStr">
@@ -8482,7 +8478,6 @@
       <c r="N4" s="3" t="n"/>
       <c r="O4" s="3" t="n"/>
       <c r="P4" s="3" t="n"/>
-      <c r="Q4" s="3" t="n"/>
     </row>
     <row r="5" ht="22" customHeight="1">
       <c r="A5" s="3" t="inlineStr">
@@ -8509,7 +8504,6 @@
       <c r="N5" s="3" t="n"/>
       <c r="O5" s="3" t="n"/>
       <c r="P5" s="3" t="n"/>
-      <c r="Q5" s="3" t="n"/>
     </row>
     <row r="6" ht="22" customHeight="1">
       <c r="A6" s="3" t="inlineStr">
@@ -8536,7 +8530,6 @@
       <c r="N6" s="3" t="n"/>
       <c r="O6" s="3" t="n"/>
       <c r="P6" s="3" t="n"/>
-      <c r="Q6" s="3" t="n"/>
     </row>
     <row r="7" ht="22" customHeight="1">
       <c r="A7" s="3" t="inlineStr">
@@ -8563,7 +8556,6 @@
       <c r="N7" s="3" t="n"/>
       <c r="O7" s="3" t="n"/>
       <c r="P7" s="3" t="n"/>
-      <c r="Q7" s="3" t="n"/>
     </row>
     <row r="8" ht="22" customHeight="1">
       <c r="A8" s="3" t="inlineStr">
@@ -8590,7 +8582,6 @@
       <c r="N8" s="3" t="n"/>
       <c r="O8" s="3" t="n"/>
       <c r="P8" s="3" t="n"/>
-      <c r="Q8" s="3" t="n"/>
     </row>
     <row r="9" ht="22" customHeight="1">
       <c r="A9" s="3" t="inlineStr">
@@ -8617,7 +8608,6 @@
       <c r="N9" s="3" t="n"/>
       <c r="O9" s="3" t="n"/>
       <c r="P9" s="3" t="n"/>
-      <c r="Q9" s="3" t="n"/>
     </row>
     <row r="10" ht="22" customHeight="1">
       <c r="A10" s="3" t="n"/>
@@ -8636,7 +8626,6 @@
       <c r="N10" s="3" t="n"/>
       <c r="O10" s="3" t="n"/>
       <c r="P10" s="3" t="n"/>
-      <c r="Q10" s="3" t="n"/>
     </row>
     <row r="11" ht="22" customHeight="1">
       <c r="A11" s="3" t="n"/>
@@ -8655,7 +8644,6 @@
       <c r="N11" s="3" t="n"/>
       <c r="O11" s="3" t="n"/>
       <c r="P11" s="3" t="n"/>
-      <c r="Q11" s="3" t="n"/>
     </row>
     <row r="12" ht="22" customHeight="1">
       <c r="A12" s="3" t="n"/>
@@ -8674,7 +8662,6 @@
       <c r="N12" s="3" t="n"/>
       <c r="O12" s="3" t="n"/>
       <c r="P12" s="3" t="n"/>
-      <c r="Q12" s="3" t="n"/>
     </row>
     <row r="13" ht="22" customHeight="1">
       <c r="A13" s="3" t="inlineStr">
@@ -8719,45 +8706,40 @@
       </c>
       <c r="I13" s="3" t="inlineStr">
         <is>
-          <t>Folder Name</t>
+          <t>Median Times(s)</t>
         </is>
       </c>
       <c r="J13" s="3" t="inlineStr">
         <is>
-          <t>Median Times(s)</t>
+          <t>Avg Time(s)</t>
         </is>
       </c>
       <c r="K13" s="3" t="inlineStr">
         <is>
-          <t>Avg Time(s)</t>
+          <t>Min Time(s)</t>
         </is>
       </c>
       <c r="L13" s="3" t="inlineStr">
         <is>
-          <t>Min Time(s)</t>
+          <t>Max Time(s)</t>
         </is>
       </c>
       <c r="M13" s="3" t="inlineStr">
         <is>
-          <t>Max Time(s)</t>
+          <t>Range(s)</t>
         </is>
       </c>
       <c r="N13" s="3" t="inlineStr">
         <is>
-          <t>Range(s)</t>
+          <t>Std(s)</t>
         </is>
       </c>
       <c r="O13" s="3" t="inlineStr">
         <is>
-          <t>Std(s)</t>
+          <t>Outlier Count</t>
         </is>
       </c>
       <c r="P13" s="3" t="inlineStr">
-        <is>
-          <t>Outlier Count</t>
-        </is>
-      </c>
-      <c r="Q13" s="3" t="inlineStr">
         <is>
           <t>Remark</t>
         </is>
@@ -8806,45 +8788,40 @@
       </c>
       <c r="I14" s="3" t="inlineStr">
         <is>
-          <t>/Users/sw-team/Desktop/0910/</t>
+          <t>2646.10</t>
         </is>
       </c>
       <c r="J14" s="3" t="inlineStr">
         <is>
-          <t>2646.10</t>
+          <t>2652.87</t>
         </is>
       </c>
       <c r="K14" s="3" t="inlineStr">
         <is>
-          <t>2652.87</t>
+          <t>2627.87</t>
         </is>
       </c>
       <c r="L14" s="3" t="inlineStr">
         <is>
-          <t>2627.87</t>
+          <t>2885.23</t>
         </is>
       </c>
       <c r="M14" s="3" t="inlineStr">
         <is>
-          <t>2885.23</t>
+          <t>257.36</t>
         </is>
       </c>
       <c r="N14" s="3" t="inlineStr">
         <is>
-          <t>257.36</t>
+          <t>35.05</t>
         </is>
       </c>
       <c r="O14" s="3" t="inlineStr">
         <is>
-          <t>35.05</t>
+          <t>4</t>
         </is>
       </c>
       <c r="P14" s="3" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="Q14" s="3" t="inlineStr">
         <is>
           <t>Outliers determined by boxplot method (Q1-1.5IQR, Q3+1.5IQR); Min at loops: 52; Max at loops: 2</t>
         </is>
@@ -8867,7 +8844,6 @@
       <c r="N15" s="3" t="n"/>
       <c r="O15" s="3" t="n"/>
       <c r="P15" s="3" t="n"/>
-      <c r="Q15" s="3" t="n"/>
     </row>
     <row r="16" ht="22" customHeight="1">
       <c r="A16" s="3" t="inlineStr">
@@ -8890,7 +8866,6 @@
       <c r="N16" s="3" t="n"/>
       <c r="O16" s="3" t="n"/>
       <c r="P16" s="3" t="n"/>
-      <c r="Q16" s="3" t="n"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/data/output/form/all_comparisons.xlsx
+++ b/data/output/form/all_comparisons.xlsx
@@ -76,16 +76,16 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -477,67 +477,67 @@
   </cols>
   <sheetData>
     <row r="1" ht="22" customHeight="1">
-      <c r="A1" s="4" t="inlineStr">
+      <c r="A1" s="2" t="inlineStr">
         <is>
           <t>Stage</t>
         </is>
       </c>
-      <c r="B1" s="4" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
         <is>
           <t>Median(8th loop)</t>
         </is>
       </c>
-      <c r="C1" s="4" t="inlineStr">
+      <c r="C1" s="2" t="inlineStr">
         <is>
           <t>Max_abnormal(2nd loop)</t>
         </is>
       </c>
-      <c r="D1" s="4" t="inlineStr">
+      <c r="D1" s="2" t="inlineStr">
         <is>
           <t>Min_abnormal(52nd loop)</t>
         </is>
       </c>
-      <c r="E1" s="4" t="inlineStr">
+      <c r="E1" s="2" t="inlineStr">
         <is>
           <t>Abnormal(5th loop)</t>
         </is>
       </c>
-      <c r="F1" s="4" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>Abnormal(36th loop)</t>
         </is>
       </c>
-      <c r="G1" s="4" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
         <is>
           <t>Abnormal(46th loop)</t>
         </is>
       </c>
-      <c r="H1" s="4" t="inlineStr">
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>Time_Difference(Max-Min)</t>
         </is>
       </c>
-      <c r="I1" s="4" t="inlineStr">
+      <c r="I1" s="2" t="inlineStr">
         <is>
           <t>Time_Difference(Abnormal(5th loop)-Median)</t>
         </is>
       </c>
-      <c r="J1" s="4" t="inlineStr">
+      <c r="J1" s="2" t="inlineStr">
         <is>
           <t>Time_Difference(Abnormal(36th loop)-Median)</t>
         </is>
       </c>
-      <c r="K1" s="4" t="inlineStr">
+      <c r="K1" s="2" t="inlineStr">
         <is>
           <t>Time_Difference(Abnormal(46th loop)-Median)</t>
         </is>
       </c>
-      <c r="L1" s="4" t="inlineStr">
+      <c r="L1" s="2" t="inlineStr">
         <is>
           <t>Time_Difference(Max-Median)</t>
         </is>
       </c>
-      <c r="M1" s="4" t="inlineStr">
+      <c r="M1" s="2" t="inlineStr">
         <is>
           <t>Time_Difference(Min-Median)</t>
         </is>
@@ -576,7 +576,7 @@
       <c r="J2" s="3" t="n">
         <v>0.0737</v>
       </c>
-      <c r="K2" s="5" t="n">
+      <c r="K2" s="4" t="n">
         <v>1.9759</v>
       </c>
       <c r="L2" s="3" t="n">
@@ -656,10 +656,10 @@
       <c r="H4" s="3" t="n">
         <v>-0.0944</v>
       </c>
-      <c r="I4" s="5" t="n">
+      <c r="I4" s="4" t="n">
         <v>3.0455</v>
       </c>
-      <c r="J4" s="5" t="n">
+      <c r="J4" s="4" t="n">
         <v>36.4305</v>
       </c>
       <c r="K4" s="3" t="n">
@@ -696,10 +696,10 @@
       <c r="G5" s="3" t="n">
         <v>61.7977</v>
       </c>
-      <c r="H5" s="5" t="n">
+      <c r="H5" s="4" t="n">
         <v>1.2989</v>
       </c>
-      <c r="I5" s="5" t="n">
+      <c r="I5" s="4" t="n">
         <v>32.8126</v>
       </c>
       <c r="J5" s="3" t="n">
@@ -739,22 +739,22 @@
       <c r="G6" s="3" t="n">
         <v>2436.3875</v>
       </c>
-      <c r="H6" s="5" t="n">
+      <c r="H6" s="4" t="n">
         <v>255.8205</v>
       </c>
-      <c r="I6" s="5" t="n">
+      <c r="I6" s="4" t="n">
         <v>82.4145</v>
       </c>
-      <c r="J6" s="5" t="n">
+      <c r="J6" s="4" t="n">
         <v>28.7368</v>
       </c>
-      <c r="K6" s="5" t="n">
+      <c r="K6" s="4" t="n">
         <v>9.8081</v>
       </c>
-      <c r="L6" s="5" t="n">
+      <c r="L6" s="4" t="n">
         <v>239.9684</v>
       </c>
-      <c r="M6" s="5" t="n">
+      <c r="M6" s="4" t="n">
         <v>-15.8521</v>
       </c>
     </row>
@@ -785,13 +785,13 @@
       <c r="H7" s="3" t="n">
         <v>0.3283</v>
       </c>
-      <c r="I7" s="5" t="n">
+      <c r="I7" s="4" t="n">
         <v>1.5704</v>
       </c>
-      <c r="J7" s="5" t="n">
+      <c r="J7" s="4" t="n">
         <v>3.3635</v>
       </c>
-      <c r="K7" s="5" t="n">
+      <c r="K7" s="4" t="n">
         <v>3.8725</v>
       </c>
       <c r="L7" s="3" t="n">
@@ -825,22 +825,22 @@
       <c r="G8" s="3" t="n">
         <v>2660.505</v>
       </c>
-      <c r="H8" s="5" t="n">
+      <c r="H8" s="4" t="n">
         <v>257.361</v>
       </c>
-      <c r="I8" s="5" t="n">
+      <c r="I8" s="4" t="n">
         <v>120.197</v>
       </c>
-      <c r="J8" s="5" t="n">
+      <c r="J8" s="4" t="n">
         <v>68.384</v>
       </c>
-      <c r="K8" s="5" t="n">
+      <c r="K8" s="4" t="n">
         <v>15.145</v>
       </c>
-      <c r="L8" s="5" t="n">
+      <c r="L8" s="4" t="n">
         <v>239.87</v>
       </c>
-      <c r="M8" s="5" t="n">
+      <c r="M8" s="4" t="n">
         <v>-17.491</v>
       </c>
     </row>
@@ -2852,7 +2852,7 @@
       <c r="I55" s="3" t="n">
         <v>0.008800000000000001</v>
       </c>
-      <c r="J55" s="5" t="n">
+      <c r="J55" s="4" t="n">
         <v>30.7885</v>
       </c>
       <c r="K55" s="3" t="n">
@@ -4311,7 +4311,7 @@
       <c r="H89" s="3" t="n">
         <v>0.0149</v>
       </c>
-      <c r="I89" s="5" t="n">
+      <c r="I89" s="4" t="n">
         <v>66.9533</v>
       </c>
       <c r="J89" s="3" t="n">
@@ -5091,10 +5091,10 @@
       <c r="J107" s="3" t="n">
         <v>-0.1753</v>
       </c>
-      <c r="K107" s="5" t="n">
+      <c r="K107" s="4" t="n">
         <v>-1.6288</v>
       </c>
-      <c r="L107" s="5" t="n">
+      <c r="L107" s="4" t="n">
         <v>1.3852</v>
       </c>
       <c r="M107" s="3" t="n">
@@ -5908,13 +5908,13 @@
       <c r="J126" s="3" t="n">
         <v>0.0158</v>
       </c>
-      <c r="K126" s="5" t="n">
+      <c r="K126" s="4" t="n">
         <v>2.0067</v>
       </c>
-      <c r="L126" s="5" t="n">
+      <c r="L126" s="4" t="n">
         <v>2.0344</v>
       </c>
-      <c r="M126" s="5" t="n">
+      <c r="M126" s="4" t="n">
         <v>2.0329</v>
       </c>
     </row>
@@ -6458,22 +6458,22 @@
       <c r="G139" s="3" t="n">
         <v>1021.012</v>
       </c>
-      <c r="H139" s="5" t="n">
+      <c r="H139" s="4" t="n">
         <v>4.5137</v>
       </c>
-      <c r="I139" s="5" t="n">
+      <c r="I139" s="4" t="n">
         <v>-69.9855</v>
       </c>
-      <c r="J139" s="5" t="n">
+      <c r="J139" s="4" t="n">
         <v>-2.5672</v>
       </c>
-      <c r="K139" s="5" t="n">
+      <c r="K139" s="4" t="n">
         <v>-3.5768</v>
       </c>
-      <c r="L139" s="5" t="n">
+      <c r="L139" s="4" t="n">
         <v>-6.5954</v>
       </c>
-      <c r="M139" s="5" t="n">
+      <c r="M139" s="4" t="n">
         <v>-11.1091</v>
       </c>
     </row>
@@ -6974,22 +6974,22 @@
       <c r="G151" s="3" t="n">
         <v>592.9519</v>
       </c>
-      <c r="H151" s="5" t="n">
+      <c r="H151" s="4" t="n">
         <v>5.6632</v>
       </c>
-      <c r="I151" s="5" t="n">
+      <c r="I151" s="4" t="n">
         <v>-2.7574</v>
       </c>
       <c r="J151" s="3" t="n">
         <v>0.1496</v>
       </c>
-      <c r="K151" s="5" t="n">
+      <c r="K151" s="4" t="n">
         <v>9.820499999999999</v>
       </c>
-      <c r="L151" s="5" t="n">
+      <c r="L151" s="4" t="n">
         <v>-1.4468</v>
       </c>
-      <c r="M151" s="5" t="n">
+      <c r="M151" s="4" t="n">
         <v>-7.11</v>
       </c>
     </row>
@@ -7189,19 +7189,19 @@
       <c r="G156" s="3" t="n">
         <v>6.1684</v>
       </c>
-      <c r="H156" s="5" t="n">
+      <c r="H156" s="4" t="n">
         <v>221.2733</v>
       </c>
-      <c r="I156" s="5" t="n">
+      <c r="I156" s="4" t="n">
         <v>79.515</v>
       </c>
-      <c r="J156" s="5" t="n">
+      <c r="J156" s="4" t="n">
         <v>1.0318</v>
       </c>
       <c r="K156" s="3" t="n">
         <v>0.0058</v>
       </c>
-      <c r="L156" s="5" t="n">
+      <c r="L156" s="4" t="n">
         <v>221.2553</v>
       </c>
       <c r="M156" s="3" t="n">
@@ -7963,10 +7963,10 @@
       <c r="G174" s="3" t="n">
         <v>1.0129</v>
       </c>
-      <c r="H174" s="5" t="n">
+      <c r="H174" s="4" t="n">
         <v>19.7805</v>
       </c>
-      <c r="I174" s="5" t="n">
+      <c r="I174" s="4" t="n">
         <v>9.0219</v>
       </c>
       <c r="J174" s="3" t="n">
@@ -7975,7 +7975,7 @@
       <c r="K174" s="3" t="n">
         <v>0.0052</v>
       </c>
-      <c r="L174" s="5" t="n">
+      <c r="L174" s="4" t="n">
         <v>19.7676</v>
       </c>
       <c r="M174" s="3" t="n">
@@ -8135,7 +8135,7 @@
       <c r="G178" s="3" t="n">
         <v>124.5097</v>
       </c>
-      <c r="H178" s="5" t="n">
+      <c r="H178" s="4" t="n">
         <v>3.5273</v>
       </c>
       <c r="I178" s="3" t="n">
@@ -8147,7 +8147,7 @@
       <c r="K178" s="3" t="n">
         <v>-0.1897</v>
       </c>
-      <c r="L178" s="5" t="n">
+      <c r="L178" s="4" t="n">
         <v>2.926</v>
       </c>
       <c r="M178" s="3" t="n">
@@ -8402,7 +8402,7 @@
       <c r="J184" s="3" t="n">
         <v>0.0226</v>
       </c>
-      <c r="K184" s="5" t="n">
+      <c r="K184" s="4" t="n">
         <v>1.2438</v>
       </c>
       <c r="L184" s="3" t="n">
@@ -9167,22 +9167,22 @@
       <c r="G202" s="3" t="n">
         <v>1272.4114</v>
       </c>
-      <c r="H202" s="5" t="n">
+      <c r="H202" s="4" t="n">
         <v>5.7403</v>
       </c>
-      <c r="I202" s="5" t="n">
+      <c r="I202" s="4" t="n">
         <v>-3.2272</v>
       </c>
-      <c r="J202" s="5" t="n">
+      <c r="J202" s="4" t="n">
         <v>-3.0374</v>
       </c>
-      <c r="K202" s="5" t="n">
+      <c r="K202" s="4" t="n">
         <v>-3.3585</v>
       </c>
-      <c r="L202" s="5" t="n">
+      <c r="L202" s="4" t="n">
         <v>-3.0911</v>
       </c>
-      <c r="M202" s="5" t="n">
+      <c r="M202" s="4" t="n">
         <v>-8.8314</v>
       </c>
     </row>
@@ -9597,22 +9597,22 @@
       <c r="G212" s="3" t="n">
         <v>3.3673</v>
       </c>
-      <c r="H212" s="5" t="n">
+      <c r="H212" s="4" t="n">
         <v>2.3272</v>
       </c>
       <c r="I212" s="3" t="n">
         <v>0.1521</v>
       </c>
-      <c r="J212" s="5" t="n">
+      <c r="J212" s="4" t="n">
         <v>-2.2308</v>
       </c>
-      <c r="K212" s="5" t="n">
+      <c r="K212" s="4" t="n">
         <v>-2.0739</v>
       </c>
       <c r="L212" s="3" t="n">
         <v>0.0434</v>
       </c>
-      <c r="M212" s="5" t="n">
+      <c r="M212" s="4" t="n">
         <v>-2.2838</v>
       </c>
     </row>
@@ -9627,7 +9627,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P16"/>
+  <dimension ref="A1:Q14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9635,7 +9635,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="50" customWidth="1" min="1" max="1"/>
+    <col width="24" customWidth="1" min="1" max="1"/>
     <col width="22" customWidth="1" min="2" max="2"/>
     <col width="20" customWidth="1" min="3" max="3"/>
     <col width="22" customWidth="1" min="4" max="4"/>
@@ -9650,34 +9650,36 @@
     <col width="10" customWidth="1" min="13" max="13"/>
     <col width="8" customWidth="1" min="14" max="14"/>
     <col width="15" customWidth="1" min="15" max="15"/>
-    <col width="50" customWidth="1" min="16" max="16"/>
+    <col width="15" customWidth="1" min="16" max="16"/>
+    <col width="8" customWidth="1" min="17" max="17"/>
   </cols>
   <sheetData>
     <row r="1" ht="22" customHeight="1">
-      <c r="A1" s="2" t="inlineStr">
+      <c r="A1" s="5" t="inlineStr">
         <is>
           <t>Field</t>
         </is>
       </c>
-      <c r="B1" s="2" t="inlineStr">
+      <c r="B1" s="5" t="inlineStr">
         <is>
           <t>Description</t>
         </is>
       </c>
-      <c r="C1" s="2" t="n"/>
-      <c r="D1" s="2" t="n"/>
-      <c r="E1" s="2" t="n"/>
-      <c r="F1" s="2" t="n"/>
-      <c r="G1" s="2" t="n"/>
-      <c r="H1" s="2" t="n"/>
-      <c r="I1" s="2" t="n"/>
-      <c r="J1" s="2" t="n"/>
-      <c r="K1" s="2" t="n"/>
-      <c r="L1" s="2" t="n"/>
-      <c r="M1" s="2" t="n"/>
-      <c r="N1" s="2" t="n"/>
-      <c r="O1" s="2" t="n"/>
-      <c r="P1" s="2" t="n"/>
+      <c r="C1" s="5" t="n"/>
+      <c r="D1" s="5" t="n"/>
+      <c r="E1" s="5" t="n"/>
+      <c r="F1" s="5" t="n"/>
+      <c r="G1" s="5" t="n"/>
+      <c r="H1" s="5" t="n"/>
+      <c r="I1" s="5" t="n"/>
+      <c r="J1" s="5" t="n"/>
+      <c r="K1" s="5" t="n"/>
+      <c r="L1" s="5" t="n"/>
+      <c r="M1" s="5" t="n"/>
+      <c r="N1" s="5" t="n"/>
+      <c r="O1" s="5" t="n"/>
+      <c r="P1" s="5" t="n"/>
+      <c r="Q1" s="5" t="n"/>
     </row>
     <row r="2" ht="22" customHeight="1">
       <c r="A2" s="3" t="inlineStr">
@@ -9704,6 +9706,7 @@
       <c r="N2" s="3" t="n"/>
       <c r="O2" s="3" t="n"/>
       <c r="P2" s="3" t="n"/>
+      <c r="Q2" s="3" t="n"/>
     </row>
     <row r="3" ht="22" customHeight="1">
       <c r="A3" s="3" t="inlineStr">
@@ -9730,6 +9733,7 @@
       <c r="N3" s="3" t="n"/>
       <c r="O3" s="3" t="n"/>
       <c r="P3" s="3" t="n"/>
+      <c r="Q3" s="3" t="n"/>
     </row>
     <row r="4" ht="22" customHeight="1">
       <c r="A4" s="3" t="inlineStr">
@@ -9756,6 +9760,7 @@
       <c r="N4" s="3" t="n"/>
       <c r="O4" s="3" t="n"/>
       <c r="P4" s="3" t="n"/>
+      <c r="Q4" s="3" t="n"/>
     </row>
     <row r="5" ht="22" customHeight="1">
       <c r="A5" s="3" t="inlineStr">
@@ -9782,6 +9787,7 @@
       <c r="N5" s="3" t="n"/>
       <c r="O5" s="3" t="n"/>
       <c r="P5" s="3" t="n"/>
+      <c r="Q5" s="3" t="n"/>
     </row>
     <row r="6" ht="22" customHeight="1">
       <c r="A6" s="3" t="inlineStr">
@@ -9808,6 +9814,7 @@
       <c r="N6" s="3" t="n"/>
       <c r="O6" s="3" t="n"/>
       <c r="P6" s="3" t="n"/>
+      <c r="Q6" s="3" t="n"/>
     </row>
     <row r="7" ht="22" customHeight="1">
       <c r="A7" s="3" t="inlineStr">
@@ -9834,6 +9841,7 @@
       <c r="N7" s="3" t="n"/>
       <c r="O7" s="3" t="n"/>
       <c r="P7" s="3" t="n"/>
+      <c r="Q7" s="3" t="n"/>
     </row>
     <row r="8" ht="22" customHeight="1">
       <c r="A8" s="3" t="inlineStr">
@@ -9860,6 +9868,7 @@
       <c r="N8" s="3" t="n"/>
       <c r="O8" s="3" t="n"/>
       <c r="P8" s="3" t="n"/>
+      <c r="Q8" s="3" t="n"/>
     </row>
     <row r="9" ht="22" customHeight="1">
       <c r="A9" s="3" t="inlineStr">
@@ -9886,6 +9895,7 @@
       <c r="N9" s="3" t="n"/>
       <c r="O9" s="3" t="n"/>
       <c r="P9" s="3" t="n"/>
+      <c r="Q9" s="3" t="n"/>
     </row>
     <row r="10" ht="22" customHeight="1">
       <c r="A10" s="3" t="n"/>
@@ -9904,6 +9914,7 @@
       <c r="N10" s="3" t="n"/>
       <c r="O10" s="3" t="n"/>
       <c r="P10" s="3" t="n"/>
+      <c r="Q10" s="3" t="n"/>
     </row>
     <row r="11" ht="22" customHeight="1">
       <c r="A11" s="3" t="n"/>
@@ -9922,6 +9933,7 @@
       <c r="N11" s="3" t="n"/>
       <c r="O11" s="3" t="n"/>
       <c r="P11" s="3" t="n"/>
+      <c r="Q11" s="3" t="n"/>
     </row>
     <row r="12" ht="22" customHeight="1">
       <c r="A12" s="3" t="n"/>
@@ -9940,6 +9952,7 @@
       <c r="N12" s="3" t="n"/>
       <c r="O12" s="3" t="n"/>
       <c r="P12" s="3" t="n"/>
+      <c r="Q12" s="3" t="n"/>
     </row>
     <row r="13" ht="22" customHeight="1">
       <c r="A13" s="3" t="inlineStr">
@@ -10019,6 +10032,11 @@
       </c>
       <c r="P13" s="3" t="inlineStr">
         <is>
+          <t>Outlier Point</t>
+        </is>
+      </c>
+      <c r="Q13" s="3" t="inlineStr">
+        <is>
           <t>Remark</t>
         </is>
       </c>
@@ -10099,51 +10117,8 @@
           <t>5</t>
         </is>
       </c>
-      <c r="P14" s="3" t="inlineStr">
-        <is>
-          <t>Outliers determined by boxplot method (Q1-1.5IQR, Q3+1.5IQR); Min at loops: 52; Max at loops: 2</t>
-        </is>
-      </c>
-    </row>
-    <row r="15" ht="22" customHeight="1">
-      <c r="A15" s="3" t="n"/>
-      <c r="B15" s="3" t="n"/>
-      <c r="C15" s="3" t="n"/>
-      <c r="D15" s="3" t="n"/>
-      <c r="E15" s="3" t="n"/>
-      <c r="F15" s="3" t="n"/>
-      <c r="G15" s="3" t="n"/>
-      <c r="H15" s="3" t="n"/>
-      <c r="I15" s="3" t="n"/>
-      <c r="J15" s="3" t="n"/>
-      <c r="K15" s="3" t="n"/>
-      <c r="L15" s="3" t="n"/>
-      <c r="M15" s="3" t="n"/>
-      <c r="N15" s="3" t="n"/>
-      <c r="O15" s="3" t="n"/>
-      <c r="P15" s="3" t="n"/>
-    </row>
-    <row r="16" ht="22" customHeight="1">
-      <c r="A16" s="3" t="inlineStr">
-        <is>
-          <t>Outliers are determined based on the boxplot method, where a data point is considered an outlier if it is greater than Q3 + 1.5×IQR or less than Q1 - 1.5×IQR.</t>
-        </is>
-      </c>
-      <c r="B16" s="3" t="n"/>
-      <c r="C16" s="3" t="n"/>
-      <c r="D16" s="3" t="n"/>
-      <c r="E16" s="3" t="n"/>
-      <c r="F16" s="3" t="n"/>
-      <c r="G16" s="3" t="n"/>
-      <c r="H16" s="3" t="n"/>
-      <c r="I16" s="3" t="n"/>
-      <c r="J16" s="3" t="n"/>
-      <c r="K16" s="3" t="n"/>
-      <c r="L16" s="3" t="n"/>
-      <c r="M16" s="3" t="n"/>
-      <c r="N16" s="3" t="n"/>
-      <c r="O16" s="3" t="n"/>
-      <c r="P16" s="3" t="n"/>
+      <c r="P14" s="3" t="n"/>
+      <c r="Q14" s="3" t="n"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
